--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>DLAKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39356700</v>
+        <v>40343200</v>
       </c>
       <c r="E8" s="3">
-        <v>39065700</v>
+        <v>39366300</v>
       </c>
       <c r="F8" s="3">
-        <v>34762700</v>
+        <v>39407300</v>
       </c>
       <c r="G8" s="3">
-        <v>35197500</v>
+        <v>35066600</v>
       </c>
       <c r="H8" s="3">
-        <v>32952100</v>
+        <v>35505200</v>
       </c>
       <c r="I8" s="3">
-        <v>32969600</v>
+        <v>33240200</v>
       </c>
       <c r="J8" s="3">
+        <v>33257900</v>
+      </c>
+      <c r="K8" s="3">
         <v>33088200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33728300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19915500</v>
+        <v>21201700</v>
       </c>
       <c r="E9" s="3">
-        <v>20411800</v>
+        <v>19755200</v>
       </c>
       <c r="F9" s="3">
-        <v>18681400</v>
+        <v>20590300</v>
       </c>
       <c r="G9" s="3">
-        <v>19145800</v>
+        <v>18844700</v>
       </c>
       <c r="H9" s="3">
-        <v>18744000</v>
+        <v>19313200</v>
       </c>
       <c r="I9" s="3">
-        <v>38091800</v>
+        <v>18907800</v>
       </c>
       <c r="J9" s="3">
+        <v>38424900</v>
+      </c>
+      <c r="K9" s="3">
         <v>19580600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19475900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19441200</v>
+        <v>19141500</v>
       </c>
       <c r="E10" s="3">
-        <v>18653900</v>
+        <v>19611200</v>
       </c>
       <c r="F10" s="3">
-        <v>16081300</v>
+        <v>18817000</v>
       </c>
       <c r="G10" s="3">
-        <v>16051700</v>
+        <v>16221900</v>
       </c>
       <c r="H10" s="3">
-        <v>14208100</v>
+        <v>16192000</v>
       </c>
       <c r="I10" s="3">
-        <v>-5122200</v>
+        <v>14332300</v>
       </c>
       <c r="J10" s="3">
+        <v>-5167000</v>
+      </c>
+      <c r="K10" s="3">
         <v>13507600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14252400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26400</v>
+        <v>486200</v>
       </c>
       <c r="E14" s="3">
-        <v>376600</v>
+        <v>332300</v>
       </c>
       <c r="F14" s="3">
-        <v>203100</v>
+        <v>379900</v>
       </c>
       <c r="G14" s="3">
-        <v>179000</v>
+        <v>204900</v>
       </c>
       <c r="H14" s="3">
-        <v>127400</v>
+        <v>180500</v>
       </c>
       <c r="I14" s="3">
-        <v>422700</v>
+        <v>128500</v>
       </c>
       <c r="J14" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K14" s="3">
         <v>357900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>103300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2394700</v>
+        <v>2981700</v>
       </c>
       <c r="E15" s="3">
-        <v>2238800</v>
+        <v>2415700</v>
       </c>
       <c r="F15" s="3">
-        <v>1741400</v>
+        <v>2258400</v>
       </c>
       <c r="G15" s="3">
-        <v>1708500</v>
+        <v>1756700</v>
       </c>
       <c r="H15" s="3">
-        <v>1567900</v>
+        <v>1723400</v>
       </c>
       <c r="I15" s="3">
-        <v>3578400</v>
+        <v>1581700</v>
       </c>
       <c r="J15" s="3">
+        <v>3609700</v>
+      </c>
+      <c r="K15" s="3">
         <v>1890800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1952000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36282300</v>
+        <v>38472500</v>
       </c>
       <c r="E17" s="3">
-        <v>35618000</v>
+        <v>36265000</v>
       </c>
       <c r="F17" s="3">
-        <v>32358100</v>
+        <v>35929400</v>
       </c>
       <c r="G17" s="3">
-        <v>33490100</v>
+        <v>32641000</v>
       </c>
       <c r="H17" s="3">
-        <v>31986900</v>
+        <v>33782900</v>
       </c>
       <c r="I17" s="3">
-        <v>32038500</v>
+        <v>32266600</v>
       </c>
       <c r="J17" s="3">
+        <v>32318700</v>
+      </c>
+      <c r="K17" s="3">
         <v>31339100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32864300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3074400</v>
+        <v>1870700</v>
       </c>
       <c r="E18" s="3">
-        <v>3447700</v>
+        <v>3101300</v>
       </c>
       <c r="F18" s="3">
-        <v>2404600</v>
+        <v>3477900</v>
       </c>
       <c r="G18" s="3">
-        <v>1707400</v>
+        <v>2425600</v>
       </c>
       <c r="H18" s="3">
-        <v>965100</v>
+        <v>1722300</v>
       </c>
       <c r="I18" s="3">
-        <v>931100</v>
+        <v>973600</v>
       </c>
       <c r="J18" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1749100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>863900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>99900</v>
+        <v>497300</v>
       </c>
       <c r="E20" s="3">
-        <v>248100</v>
+        <v>100800</v>
       </c>
       <c r="F20" s="3">
-        <v>206400</v>
+        <v>250300</v>
       </c>
       <c r="G20" s="3">
-        <v>697200</v>
+        <v>208200</v>
       </c>
       <c r="H20" s="3">
-        <v>-500700</v>
+        <v>703300</v>
       </c>
       <c r="I20" s="3">
-        <v>361200</v>
+        <v>-505100</v>
       </c>
       <c r="J20" s="3">
+        <v>364400</v>
+      </c>
+      <c r="K20" s="3">
         <v>58200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5569500</v>
+        <v>5380700</v>
       </c>
       <c r="E21" s="3">
-        <v>6225200</v>
+        <v>5598500</v>
       </c>
       <c r="F21" s="3">
-        <v>4552000</v>
+        <v>6258900</v>
       </c>
       <c r="G21" s="3">
-        <v>4282900</v>
+        <v>4575900</v>
       </c>
       <c r="H21" s="3">
-        <v>2131600</v>
+        <v>4305000</v>
       </c>
       <c r="I21" s="3">
-        <v>3204700</v>
+        <v>2136600</v>
       </c>
       <c r="J21" s="3">
+        <v>3217100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3924200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3002900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>117500</v>
+        <v>307900</v>
       </c>
       <c r="E22" s="3">
-        <v>228400</v>
+        <v>118500</v>
       </c>
       <c r="F22" s="3">
-        <v>142700</v>
+        <v>230400</v>
       </c>
       <c r="G22" s="3">
-        <v>180100</v>
+        <v>144000</v>
       </c>
       <c r="H22" s="3">
-        <v>266800</v>
+        <v>181600</v>
       </c>
       <c r="I22" s="3">
-        <v>692800</v>
+        <v>269100</v>
       </c>
       <c r="J22" s="3">
+        <v>698900</v>
+      </c>
+      <c r="K22" s="3">
         <v>384300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>388500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3056800</v>
+        <v>2060100</v>
       </c>
       <c r="E23" s="3">
-        <v>3467500</v>
+        <v>3083600</v>
       </c>
       <c r="F23" s="3">
-        <v>2468300</v>
+        <v>3497800</v>
       </c>
       <c r="G23" s="3">
-        <v>2224500</v>
+        <v>2489900</v>
       </c>
       <c r="H23" s="3">
-        <v>197600</v>
+        <v>2244000</v>
       </c>
       <c r="I23" s="3">
-        <v>599500</v>
+        <v>199400</v>
       </c>
       <c r="J23" s="3">
+        <v>604700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1423000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>523500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>645600</v>
+        <v>681200</v>
       </c>
       <c r="E24" s="3">
-        <v>860800</v>
+        <v>651300</v>
       </c>
       <c r="F24" s="3">
-        <v>488600</v>
+        <v>868400</v>
       </c>
       <c r="G24" s="3">
-        <v>333800</v>
+        <v>492900</v>
       </c>
       <c r="H24" s="3">
-        <v>115300</v>
+        <v>336700</v>
       </c>
       <c r="I24" s="3">
-        <v>241600</v>
+        <v>116300</v>
       </c>
       <c r="J24" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K24" s="3">
         <v>99900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>184300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2411200</v>
+        <v>1379000</v>
       </c>
       <c r="E26" s="3">
-        <v>2606700</v>
+        <v>2432300</v>
       </c>
       <c r="F26" s="3">
-        <v>1979700</v>
+        <v>2629400</v>
       </c>
       <c r="G26" s="3">
-        <v>1890800</v>
+        <v>1997000</v>
       </c>
       <c r="H26" s="3">
-        <v>82400</v>
+        <v>1907300</v>
       </c>
       <c r="I26" s="3">
-        <v>357900</v>
+        <v>83100</v>
       </c>
       <c r="J26" s="3">
+        <v>361100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1323100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>339200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2375000</v>
+        <v>1343500</v>
       </c>
       <c r="E27" s="3">
-        <v>2569300</v>
+        <v>2395700</v>
       </c>
       <c r="F27" s="3">
-        <v>1950000</v>
+        <v>2591800</v>
       </c>
       <c r="G27" s="3">
-        <v>1864400</v>
+        <v>1967100</v>
       </c>
       <c r="H27" s="3">
-        <v>60400</v>
+        <v>1880700</v>
       </c>
       <c r="I27" s="3">
-        <v>343700</v>
+        <v>60900</v>
       </c>
       <c r="J27" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1308800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>319300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1307,18 +1367,21 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>39500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-334500</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-99900</v>
+        <v>-497300</v>
       </c>
       <c r="E32" s="3">
-        <v>-248100</v>
+        <v>-100800</v>
       </c>
       <c r="F32" s="3">
-        <v>-206400</v>
+        <v>-250300</v>
       </c>
       <c r="G32" s="3">
-        <v>-697200</v>
+        <v>-208200</v>
       </c>
       <c r="H32" s="3">
-        <v>500700</v>
+        <v>-703300</v>
       </c>
       <c r="I32" s="3">
-        <v>-361200</v>
+        <v>505100</v>
       </c>
       <c r="J32" s="3">
+        <v>-364400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-58200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2375000</v>
+        <v>1343500</v>
       </c>
       <c r="E33" s="3">
-        <v>2569300</v>
+        <v>2395700</v>
       </c>
       <c r="F33" s="3">
-        <v>1950000</v>
+        <v>2591800</v>
       </c>
       <c r="G33" s="3">
-        <v>1864400</v>
+        <v>1967100</v>
       </c>
       <c r="H33" s="3">
-        <v>60400</v>
+        <v>1880700</v>
       </c>
       <c r="I33" s="3">
-        <v>343700</v>
+        <v>60900</v>
       </c>
       <c r="J33" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1348300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2375000</v>
+        <v>1343500</v>
       </c>
       <c r="E35" s="3">
-        <v>2569300</v>
+        <v>2395700</v>
       </c>
       <c r="F35" s="3">
-        <v>1950000</v>
+        <v>2591800</v>
       </c>
       <c r="G35" s="3">
-        <v>1864400</v>
+        <v>1967100</v>
       </c>
       <c r="H35" s="3">
-        <v>60400</v>
+        <v>1880700</v>
       </c>
       <c r="I35" s="3">
-        <v>343700</v>
+        <v>60900</v>
       </c>
       <c r="J35" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1348300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1574500</v>
+        <v>1570400</v>
       </c>
       <c r="E41" s="3">
-        <v>1337400</v>
+        <v>1591500</v>
       </c>
       <c r="F41" s="3">
-        <v>1249500</v>
+        <v>1351700</v>
       </c>
       <c r="G41" s="3">
-        <v>1093600</v>
+        <v>1263000</v>
       </c>
       <c r="H41" s="3">
-        <v>909100</v>
+        <v>1105400</v>
       </c>
       <c r="I41" s="3">
-        <v>3249000</v>
+        <v>918900</v>
       </c>
       <c r="J41" s="3">
+        <v>3283900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3150200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2062400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1977500</v>
+        <v>2186300</v>
       </c>
       <c r="E42" s="3">
-        <v>2997500</v>
+        <v>1998700</v>
       </c>
       <c r="F42" s="3">
-        <v>3073300</v>
+        <v>3029800</v>
       </c>
       <c r="G42" s="3">
-        <v>2302500</v>
+        <v>3106300</v>
       </c>
       <c r="H42" s="3">
-        <v>2097200</v>
+        <v>2327300</v>
       </c>
       <c r="I42" s="3">
-        <v>3613500</v>
+        <v>2119700</v>
       </c>
       <c r="J42" s="3">
+        <v>3652400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3875900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3651700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6443100</v>
+        <v>6489000</v>
       </c>
       <c r="E43" s="3">
-        <v>5897400</v>
+        <v>6512300</v>
       </c>
       <c r="F43" s="3">
-        <v>5058500</v>
+        <v>5960700</v>
       </c>
       <c r="G43" s="3">
-        <v>4912500</v>
+        <v>5112800</v>
       </c>
       <c r="H43" s="3">
-        <v>4520500</v>
+        <v>4965200</v>
       </c>
       <c r="I43" s="3">
-        <v>11912200</v>
+        <v>4569000</v>
       </c>
       <c r="J43" s="3">
+        <v>12040200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11957200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8233100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1062900</v>
+        <v>1087600</v>
       </c>
       <c r="E44" s="3">
-        <v>995900</v>
+        <v>1074300</v>
       </c>
       <c r="F44" s="3">
-        <v>896000</v>
+        <v>1006600</v>
       </c>
       <c r="G44" s="3">
-        <v>835600</v>
+        <v>905600</v>
       </c>
       <c r="H44" s="3">
-        <v>768600</v>
+        <v>844600</v>
       </c>
       <c r="I44" s="3">
-        <v>1407600</v>
+        <v>776900</v>
       </c>
       <c r="J44" s="3">
+        <v>1422800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1525100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1455500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>640100</v>
+        <v>1190800</v>
       </c>
       <c r="E45" s="3">
-        <v>881700</v>
+        <v>647000</v>
       </c>
       <c r="F45" s="3">
-        <v>914600</v>
+        <v>891200</v>
       </c>
       <c r="G45" s="3">
-        <v>667600</v>
+        <v>924500</v>
       </c>
       <c r="H45" s="3">
-        <v>759800</v>
+        <v>674800</v>
       </c>
       <c r="I45" s="3">
-        <v>744400</v>
+        <v>768000</v>
       </c>
       <c r="J45" s="3">
+        <v>752400</v>
+      </c>
+      <c r="K45" s="3">
         <v>815800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2517800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11698100</v>
+        <v>12524100</v>
       </c>
       <c r="E46" s="3">
-        <v>12109800</v>
+        <v>11823800</v>
       </c>
       <c r="F46" s="3">
-        <v>11191900</v>
+        <v>12240000</v>
       </c>
       <c r="G46" s="3">
-        <v>9811700</v>
+        <v>11312200</v>
       </c>
       <c r="H46" s="3">
-        <v>9055200</v>
+        <v>9917200</v>
       </c>
       <c r="I46" s="3">
-        <v>10638500</v>
+        <v>9152500</v>
       </c>
       <c r="J46" s="3">
+        <v>10752900</v>
+      </c>
+      <c r="K46" s="3">
         <v>10761500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11111300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1602000</v>
+        <v>1644700</v>
       </c>
       <c r="E47" s="3">
-        <v>1454900</v>
+        <v>1619200</v>
       </c>
       <c r="F47" s="3">
-        <v>1392300</v>
+        <v>1470500</v>
       </c>
       <c r="G47" s="3">
-        <v>1395600</v>
+        <v>1407200</v>
       </c>
       <c r="H47" s="3">
-        <v>1951100</v>
+        <v>1410600</v>
       </c>
       <c r="I47" s="3">
-        <v>1647000</v>
+        <v>1972100</v>
       </c>
       <c r="J47" s="3">
+        <v>1664700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1922600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3318400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20858700</v>
+        <v>24848400</v>
       </c>
       <c r="E48" s="3">
-        <v>19237000</v>
+        <v>21082900</v>
       </c>
       <c r="F48" s="3">
-        <v>18662700</v>
+        <v>19443700</v>
       </c>
       <c r="G48" s="3">
-        <v>18406900</v>
+        <v>18863300</v>
       </c>
       <c r="H48" s="3">
-        <v>17217700</v>
+        <v>18604700</v>
       </c>
       <c r="I48" s="3">
-        <v>16689600</v>
+        <v>17402800</v>
       </c>
       <c r="J48" s="3">
+        <v>16869000</v>
+      </c>
+      <c r="K48" s="3">
         <v>12216300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>247700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2078500</v>
+        <v>2155200</v>
       </c>
       <c r="E49" s="3">
-        <v>2014800</v>
+        <v>2100900</v>
       </c>
       <c r="F49" s="3">
-        <v>1907200</v>
+        <v>2036500</v>
       </c>
       <c r="G49" s="3">
-        <v>1819400</v>
+        <v>1927700</v>
       </c>
       <c r="H49" s="3">
-        <v>1742500</v>
+        <v>1838900</v>
       </c>
       <c r="I49" s="3">
-        <v>4540200</v>
+        <v>1761300</v>
       </c>
       <c r="J49" s="3">
+        <v>4589000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5617400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3697500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5720600</v>
+        <v>6170500</v>
       </c>
       <c r="E52" s="3">
-        <v>4468900</v>
+        <v>5782100</v>
       </c>
       <c r="F52" s="3">
-        <v>4943200</v>
+        <v>4516900</v>
       </c>
       <c r="G52" s="3">
-        <v>4209700</v>
+        <v>4996300</v>
       </c>
       <c r="H52" s="3">
-        <v>3493800</v>
+        <v>4255000</v>
       </c>
       <c r="I52" s="3">
-        <v>2121300</v>
+        <v>3531400</v>
       </c>
       <c r="J52" s="3">
+        <v>2144100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3152400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2609400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41957900</v>
+        <v>47343000</v>
       </c>
       <c r="E54" s="3">
-        <v>39284200</v>
+        <v>42408800</v>
       </c>
       <c r="F54" s="3">
-        <v>38097300</v>
+        <v>39706400</v>
       </c>
       <c r="G54" s="3">
-        <v>35643300</v>
+        <v>38506700</v>
       </c>
       <c r="H54" s="3">
-        <v>33460500</v>
+        <v>36026300</v>
       </c>
       <c r="I54" s="3">
-        <v>31960600</v>
+        <v>33820000</v>
       </c>
       <c r="J54" s="3">
+        <v>32304100</v>
+      </c>
+      <c r="K54" s="3">
         <v>31379700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32912500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4295400</v>
+        <v>4130700</v>
       </c>
       <c r="E57" s="3">
-        <v>3767200</v>
+        <v>4341500</v>
       </c>
       <c r="F57" s="3">
-        <v>3367600</v>
+        <v>3807700</v>
       </c>
       <c r="G57" s="3">
-        <v>3236900</v>
+        <v>3403800</v>
       </c>
       <c r="H57" s="3">
-        <v>3231400</v>
+        <v>3271700</v>
       </c>
       <c r="I57" s="3">
-        <v>8313000</v>
+        <v>3266100</v>
       </c>
       <c r="J57" s="3">
+        <v>8402300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4652200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4961700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1884200</v>
+        <v>1832300</v>
       </c>
       <c r="E58" s="3">
-        <v>757600</v>
+        <v>1904400</v>
       </c>
       <c r="F58" s="3">
-        <v>908000</v>
+        <v>765800</v>
       </c>
       <c r="G58" s="3">
-        <v>1547100</v>
+        <v>917800</v>
       </c>
       <c r="H58" s="3">
-        <v>869600</v>
+        <v>1563700</v>
       </c>
       <c r="I58" s="3">
-        <v>5110100</v>
+        <v>879000</v>
       </c>
       <c r="J58" s="3">
+        <v>5165000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2124600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1446100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11624500</v>
+        <v>11778300</v>
       </c>
       <c r="E59" s="3">
-        <v>9351700</v>
+        <v>11749500</v>
       </c>
       <c r="F59" s="3">
-        <v>7812300</v>
+        <v>9452200</v>
       </c>
       <c r="G59" s="3">
-        <v>8871800</v>
+        <v>7896200</v>
       </c>
       <c r="H59" s="3">
-        <v>7948400</v>
+        <v>8967200</v>
       </c>
       <c r="I59" s="3">
-        <v>11084300</v>
+        <v>8033800</v>
       </c>
       <c r="J59" s="3">
+        <v>11203400</v>
+      </c>
+      <c r="K59" s="3">
         <v>10309100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8550000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17804100</v>
+        <v>17741300</v>
       </c>
       <c r="E60" s="3">
-        <v>13876500</v>
+        <v>17995400</v>
       </c>
       <c r="F60" s="3">
-        <v>12087900</v>
+        <v>14025700</v>
       </c>
       <c r="G60" s="3">
-        <v>13655800</v>
+        <v>12217800</v>
       </c>
       <c r="H60" s="3">
-        <v>12049500</v>
+        <v>13802600</v>
       </c>
       <c r="I60" s="3">
-        <v>12029700</v>
+        <v>12178900</v>
       </c>
       <c r="J60" s="3">
+        <v>12159000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10709900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11463400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5498800</v>
+        <v>9317900</v>
       </c>
       <c r="E61" s="3">
-        <v>6743900</v>
+        <v>5557900</v>
       </c>
       <c r="F61" s="3">
-        <v>6380500</v>
+        <v>6816400</v>
       </c>
       <c r="G61" s="3">
-        <v>5524000</v>
+        <v>6449000</v>
       </c>
       <c r="H61" s="3">
-        <v>5889700</v>
+        <v>5583400</v>
       </c>
       <c r="I61" s="3">
-        <v>5295700</v>
+        <v>5953000</v>
       </c>
       <c r="J61" s="3">
+        <v>5352600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6529800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6817500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8143900</v>
+        <v>8901700</v>
       </c>
       <c r="E62" s="3">
-        <v>8661000</v>
+        <v>8231400</v>
       </c>
       <c r="F62" s="3">
-        <v>11779300</v>
+        <v>8754100</v>
       </c>
       <c r="G62" s="3">
-        <v>10045600</v>
+        <v>11905900</v>
       </c>
       <c r="H62" s="3">
-        <v>11095300</v>
+        <v>10153600</v>
       </c>
       <c r="I62" s="3">
-        <v>10048900</v>
+        <v>11214500</v>
       </c>
       <c r="J62" s="3">
+        <v>10156900</v>
+      </c>
+      <c r="K62" s="3">
         <v>10103800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9266100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31567500</v>
+        <v>36081800</v>
       </c>
       <c r="E66" s="3">
-        <v>29394600</v>
+        <v>31906700</v>
       </c>
       <c r="F66" s="3">
-        <v>30345400</v>
+        <v>29710500</v>
       </c>
       <c r="G66" s="3">
-        <v>29310000</v>
+        <v>30671500</v>
       </c>
       <c r="H66" s="3">
-        <v>29103600</v>
+        <v>29625000</v>
       </c>
       <c r="I66" s="3">
-        <v>25311100</v>
+        <v>29416400</v>
       </c>
       <c r="J66" s="3">
+        <v>25583100</v>
+      </c>
+      <c r="K66" s="3">
         <v>26132400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26301600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7732100</v>
+        <v>7970600</v>
       </c>
       <c r="E72" s="3">
-        <v>7016200</v>
+        <v>7815200</v>
       </c>
       <c r="F72" s="3">
-        <v>4008800</v>
+        <v>7091600</v>
       </c>
       <c r="G72" s="3">
-        <v>3983500</v>
+        <v>4051900</v>
       </c>
       <c r="H72" s="3">
-        <v>1763400</v>
+        <v>4026400</v>
       </c>
       <c r="I72" s="3">
-        <v>3460900</v>
+        <v>1782300</v>
       </c>
       <c r="J72" s="3">
+        <v>3498100</v>
+      </c>
+      <c r="K72" s="3">
         <v>7758500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8192000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10390400</v>
+        <v>11261100</v>
       </c>
       <c r="E76" s="3">
-        <v>9889700</v>
+        <v>10502000</v>
       </c>
       <c r="F76" s="3">
-        <v>7751900</v>
+        <v>9996000</v>
       </c>
       <c r="G76" s="3">
-        <v>6333300</v>
+        <v>7835200</v>
       </c>
       <c r="H76" s="3">
-        <v>4356900</v>
+        <v>6401300</v>
       </c>
       <c r="I76" s="3">
-        <v>6649500</v>
+        <v>4403700</v>
       </c>
       <c r="J76" s="3">
+        <v>6720900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5247300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6610900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2375000</v>
+        <v>1343500</v>
       </c>
       <c r="E81" s="3">
-        <v>2569300</v>
+        <v>2395700</v>
       </c>
       <c r="F81" s="3">
-        <v>1950000</v>
+        <v>2591800</v>
       </c>
       <c r="G81" s="3">
-        <v>1864400</v>
+        <v>1967100</v>
       </c>
       <c r="H81" s="3">
-        <v>60400</v>
+        <v>1880700</v>
       </c>
       <c r="I81" s="3">
-        <v>343700</v>
+        <v>60900</v>
       </c>
       <c r="J81" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1348300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2391400</v>
+        <v>3032600</v>
       </c>
       <c r="E83" s="3">
-        <v>2525400</v>
+        <v>2412400</v>
       </c>
       <c r="F83" s="3">
-        <v>1938000</v>
+        <v>2547500</v>
       </c>
       <c r="G83" s="3">
-        <v>1875400</v>
+        <v>1954900</v>
       </c>
       <c r="H83" s="3">
-        <v>1664600</v>
+        <v>1891800</v>
       </c>
       <c r="I83" s="3">
-        <v>1909400</v>
+        <v>1679100</v>
       </c>
       <c r="J83" s="3">
+        <v>1926100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2113700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2089400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4511700</v>
+        <v>4445900</v>
       </c>
       <c r="E89" s="3">
-        <v>5894100</v>
+        <v>4551100</v>
       </c>
       <c r="F89" s="3">
-        <v>3564100</v>
+        <v>5945600</v>
       </c>
       <c r="G89" s="3">
-        <v>3725500</v>
+        <v>3595300</v>
       </c>
       <c r="H89" s="3">
-        <v>2170700</v>
+        <v>3758100</v>
       </c>
       <c r="I89" s="3">
-        <v>3612400</v>
+        <v>2189700</v>
       </c>
       <c r="J89" s="3">
+        <v>3644000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3120500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2711500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4072500</v>
+        <v>-3861100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3665100</v>
+        <v>-4108100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2371700</v>
+        <v>-3697200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2694500</v>
+        <v>-2392400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2963500</v>
+        <v>-2718100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2683500</v>
+        <v>-2989400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2707000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2516600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2870000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3589400</v>
+        <v>-4283100</v>
       </c>
       <c r="E94" s="3">
-        <v>-5496600</v>
+        <v>-3620700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3106200</v>
+        <v>-5544600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3593800</v>
+        <v>-3133400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1636000</v>
+        <v>-3625200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2639600</v>
+        <v>-1650300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2662700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2404600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-383200</v>
+        <v>-458500</v>
       </c>
       <c r="E96" s="3">
-        <v>-254700</v>
+        <v>-386600</v>
       </c>
       <c r="F96" s="3">
-        <v>-255800</v>
+        <v>-257000</v>
       </c>
       <c r="G96" s="3">
-        <v>-15400</v>
+        <v>-258100</v>
       </c>
       <c r="H96" s="3">
-        <v>-243800</v>
+        <v>-15500</v>
       </c>
       <c r="I96" s="3">
-        <v>-15400</v>
+        <v>-245900</v>
       </c>
       <c r="J96" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-143800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-347400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-687300</v>
+        <v>-178300</v>
       </c>
       <c r="E100" s="3">
-        <v>-269000</v>
+        <v>-693400</v>
       </c>
       <c r="F100" s="3">
-        <v>-298700</v>
+        <v>-271400</v>
       </c>
       <c r="G100" s="3">
-        <v>28500</v>
+        <v>-301300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1177100</v>
+        <v>28800</v>
       </c>
       <c r="I100" s="3">
-        <v>-992600</v>
+        <v>-1187300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1001300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-121900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1668000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-40600</v>
-      </c>
       <c r="F101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3300</v>
       </c>
-      <c r="G101" s="3">
-        <v>24200</v>
-      </c>
       <c r="H101" s="3">
+        <v>24400</v>
+      </c>
+      <c r="I101" s="3">
         <v>6600</v>
       </c>
-      <c r="I101" s="3">
-        <v>-14300</v>
-      </c>
       <c r="J101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K101" s="3">
         <v>8800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>237200</v>
+        <v>-21000</v>
       </c>
       <c r="E102" s="3">
-        <v>87800</v>
+        <v>239200</v>
       </c>
       <c r="F102" s="3">
-        <v>155900</v>
+        <v>88600</v>
       </c>
       <c r="G102" s="3">
-        <v>184500</v>
+        <v>157300</v>
       </c>
       <c r="H102" s="3">
-        <v>-635700</v>
+        <v>186100</v>
       </c>
       <c r="I102" s="3">
-        <v>-34000</v>
+        <v>-641300</v>
       </c>
       <c r="J102" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K102" s="3">
         <v>602800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-246500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40343200</v>
+        <v>43085900</v>
       </c>
       <c r="E8" s="3">
-        <v>39366300</v>
+        <v>42042600</v>
       </c>
       <c r="F8" s="3">
-        <v>39407300</v>
+        <v>42086400</v>
       </c>
       <c r="G8" s="3">
-        <v>35066600</v>
+        <v>37450600</v>
       </c>
       <c r="H8" s="3">
-        <v>35505200</v>
+        <v>37919000</v>
       </c>
       <c r="I8" s="3">
-        <v>33240200</v>
+        <v>35500000</v>
       </c>
       <c r="J8" s="3">
-        <v>33257900</v>
+        <v>35518900</v>
       </c>
       <c r="K8" s="3">
         <v>33088200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21201700</v>
+        <v>22643100</v>
       </c>
       <c r="E9" s="3">
-        <v>19755200</v>
+        <v>21098200</v>
       </c>
       <c r="F9" s="3">
-        <v>20590300</v>
+        <v>21990100</v>
       </c>
       <c r="G9" s="3">
-        <v>18844700</v>
+        <v>20125900</v>
       </c>
       <c r="H9" s="3">
-        <v>19313200</v>
+        <v>20626200</v>
       </c>
       <c r="I9" s="3">
-        <v>18907800</v>
+        <v>20193300</v>
       </c>
       <c r="J9" s="3">
-        <v>38424900</v>
+        <v>41037200</v>
       </c>
       <c r="K9" s="3">
         <v>19580600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19141500</v>
+        <v>20442900</v>
       </c>
       <c r="E10" s="3">
-        <v>19611200</v>
+        <v>20944400</v>
       </c>
       <c r="F10" s="3">
-        <v>18817000</v>
+        <v>20096300</v>
       </c>
       <c r="G10" s="3">
-        <v>16221900</v>
+        <v>17324800</v>
       </c>
       <c r="H10" s="3">
-        <v>16192000</v>
+        <v>17292800</v>
       </c>
       <c r="I10" s="3">
-        <v>14332300</v>
+        <v>15306700</v>
       </c>
       <c r="J10" s="3">
-        <v>-5167000</v>
+        <v>-5518200</v>
       </c>
       <c r="K10" s="3">
         <v>13507600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>486200</v>
+        <v>105300</v>
       </c>
       <c r="E14" s="3">
-        <v>332300</v>
+        <v>39000</v>
       </c>
       <c r="F14" s="3">
-        <v>379900</v>
+        <v>307600</v>
       </c>
       <c r="G14" s="3">
-        <v>204900</v>
+        <v>207000</v>
       </c>
       <c r="H14" s="3">
-        <v>180500</v>
+        <v>183300</v>
       </c>
       <c r="I14" s="3">
-        <v>128500</v>
+        <v>92300</v>
       </c>
       <c r="J14" s="3">
-        <v>426400</v>
+        <v>443600</v>
       </c>
       <c r="K14" s="3">
         <v>357900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2981700</v>
+        <v>3184400</v>
       </c>
       <c r="E15" s="3">
-        <v>2415700</v>
+        <v>2579900</v>
       </c>
       <c r="F15" s="3">
-        <v>2258400</v>
+        <v>2411900</v>
       </c>
       <c r="G15" s="3">
-        <v>1756700</v>
+        <v>1876100</v>
       </c>
       <c r="H15" s="3">
-        <v>1723400</v>
+        <v>1840600</v>
       </c>
       <c r="I15" s="3">
-        <v>1581700</v>
+        <v>1689200</v>
       </c>
       <c r="J15" s="3">
-        <v>3609700</v>
+        <v>3855100</v>
       </c>
       <c r="K15" s="3">
         <v>1890800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38472500</v>
+        <v>41088000</v>
       </c>
       <c r="E17" s="3">
-        <v>36265000</v>
+        <v>38730500</v>
       </c>
       <c r="F17" s="3">
-        <v>35929400</v>
+        <v>38372100</v>
       </c>
       <c r="G17" s="3">
-        <v>32641000</v>
+        <v>34860100</v>
       </c>
       <c r="H17" s="3">
-        <v>33782900</v>
+        <v>36079600</v>
       </c>
       <c r="I17" s="3">
-        <v>32266600</v>
+        <v>34460200</v>
       </c>
       <c r="J17" s="3">
-        <v>32318700</v>
+        <v>34515800</v>
       </c>
       <c r="K17" s="3">
         <v>31339100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1870700</v>
+        <v>1997900</v>
       </c>
       <c r="E18" s="3">
-        <v>3101300</v>
+        <v>3312100</v>
       </c>
       <c r="F18" s="3">
-        <v>3477900</v>
+        <v>3714300</v>
       </c>
       <c r="G18" s="3">
-        <v>2425600</v>
+        <v>2590600</v>
       </c>
       <c r="H18" s="3">
-        <v>1722300</v>
+        <v>1839400</v>
       </c>
       <c r="I18" s="3">
-        <v>973600</v>
+        <v>1039800</v>
       </c>
       <c r="J18" s="3">
-        <v>939200</v>
+        <v>1003100</v>
       </c>
       <c r="K18" s="3">
         <v>1749100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>497300</v>
+        <v>531100</v>
       </c>
       <c r="E20" s="3">
-        <v>100800</v>
+        <v>107600</v>
       </c>
       <c r="F20" s="3">
-        <v>250300</v>
+        <v>267300</v>
       </c>
       <c r="G20" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="H20" s="3">
-        <v>703300</v>
+        <v>751100</v>
       </c>
       <c r="I20" s="3">
-        <v>-505100</v>
+        <v>-539400</v>
       </c>
       <c r="J20" s="3">
-        <v>364400</v>
+        <v>389200</v>
       </c>
       <c r="K20" s="3">
         <v>58200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5380700</v>
+        <v>5768900</v>
       </c>
       <c r="E21" s="3">
-        <v>5598500</v>
+        <v>5997000</v>
       </c>
       <c r="F21" s="3">
-        <v>6258900</v>
+        <v>6703300</v>
       </c>
       <c r="G21" s="3">
-        <v>4575900</v>
+        <v>4901500</v>
       </c>
       <c r="H21" s="3">
-        <v>4305000</v>
+        <v>4611600</v>
       </c>
       <c r="I21" s="3">
-        <v>2136600</v>
+        <v>2294300</v>
       </c>
       <c r="J21" s="3">
-        <v>3217100</v>
+        <v>3450000</v>
       </c>
       <c r="K21" s="3">
         <v>3924200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>307900</v>
+        <v>328800</v>
       </c>
       <c r="E22" s="3">
-        <v>118500</v>
+        <v>126600</v>
       </c>
       <c r="F22" s="3">
-        <v>230400</v>
+        <v>246000</v>
       </c>
       <c r="G22" s="3">
-        <v>144000</v>
+        <v>153800</v>
       </c>
       <c r="H22" s="3">
-        <v>181600</v>
+        <v>194000</v>
       </c>
       <c r="I22" s="3">
-        <v>269100</v>
+        <v>287400</v>
       </c>
       <c r="J22" s="3">
-        <v>698900</v>
+        <v>746400</v>
       </c>
       <c r="K22" s="3">
         <v>384300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2060100</v>
+        <v>2200200</v>
       </c>
       <c r="E23" s="3">
-        <v>3083600</v>
+        <v>3293200</v>
       </c>
       <c r="F23" s="3">
-        <v>3497800</v>
+        <v>3735600</v>
       </c>
       <c r="G23" s="3">
-        <v>2489900</v>
+        <v>2659200</v>
       </c>
       <c r="H23" s="3">
-        <v>2244000</v>
+        <v>2396600</v>
       </c>
       <c r="I23" s="3">
-        <v>199400</v>
+        <v>212900</v>
       </c>
       <c r="J23" s="3">
-        <v>604700</v>
+        <v>645900</v>
       </c>
       <c r="K23" s="3">
         <v>1423000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>681200</v>
+        <v>727500</v>
       </c>
       <c r="E24" s="3">
-        <v>651300</v>
+        <v>695500</v>
       </c>
       <c r="F24" s="3">
-        <v>868400</v>
+        <v>927400</v>
       </c>
       <c r="G24" s="3">
-        <v>492900</v>
+        <v>526400</v>
       </c>
       <c r="H24" s="3">
-        <v>336700</v>
+        <v>359600</v>
       </c>
       <c r="I24" s="3">
-        <v>116300</v>
+        <v>124200</v>
       </c>
       <c r="J24" s="3">
-        <v>243700</v>
+        <v>260200</v>
       </c>
       <c r="K24" s="3">
         <v>99900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1379000</v>
+        <v>1472700</v>
       </c>
       <c r="E26" s="3">
-        <v>2432300</v>
+        <v>2597600</v>
       </c>
       <c r="F26" s="3">
-        <v>2629400</v>
+        <v>2808200</v>
       </c>
       <c r="G26" s="3">
-        <v>1997000</v>
+        <v>2132800</v>
       </c>
       <c r="H26" s="3">
-        <v>1907300</v>
+        <v>2037000</v>
       </c>
       <c r="I26" s="3">
-        <v>83100</v>
+        <v>88700</v>
       </c>
       <c r="J26" s="3">
-        <v>361100</v>
+        <v>385600</v>
       </c>
       <c r="K26" s="3">
         <v>1323100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1343500</v>
+        <v>1434900</v>
       </c>
       <c r="E27" s="3">
-        <v>2395700</v>
+        <v>2558600</v>
       </c>
       <c r="F27" s="3">
-        <v>2591800</v>
+        <v>2768000</v>
       </c>
       <c r="G27" s="3">
-        <v>1967100</v>
+        <v>2100800</v>
       </c>
       <c r="H27" s="3">
-        <v>1880700</v>
+        <v>2008600</v>
       </c>
       <c r="I27" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="J27" s="3">
-        <v>346700</v>
+        <v>370200</v>
       </c>
       <c r="K27" s="3">
         <v>1308800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-497300</v>
+        <v>-531100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100800</v>
+        <v>-107600</v>
       </c>
       <c r="F32" s="3">
-        <v>-250300</v>
+        <v>-267300</v>
       </c>
       <c r="G32" s="3">
-        <v>-208200</v>
+        <v>-222400</v>
       </c>
       <c r="H32" s="3">
-        <v>-703300</v>
+        <v>-751100</v>
       </c>
       <c r="I32" s="3">
-        <v>505100</v>
+        <v>539400</v>
       </c>
       <c r="J32" s="3">
-        <v>-364400</v>
+        <v>-389200</v>
       </c>
       <c r="K32" s="3">
         <v>-58200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1343500</v>
+        <v>1434900</v>
       </c>
       <c r="E33" s="3">
-        <v>2395700</v>
+        <v>2558600</v>
       </c>
       <c r="F33" s="3">
-        <v>2591800</v>
+        <v>2768000</v>
       </c>
       <c r="G33" s="3">
-        <v>1967100</v>
+        <v>2100800</v>
       </c>
       <c r="H33" s="3">
-        <v>1880700</v>
+        <v>2008600</v>
       </c>
       <c r="I33" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="J33" s="3">
-        <v>346700</v>
+        <v>370200</v>
       </c>
       <c r="K33" s="3">
         <v>1348300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1343500</v>
+        <v>1434900</v>
       </c>
       <c r="E35" s="3">
-        <v>2395700</v>
+        <v>2558600</v>
       </c>
       <c r="F35" s="3">
-        <v>2591800</v>
+        <v>2768000</v>
       </c>
       <c r="G35" s="3">
-        <v>1967100</v>
+        <v>2100800</v>
       </c>
       <c r="H35" s="3">
-        <v>1880700</v>
+        <v>2008600</v>
       </c>
       <c r="I35" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="J35" s="3">
-        <v>346700</v>
+        <v>370200</v>
       </c>
       <c r="K35" s="3">
         <v>1348300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1570400</v>
+        <v>1673800</v>
       </c>
       <c r="E41" s="3">
-        <v>1591500</v>
+        <v>1696300</v>
       </c>
       <c r="F41" s="3">
-        <v>1351700</v>
+        <v>1440800</v>
       </c>
       <c r="G41" s="3">
-        <v>1263000</v>
+        <v>1346100</v>
       </c>
       <c r="H41" s="3">
-        <v>1105400</v>
+        <v>1178200</v>
       </c>
       <c r="I41" s="3">
-        <v>918900</v>
+        <v>979400</v>
       </c>
       <c r="J41" s="3">
-        <v>3283900</v>
+        <v>3500200</v>
       </c>
       <c r="K41" s="3">
         <v>3150200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2186300</v>
+        <v>2330300</v>
       </c>
       <c r="E42" s="3">
-        <v>1998700</v>
+        <v>2130400</v>
       </c>
       <c r="F42" s="3">
-        <v>3029800</v>
+        <v>3229300</v>
       </c>
       <c r="G42" s="3">
-        <v>3106300</v>
+        <v>3310900</v>
       </c>
       <c r="H42" s="3">
-        <v>2327300</v>
+        <v>2480500</v>
       </c>
       <c r="I42" s="3">
-        <v>2119700</v>
+        <v>2259300</v>
       </c>
       <c r="J42" s="3">
-        <v>3652400</v>
+        <v>3892900</v>
       </c>
       <c r="K42" s="3">
         <v>3875900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6489000</v>
+        <v>6916400</v>
       </c>
       <c r="E43" s="3">
-        <v>6512300</v>
+        <v>6941300</v>
       </c>
       <c r="F43" s="3">
-        <v>5960700</v>
+        <v>6353400</v>
       </c>
       <c r="G43" s="3">
-        <v>5112800</v>
+        <v>5449600</v>
       </c>
       <c r="H43" s="3">
-        <v>4965200</v>
+        <v>5292300</v>
       </c>
       <c r="I43" s="3">
-        <v>4569000</v>
+        <v>4870000</v>
       </c>
       <c r="J43" s="3">
-        <v>12040200</v>
+        <v>12833300</v>
       </c>
       <c r="K43" s="3">
         <v>11957200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1087600</v>
+        <v>1159200</v>
       </c>
       <c r="E44" s="3">
-        <v>1074300</v>
+        <v>1145000</v>
       </c>
       <c r="F44" s="3">
-        <v>1006600</v>
+        <v>1072900</v>
       </c>
       <c r="G44" s="3">
-        <v>905600</v>
+        <v>965200</v>
       </c>
       <c r="H44" s="3">
-        <v>844600</v>
+        <v>900200</v>
       </c>
       <c r="I44" s="3">
-        <v>776900</v>
+        <v>828000</v>
       </c>
       <c r="J44" s="3">
-        <v>1422800</v>
+        <v>1516500</v>
       </c>
       <c r="K44" s="3">
         <v>1525100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1190800</v>
+        <v>1269300</v>
       </c>
       <c r="E45" s="3">
-        <v>647000</v>
+        <v>689600</v>
       </c>
       <c r="F45" s="3">
-        <v>891200</v>
+        <v>949900</v>
       </c>
       <c r="G45" s="3">
-        <v>924500</v>
+        <v>985400</v>
       </c>
       <c r="H45" s="3">
-        <v>674800</v>
+        <v>719200</v>
       </c>
       <c r="I45" s="3">
-        <v>768000</v>
+        <v>818600</v>
       </c>
       <c r="J45" s="3">
-        <v>752400</v>
+        <v>802000</v>
       </c>
       <c r="K45" s="3">
         <v>815800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12524100</v>
+        <v>13349000</v>
       </c>
       <c r="E46" s="3">
-        <v>11823800</v>
+        <v>12602600</v>
       </c>
       <c r="F46" s="3">
-        <v>12240000</v>
+        <v>13046200</v>
       </c>
       <c r="G46" s="3">
-        <v>11312200</v>
+        <v>12057300</v>
       </c>
       <c r="H46" s="3">
-        <v>9917200</v>
+        <v>10570400</v>
       </c>
       <c r="I46" s="3">
-        <v>9152500</v>
+        <v>9755400</v>
       </c>
       <c r="J46" s="3">
-        <v>10752900</v>
+        <v>11461100</v>
       </c>
       <c r="K46" s="3">
         <v>10761500</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1644700</v>
+        <v>1753100</v>
       </c>
       <c r="E47" s="3">
-        <v>1619200</v>
+        <v>1725900</v>
       </c>
       <c r="F47" s="3">
-        <v>1470500</v>
+        <v>1567300</v>
       </c>
       <c r="G47" s="3">
-        <v>1407200</v>
+        <v>1499900</v>
       </c>
       <c r="H47" s="3">
-        <v>1410600</v>
+        <v>1503500</v>
       </c>
       <c r="I47" s="3">
-        <v>1972100</v>
+        <v>2102000</v>
       </c>
       <c r="J47" s="3">
-        <v>1664700</v>
+        <v>1774400</v>
       </c>
       <c r="K47" s="3">
         <v>1922600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24848400</v>
+        <v>26485100</v>
       </c>
       <c r="E48" s="3">
-        <v>21082900</v>
+        <v>22471600</v>
       </c>
       <c r="F48" s="3">
-        <v>19443700</v>
+        <v>20724400</v>
       </c>
       <c r="G48" s="3">
-        <v>18863300</v>
+        <v>20105800</v>
       </c>
       <c r="H48" s="3">
-        <v>18604700</v>
+        <v>19830100</v>
       </c>
       <c r="I48" s="3">
-        <v>17402800</v>
+        <v>18549100</v>
       </c>
       <c r="J48" s="3">
-        <v>16869000</v>
+        <v>17980100</v>
       </c>
       <c r="K48" s="3">
         <v>12216300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2155200</v>
+        <v>2297200</v>
       </c>
       <c r="E49" s="3">
-        <v>2100900</v>
+        <v>2239200</v>
       </c>
       <c r="F49" s="3">
-        <v>2036500</v>
+        <v>2170600</v>
       </c>
       <c r="G49" s="3">
-        <v>1927700</v>
+        <v>2054700</v>
       </c>
       <c r="H49" s="3">
-        <v>1838900</v>
+        <v>1960100</v>
       </c>
       <c r="I49" s="3">
-        <v>1761300</v>
+        <v>1877300</v>
       </c>
       <c r="J49" s="3">
-        <v>4589000</v>
+        <v>4891300</v>
       </c>
       <c r="K49" s="3">
         <v>5617400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6170500</v>
+        <v>6576900</v>
       </c>
       <c r="E52" s="3">
-        <v>5782100</v>
+        <v>6162900</v>
       </c>
       <c r="F52" s="3">
-        <v>4516900</v>
+        <v>4814400</v>
       </c>
       <c r="G52" s="3">
-        <v>4996300</v>
+        <v>5325400</v>
       </c>
       <c r="H52" s="3">
-        <v>4255000</v>
+        <v>4535200</v>
       </c>
       <c r="I52" s="3">
-        <v>3531400</v>
+        <v>3764000</v>
       </c>
       <c r="J52" s="3">
-        <v>2144100</v>
+        <v>2285400</v>
       </c>
       <c r="K52" s="3">
         <v>3152400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47343000</v>
+        <v>50461300</v>
       </c>
       <c r="E54" s="3">
-        <v>42408800</v>
+        <v>45202200</v>
       </c>
       <c r="F54" s="3">
-        <v>39706400</v>
+        <v>42321800</v>
       </c>
       <c r="G54" s="3">
-        <v>38506700</v>
+        <v>41043100</v>
       </c>
       <c r="H54" s="3">
-        <v>36026300</v>
+        <v>38399300</v>
       </c>
       <c r="I54" s="3">
-        <v>33820000</v>
+        <v>36047700</v>
       </c>
       <c r="J54" s="3">
-        <v>32304100</v>
+        <v>34431900</v>
       </c>
       <c r="K54" s="3">
         <v>31379700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4130700</v>
+        <v>4402800</v>
       </c>
       <c r="E57" s="3">
-        <v>4341500</v>
+        <v>4627500</v>
       </c>
       <c r="F57" s="3">
-        <v>3807700</v>
+        <v>4058500</v>
       </c>
       <c r="G57" s="3">
-        <v>3403800</v>
+        <v>3628000</v>
       </c>
       <c r="H57" s="3">
-        <v>3271700</v>
+        <v>3487200</v>
       </c>
       <c r="I57" s="3">
-        <v>3266100</v>
+        <v>3481300</v>
       </c>
       <c r="J57" s="3">
-        <v>8402300</v>
+        <v>8955700</v>
       </c>
       <c r="K57" s="3">
         <v>4652200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1832300</v>
+        <v>1953000</v>
       </c>
       <c r="E58" s="3">
-        <v>1904400</v>
+        <v>2029900</v>
       </c>
       <c r="F58" s="3">
-        <v>765800</v>
+        <v>816200</v>
       </c>
       <c r="G58" s="3">
-        <v>917800</v>
+        <v>978300</v>
       </c>
       <c r="H58" s="3">
-        <v>1563700</v>
+        <v>1666700</v>
       </c>
       <c r="I58" s="3">
-        <v>879000</v>
+        <v>936900</v>
       </c>
       <c r="J58" s="3">
-        <v>5165000</v>
+        <v>5505200</v>
       </c>
       <c r="K58" s="3">
         <v>2124600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11778300</v>
+        <v>12554100</v>
       </c>
       <c r="E59" s="3">
-        <v>11749500</v>
+        <v>12523400</v>
       </c>
       <c r="F59" s="3">
-        <v>9452200</v>
+        <v>10074800</v>
       </c>
       <c r="G59" s="3">
-        <v>7896200</v>
+        <v>8416300</v>
       </c>
       <c r="H59" s="3">
-        <v>8967200</v>
+        <v>9557800</v>
       </c>
       <c r="I59" s="3">
-        <v>8033800</v>
+        <v>8563000</v>
       </c>
       <c r="J59" s="3">
-        <v>11203400</v>
+        <v>11941400</v>
       </c>
       <c r="K59" s="3">
         <v>10309100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17741300</v>
+        <v>18909800</v>
       </c>
       <c r="E60" s="3">
-        <v>17995400</v>
+        <v>19180700</v>
       </c>
       <c r="F60" s="3">
-        <v>14025700</v>
+        <v>14949500</v>
       </c>
       <c r="G60" s="3">
-        <v>12217800</v>
+        <v>13022500</v>
       </c>
       <c r="H60" s="3">
-        <v>13802600</v>
+        <v>14711700</v>
       </c>
       <c r="I60" s="3">
-        <v>12178900</v>
+        <v>12981100</v>
       </c>
       <c r="J60" s="3">
-        <v>12159000</v>
+        <v>12959900</v>
       </c>
       <c r="K60" s="3">
         <v>10709900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9317900</v>
+        <v>9931600</v>
       </c>
       <c r="E61" s="3">
-        <v>5557900</v>
+        <v>5924000</v>
       </c>
       <c r="F61" s="3">
-        <v>6816400</v>
+        <v>7265400</v>
       </c>
       <c r="G61" s="3">
-        <v>6449000</v>
+        <v>6873800</v>
       </c>
       <c r="H61" s="3">
-        <v>5583400</v>
+        <v>5951200</v>
       </c>
       <c r="I61" s="3">
-        <v>5953000</v>
+        <v>6345100</v>
       </c>
       <c r="J61" s="3">
-        <v>5352600</v>
+        <v>5705100</v>
       </c>
       <c r="K61" s="3">
         <v>6529800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8901700</v>
+        <v>9488000</v>
       </c>
       <c r="E62" s="3">
-        <v>8231400</v>
+        <v>8773600</v>
       </c>
       <c r="F62" s="3">
-        <v>8754100</v>
+        <v>9330700</v>
       </c>
       <c r="G62" s="3">
-        <v>11905900</v>
+        <v>12690200</v>
       </c>
       <c r="H62" s="3">
-        <v>10153600</v>
+        <v>10822400</v>
       </c>
       <c r="I62" s="3">
-        <v>11214500</v>
+        <v>11953200</v>
       </c>
       <c r="J62" s="3">
-        <v>10156900</v>
+        <v>10825900</v>
       </c>
       <c r="K62" s="3">
         <v>10103800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36081800</v>
+        <v>38458400</v>
       </c>
       <c r="E66" s="3">
-        <v>31906700</v>
+        <v>34008400</v>
       </c>
       <c r="F66" s="3">
-        <v>29710500</v>
+        <v>31667400</v>
       </c>
       <c r="G66" s="3">
-        <v>30671500</v>
+        <v>32691800</v>
       </c>
       <c r="H66" s="3">
-        <v>29625000</v>
+        <v>31576300</v>
       </c>
       <c r="I66" s="3">
-        <v>29416400</v>
+        <v>31353900</v>
       </c>
       <c r="J66" s="3">
-        <v>25583100</v>
+        <v>27268200</v>
       </c>
       <c r="K66" s="3">
         <v>26132400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7970600</v>
+        <v>8495600</v>
       </c>
       <c r="E72" s="3">
-        <v>7815200</v>
+        <v>8330000</v>
       </c>
       <c r="F72" s="3">
-        <v>7091600</v>
+        <v>7558700</v>
       </c>
       <c r="G72" s="3">
-        <v>4051900</v>
+        <v>4318800</v>
       </c>
       <c r="H72" s="3">
-        <v>4026400</v>
+        <v>4291600</v>
       </c>
       <c r="I72" s="3">
-        <v>1782300</v>
+        <v>1899700</v>
       </c>
       <c r="J72" s="3">
-        <v>3498100</v>
+        <v>3728500</v>
       </c>
       <c r="K72" s="3">
         <v>7758500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11261100</v>
+        <v>12002900</v>
       </c>
       <c r="E76" s="3">
-        <v>10502000</v>
+        <v>11193800</v>
       </c>
       <c r="F76" s="3">
-        <v>9996000</v>
+        <v>10654400</v>
       </c>
       <c r="G76" s="3">
-        <v>7835200</v>
+        <v>8351300</v>
       </c>
       <c r="H76" s="3">
-        <v>6401300</v>
+        <v>6823000</v>
       </c>
       <c r="I76" s="3">
-        <v>4403700</v>
+        <v>4693700</v>
       </c>
       <c r="J76" s="3">
-        <v>6720900</v>
+        <v>7163600</v>
       </c>
       <c r="K76" s="3">
         <v>5247300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1343500</v>
+        <v>1434900</v>
       </c>
       <c r="E81" s="3">
-        <v>2395700</v>
+        <v>2558600</v>
       </c>
       <c r="F81" s="3">
-        <v>2591800</v>
+        <v>2768000</v>
       </c>
       <c r="G81" s="3">
-        <v>1967100</v>
+        <v>2100800</v>
       </c>
       <c r="H81" s="3">
-        <v>1880700</v>
+        <v>2008600</v>
       </c>
       <c r="I81" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="J81" s="3">
-        <v>346700</v>
+        <v>370200</v>
       </c>
       <c r="K81" s="3">
         <v>1348300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3032600</v>
+        <v>3238800</v>
       </c>
       <c r="E83" s="3">
-        <v>2412400</v>
+        <v>2576400</v>
       </c>
       <c r="F83" s="3">
-        <v>2547500</v>
+        <v>2720700</v>
       </c>
       <c r="G83" s="3">
-        <v>1954900</v>
+        <v>2087800</v>
       </c>
       <c r="H83" s="3">
-        <v>1891800</v>
+        <v>2020400</v>
       </c>
       <c r="I83" s="3">
-        <v>1679100</v>
+        <v>1793300</v>
       </c>
       <c r="J83" s="3">
-        <v>1926100</v>
+        <v>2057100</v>
       </c>
       <c r="K83" s="3">
         <v>2113700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4445900</v>
+        <v>4748200</v>
       </c>
       <c r="E89" s="3">
-        <v>4551100</v>
+        <v>4860500</v>
       </c>
       <c r="F89" s="3">
-        <v>5945600</v>
+        <v>6349800</v>
       </c>
       <c r="G89" s="3">
-        <v>3595300</v>
+        <v>3839700</v>
       </c>
       <c r="H89" s="3">
-        <v>3758100</v>
+        <v>4013600</v>
       </c>
       <c r="I89" s="3">
-        <v>2189700</v>
+        <v>2338600</v>
       </c>
       <c r="J89" s="3">
-        <v>3644000</v>
+        <v>3891700</v>
       </c>
       <c r="K89" s="3">
         <v>3120500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3861100</v>
+        <v>-4123600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4108100</v>
+        <v>-4387400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3697200</v>
+        <v>-3948500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2392400</v>
+        <v>-2555100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2718100</v>
+        <v>-2902800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2989400</v>
+        <v>-3192600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2707000</v>
+        <v>-2891000</v>
       </c>
       <c r="K91" s="3">
         <v>-2516600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4283100</v>
+        <v>-4574300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3620700</v>
+        <v>-3866900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5544600</v>
+        <v>-5921600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3133400</v>
+        <v>-3346400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3625200</v>
+        <v>-3871600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1650300</v>
+        <v>-1762500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2662700</v>
+        <v>-2843700</v>
       </c>
       <c r="K94" s="3">
         <v>-2404600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-458500</v>
+        <v>-489700</v>
       </c>
       <c r="E96" s="3">
-        <v>-386600</v>
+        <v>-412800</v>
       </c>
       <c r="F96" s="3">
-        <v>-257000</v>
+        <v>-274400</v>
       </c>
       <c r="G96" s="3">
-        <v>-258100</v>
+        <v>-275600</v>
       </c>
       <c r="H96" s="3">
-        <v>-15500</v>
+        <v>-16600</v>
       </c>
       <c r="I96" s="3">
-        <v>-245900</v>
+        <v>-262600</v>
       </c>
       <c r="J96" s="3">
-        <v>-15500</v>
+        <v>-16600</v>
       </c>
       <c r="K96" s="3">
         <v>-143800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-178300</v>
+        <v>-190400</v>
       </c>
       <c r="E100" s="3">
-        <v>-693400</v>
+        <v>-740500</v>
       </c>
       <c r="F100" s="3">
-        <v>-271400</v>
+        <v>-289800</v>
       </c>
       <c r="G100" s="3">
-        <v>-301300</v>
+        <v>-321700</v>
       </c>
       <c r="H100" s="3">
-        <v>28800</v>
+        <v>30800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1187300</v>
+        <v>-1268100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1001300</v>
+        <v>-1069300</v>
       </c>
       <c r="K100" s="3">
         <v>-121900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5500</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-41000</v>
+        <v>-43800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="H101" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="I101" s="3">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="J101" s="3">
-        <v>-14400</v>
+        <v>-15400</v>
       </c>
       <c r="K101" s="3">
         <v>8800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21000</v>
+        <v>-22500</v>
       </c>
       <c r="E102" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="F102" s="3">
-        <v>88600</v>
+        <v>94600</v>
       </c>
       <c r="G102" s="3">
-        <v>157300</v>
+        <v>168000</v>
       </c>
       <c r="H102" s="3">
-        <v>186100</v>
+        <v>198700</v>
       </c>
       <c r="I102" s="3">
-        <v>-641300</v>
+        <v>-684900</v>
       </c>
       <c r="J102" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="K102" s="3">
         <v>602800</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43085900</v>
+        <v>43570400</v>
       </c>
       <c r="E8" s="3">
-        <v>42042600</v>
+        <v>42515300</v>
       </c>
       <c r="F8" s="3">
-        <v>42086400</v>
+        <v>42559600</v>
       </c>
       <c r="G8" s="3">
-        <v>37450600</v>
+        <v>37871700</v>
       </c>
       <c r="H8" s="3">
-        <v>37919000</v>
+        <v>38345400</v>
       </c>
       <c r="I8" s="3">
-        <v>35500000</v>
+        <v>35899200</v>
       </c>
       <c r="J8" s="3">
-        <v>35518900</v>
+        <v>35918300</v>
       </c>
       <c r="K8" s="3">
         <v>33088200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22643100</v>
+        <v>22897700</v>
       </c>
       <c r="E9" s="3">
-        <v>21098200</v>
+        <v>21335400</v>
       </c>
       <c r="F9" s="3">
-        <v>21990100</v>
+        <v>22237400</v>
       </c>
       <c r="G9" s="3">
-        <v>20125900</v>
+        <v>20352100</v>
       </c>
       <c r="H9" s="3">
-        <v>20626200</v>
+        <v>20858100</v>
       </c>
       <c r="I9" s="3">
-        <v>20193300</v>
+        <v>20420300</v>
       </c>
       <c r="J9" s="3">
-        <v>41037200</v>
+        <v>41498600</v>
       </c>
       <c r="K9" s="3">
         <v>19580600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20442900</v>
+        <v>20672700</v>
       </c>
       <c r="E10" s="3">
-        <v>20944400</v>
+        <v>21179900</v>
       </c>
       <c r="F10" s="3">
-        <v>20096300</v>
+        <v>20322200</v>
       </c>
       <c r="G10" s="3">
-        <v>17324800</v>
+        <v>17519500</v>
       </c>
       <c r="H10" s="3">
-        <v>17292800</v>
+        <v>17487200</v>
       </c>
       <c r="I10" s="3">
-        <v>15306700</v>
+        <v>15478800</v>
       </c>
       <c r="J10" s="3">
-        <v>-5518200</v>
+        <v>-5580300</v>
       </c>
       <c r="K10" s="3">
         <v>13507600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>105300</v>
+        <v>106500</v>
       </c>
       <c r="E14" s="3">
-        <v>39000</v>
+        <v>39500</v>
       </c>
       <c r="F14" s="3">
-        <v>307600</v>
+        <v>311000</v>
       </c>
       <c r="G14" s="3">
-        <v>207000</v>
+        <v>209300</v>
       </c>
       <c r="H14" s="3">
-        <v>183300</v>
+        <v>185400</v>
       </c>
       <c r="I14" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="J14" s="3">
-        <v>443600</v>
+        <v>448600</v>
       </c>
       <c r="K14" s="3">
         <v>357900</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3184400</v>
+        <v>3220200</v>
       </c>
       <c r="E15" s="3">
-        <v>2579900</v>
+        <v>2608900</v>
       </c>
       <c r="F15" s="3">
-        <v>2411900</v>
+        <v>2439100</v>
       </c>
       <c r="G15" s="3">
-        <v>1876100</v>
+        <v>1897200</v>
       </c>
       <c r="H15" s="3">
-        <v>1840600</v>
+        <v>1861300</v>
       </c>
       <c r="I15" s="3">
-        <v>1689200</v>
+        <v>1708200</v>
       </c>
       <c r="J15" s="3">
-        <v>3855100</v>
+        <v>3898400</v>
       </c>
       <c r="K15" s="3">
         <v>1890800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41088000</v>
+        <v>41550000</v>
       </c>
       <c r="E17" s="3">
-        <v>38730500</v>
+        <v>39166000</v>
       </c>
       <c r="F17" s="3">
-        <v>38372100</v>
+        <v>38803500</v>
       </c>
       <c r="G17" s="3">
-        <v>34860100</v>
+        <v>35252000</v>
       </c>
       <c r="H17" s="3">
-        <v>36079600</v>
+        <v>36485300</v>
       </c>
       <c r="I17" s="3">
-        <v>34460200</v>
+        <v>34847700</v>
       </c>
       <c r="J17" s="3">
-        <v>34515800</v>
+        <v>34903900</v>
       </c>
       <c r="K17" s="3">
         <v>31339100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1997900</v>
+        <v>2020400</v>
       </c>
       <c r="E18" s="3">
-        <v>3312100</v>
+        <v>3349400</v>
       </c>
       <c r="F18" s="3">
-        <v>3714300</v>
+        <v>3756100</v>
       </c>
       <c r="G18" s="3">
-        <v>2590600</v>
+        <v>2619700</v>
       </c>
       <c r="H18" s="3">
-        <v>1839400</v>
+        <v>1860100</v>
       </c>
       <c r="I18" s="3">
-        <v>1039800</v>
+        <v>1051500</v>
       </c>
       <c r="J18" s="3">
-        <v>1003100</v>
+        <v>1014400</v>
       </c>
       <c r="K18" s="3">
         <v>1749100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>531100</v>
+        <v>537100</v>
       </c>
       <c r="E20" s="3">
-        <v>107600</v>
+        <v>108900</v>
       </c>
       <c r="F20" s="3">
-        <v>267300</v>
+        <v>270300</v>
       </c>
       <c r="G20" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="H20" s="3">
-        <v>751100</v>
+        <v>759600</v>
       </c>
       <c r="I20" s="3">
-        <v>-539400</v>
+        <v>-545500</v>
       </c>
       <c r="J20" s="3">
-        <v>389200</v>
+        <v>393500</v>
       </c>
       <c r="K20" s="3">
         <v>58200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5768900</v>
+        <v>5819300</v>
       </c>
       <c r="E21" s="3">
-        <v>5997000</v>
+        <v>6052900</v>
       </c>
       <c r="F21" s="3">
-        <v>6703300</v>
+        <v>6766400</v>
       </c>
       <c r="G21" s="3">
-        <v>4901500</v>
+        <v>4947200</v>
       </c>
       <c r="H21" s="3">
-        <v>4611600</v>
+        <v>4654400</v>
       </c>
       <c r="I21" s="3">
-        <v>2294300</v>
+        <v>2312000</v>
       </c>
       <c r="J21" s="3">
-        <v>3450000</v>
+        <v>3479600</v>
       </c>
       <c r="K21" s="3">
         <v>3924200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>328800</v>
+        <v>332500</v>
       </c>
       <c r="E22" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="F22" s="3">
-        <v>246000</v>
+        <v>248800</v>
       </c>
       <c r="G22" s="3">
-        <v>153800</v>
+        <v>155500</v>
       </c>
       <c r="H22" s="3">
-        <v>194000</v>
+        <v>196200</v>
       </c>
       <c r="I22" s="3">
-        <v>287400</v>
+        <v>290700</v>
       </c>
       <c r="J22" s="3">
-        <v>746400</v>
+        <v>754800</v>
       </c>
       <c r="K22" s="3">
         <v>384300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2200200</v>
+        <v>2224900</v>
       </c>
       <c r="E23" s="3">
-        <v>3293200</v>
+        <v>3330200</v>
       </c>
       <c r="F23" s="3">
-        <v>3735600</v>
+        <v>3777600</v>
       </c>
       <c r="G23" s="3">
-        <v>2659200</v>
+        <v>2689100</v>
       </c>
       <c r="H23" s="3">
-        <v>2396600</v>
+        <v>2423500</v>
       </c>
       <c r="I23" s="3">
-        <v>212900</v>
+        <v>215300</v>
       </c>
       <c r="J23" s="3">
-        <v>645900</v>
+        <v>653100</v>
       </c>
       <c r="K23" s="3">
         <v>1423000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>727500</v>
+        <v>735700</v>
       </c>
       <c r="E24" s="3">
-        <v>695500</v>
+        <v>703400</v>
       </c>
       <c r="F24" s="3">
-        <v>927400</v>
+        <v>937800</v>
       </c>
       <c r="G24" s="3">
-        <v>526400</v>
+        <v>532300</v>
       </c>
       <c r="H24" s="3">
-        <v>359600</v>
+        <v>363600</v>
       </c>
       <c r="I24" s="3">
-        <v>124200</v>
+        <v>125600</v>
       </c>
       <c r="J24" s="3">
-        <v>260200</v>
+        <v>263200</v>
       </c>
       <c r="K24" s="3">
         <v>99900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1472700</v>
+        <v>1489300</v>
       </c>
       <c r="E26" s="3">
-        <v>2597600</v>
+        <v>2626900</v>
       </c>
       <c r="F26" s="3">
-        <v>2808200</v>
+        <v>2839800</v>
       </c>
       <c r="G26" s="3">
-        <v>2132800</v>
+        <v>2156700</v>
       </c>
       <c r="H26" s="3">
-        <v>2037000</v>
+        <v>2059900</v>
       </c>
       <c r="I26" s="3">
-        <v>88700</v>
+        <v>89700</v>
       </c>
       <c r="J26" s="3">
-        <v>385600</v>
+        <v>390000</v>
       </c>
       <c r="K26" s="3">
         <v>1323100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1434900</v>
+        <v>1451000</v>
       </c>
       <c r="E27" s="3">
-        <v>2558600</v>
+        <v>2587400</v>
       </c>
       <c r="F27" s="3">
-        <v>2768000</v>
+        <v>2799100</v>
       </c>
       <c r="G27" s="3">
-        <v>2100800</v>
+        <v>2124500</v>
       </c>
       <c r="H27" s="3">
-        <v>2008600</v>
+        <v>2031100</v>
       </c>
       <c r="I27" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="J27" s="3">
-        <v>370200</v>
+        <v>374400</v>
       </c>
       <c r="K27" s="3">
         <v>1308800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-531100</v>
+        <v>-537100</v>
       </c>
       <c r="E32" s="3">
-        <v>-107600</v>
+        <v>-108900</v>
       </c>
       <c r="F32" s="3">
-        <v>-267300</v>
+        <v>-270300</v>
       </c>
       <c r="G32" s="3">
-        <v>-222400</v>
+        <v>-224900</v>
       </c>
       <c r="H32" s="3">
-        <v>-751100</v>
+        <v>-759600</v>
       </c>
       <c r="I32" s="3">
-        <v>539400</v>
+        <v>545500</v>
       </c>
       <c r="J32" s="3">
-        <v>-389200</v>
+        <v>-393500</v>
       </c>
       <c r="K32" s="3">
         <v>-58200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1434900</v>
+        <v>1451000</v>
       </c>
       <c r="E33" s="3">
-        <v>2558600</v>
+        <v>2587400</v>
       </c>
       <c r="F33" s="3">
-        <v>2768000</v>
+        <v>2799100</v>
       </c>
       <c r="G33" s="3">
-        <v>2100800</v>
+        <v>2124500</v>
       </c>
       <c r="H33" s="3">
-        <v>2008600</v>
+        <v>2031100</v>
       </c>
       <c r="I33" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="J33" s="3">
-        <v>370200</v>
+        <v>374400</v>
       </c>
       <c r="K33" s="3">
         <v>1348300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1434900</v>
+        <v>1451000</v>
       </c>
       <c r="E35" s="3">
-        <v>2558600</v>
+        <v>2587400</v>
       </c>
       <c r="F35" s="3">
-        <v>2768000</v>
+        <v>2799100</v>
       </c>
       <c r="G35" s="3">
-        <v>2100800</v>
+        <v>2124500</v>
       </c>
       <c r="H35" s="3">
-        <v>2008600</v>
+        <v>2031100</v>
       </c>
       <c r="I35" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="J35" s="3">
-        <v>370200</v>
+        <v>374400</v>
       </c>
       <c r="K35" s="3">
         <v>1348300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1673800</v>
+        <v>1692600</v>
       </c>
       <c r="E41" s="3">
-        <v>1696300</v>
+        <v>1715400</v>
       </c>
       <c r="F41" s="3">
-        <v>1440800</v>
+        <v>1457000</v>
       </c>
       <c r="G41" s="3">
-        <v>1346100</v>
+        <v>1361300</v>
       </c>
       <c r="H41" s="3">
-        <v>1178200</v>
+        <v>1191400</v>
       </c>
       <c r="I41" s="3">
-        <v>979400</v>
+        <v>990500</v>
       </c>
       <c r="J41" s="3">
-        <v>3500200</v>
+        <v>3539600</v>
       </c>
       <c r="K41" s="3">
         <v>3150200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2330300</v>
+        <v>2356500</v>
       </c>
       <c r="E42" s="3">
-        <v>2130400</v>
+        <v>2154400</v>
       </c>
       <c r="F42" s="3">
-        <v>3229300</v>
+        <v>3265600</v>
       </c>
       <c r="G42" s="3">
-        <v>3310900</v>
+        <v>3348200</v>
       </c>
       <c r="H42" s="3">
-        <v>2480500</v>
+        <v>2508400</v>
       </c>
       <c r="I42" s="3">
-        <v>2259300</v>
+        <v>2284700</v>
       </c>
       <c r="J42" s="3">
-        <v>3892900</v>
+        <v>3936700</v>
       </c>
       <c r="K42" s="3">
         <v>3875900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6916400</v>
+        <v>6994200</v>
       </c>
       <c r="E43" s="3">
-        <v>6941300</v>
+        <v>7019300</v>
       </c>
       <c r="F43" s="3">
-        <v>6353400</v>
+        <v>6424800</v>
       </c>
       <c r="G43" s="3">
-        <v>5449600</v>
+        <v>5510900</v>
       </c>
       <c r="H43" s="3">
-        <v>5292300</v>
+        <v>5351800</v>
       </c>
       <c r="I43" s="3">
-        <v>4870000</v>
+        <v>4924800</v>
       </c>
       <c r="J43" s="3">
-        <v>12833300</v>
+        <v>12977600</v>
       </c>
       <c r="K43" s="3">
         <v>11957200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1159200</v>
+        <v>1172300</v>
       </c>
       <c r="E44" s="3">
-        <v>1145000</v>
+        <v>1157900</v>
       </c>
       <c r="F44" s="3">
-        <v>1072900</v>
+        <v>1085000</v>
       </c>
       <c r="G44" s="3">
-        <v>965200</v>
+        <v>976100</v>
       </c>
       <c r="H44" s="3">
-        <v>900200</v>
+        <v>910300</v>
       </c>
       <c r="I44" s="3">
-        <v>828000</v>
+        <v>837300</v>
       </c>
       <c r="J44" s="3">
-        <v>1516500</v>
+        <v>1533500</v>
       </c>
       <c r="K44" s="3">
         <v>1525100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1269300</v>
+        <v>1283500</v>
       </c>
       <c r="E45" s="3">
-        <v>689600</v>
+        <v>697400</v>
       </c>
       <c r="F45" s="3">
-        <v>949900</v>
+        <v>960500</v>
       </c>
       <c r="G45" s="3">
-        <v>985400</v>
+        <v>996400</v>
       </c>
       <c r="H45" s="3">
-        <v>719200</v>
+        <v>727300</v>
       </c>
       <c r="I45" s="3">
-        <v>818600</v>
+        <v>827800</v>
       </c>
       <c r="J45" s="3">
-        <v>802000</v>
+        <v>811000</v>
       </c>
       <c r="K45" s="3">
         <v>815800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13349000</v>
+        <v>13499100</v>
       </c>
       <c r="E46" s="3">
-        <v>12602600</v>
+        <v>12744300</v>
       </c>
       <c r="F46" s="3">
-        <v>13046200</v>
+        <v>13192900</v>
       </c>
       <c r="G46" s="3">
-        <v>12057300</v>
+        <v>12192900</v>
       </c>
       <c r="H46" s="3">
-        <v>10570400</v>
+        <v>10689200</v>
       </c>
       <c r="I46" s="3">
-        <v>9755400</v>
+        <v>9865100</v>
       </c>
       <c r="J46" s="3">
-        <v>11461100</v>
+        <v>11590000</v>
       </c>
       <c r="K46" s="3">
         <v>10761500</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1753100</v>
+        <v>1772800</v>
       </c>
       <c r="E47" s="3">
-        <v>1725900</v>
+        <v>1745300</v>
       </c>
       <c r="F47" s="3">
-        <v>1567300</v>
+        <v>1585000</v>
       </c>
       <c r="G47" s="3">
-        <v>1499900</v>
+        <v>1516800</v>
       </c>
       <c r="H47" s="3">
-        <v>1503500</v>
+        <v>1520400</v>
       </c>
       <c r="I47" s="3">
-        <v>2102000</v>
+        <v>2125600</v>
       </c>
       <c r="J47" s="3">
-        <v>1774400</v>
+        <v>1794300</v>
       </c>
       <c r="K47" s="3">
         <v>1922600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26485100</v>
+        <v>26782900</v>
       </c>
       <c r="E48" s="3">
-        <v>22471600</v>
+        <v>22724200</v>
       </c>
       <c r="F48" s="3">
-        <v>20724400</v>
+        <v>20957400</v>
       </c>
       <c r="G48" s="3">
-        <v>20105800</v>
+        <v>20331800</v>
       </c>
       <c r="H48" s="3">
-        <v>19830100</v>
+        <v>20053100</v>
       </c>
       <c r="I48" s="3">
-        <v>18549100</v>
+        <v>18757600</v>
       </c>
       <c r="J48" s="3">
-        <v>17980100</v>
+        <v>18182200</v>
       </c>
       <c r="K48" s="3">
         <v>12216300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2297200</v>
+        <v>2323000</v>
       </c>
       <c r="E49" s="3">
-        <v>2239200</v>
+        <v>2264400</v>
       </c>
       <c r="F49" s="3">
-        <v>2170600</v>
+        <v>2195000</v>
       </c>
       <c r="G49" s="3">
-        <v>2054700</v>
+        <v>2077800</v>
       </c>
       <c r="H49" s="3">
-        <v>1960100</v>
+        <v>1982100</v>
       </c>
       <c r="I49" s="3">
-        <v>1877300</v>
+        <v>1898400</v>
       </c>
       <c r="J49" s="3">
-        <v>4891300</v>
+        <v>4946300</v>
       </c>
       <c r="K49" s="3">
         <v>5617400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6576900</v>
+        <v>6650900</v>
       </c>
       <c r="E52" s="3">
-        <v>6162900</v>
+        <v>6232200</v>
       </c>
       <c r="F52" s="3">
-        <v>4814400</v>
+        <v>4868500</v>
       </c>
       <c r="G52" s="3">
-        <v>5325400</v>
+        <v>5385300</v>
       </c>
       <c r="H52" s="3">
-        <v>4535200</v>
+        <v>4586200</v>
       </c>
       <c r="I52" s="3">
-        <v>3764000</v>
+        <v>3806300</v>
       </c>
       <c r="J52" s="3">
-        <v>2285400</v>
+        <v>2311100</v>
       </c>
       <c r="K52" s="3">
         <v>3152400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50461300</v>
+        <v>51028700</v>
       </c>
       <c r="E54" s="3">
-        <v>45202200</v>
+        <v>45710400</v>
       </c>
       <c r="F54" s="3">
-        <v>42321800</v>
+        <v>42797600</v>
       </c>
       <c r="G54" s="3">
-        <v>41043100</v>
+        <v>41504600</v>
       </c>
       <c r="H54" s="3">
-        <v>38399300</v>
+        <v>38831000</v>
       </c>
       <c r="I54" s="3">
-        <v>36047700</v>
+        <v>36453000</v>
       </c>
       <c r="J54" s="3">
-        <v>34431900</v>
+        <v>34819000</v>
       </c>
       <c r="K54" s="3">
         <v>31379700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4402800</v>
+        <v>4452300</v>
       </c>
       <c r="E57" s="3">
-        <v>4627500</v>
+        <v>4679500</v>
       </c>
       <c r="F57" s="3">
-        <v>4058500</v>
+        <v>4104200</v>
       </c>
       <c r="G57" s="3">
-        <v>3628000</v>
+        <v>3668700</v>
       </c>
       <c r="H57" s="3">
-        <v>3487200</v>
+        <v>3526400</v>
       </c>
       <c r="I57" s="3">
-        <v>3481300</v>
+        <v>3520400</v>
       </c>
       <c r="J57" s="3">
-        <v>8955700</v>
+        <v>9056400</v>
       </c>
       <c r="K57" s="3">
         <v>4652200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1953000</v>
+        <v>1974900</v>
       </c>
       <c r="E58" s="3">
-        <v>2029900</v>
+        <v>2052700</v>
       </c>
       <c r="F58" s="3">
-        <v>816200</v>
+        <v>825400</v>
       </c>
       <c r="G58" s="3">
-        <v>978300</v>
+        <v>989300</v>
       </c>
       <c r="H58" s="3">
-        <v>1666700</v>
+        <v>1685400</v>
       </c>
       <c r="I58" s="3">
-        <v>936900</v>
+        <v>947400</v>
       </c>
       <c r="J58" s="3">
-        <v>5505200</v>
+        <v>5567100</v>
       </c>
       <c r="K58" s="3">
         <v>2124600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12554100</v>
+        <v>12695300</v>
       </c>
       <c r="E59" s="3">
-        <v>12523400</v>
+        <v>12664200</v>
       </c>
       <c r="F59" s="3">
-        <v>10074800</v>
+        <v>10188000</v>
       </c>
       <c r="G59" s="3">
-        <v>8416300</v>
+        <v>8511000</v>
       </c>
       <c r="H59" s="3">
-        <v>9557800</v>
+        <v>9665300</v>
       </c>
       <c r="I59" s="3">
-        <v>8563000</v>
+        <v>8659300</v>
       </c>
       <c r="J59" s="3">
-        <v>11941400</v>
+        <v>12075600</v>
       </c>
       <c r="K59" s="3">
         <v>10309100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18909800</v>
+        <v>19122500</v>
       </c>
       <c r="E60" s="3">
-        <v>19180700</v>
+        <v>19396400</v>
       </c>
       <c r="F60" s="3">
-        <v>14949500</v>
+        <v>15117600</v>
       </c>
       <c r="G60" s="3">
-        <v>13022500</v>
+        <v>13169000</v>
       </c>
       <c r="H60" s="3">
-        <v>14711700</v>
+        <v>14877100</v>
       </c>
       <c r="I60" s="3">
-        <v>12981100</v>
+        <v>13127100</v>
       </c>
       <c r="J60" s="3">
-        <v>12959900</v>
+        <v>13105600</v>
       </c>
       <c r="K60" s="3">
         <v>10709900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9931600</v>
+        <v>10043300</v>
       </c>
       <c r="E61" s="3">
-        <v>5924000</v>
+        <v>5990600</v>
       </c>
       <c r="F61" s="3">
-        <v>7265400</v>
+        <v>7347100</v>
       </c>
       <c r="G61" s="3">
-        <v>6873800</v>
+        <v>6951100</v>
       </c>
       <c r="H61" s="3">
-        <v>5951200</v>
+        <v>6018100</v>
       </c>
       <c r="I61" s="3">
-        <v>6345100</v>
+        <v>6416400</v>
       </c>
       <c r="J61" s="3">
-        <v>5705100</v>
+        <v>5769300</v>
       </c>
       <c r="K61" s="3">
         <v>6529800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9488000</v>
+        <v>9594700</v>
       </c>
       <c r="E62" s="3">
-        <v>8773600</v>
+        <v>8872200</v>
       </c>
       <c r="F62" s="3">
-        <v>9330700</v>
+        <v>9435600</v>
       </c>
       <c r="G62" s="3">
-        <v>12690200</v>
+        <v>12832800</v>
       </c>
       <c r="H62" s="3">
-        <v>10822400</v>
+        <v>10944000</v>
       </c>
       <c r="I62" s="3">
-        <v>11953200</v>
+        <v>12087600</v>
       </c>
       <c r="J62" s="3">
-        <v>10825900</v>
+        <v>10947600</v>
       </c>
       <c r="K62" s="3">
         <v>10103800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38458400</v>
+        <v>38890900</v>
       </c>
       <c r="E66" s="3">
-        <v>34008400</v>
+        <v>34390800</v>
       </c>
       <c r="F66" s="3">
-        <v>31667400</v>
+        <v>32023500</v>
       </c>
       <c r="G66" s="3">
-        <v>32691800</v>
+        <v>33059400</v>
       </c>
       <c r="H66" s="3">
-        <v>31576300</v>
+        <v>31931400</v>
       </c>
       <c r="I66" s="3">
-        <v>31353900</v>
+        <v>31706500</v>
       </c>
       <c r="J66" s="3">
-        <v>27268200</v>
+        <v>27574800</v>
       </c>
       <c r="K66" s="3">
         <v>26132400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8495600</v>
+        <v>8591100</v>
       </c>
       <c r="E72" s="3">
-        <v>8330000</v>
+        <v>8423600</v>
       </c>
       <c r="F72" s="3">
-        <v>7558700</v>
+        <v>7643700</v>
       </c>
       <c r="G72" s="3">
-        <v>4318800</v>
+        <v>4367300</v>
       </c>
       <c r="H72" s="3">
-        <v>4291600</v>
+        <v>4339800</v>
       </c>
       <c r="I72" s="3">
-        <v>1899700</v>
+        <v>1921100</v>
       </c>
       <c r="J72" s="3">
-        <v>3728500</v>
+        <v>3770400</v>
       </c>
       <c r="K72" s="3">
         <v>7758500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12002900</v>
+        <v>12137800</v>
       </c>
       <c r="E76" s="3">
-        <v>11193800</v>
+        <v>11319600</v>
       </c>
       <c r="F76" s="3">
-        <v>10654400</v>
+        <v>10774200</v>
       </c>
       <c r="G76" s="3">
-        <v>8351300</v>
+        <v>8445200</v>
       </c>
       <c r="H76" s="3">
-        <v>6823000</v>
+        <v>6899700</v>
       </c>
       <c r="I76" s="3">
-        <v>4693700</v>
+        <v>4746500</v>
       </c>
       <c r="J76" s="3">
-        <v>7163600</v>
+        <v>7244200</v>
       </c>
       <c r="K76" s="3">
         <v>5247300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1434900</v>
+        <v>1451000</v>
       </c>
       <c r="E81" s="3">
-        <v>2558600</v>
+        <v>2587400</v>
       </c>
       <c r="F81" s="3">
-        <v>2768000</v>
+        <v>2799100</v>
       </c>
       <c r="G81" s="3">
-        <v>2100800</v>
+        <v>2124500</v>
       </c>
       <c r="H81" s="3">
-        <v>2008600</v>
+        <v>2031100</v>
       </c>
       <c r="I81" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="J81" s="3">
-        <v>370200</v>
+        <v>374400</v>
       </c>
       <c r="K81" s="3">
         <v>1348300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3238800</v>
+        <v>3275200</v>
       </c>
       <c r="E83" s="3">
-        <v>2576400</v>
+        <v>2605300</v>
       </c>
       <c r="F83" s="3">
-        <v>2720700</v>
+        <v>2751300</v>
       </c>
       <c r="G83" s="3">
-        <v>2087800</v>
+        <v>2111300</v>
       </c>
       <c r="H83" s="3">
-        <v>2020400</v>
+        <v>2043100</v>
       </c>
       <c r="I83" s="3">
-        <v>1793300</v>
+        <v>1813400</v>
       </c>
       <c r="J83" s="3">
-        <v>2057100</v>
+        <v>2080200</v>
       </c>
       <c r="K83" s="3">
         <v>2113700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4748200</v>
+        <v>4801500</v>
       </c>
       <c r="E89" s="3">
-        <v>4860500</v>
+        <v>4915200</v>
       </c>
       <c r="F89" s="3">
-        <v>6349800</v>
+        <v>6421200</v>
       </c>
       <c r="G89" s="3">
-        <v>3839700</v>
+        <v>3882900</v>
       </c>
       <c r="H89" s="3">
-        <v>4013600</v>
+        <v>4058700</v>
       </c>
       <c r="I89" s="3">
-        <v>2338600</v>
+        <v>2364900</v>
       </c>
       <c r="J89" s="3">
-        <v>3891700</v>
+        <v>3935500</v>
       </c>
       <c r="K89" s="3">
         <v>3120500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4123600</v>
+        <v>-4170000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4387400</v>
+        <v>-4436700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3948500</v>
+        <v>-3992900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2555100</v>
+        <v>-2583800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2902800</v>
+        <v>-2935500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3192600</v>
+        <v>-3228500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2891000</v>
+        <v>-2923500</v>
       </c>
       <c r="K91" s="3">
         <v>-2516600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4574300</v>
+        <v>-4625700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3866900</v>
+        <v>-3910400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5921600</v>
+        <v>-5988200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3346400</v>
+        <v>-3384000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3871600</v>
+        <v>-3915200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1762500</v>
+        <v>-1782300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2843700</v>
+        <v>-2875700</v>
       </c>
       <c r="K94" s="3">
         <v>-2404600</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-489700</v>
+        <v>-495200</v>
       </c>
       <c r="E96" s="3">
-        <v>-412800</v>
+        <v>-417500</v>
       </c>
       <c r="F96" s="3">
-        <v>-274400</v>
+        <v>-277500</v>
       </c>
       <c r="G96" s="3">
-        <v>-275600</v>
+        <v>-278700</v>
       </c>
       <c r="H96" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="I96" s="3">
-        <v>-262600</v>
+        <v>-265600</v>
       </c>
       <c r="J96" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="K96" s="3">
         <v>-143800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-190400</v>
+        <v>-192600</v>
       </c>
       <c r="E100" s="3">
-        <v>-740500</v>
+        <v>-748800</v>
       </c>
       <c r="F100" s="3">
-        <v>-289800</v>
+        <v>-293100</v>
       </c>
       <c r="G100" s="3">
-        <v>-321700</v>
+        <v>-325400</v>
       </c>
       <c r="H100" s="3">
-        <v>30800</v>
+        <v>31100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1268100</v>
+        <v>-1282300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1069300</v>
+        <v>-1081400</v>
       </c>
       <c r="K100" s="3">
         <v>-121900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
         <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-43800</v>
+        <v>-44300</v>
       </c>
       <c r="G101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H101" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="K101" s="3">
         <v>8800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22500</v>
+        <v>-22700</v>
       </c>
       <c r="E102" s="3">
-        <v>255500</v>
+        <v>258400</v>
       </c>
       <c r="F102" s="3">
-        <v>94600</v>
+        <v>95700</v>
       </c>
       <c r="G102" s="3">
-        <v>168000</v>
+        <v>169900</v>
       </c>
       <c r="H102" s="3">
-        <v>198700</v>
+        <v>201000</v>
       </c>
       <c r="I102" s="3">
-        <v>-684900</v>
+        <v>-692600</v>
       </c>
       <c r="J102" s="3">
-        <v>-36700</v>
+        <v>-37100</v>
       </c>
       <c r="K102" s="3">
         <v>602800</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>DLAKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43570400</v>
+        <v>15986100</v>
       </c>
       <c r="E8" s="3">
-        <v>42515300</v>
+        <v>42849200</v>
       </c>
       <c r="F8" s="3">
-        <v>42559600</v>
+        <v>41811600</v>
       </c>
       <c r="G8" s="3">
-        <v>37871700</v>
+        <v>41855100</v>
       </c>
       <c r="H8" s="3">
-        <v>38345400</v>
+        <v>37244800</v>
       </c>
       <c r="I8" s="3">
-        <v>35899200</v>
+        <v>37710700</v>
       </c>
       <c r="J8" s="3">
+        <v>35304900</v>
+      </c>
+      <c r="K8" s="3">
         <v>35918300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33088200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33728300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22897700</v>
+        <v>9738200</v>
       </c>
       <c r="E9" s="3">
-        <v>21335400</v>
+        <v>22518600</v>
       </c>
       <c r="F9" s="3">
-        <v>22237400</v>
+        <v>20982300</v>
       </c>
       <c r="G9" s="3">
-        <v>20352100</v>
+        <v>21869300</v>
       </c>
       <c r="H9" s="3">
-        <v>20858100</v>
+        <v>20015300</v>
       </c>
       <c r="I9" s="3">
-        <v>20420300</v>
+        <v>20512900</v>
       </c>
       <c r="J9" s="3">
+        <v>20082300</v>
+      </c>
+      <c r="K9" s="3">
         <v>41498600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19580600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19475900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20672700</v>
+        <v>6247900</v>
       </c>
       <c r="E10" s="3">
-        <v>21179900</v>
+        <v>20330500</v>
       </c>
       <c r="F10" s="3">
-        <v>20322200</v>
+        <v>20829300</v>
       </c>
       <c r="G10" s="3">
-        <v>17519500</v>
+        <v>19985900</v>
       </c>
       <c r="H10" s="3">
-        <v>17487200</v>
+        <v>17229600</v>
       </c>
       <c r="I10" s="3">
-        <v>15478800</v>
+        <v>17197800</v>
       </c>
       <c r="J10" s="3">
+        <v>15222600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-5580300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13507600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14252400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +907,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>106500</v>
+        <v>2136300</v>
       </c>
       <c r="E14" s="3">
-        <v>39500</v>
+        <v>104700</v>
       </c>
       <c r="F14" s="3">
-        <v>311000</v>
+        <v>38800</v>
       </c>
       <c r="G14" s="3">
-        <v>209300</v>
+        <v>305900</v>
       </c>
       <c r="H14" s="3">
-        <v>185400</v>
+        <v>205900</v>
       </c>
       <c r="I14" s="3">
-        <v>93300</v>
+        <v>182300</v>
       </c>
       <c r="J14" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K14" s="3">
         <v>448600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>357900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>103300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3220200</v>
+        <v>3012800</v>
       </c>
       <c r="E15" s="3">
-        <v>2608900</v>
+        <v>3166900</v>
       </c>
       <c r="F15" s="3">
-        <v>2439100</v>
+        <v>2565700</v>
       </c>
       <c r="G15" s="3">
-        <v>1897200</v>
+        <v>2398700</v>
       </c>
       <c r="H15" s="3">
-        <v>1861300</v>
+        <v>1865800</v>
       </c>
       <c r="I15" s="3">
-        <v>1708200</v>
+        <v>1830500</v>
       </c>
       <c r="J15" s="3">
+        <v>1679900</v>
+      </c>
+      <c r="K15" s="3">
         <v>3898400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1890800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1952000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41550000</v>
+        <v>24325600</v>
       </c>
       <c r="E17" s="3">
-        <v>39166000</v>
+        <v>40862300</v>
       </c>
       <c r="F17" s="3">
-        <v>38803500</v>
+        <v>38517700</v>
       </c>
       <c r="G17" s="3">
-        <v>35252000</v>
+        <v>38161200</v>
       </c>
       <c r="H17" s="3">
-        <v>36485300</v>
+        <v>34668500</v>
       </c>
       <c r="I17" s="3">
-        <v>34847700</v>
+        <v>35881400</v>
       </c>
       <c r="J17" s="3">
+        <v>34270900</v>
+      </c>
+      <c r="K17" s="3">
         <v>34903900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31339100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32864300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2020400</v>
+        <v>-8339500</v>
       </c>
       <c r="E18" s="3">
-        <v>3349400</v>
+        <v>1986900</v>
       </c>
       <c r="F18" s="3">
-        <v>3756100</v>
+        <v>3293900</v>
       </c>
       <c r="G18" s="3">
-        <v>2619700</v>
+        <v>3693900</v>
       </c>
       <c r="H18" s="3">
-        <v>1860100</v>
+        <v>2576300</v>
       </c>
       <c r="I18" s="3">
-        <v>1051500</v>
+        <v>1829300</v>
       </c>
       <c r="J18" s="3">
+        <v>1034100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1014400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1749100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>863900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>537100</v>
+        <v>-1452900</v>
       </c>
       <c r="E20" s="3">
-        <v>108900</v>
+        <v>528200</v>
       </c>
       <c r="F20" s="3">
-        <v>270300</v>
+        <v>107100</v>
       </c>
       <c r="G20" s="3">
-        <v>224900</v>
+        <v>265900</v>
       </c>
       <c r="H20" s="3">
-        <v>759600</v>
+        <v>221200</v>
       </c>
       <c r="I20" s="3">
-        <v>-545500</v>
+        <v>747000</v>
       </c>
       <c r="J20" s="3">
+        <v>-536400</v>
+      </c>
+      <c r="K20" s="3">
         <v>393500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>58200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5819300</v>
+        <v>-4603300</v>
       </c>
       <c r="E21" s="3">
-        <v>6052900</v>
+        <v>5749300</v>
       </c>
       <c r="F21" s="3">
-        <v>6766400</v>
+        <v>5973600</v>
       </c>
       <c r="G21" s="3">
-        <v>4947200</v>
+        <v>6676500</v>
       </c>
       <c r="H21" s="3">
-        <v>4654400</v>
+        <v>4882300</v>
       </c>
       <c r="I21" s="3">
-        <v>2312000</v>
+        <v>4593800</v>
       </c>
       <c r="J21" s="3">
+        <v>2288300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3479600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3924200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3002900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>332500</v>
+        <v>361200</v>
       </c>
       <c r="E22" s="3">
-        <v>128000</v>
+        <v>327000</v>
       </c>
       <c r="F22" s="3">
-        <v>248800</v>
+        <v>125900</v>
       </c>
       <c r="G22" s="3">
-        <v>155500</v>
+        <v>244700</v>
       </c>
       <c r="H22" s="3">
-        <v>196200</v>
+        <v>152900</v>
       </c>
       <c r="I22" s="3">
-        <v>290700</v>
+        <v>192900</v>
       </c>
       <c r="J22" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K22" s="3">
         <v>754800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>384300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>388500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2224900</v>
+        <v>-10153500</v>
       </c>
       <c r="E23" s="3">
-        <v>3330200</v>
+        <v>2188100</v>
       </c>
       <c r="F23" s="3">
-        <v>3777600</v>
+        <v>3275100</v>
       </c>
       <c r="G23" s="3">
-        <v>2689100</v>
+        <v>3715100</v>
       </c>
       <c r="H23" s="3">
-        <v>2423500</v>
+        <v>2644500</v>
       </c>
       <c r="I23" s="3">
-        <v>215300</v>
+        <v>2383400</v>
       </c>
       <c r="J23" s="3">
+        <v>211800</v>
+      </c>
+      <c r="K23" s="3">
         <v>653100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1423000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>523500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>735700</v>
+        <v>-2194000</v>
       </c>
       <c r="E24" s="3">
-        <v>703400</v>
+        <v>723500</v>
       </c>
       <c r="F24" s="3">
-        <v>937800</v>
+        <v>691700</v>
       </c>
       <c r="G24" s="3">
-        <v>532300</v>
+        <v>922300</v>
       </c>
       <c r="H24" s="3">
-        <v>363600</v>
+        <v>523500</v>
       </c>
       <c r="I24" s="3">
-        <v>125600</v>
+        <v>357600</v>
       </c>
       <c r="J24" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K24" s="3">
         <v>263200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>184300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1489300</v>
+        <v>-7959500</v>
       </c>
       <c r="E26" s="3">
-        <v>2626900</v>
+        <v>1464600</v>
       </c>
       <c r="F26" s="3">
-        <v>2839800</v>
+        <v>2583400</v>
       </c>
       <c r="G26" s="3">
-        <v>2156700</v>
+        <v>2792800</v>
       </c>
       <c r="H26" s="3">
-        <v>2059900</v>
+        <v>2121000</v>
       </c>
       <c r="I26" s="3">
-        <v>89700</v>
+        <v>2025800</v>
       </c>
       <c r="J26" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K26" s="3">
         <v>390000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1323100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>339200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1451000</v>
+        <v>-7911300</v>
       </c>
       <c r="E27" s="3">
-        <v>2587400</v>
+        <v>1427000</v>
       </c>
       <c r="F27" s="3">
-        <v>2799100</v>
+        <v>2544600</v>
       </c>
       <c r="G27" s="3">
-        <v>2124500</v>
+        <v>2752800</v>
       </c>
       <c r="H27" s="3">
-        <v>2031100</v>
+        <v>2089300</v>
       </c>
       <c r="I27" s="3">
-        <v>65800</v>
+        <v>1997500</v>
       </c>
       <c r="J27" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K27" s="3">
         <v>374400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1308800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>319300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1404,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>39500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-334500</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-537100</v>
+        <v>1452900</v>
       </c>
       <c r="E32" s="3">
-        <v>-108900</v>
+        <v>-528200</v>
       </c>
       <c r="F32" s="3">
-        <v>-270300</v>
+        <v>-107100</v>
       </c>
       <c r="G32" s="3">
-        <v>-224900</v>
+        <v>-265900</v>
       </c>
       <c r="H32" s="3">
-        <v>-759600</v>
+        <v>-221200</v>
       </c>
       <c r="I32" s="3">
-        <v>545500</v>
+        <v>-747000</v>
       </c>
       <c r="J32" s="3">
+        <v>536400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-393500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-58200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1451000</v>
+        <v>-7911300</v>
       </c>
       <c r="E33" s="3">
-        <v>2587400</v>
+        <v>1427000</v>
       </c>
       <c r="F33" s="3">
-        <v>2799100</v>
+        <v>2544600</v>
       </c>
       <c r="G33" s="3">
-        <v>2124500</v>
+        <v>2752800</v>
       </c>
       <c r="H33" s="3">
-        <v>2031100</v>
+        <v>2089300</v>
       </c>
       <c r="I33" s="3">
-        <v>65800</v>
+        <v>1997500</v>
       </c>
       <c r="J33" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K33" s="3">
         <v>374400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1348300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1451000</v>
+        <v>-7911300</v>
       </c>
       <c r="E35" s="3">
-        <v>2587400</v>
+        <v>1427000</v>
       </c>
       <c r="F35" s="3">
-        <v>2799100</v>
+        <v>2544600</v>
       </c>
       <c r="G35" s="3">
-        <v>2124500</v>
+        <v>2752800</v>
       </c>
       <c r="H35" s="3">
-        <v>2031100</v>
+        <v>2089300</v>
       </c>
       <c r="I35" s="3">
-        <v>65800</v>
+        <v>1997500</v>
       </c>
       <c r="J35" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K35" s="3">
         <v>374400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1348300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1692600</v>
+        <v>2124600</v>
       </c>
       <c r="E41" s="3">
-        <v>1715400</v>
+        <v>1664600</v>
       </c>
       <c r="F41" s="3">
-        <v>1457000</v>
+        <v>1687000</v>
       </c>
       <c r="G41" s="3">
-        <v>1361300</v>
+        <v>1432900</v>
       </c>
       <c r="H41" s="3">
-        <v>1191400</v>
+        <v>1338700</v>
       </c>
       <c r="I41" s="3">
-        <v>990500</v>
+        <v>1171700</v>
       </c>
       <c r="J41" s="3">
+        <v>974100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3539600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3150200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2062400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2356500</v>
+        <v>4298600</v>
       </c>
       <c r="E42" s="3">
-        <v>2154400</v>
+        <v>2317500</v>
       </c>
       <c r="F42" s="3">
-        <v>3265600</v>
+        <v>2118700</v>
       </c>
       <c r="G42" s="3">
-        <v>3348200</v>
+        <v>3211600</v>
       </c>
       <c r="H42" s="3">
-        <v>2508400</v>
+        <v>3292700</v>
       </c>
       <c r="I42" s="3">
-        <v>2284700</v>
+        <v>2466900</v>
       </c>
       <c r="J42" s="3">
+        <v>2246900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3936700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3875900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3651700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6994200</v>
+        <v>3843300</v>
       </c>
       <c r="E43" s="3">
-        <v>7019300</v>
+        <v>6878400</v>
       </c>
       <c r="F43" s="3">
-        <v>6424800</v>
+        <v>6903100</v>
       </c>
       <c r="G43" s="3">
-        <v>5510900</v>
+        <v>6318400</v>
       </c>
       <c r="H43" s="3">
-        <v>5351800</v>
+        <v>5419700</v>
       </c>
       <c r="I43" s="3">
-        <v>4924800</v>
+        <v>5263200</v>
       </c>
       <c r="J43" s="3">
+        <v>4843200</v>
+      </c>
+      <c r="K43" s="3">
         <v>12977600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11957200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8233100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1172300</v>
+        <v>854100</v>
       </c>
       <c r="E44" s="3">
-        <v>1157900</v>
+        <v>1152900</v>
       </c>
       <c r="F44" s="3">
-        <v>1085000</v>
+        <v>1138800</v>
       </c>
       <c r="G44" s="3">
-        <v>976100</v>
+        <v>1067000</v>
       </c>
       <c r="H44" s="3">
-        <v>910300</v>
+        <v>959900</v>
       </c>
       <c r="I44" s="3">
-        <v>837300</v>
+        <v>895200</v>
       </c>
       <c r="J44" s="3">
+        <v>823500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1533500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1525100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1455500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1283500</v>
+        <v>690500</v>
       </c>
       <c r="E45" s="3">
-        <v>697400</v>
+        <v>1262300</v>
       </c>
       <c r="F45" s="3">
-        <v>960500</v>
+        <v>685800</v>
       </c>
       <c r="G45" s="3">
-        <v>996400</v>
+        <v>944600</v>
       </c>
       <c r="H45" s="3">
-        <v>727300</v>
+        <v>979900</v>
       </c>
       <c r="I45" s="3">
-        <v>827800</v>
+        <v>715300</v>
       </c>
       <c r="J45" s="3">
+        <v>814100</v>
+      </c>
+      <c r="K45" s="3">
         <v>811000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>815800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2517800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13499100</v>
+        <v>11811100</v>
       </c>
       <c r="E46" s="3">
-        <v>12744300</v>
+        <v>13275700</v>
       </c>
       <c r="F46" s="3">
-        <v>13192900</v>
+        <v>12533400</v>
       </c>
       <c r="G46" s="3">
-        <v>12192900</v>
+        <v>12974500</v>
       </c>
       <c r="H46" s="3">
-        <v>10689200</v>
+        <v>11991000</v>
       </c>
       <c r="I46" s="3">
-        <v>9865100</v>
+        <v>10512300</v>
       </c>
       <c r="J46" s="3">
+        <v>9701800</v>
+      </c>
+      <c r="K46" s="3">
         <v>11590000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10761500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11111300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1772800</v>
+        <v>1391700</v>
       </c>
       <c r="E47" s="3">
-        <v>1745300</v>
+        <v>1743400</v>
       </c>
       <c r="F47" s="3">
-        <v>1585000</v>
+        <v>1716400</v>
       </c>
       <c r="G47" s="3">
-        <v>1516800</v>
+        <v>1558700</v>
       </c>
       <c r="H47" s="3">
-        <v>1520400</v>
+        <v>1491700</v>
       </c>
       <c r="I47" s="3">
-        <v>2125600</v>
+        <v>1495200</v>
       </c>
       <c r="J47" s="3">
+        <v>2090500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1794300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1922600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3318400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26782900</v>
+        <v>22955100</v>
       </c>
       <c r="E48" s="3">
-        <v>22724200</v>
+        <v>26339600</v>
       </c>
       <c r="F48" s="3">
-        <v>20957400</v>
+        <v>22348100</v>
       </c>
       <c r="G48" s="3">
-        <v>20331800</v>
+        <v>20610500</v>
       </c>
       <c r="H48" s="3">
-        <v>20053100</v>
+        <v>19995300</v>
       </c>
       <c r="I48" s="3">
-        <v>18757600</v>
+        <v>19721200</v>
       </c>
       <c r="J48" s="3">
+        <v>18447100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18182200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12216300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>247700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2323000</v>
+        <v>1926900</v>
       </c>
       <c r="E49" s="3">
-        <v>2264400</v>
+        <v>2284600</v>
       </c>
       <c r="F49" s="3">
-        <v>2195000</v>
+        <v>2226900</v>
       </c>
       <c r="G49" s="3">
-        <v>2077800</v>
+        <v>2158700</v>
       </c>
       <c r="H49" s="3">
-        <v>1982100</v>
+        <v>2043400</v>
       </c>
       <c r="I49" s="3">
-        <v>1898400</v>
+        <v>1949300</v>
       </c>
       <c r="J49" s="3">
+        <v>1866900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4946300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5617400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3697500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6650900</v>
+        <v>8364200</v>
       </c>
       <c r="E52" s="3">
-        <v>6232200</v>
+        <v>6540800</v>
       </c>
       <c r="F52" s="3">
-        <v>4868500</v>
+        <v>6129000</v>
       </c>
       <c r="G52" s="3">
-        <v>5385300</v>
+        <v>4787900</v>
       </c>
       <c r="H52" s="3">
-        <v>4586200</v>
+        <v>5296200</v>
       </c>
       <c r="I52" s="3">
-        <v>3806300</v>
+        <v>4510300</v>
       </c>
       <c r="J52" s="3">
+        <v>3743300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2311100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3152400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2609400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51028700</v>
+        <v>46449000</v>
       </c>
       <c r="E54" s="3">
-        <v>45710400</v>
+        <v>50184000</v>
       </c>
       <c r="F54" s="3">
-        <v>42797600</v>
+        <v>44953800</v>
       </c>
       <c r="G54" s="3">
-        <v>41504600</v>
+        <v>42089200</v>
       </c>
       <c r="H54" s="3">
-        <v>38831000</v>
+        <v>40817600</v>
       </c>
       <c r="I54" s="3">
-        <v>36453000</v>
+        <v>38188300</v>
       </c>
       <c r="J54" s="3">
+        <v>35849600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34819000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31379700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32912500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4452300</v>
+        <v>2455100</v>
       </c>
       <c r="E57" s="3">
-        <v>4679500</v>
+        <v>4378600</v>
       </c>
       <c r="F57" s="3">
-        <v>4104200</v>
+        <v>4602100</v>
       </c>
       <c r="G57" s="3">
-        <v>3668700</v>
+        <v>4036200</v>
       </c>
       <c r="H57" s="3">
-        <v>3526400</v>
+        <v>3608000</v>
       </c>
       <c r="I57" s="3">
-        <v>3520400</v>
+        <v>3468000</v>
       </c>
       <c r="J57" s="3">
+        <v>3462100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9056400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4652200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4961700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1974900</v>
+        <v>3682100</v>
       </c>
       <c r="E58" s="3">
-        <v>2052700</v>
+        <v>1942200</v>
       </c>
       <c r="F58" s="3">
-        <v>825400</v>
+        <v>2018700</v>
       </c>
       <c r="G58" s="3">
-        <v>989300</v>
+        <v>811700</v>
       </c>
       <c r="H58" s="3">
-        <v>1685400</v>
+        <v>972900</v>
       </c>
       <c r="I58" s="3">
-        <v>947400</v>
+        <v>1657500</v>
       </c>
       <c r="J58" s="3">
+        <v>931700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5567100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2124600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1446100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12695300</v>
+        <v>11107600</v>
       </c>
       <c r="E59" s="3">
-        <v>12664200</v>
+        <v>12485100</v>
       </c>
       <c r="F59" s="3">
-        <v>10188000</v>
+        <v>12454500</v>
       </c>
       <c r="G59" s="3">
-        <v>8511000</v>
+        <v>10019400</v>
       </c>
       <c r="H59" s="3">
-        <v>9665300</v>
+        <v>8370100</v>
       </c>
       <c r="I59" s="3">
-        <v>8659300</v>
+        <v>9505300</v>
       </c>
       <c r="J59" s="3">
+        <v>8516000</v>
+      </c>
+      <c r="K59" s="3">
         <v>12075600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10309100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8550000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19122500</v>
+        <v>17244800</v>
       </c>
       <c r="E60" s="3">
-        <v>19396400</v>
+        <v>18805900</v>
       </c>
       <c r="F60" s="3">
-        <v>15117600</v>
+        <v>19075300</v>
       </c>
       <c r="G60" s="3">
-        <v>13169000</v>
+        <v>14867300</v>
       </c>
       <c r="H60" s="3">
-        <v>14877100</v>
+        <v>12951000</v>
       </c>
       <c r="I60" s="3">
-        <v>13127100</v>
+        <v>14630900</v>
       </c>
       <c r="J60" s="3">
+        <v>12909800</v>
+      </c>
+      <c r="K60" s="3">
         <v>13105600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10709900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11463400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10043300</v>
+        <v>14413300</v>
       </c>
       <c r="E61" s="3">
-        <v>5990600</v>
+        <v>9877100</v>
       </c>
       <c r="F61" s="3">
-        <v>7347100</v>
+        <v>5891400</v>
       </c>
       <c r="G61" s="3">
-        <v>6951100</v>
+        <v>7225400</v>
       </c>
       <c r="H61" s="3">
-        <v>6018100</v>
+        <v>6836100</v>
       </c>
       <c r="I61" s="3">
-        <v>6416400</v>
+        <v>5918500</v>
       </c>
       <c r="J61" s="3">
+        <v>6310200</v>
+      </c>
+      <c r="K61" s="3">
         <v>5769300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6529800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6817500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9594700</v>
+        <v>13159200</v>
       </c>
       <c r="E62" s="3">
-        <v>8872200</v>
+        <v>9435900</v>
       </c>
       <c r="F62" s="3">
-        <v>9435600</v>
+        <v>8725400</v>
       </c>
       <c r="G62" s="3">
-        <v>12832800</v>
+        <v>9279400</v>
       </c>
       <c r="H62" s="3">
-        <v>10944000</v>
+        <v>12620400</v>
       </c>
       <c r="I62" s="3">
-        <v>12087600</v>
+        <v>10762900</v>
       </c>
       <c r="J62" s="3">
+        <v>11887500</v>
+      </c>
+      <c r="K62" s="3">
         <v>10947600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10103800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9266100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38890900</v>
+        <v>44864400</v>
       </c>
       <c r="E66" s="3">
-        <v>34390800</v>
+        <v>38247100</v>
       </c>
       <c r="F66" s="3">
-        <v>32023500</v>
+        <v>33821500</v>
       </c>
       <c r="G66" s="3">
-        <v>33059400</v>
+        <v>31493400</v>
       </c>
       <c r="H66" s="3">
-        <v>31931400</v>
+        <v>32512200</v>
       </c>
       <c r="I66" s="3">
-        <v>31706500</v>
+        <v>31402800</v>
       </c>
       <c r="J66" s="3">
+        <v>31181700</v>
+      </c>
+      <c r="K66" s="3">
         <v>27574800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26132400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26301600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8591100</v>
+        <v>-1317600</v>
       </c>
       <c r="E72" s="3">
-        <v>8423600</v>
+        <v>8893600</v>
       </c>
       <c r="F72" s="3">
-        <v>7643700</v>
+        <v>8687700</v>
       </c>
       <c r="G72" s="3">
-        <v>4367300</v>
+        <v>7826600</v>
       </c>
       <c r="H72" s="3">
-        <v>4339800</v>
+        <v>4556200</v>
       </c>
       <c r="I72" s="3">
-        <v>1921100</v>
+        <v>4488000</v>
       </c>
       <c r="J72" s="3">
+        <v>2089300</v>
+      </c>
+      <c r="K72" s="3">
         <v>3770400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7758500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8192000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12137800</v>
+        <v>1584600</v>
       </c>
       <c r="E76" s="3">
-        <v>11319600</v>
+        <v>11936900</v>
       </c>
       <c r="F76" s="3">
-        <v>10774200</v>
+        <v>11132300</v>
       </c>
       <c r="G76" s="3">
-        <v>8445200</v>
+        <v>10595800</v>
       </c>
       <c r="H76" s="3">
-        <v>6899700</v>
+        <v>8305400</v>
       </c>
       <c r="I76" s="3">
-        <v>4746500</v>
+        <v>6785500</v>
       </c>
       <c r="J76" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7244200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5247300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6610900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1451000</v>
+        <v>-7911300</v>
       </c>
       <c r="E81" s="3">
-        <v>2587400</v>
+        <v>1427000</v>
       </c>
       <c r="F81" s="3">
-        <v>2799100</v>
+        <v>2544600</v>
       </c>
       <c r="G81" s="3">
-        <v>2124500</v>
+        <v>2752800</v>
       </c>
       <c r="H81" s="3">
-        <v>2031100</v>
+        <v>2089300</v>
       </c>
       <c r="I81" s="3">
-        <v>65800</v>
+        <v>1997500</v>
       </c>
       <c r="J81" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K81" s="3">
         <v>374400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1348300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3275200</v>
+        <v>5167900</v>
       </c>
       <c r="E83" s="3">
-        <v>2605300</v>
+        <v>3221000</v>
       </c>
       <c r="F83" s="3">
-        <v>2751300</v>
+        <v>2562200</v>
       </c>
       <c r="G83" s="3">
-        <v>2111300</v>
+        <v>2705700</v>
       </c>
       <c r="H83" s="3">
-        <v>2043100</v>
+        <v>2076300</v>
       </c>
       <c r="I83" s="3">
-        <v>1813400</v>
+        <v>2009300</v>
       </c>
       <c r="J83" s="3">
+        <v>1783400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2080200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2113700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2089400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4801500</v>
+        <v>-2738700</v>
       </c>
       <c r="E89" s="3">
-        <v>4915200</v>
+        <v>4722100</v>
       </c>
       <c r="F89" s="3">
-        <v>6421200</v>
+        <v>4833800</v>
       </c>
       <c r="G89" s="3">
-        <v>3882900</v>
+        <v>6314900</v>
       </c>
       <c r="H89" s="3">
-        <v>4058700</v>
+        <v>3818600</v>
       </c>
       <c r="I89" s="3">
-        <v>2364900</v>
+        <v>3991500</v>
       </c>
       <c r="J89" s="3">
+        <v>2325700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3935500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3120500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2711500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4170000</v>
+        <v>-1469300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4436700</v>
+        <v>-4100900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3992900</v>
+        <v>-4363300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2583800</v>
+        <v>-3926800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2935500</v>
+        <v>-2541000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3228500</v>
+        <v>-2886900</v>
       </c>
       <c r="J91" s="3">
+        <v>-3175100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2923500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2516600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2870000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4625700</v>
+        <v>-2755100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3910400</v>
+        <v>-4549100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5988200</v>
+        <v>-3845700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3384000</v>
+        <v>-5889100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3915200</v>
+        <v>-3328000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1782300</v>
+        <v>-3850400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1752800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2875700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2404600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-495200</v>
+        <v>-24700</v>
       </c>
       <c r="E96" s="3">
-        <v>-417500</v>
+        <v>-487000</v>
       </c>
       <c r="F96" s="3">
-        <v>-277500</v>
+        <v>-410600</v>
       </c>
       <c r="G96" s="3">
-        <v>-278700</v>
+        <v>-272900</v>
       </c>
       <c r="H96" s="3">
+        <v>-274100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-261200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-265600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-143800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-347400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-192600</v>
+        <v>5971400</v>
       </c>
       <c r="E100" s="3">
-        <v>-748800</v>
+        <v>-189400</v>
       </c>
       <c r="F100" s="3">
-        <v>-293100</v>
+        <v>-736400</v>
       </c>
       <c r="G100" s="3">
-        <v>-325400</v>
+        <v>-288200</v>
       </c>
       <c r="H100" s="3">
-        <v>31100</v>
+        <v>-320000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1282300</v>
+        <v>30600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1261100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1081400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1668000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6000</v>
+        <v>-38800</v>
       </c>
       <c r="E101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F101" s="3">
         <v>2400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-44300</v>
-      </c>
       <c r="G101" s="3">
-        <v>-3600</v>
+        <v>-43500</v>
       </c>
       <c r="H101" s="3">
-        <v>26300</v>
+        <v>-3500</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>25900</v>
       </c>
       <c r="J101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22700</v>
+        <v>438800</v>
       </c>
       <c r="E102" s="3">
-        <v>258400</v>
+        <v>-22400</v>
       </c>
       <c r="F102" s="3">
-        <v>95700</v>
+        <v>254100</v>
       </c>
       <c r="G102" s="3">
-        <v>169900</v>
+        <v>94100</v>
       </c>
       <c r="H102" s="3">
-        <v>201000</v>
+        <v>167000</v>
       </c>
       <c r="I102" s="3">
-        <v>-692600</v>
+        <v>197600</v>
       </c>
       <c r="J102" s="3">
+        <v>-681100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-37100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>602800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-246500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15986100</v>
+        <v>16646400</v>
       </c>
       <c r="E8" s="3">
-        <v>42849200</v>
+        <v>44619000</v>
       </c>
       <c r="F8" s="3">
-        <v>41811600</v>
+        <v>43538600</v>
       </c>
       <c r="G8" s="3">
-        <v>41855100</v>
+        <v>43583900</v>
       </c>
       <c r="H8" s="3">
-        <v>37244800</v>
+        <v>38783200</v>
       </c>
       <c r="I8" s="3">
-        <v>37710700</v>
+        <v>39268300</v>
       </c>
       <c r="J8" s="3">
-        <v>35304900</v>
+        <v>36763200</v>
       </c>
       <c r="K8" s="3">
         <v>35918300</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9738200</v>
+        <v>10140500</v>
       </c>
       <c r="E9" s="3">
-        <v>22518600</v>
+        <v>23448800</v>
       </c>
       <c r="F9" s="3">
-        <v>20982300</v>
+        <v>21848900</v>
       </c>
       <c r="G9" s="3">
-        <v>21869300</v>
+        <v>22772600</v>
       </c>
       <c r="H9" s="3">
-        <v>20015300</v>
+        <v>20842000</v>
       </c>
       <c r="I9" s="3">
-        <v>20512900</v>
+        <v>21360200</v>
       </c>
       <c r="J9" s="3">
-        <v>20082300</v>
+        <v>20911800</v>
       </c>
       <c r="K9" s="3">
         <v>41498600</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6247900</v>
+        <v>6505900</v>
       </c>
       <c r="E10" s="3">
-        <v>20330500</v>
+        <v>21170300</v>
       </c>
       <c r="F10" s="3">
-        <v>20829300</v>
+        <v>21689700</v>
       </c>
       <c r="G10" s="3">
-        <v>19985900</v>
+        <v>20811400</v>
       </c>
       <c r="H10" s="3">
-        <v>17229600</v>
+        <v>17941200</v>
       </c>
       <c r="I10" s="3">
-        <v>17197800</v>
+        <v>17908100</v>
       </c>
       <c r="J10" s="3">
-        <v>15222600</v>
+        <v>15851400</v>
       </c>
       <c r="K10" s="3">
         <v>-5580300</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2136300</v>
+        <v>2224600</v>
       </c>
       <c r="E14" s="3">
-        <v>104700</v>
+        <v>109000</v>
       </c>
       <c r="F14" s="3">
-        <v>38800</v>
+        <v>40400</v>
       </c>
       <c r="G14" s="3">
-        <v>305900</v>
+        <v>318500</v>
       </c>
       <c r="H14" s="3">
-        <v>205900</v>
+        <v>214400</v>
       </c>
       <c r="I14" s="3">
-        <v>182300</v>
+        <v>189900</v>
       </c>
       <c r="J14" s="3">
-        <v>91800</v>
+        <v>95500</v>
       </c>
       <c r="K14" s="3">
         <v>448600</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3012800</v>
+        <v>3137200</v>
       </c>
       <c r="E15" s="3">
-        <v>3166900</v>
+        <v>3297700</v>
       </c>
       <c r="F15" s="3">
-        <v>2565700</v>
+        <v>2671700</v>
       </c>
       <c r="G15" s="3">
-        <v>2398700</v>
+        <v>2497800</v>
       </c>
       <c r="H15" s="3">
-        <v>1865800</v>
+        <v>1942800</v>
       </c>
       <c r="I15" s="3">
-        <v>1830500</v>
+        <v>1906100</v>
       </c>
       <c r="J15" s="3">
-        <v>1679900</v>
+        <v>1749300</v>
       </c>
       <c r="K15" s="3">
         <v>3898400</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24325600</v>
+        <v>25330300</v>
       </c>
       <c r="E17" s="3">
-        <v>40862300</v>
+        <v>42550000</v>
       </c>
       <c r="F17" s="3">
-        <v>38517700</v>
+        <v>40108600</v>
       </c>
       <c r="G17" s="3">
-        <v>38161200</v>
+        <v>39737500</v>
       </c>
       <c r="H17" s="3">
-        <v>34668500</v>
+        <v>36100500</v>
       </c>
       <c r="I17" s="3">
-        <v>35881400</v>
+        <v>37363400</v>
       </c>
       <c r="J17" s="3">
-        <v>34270900</v>
+        <v>35686400</v>
       </c>
       <c r="K17" s="3">
         <v>34903900</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8339500</v>
+        <v>-8684000</v>
       </c>
       <c r="E18" s="3">
-        <v>1986900</v>
+        <v>2069000</v>
       </c>
       <c r="F18" s="3">
-        <v>3293900</v>
+        <v>3430000</v>
       </c>
       <c r="G18" s="3">
-        <v>3693900</v>
+        <v>3846500</v>
       </c>
       <c r="H18" s="3">
-        <v>2576300</v>
+        <v>2682700</v>
       </c>
       <c r="I18" s="3">
-        <v>1829300</v>
+        <v>1904900</v>
       </c>
       <c r="J18" s="3">
-        <v>1034100</v>
+        <v>1076800</v>
       </c>
       <c r="K18" s="3">
         <v>1014400</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1452900</v>
+        <v>-1512900</v>
       </c>
       <c r="E20" s="3">
-        <v>528200</v>
+        <v>550000</v>
       </c>
       <c r="F20" s="3">
-        <v>107100</v>
+        <v>111500</v>
       </c>
       <c r="G20" s="3">
-        <v>265900</v>
+        <v>276800</v>
       </c>
       <c r="H20" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="I20" s="3">
-        <v>747000</v>
+        <v>777900</v>
       </c>
       <c r="J20" s="3">
-        <v>-536400</v>
+        <v>-558600</v>
       </c>
       <c r="K20" s="3">
         <v>393500</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4603300</v>
+        <v>-4830800</v>
       </c>
       <c r="E21" s="3">
-        <v>5749300</v>
+        <v>5963500</v>
       </c>
       <c r="F21" s="3">
-        <v>5973600</v>
+        <v>6201900</v>
       </c>
       <c r="G21" s="3">
-        <v>6676500</v>
+        <v>6932700</v>
       </c>
       <c r="H21" s="3">
-        <v>4882300</v>
+        <v>5069000</v>
       </c>
       <c r="I21" s="3">
-        <v>4593800</v>
+        <v>4769000</v>
       </c>
       <c r="J21" s="3">
-        <v>2288300</v>
+        <v>2369900</v>
       </c>
       <c r="K21" s="3">
         <v>3479600</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>361200</v>
+        <v>376100</v>
       </c>
       <c r="E22" s="3">
-        <v>327000</v>
+        <v>340500</v>
       </c>
       <c r="F22" s="3">
-        <v>125900</v>
+        <v>131100</v>
       </c>
       <c r="G22" s="3">
-        <v>244700</v>
+        <v>254800</v>
       </c>
       <c r="H22" s="3">
-        <v>152900</v>
+        <v>159200</v>
       </c>
       <c r="I22" s="3">
-        <v>192900</v>
+        <v>200900</v>
       </c>
       <c r="J22" s="3">
-        <v>285900</v>
+        <v>297700</v>
       </c>
       <c r="K22" s="3">
         <v>754800</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10153500</v>
+        <v>-10572900</v>
       </c>
       <c r="E23" s="3">
-        <v>2188100</v>
+        <v>2278500</v>
       </c>
       <c r="F23" s="3">
-        <v>3275100</v>
+        <v>3410400</v>
       </c>
       <c r="G23" s="3">
-        <v>3715100</v>
+        <v>3868500</v>
       </c>
       <c r="H23" s="3">
-        <v>2644500</v>
+        <v>2753800</v>
       </c>
       <c r="I23" s="3">
-        <v>2383400</v>
+        <v>2481800</v>
       </c>
       <c r="J23" s="3">
-        <v>211800</v>
+        <v>220500</v>
       </c>
       <c r="K23" s="3">
         <v>653100</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2194000</v>
+        <v>-2284600</v>
       </c>
       <c r="E24" s="3">
-        <v>723500</v>
+        <v>753400</v>
       </c>
       <c r="F24" s="3">
-        <v>691700</v>
+        <v>720300</v>
       </c>
       <c r="G24" s="3">
-        <v>922300</v>
+        <v>960400</v>
       </c>
       <c r="H24" s="3">
-        <v>523500</v>
+        <v>545100</v>
       </c>
       <c r="I24" s="3">
-        <v>357600</v>
+        <v>372400</v>
       </c>
       <c r="J24" s="3">
-        <v>123500</v>
+        <v>128600</v>
       </c>
       <c r="K24" s="3">
         <v>263200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7959500</v>
+        <v>-8288300</v>
       </c>
       <c r="E26" s="3">
-        <v>1464600</v>
+        <v>1525100</v>
       </c>
       <c r="F26" s="3">
-        <v>2583400</v>
+        <v>2690100</v>
       </c>
       <c r="G26" s="3">
-        <v>2792800</v>
+        <v>2908100</v>
       </c>
       <c r="H26" s="3">
-        <v>2121000</v>
+        <v>2208700</v>
       </c>
       <c r="I26" s="3">
-        <v>2025800</v>
+        <v>2109400</v>
       </c>
       <c r="J26" s="3">
-        <v>88200</v>
+        <v>91900</v>
       </c>
       <c r="K26" s="3">
         <v>390000</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7911300</v>
+        <v>-8238100</v>
       </c>
       <c r="E27" s="3">
-        <v>1427000</v>
+        <v>1485900</v>
       </c>
       <c r="F27" s="3">
-        <v>2544600</v>
+        <v>2649700</v>
       </c>
       <c r="G27" s="3">
-        <v>2752800</v>
+        <v>2866500</v>
       </c>
       <c r="H27" s="3">
-        <v>2089300</v>
+        <v>2175600</v>
       </c>
       <c r="I27" s="3">
-        <v>1997500</v>
+        <v>2080000</v>
       </c>
       <c r="J27" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="K27" s="3">
         <v>374400</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1452900</v>
+        <v>1512900</v>
       </c>
       <c r="E32" s="3">
-        <v>-528200</v>
+        <v>-550000</v>
       </c>
       <c r="F32" s="3">
-        <v>-107100</v>
+        <v>-111500</v>
       </c>
       <c r="G32" s="3">
-        <v>-265900</v>
+        <v>-276800</v>
       </c>
       <c r="H32" s="3">
-        <v>-221200</v>
+        <v>-230300</v>
       </c>
       <c r="I32" s="3">
-        <v>-747000</v>
+        <v>-777900</v>
       </c>
       <c r="J32" s="3">
-        <v>536400</v>
+        <v>558600</v>
       </c>
       <c r="K32" s="3">
         <v>-393500</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7911300</v>
+        <v>-8238100</v>
       </c>
       <c r="E33" s="3">
-        <v>1427000</v>
+        <v>1485900</v>
       </c>
       <c r="F33" s="3">
-        <v>2544600</v>
+        <v>2649700</v>
       </c>
       <c r="G33" s="3">
-        <v>2752800</v>
+        <v>2866500</v>
       </c>
       <c r="H33" s="3">
-        <v>2089300</v>
+        <v>2175600</v>
       </c>
       <c r="I33" s="3">
-        <v>1997500</v>
+        <v>2080000</v>
       </c>
       <c r="J33" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="K33" s="3">
         <v>374400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7911300</v>
+        <v>-8238100</v>
       </c>
       <c r="E35" s="3">
-        <v>1427000</v>
+        <v>1485900</v>
       </c>
       <c r="F35" s="3">
-        <v>2544600</v>
+        <v>2649700</v>
       </c>
       <c r="G35" s="3">
-        <v>2752800</v>
+        <v>2866500</v>
       </c>
       <c r="H35" s="3">
-        <v>2089300</v>
+        <v>2175600</v>
       </c>
       <c r="I35" s="3">
-        <v>1997500</v>
+        <v>2080000</v>
       </c>
       <c r="J35" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="K35" s="3">
         <v>374400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2124600</v>
+        <v>2212300</v>
       </c>
       <c r="E41" s="3">
-        <v>1664600</v>
+        <v>1733400</v>
       </c>
       <c r="F41" s="3">
-        <v>1687000</v>
+        <v>1756600</v>
       </c>
       <c r="G41" s="3">
-        <v>1432900</v>
+        <v>1492000</v>
       </c>
       <c r="H41" s="3">
-        <v>1338700</v>
+        <v>1394000</v>
       </c>
       <c r="I41" s="3">
-        <v>1171700</v>
+        <v>1220100</v>
       </c>
       <c r="J41" s="3">
-        <v>974100</v>
+        <v>1014300</v>
       </c>
       <c r="K41" s="3">
         <v>3539600</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4298600</v>
+        <v>4476100</v>
       </c>
       <c r="E42" s="3">
-        <v>2317500</v>
+        <v>2413200</v>
       </c>
       <c r="F42" s="3">
-        <v>2118700</v>
+        <v>2206200</v>
       </c>
       <c r="G42" s="3">
-        <v>3211600</v>
+        <v>3344200</v>
       </c>
       <c r="H42" s="3">
-        <v>3292700</v>
+        <v>3428700</v>
       </c>
       <c r="I42" s="3">
-        <v>2466900</v>
+        <v>2568800</v>
       </c>
       <c r="J42" s="3">
-        <v>2246900</v>
+        <v>2339700</v>
       </c>
       <c r="K42" s="3">
         <v>3936700</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3843300</v>
+        <v>4002000</v>
       </c>
       <c r="E43" s="3">
-        <v>6878400</v>
+        <v>7162500</v>
       </c>
       <c r="F43" s="3">
-        <v>6903100</v>
+        <v>7188200</v>
       </c>
       <c r="G43" s="3">
-        <v>6318400</v>
+        <v>6579400</v>
       </c>
       <c r="H43" s="3">
-        <v>5419700</v>
+        <v>5643500</v>
       </c>
       <c r="I43" s="3">
-        <v>5263200</v>
+        <v>5480600</v>
       </c>
       <c r="J43" s="3">
-        <v>4843200</v>
+        <v>5043300</v>
       </c>
       <c r="K43" s="3">
         <v>12977600</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>854100</v>
+        <v>889300</v>
       </c>
       <c r="E44" s="3">
-        <v>1152900</v>
+        <v>1200500</v>
       </c>
       <c r="F44" s="3">
-        <v>1138800</v>
+        <v>1185800</v>
       </c>
       <c r="G44" s="3">
-        <v>1067000</v>
+        <v>1111100</v>
       </c>
       <c r="H44" s="3">
-        <v>959900</v>
+        <v>999600</v>
       </c>
       <c r="I44" s="3">
-        <v>895200</v>
+        <v>932200</v>
       </c>
       <c r="J44" s="3">
-        <v>823500</v>
+        <v>857500</v>
       </c>
       <c r="K44" s="3">
         <v>1533500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>690500</v>
+        <v>719100</v>
       </c>
       <c r="E45" s="3">
-        <v>1262300</v>
+        <v>1314400</v>
       </c>
       <c r="F45" s="3">
-        <v>685800</v>
+        <v>714200</v>
       </c>
       <c r="G45" s="3">
-        <v>944600</v>
+        <v>983700</v>
       </c>
       <c r="H45" s="3">
-        <v>979900</v>
+        <v>1020400</v>
       </c>
       <c r="I45" s="3">
-        <v>715300</v>
+        <v>744800</v>
       </c>
       <c r="J45" s="3">
-        <v>814100</v>
+        <v>847700</v>
       </c>
       <c r="K45" s="3">
         <v>811000</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11811100</v>
+        <v>12298900</v>
       </c>
       <c r="E46" s="3">
-        <v>13275700</v>
+        <v>13824000</v>
       </c>
       <c r="F46" s="3">
-        <v>12533400</v>
+        <v>13051000</v>
       </c>
       <c r="G46" s="3">
-        <v>12974500</v>
+        <v>13510400</v>
       </c>
       <c r="H46" s="3">
-        <v>11991000</v>
+        <v>12486300</v>
       </c>
       <c r="I46" s="3">
-        <v>10512300</v>
+        <v>10946500</v>
       </c>
       <c r="J46" s="3">
-        <v>9701800</v>
+        <v>10102500</v>
       </c>
       <c r="K46" s="3">
         <v>11590000</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1391700</v>
+        <v>1449200</v>
       </c>
       <c r="E47" s="3">
-        <v>1743400</v>
+        <v>1815400</v>
       </c>
       <c r="F47" s="3">
-        <v>1716400</v>
+        <v>1787300</v>
       </c>
       <c r="G47" s="3">
-        <v>1558700</v>
+        <v>1623100</v>
       </c>
       <c r="H47" s="3">
-        <v>1491700</v>
+        <v>1553300</v>
       </c>
       <c r="I47" s="3">
-        <v>1495200</v>
+        <v>1557000</v>
       </c>
       <c r="J47" s="3">
-        <v>2090500</v>
+        <v>2176800</v>
       </c>
       <c r="K47" s="3">
         <v>1794300</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22955100</v>
+        <v>23903200</v>
       </c>
       <c r="E48" s="3">
-        <v>26339600</v>
+        <v>27427500</v>
       </c>
       <c r="F48" s="3">
-        <v>22348100</v>
+        <v>23271100</v>
       </c>
       <c r="G48" s="3">
-        <v>20610500</v>
+        <v>21461800</v>
       </c>
       <c r="H48" s="3">
-        <v>19995300</v>
+        <v>20821200</v>
       </c>
       <c r="I48" s="3">
-        <v>19721200</v>
+        <v>20535700</v>
       </c>
       <c r="J48" s="3">
-        <v>18447100</v>
+        <v>19209100</v>
       </c>
       <c r="K48" s="3">
         <v>18182200</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1926900</v>
+        <v>2006500</v>
       </c>
       <c r="E49" s="3">
-        <v>2284600</v>
+        <v>2378900</v>
       </c>
       <c r="F49" s="3">
-        <v>2226900</v>
+        <v>2318900</v>
       </c>
       <c r="G49" s="3">
-        <v>2158700</v>
+        <v>2247900</v>
       </c>
       <c r="H49" s="3">
-        <v>2043400</v>
+        <v>2127800</v>
       </c>
       <c r="I49" s="3">
-        <v>1949300</v>
+        <v>2029800</v>
       </c>
       <c r="J49" s="3">
-        <v>1866900</v>
+        <v>1944100</v>
       </c>
       <c r="K49" s="3">
         <v>4946300</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8364200</v>
+        <v>8709700</v>
       </c>
       <c r="E52" s="3">
-        <v>6540800</v>
+        <v>6810900</v>
       </c>
       <c r="F52" s="3">
-        <v>6129000</v>
+        <v>6382200</v>
       </c>
       <c r="G52" s="3">
-        <v>4787900</v>
+        <v>4985700</v>
       </c>
       <c r="H52" s="3">
-        <v>5296200</v>
+        <v>5514900</v>
       </c>
       <c r="I52" s="3">
-        <v>4510300</v>
+        <v>4696600</v>
       </c>
       <c r="J52" s="3">
-        <v>3743300</v>
+        <v>3897900</v>
       </c>
       <c r="K52" s="3">
         <v>2311100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46449000</v>
+        <v>48367500</v>
       </c>
       <c r="E54" s="3">
-        <v>50184000</v>
+        <v>52256800</v>
       </c>
       <c r="F54" s="3">
-        <v>44953800</v>
+        <v>46810500</v>
       </c>
       <c r="G54" s="3">
-        <v>42089200</v>
+        <v>43827700</v>
       </c>
       <c r="H54" s="3">
-        <v>40817600</v>
+        <v>42503500</v>
       </c>
       <c r="I54" s="3">
-        <v>38188300</v>
+        <v>39765600</v>
       </c>
       <c r="J54" s="3">
-        <v>35849600</v>
+        <v>37330300</v>
       </c>
       <c r="K54" s="3">
         <v>34819000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2455100</v>
+        <v>2556600</v>
       </c>
       <c r="E57" s="3">
-        <v>4378600</v>
+        <v>4559400</v>
       </c>
       <c r="F57" s="3">
-        <v>4602100</v>
+        <v>4792200</v>
       </c>
       <c r="G57" s="3">
-        <v>4036200</v>
+        <v>4202900</v>
       </c>
       <c r="H57" s="3">
-        <v>3608000</v>
+        <v>3757000</v>
       </c>
       <c r="I57" s="3">
-        <v>3468000</v>
+        <v>3611300</v>
       </c>
       <c r="J57" s="3">
-        <v>3462100</v>
+        <v>3605100</v>
       </c>
       <c r="K57" s="3">
         <v>9056400</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3682100</v>
+        <v>3834200</v>
       </c>
       <c r="E58" s="3">
-        <v>1942200</v>
+        <v>2022500</v>
       </c>
       <c r="F58" s="3">
-        <v>2018700</v>
+        <v>2102100</v>
       </c>
       <c r="G58" s="3">
-        <v>811700</v>
+        <v>845200</v>
       </c>
       <c r="H58" s="3">
-        <v>972900</v>
+        <v>1013100</v>
       </c>
       <c r="I58" s="3">
-        <v>1657500</v>
+        <v>1726000</v>
       </c>
       <c r="J58" s="3">
-        <v>931700</v>
+        <v>970200</v>
       </c>
       <c r="K58" s="3">
         <v>5567100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11107600</v>
+        <v>11566400</v>
       </c>
       <c r="E59" s="3">
-        <v>12485100</v>
+        <v>13000800</v>
       </c>
       <c r="F59" s="3">
-        <v>12454500</v>
+        <v>12969000</v>
       </c>
       <c r="G59" s="3">
-        <v>10019400</v>
+        <v>10433200</v>
       </c>
       <c r="H59" s="3">
-        <v>8370100</v>
+        <v>8715800</v>
       </c>
       <c r="I59" s="3">
-        <v>9505300</v>
+        <v>9897900</v>
       </c>
       <c r="J59" s="3">
-        <v>8516000</v>
+        <v>8867700</v>
       </c>
       <c r="K59" s="3">
         <v>12075600</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17244800</v>
+        <v>17957100</v>
       </c>
       <c r="E60" s="3">
-        <v>18805900</v>
+        <v>19582700</v>
       </c>
       <c r="F60" s="3">
-        <v>19075300</v>
+        <v>19863200</v>
       </c>
       <c r="G60" s="3">
-        <v>14867300</v>
+        <v>15481400</v>
       </c>
       <c r="H60" s="3">
-        <v>12951000</v>
+        <v>13485900</v>
       </c>
       <c r="I60" s="3">
-        <v>14630900</v>
+        <v>15235200</v>
       </c>
       <c r="J60" s="3">
-        <v>12909800</v>
+        <v>13443000</v>
       </c>
       <c r="K60" s="3">
         <v>13105600</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14413300</v>
+        <v>15008600</v>
       </c>
       <c r="E61" s="3">
-        <v>9877100</v>
+        <v>10285000</v>
       </c>
       <c r="F61" s="3">
-        <v>5891400</v>
+        <v>6134700</v>
       </c>
       <c r="G61" s="3">
-        <v>7225400</v>
+        <v>7523900</v>
       </c>
       <c r="H61" s="3">
-        <v>6836100</v>
+        <v>7118400</v>
       </c>
       <c r="I61" s="3">
-        <v>5918500</v>
+        <v>6162900</v>
       </c>
       <c r="J61" s="3">
-        <v>6310200</v>
+        <v>6570800</v>
       </c>
       <c r="K61" s="3">
         <v>5769300</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13159200</v>
+        <v>13702700</v>
       </c>
       <c r="E62" s="3">
-        <v>9435900</v>
+        <v>9825600</v>
       </c>
       <c r="F62" s="3">
-        <v>8725400</v>
+        <v>9085800</v>
       </c>
       <c r="G62" s="3">
-        <v>9279400</v>
+        <v>9662700</v>
       </c>
       <c r="H62" s="3">
-        <v>12620400</v>
+        <v>13141700</v>
       </c>
       <c r="I62" s="3">
-        <v>10762900</v>
+        <v>11207400</v>
       </c>
       <c r="J62" s="3">
-        <v>11887500</v>
+        <v>12378500</v>
       </c>
       <c r="K62" s="3">
         <v>10947600</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44864400</v>
+        <v>46717400</v>
       </c>
       <c r="E66" s="3">
-        <v>38247100</v>
+        <v>39826900</v>
       </c>
       <c r="F66" s="3">
-        <v>33821500</v>
+        <v>35218500</v>
       </c>
       <c r="G66" s="3">
-        <v>31493400</v>
+        <v>32794200</v>
       </c>
       <c r="H66" s="3">
-        <v>32512200</v>
+        <v>33855000</v>
       </c>
       <c r="I66" s="3">
-        <v>31402800</v>
+        <v>32699900</v>
       </c>
       <c r="J66" s="3">
-        <v>31181700</v>
+        <v>32469600</v>
       </c>
       <c r="K66" s="3">
         <v>27574800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1317600</v>
+        <v>-1372000</v>
       </c>
       <c r="E72" s="3">
-        <v>8893600</v>
+        <v>9260900</v>
       </c>
       <c r="F72" s="3">
-        <v>8687700</v>
+        <v>9046600</v>
       </c>
       <c r="G72" s="3">
-        <v>7826600</v>
+        <v>8149900</v>
       </c>
       <c r="H72" s="3">
-        <v>4556200</v>
+        <v>4744400</v>
       </c>
       <c r="I72" s="3">
-        <v>4488000</v>
+        <v>4673300</v>
       </c>
       <c r="J72" s="3">
-        <v>2089300</v>
+        <v>2175600</v>
       </c>
       <c r="K72" s="3">
         <v>3770400</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1584600</v>
+        <v>1650100</v>
       </c>
       <c r="E76" s="3">
-        <v>11936900</v>
+        <v>12430000</v>
       </c>
       <c r="F76" s="3">
-        <v>11132300</v>
+        <v>11592100</v>
       </c>
       <c r="G76" s="3">
-        <v>10595800</v>
+        <v>11033500</v>
       </c>
       <c r="H76" s="3">
-        <v>8305400</v>
+        <v>8648400</v>
       </c>
       <c r="I76" s="3">
-        <v>6785500</v>
+        <v>7065700</v>
       </c>
       <c r="J76" s="3">
-        <v>4668000</v>
+        <v>4860800</v>
       </c>
       <c r="K76" s="3">
         <v>7244200</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7911300</v>
+        <v>-8238100</v>
       </c>
       <c r="E81" s="3">
-        <v>1427000</v>
+        <v>1485900</v>
       </c>
       <c r="F81" s="3">
-        <v>2544600</v>
+        <v>2649700</v>
       </c>
       <c r="G81" s="3">
-        <v>2752800</v>
+        <v>2866500</v>
       </c>
       <c r="H81" s="3">
-        <v>2089300</v>
+        <v>2175600</v>
       </c>
       <c r="I81" s="3">
-        <v>1997500</v>
+        <v>2080000</v>
       </c>
       <c r="J81" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="K81" s="3">
         <v>374400</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5167900</v>
+        <v>5381400</v>
       </c>
       <c r="E83" s="3">
-        <v>3221000</v>
+        <v>3354000</v>
       </c>
       <c r="F83" s="3">
-        <v>2562200</v>
+        <v>2668000</v>
       </c>
       <c r="G83" s="3">
-        <v>2705700</v>
+        <v>2817500</v>
       </c>
       <c r="H83" s="3">
-        <v>2076300</v>
+        <v>2162100</v>
       </c>
       <c r="I83" s="3">
-        <v>2009300</v>
+        <v>2092300</v>
       </c>
       <c r="J83" s="3">
-        <v>1783400</v>
+        <v>1857100</v>
       </c>
       <c r="K83" s="3">
         <v>2080200</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2738700</v>
+        <v>-2851800</v>
       </c>
       <c r="E89" s="3">
-        <v>4722100</v>
+        <v>4917100</v>
       </c>
       <c r="F89" s="3">
-        <v>4833800</v>
+        <v>5033500</v>
       </c>
       <c r="G89" s="3">
-        <v>6314900</v>
+        <v>6575700</v>
       </c>
       <c r="H89" s="3">
-        <v>3818600</v>
+        <v>3976300</v>
       </c>
       <c r="I89" s="3">
-        <v>3991500</v>
+        <v>4156400</v>
       </c>
       <c r="J89" s="3">
-        <v>2325700</v>
+        <v>2421800</v>
       </c>
       <c r="K89" s="3">
         <v>3935500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1469300</v>
+        <v>-1530000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4100900</v>
+        <v>-4270300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4363300</v>
+        <v>-4543500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3926800</v>
+        <v>-4089000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2541000</v>
+        <v>-2646000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2886900</v>
+        <v>-3006100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3175100</v>
+        <v>-3306200</v>
       </c>
       <c r="K91" s="3">
         <v>-2923500</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2755100</v>
+        <v>-2868900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4549100</v>
+        <v>-4737000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3845700</v>
+        <v>-4004500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5889100</v>
+        <v>-6132300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3328000</v>
+        <v>-3465500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3850400</v>
+        <v>-4009400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1752800</v>
+        <v>-1825200</v>
       </c>
       <c r="K94" s="3">
         <v>-2875700</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="E96" s="3">
-        <v>-487000</v>
+        <v>-507100</v>
       </c>
       <c r="F96" s="3">
-        <v>-410600</v>
+        <v>-427500</v>
       </c>
       <c r="G96" s="3">
-        <v>-272900</v>
+        <v>-284200</v>
       </c>
       <c r="H96" s="3">
-        <v>-274100</v>
+        <v>-285400</v>
       </c>
       <c r="I96" s="3">
-        <v>-16500</v>
+        <v>-17100</v>
       </c>
       <c r="J96" s="3">
-        <v>-261200</v>
+        <v>-271900</v>
       </c>
       <c r="K96" s="3">
         <v>-16700</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5971400</v>
+        <v>6218000</v>
       </c>
       <c r="E100" s="3">
-        <v>-189400</v>
+        <v>-197200</v>
       </c>
       <c r="F100" s="3">
-        <v>-736400</v>
+        <v>-766800</v>
       </c>
       <c r="G100" s="3">
-        <v>-288200</v>
+        <v>-300100</v>
       </c>
       <c r="H100" s="3">
-        <v>-320000</v>
+        <v>-333200</v>
       </c>
       <c r="I100" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1261100</v>
+        <v>-1313200</v>
       </c>
       <c r="K100" s="3">
         <v>-1081400</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="E101" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F101" s="3">
         <v>2400</v>
       </c>
       <c r="G101" s="3">
-        <v>-43500</v>
+        <v>-45300</v>
       </c>
       <c r="H101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="I101" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="J101" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K101" s="3">
         <v>-15600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>438800</v>
+        <v>456900</v>
       </c>
       <c r="E102" s="3">
-        <v>-22400</v>
+        <v>-23300</v>
       </c>
       <c r="F102" s="3">
-        <v>254100</v>
+        <v>264600</v>
       </c>
       <c r="G102" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="H102" s="3">
-        <v>167000</v>
+        <v>173900</v>
       </c>
       <c r="I102" s="3">
-        <v>197600</v>
+        <v>205800</v>
       </c>
       <c r="J102" s="3">
-        <v>-681100</v>
+        <v>-709300</v>
       </c>
       <c r="K102" s="3">
         <v>-37100</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16646400</v>
+        <v>15863900</v>
       </c>
       <c r="E8" s="3">
-        <v>44619000</v>
+        <v>42521700</v>
       </c>
       <c r="F8" s="3">
-        <v>43538600</v>
+        <v>41492100</v>
       </c>
       <c r="G8" s="3">
-        <v>43583900</v>
+        <v>41535300</v>
       </c>
       <c r="H8" s="3">
-        <v>38783200</v>
+        <v>36960200</v>
       </c>
       <c r="I8" s="3">
-        <v>39268300</v>
+        <v>37422500</v>
       </c>
       <c r="J8" s="3">
-        <v>36763200</v>
+        <v>35035100</v>
       </c>
       <c r="K8" s="3">
         <v>35918300</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10140500</v>
+        <v>9663800</v>
       </c>
       <c r="E9" s="3">
-        <v>23448800</v>
+        <v>22346600</v>
       </c>
       <c r="F9" s="3">
-        <v>21848900</v>
+        <v>20821900</v>
       </c>
       <c r="G9" s="3">
-        <v>22772600</v>
+        <v>21702200</v>
       </c>
       <c r="H9" s="3">
-        <v>20842000</v>
+        <v>19862300</v>
       </c>
       <c r="I9" s="3">
-        <v>21360200</v>
+        <v>20356100</v>
       </c>
       <c r="J9" s="3">
-        <v>20911800</v>
+        <v>19928900</v>
       </c>
       <c r="K9" s="3">
         <v>41498600</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6505900</v>
+        <v>6200100</v>
       </c>
       <c r="E10" s="3">
-        <v>21170300</v>
+        <v>20175200</v>
       </c>
       <c r="F10" s="3">
-        <v>21689700</v>
+        <v>20670200</v>
       </c>
       <c r="G10" s="3">
-        <v>20811400</v>
+        <v>19833100</v>
       </c>
       <c r="H10" s="3">
-        <v>17941200</v>
+        <v>17097900</v>
       </c>
       <c r="I10" s="3">
-        <v>17908100</v>
+        <v>17066400</v>
       </c>
       <c r="J10" s="3">
-        <v>15851400</v>
+        <v>15106300</v>
       </c>
       <c r="K10" s="3">
         <v>-5580300</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2224600</v>
+        <v>2120000</v>
       </c>
       <c r="E14" s="3">
-        <v>109000</v>
+        <v>103900</v>
       </c>
       <c r="F14" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="G14" s="3">
-        <v>318500</v>
+        <v>303500</v>
       </c>
       <c r="H14" s="3">
-        <v>214400</v>
+        <v>204300</v>
       </c>
       <c r="I14" s="3">
-        <v>189900</v>
+        <v>180900</v>
       </c>
       <c r="J14" s="3">
-        <v>95500</v>
+        <v>91100</v>
       </c>
       <c r="K14" s="3">
         <v>448600</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3137200</v>
+        <v>2989700</v>
       </c>
       <c r="E15" s="3">
-        <v>3297700</v>
+        <v>3142700</v>
       </c>
       <c r="F15" s="3">
-        <v>2671700</v>
+        <v>2546100</v>
       </c>
       <c r="G15" s="3">
-        <v>2497800</v>
+        <v>2380300</v>
       </c>
       <c r="H15" s="3">
-        <v>1942800</v>
+        <v>1851500</v>
       </c>
       <c r="I15" s="3">
-        <v>1906100</v>
+        <v>1816500</v>
       </c>
       <c r="J15" s="3">
-        <v>1749300</v>
+        <v>1667100</v>
       </c>
       <c r="K15" s="3">
         <v>3898400</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25330300</v>
+        <v>24139700</v>
       </c>
       <c r="E17" s="3">
-        <v>42550000</v>
+        <v>40550000</v>
       </c>
       <c r="F17" s="3">
-        <v>40108600</v>
+        <v>38223300</v>
       </c>
       <c r="G17" s="3">
-        <v>39737500</v>
+        <v>37869600</v>
       </c>
       <c r="H17" s="3">
-        <v>36100500</v>
+        <v>34403600</v>
       </c>
       <c r="I17" s="3">
-        <v>37363400</v>
+        <v>35607200</v>
       </c>
       <c r="J17" s="3">
-        <v>35686400</v>
+        <v>34009000</v>
       </c>
       <c r="K17" s="3">
         <v>34903900</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8684000</v>
+        <v>-8275800</v>
       </c>
       <c r="E18" s="3">
-        <v>2069000</v>
+        <v>1971800</v>
       </c>
       <c r="F18" s="3">
-        <v>3430000</v>
+        <v>3268700</v>
       </c>
       <c r="G18" s="3">
-        <v>3846500</v>
+        <v>3665700</v>
       </c>
       <c r="H18" s="3">
-        <v>2682700</v>
+        <v>2556600</v>
       </c>
       <c r="I18" s="3">
-        <v>1904900</v>
+        <v>1815300</v>
       </c>
       <c r="J18" s="3">
-        <v>1076800</v>
+        <v>1026200</v>
       </c>
       <c r="K18" s="3">
         <v>1014400</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1512900</v>
+        <v>-1441800</v>
       </c>
       <c r="E20" s="3">
-        <v>550000</v>
+        <v>524200</v>
       </c>
       <c r="F20" s="3">
-        <v>111500</v>
+        <v>106200</v>
       </c>
       <c r="G20" s="3">
-        <v>276800</v>
+        <v>263800</v>
       </c>
       <c r="H20" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="I20" s="3">
-        <v>777900</v>
+        <v>741300</v>
       </c>
       <c r="J20" s="3">
-        <v>-558600</v>
+        <v>-532300</v>
       </c>
       <c r="K20" s="3">
         <v>393500</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4830800</v>
+        <v>-4573300</v>
       </c>
       <c r="E21" s="3">
-        <v>5963500</v>
+        <v>5702100</v>
       </c>
       <c r="F21" s="3">
-        <v>6201900</v>
+        <v>5925400</v>
       </c>
       <c r="G21" s="3">
-        <v>6932700</v>
+        <v>6622800</v>
       </c>
       <c r="H21" s="3">
-        <v>5069000</v>
+        <v>4842900</v>
       </c>
       <c r="I21" s="3">
-        <v>4769000</v>
+        <v>4556700</v>
       </c>
       <c r="J21" s="3">
-        <v>2369900</v>
+        <v>2269100</v>
       </c>
       <c r="K21" s="3">
         <v>3479600</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>376100</v>
+        <v>358400</v>
       </c>
       <c r="E22" s="3">
-        <v>340500</v>
+        <v>324500</v>
       </c>
       <c r="F22" s="3">
-        <v>131100</v>
+        <v>124900</v>
       </c>
       <c r="G22" s="3">
-        <v>254800</v>
+        <v>242800</v>
       </c>
       <c r="H22" s="3">
-        <v>159200</v>
+        <v>151800</v>
       </c>
       <c r="I22" s="3">
-        <v>200900</v>
+        <v>191500</v>
       </c>
       <c r="J22" s="3">
-        <v>297700</v>
+        <v>283700</v>
       </c>
       <c r="K22" s="3">
         <v>754800</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10572900</v>
+        <v>-10075900</v>
       </c>
       <c r="E23" s="3">
-        <v>2278500</v>
+        <v>2171400</v>
       </c>
       <c r="F23" s="3">
-        <v>3410400</v>
+        <v>3250100</v>
       </c>
       <c r="G23" s="3">
-        <v>3868500</v>
+        <v>3686700</v>
       </c>
       <c r="H23" s="3">
-        <v>2753800</v>
+        <v>2624300</v>
       </c>
       <c r="I23" s="3">
-        <v>2481800</v>
+        <v>2365200</v>
       </c>
       <c r="J23" s="3">
-        <v>220500</v>
+        <v>210100</v>
       </c>
       <c r="K23" s="3">
         <v>653100</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2284600</v>
+        <v>-2177200</v>
       </c>
       <c r="E24" s="3">
-        <v>753400</v>
+        <v>718000</v>
       </c>
       <c r="F24" s="3">
-        <v>720300</v>
+        <v>686400</v>
       </c>
       <c r="G24" s="3">
-        <v>960400</v>
+        <v>915200</v>
       </c>
       <c r="H24" s="3">
-        <v>545100</v>
+        <v>519500</v>
       </c>
       <c r="I24" s="3">
-        <v>372400</v>
+        <v>354900</v>
       </c>
       <c r="J24" s="3">
-        <v>128600</v>
+        <v>122600</v>
       </c>
       <c r="K24" s="3">
         <v>263200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8288300</v>
+        <v>-7898700</v>
       </c>
       <c r="E26" s="3">
-        <v>1525100</v>
+        <v>1453400</v>
       </c>
       <c r="F26" s="3">
-        <v>2690100</v>
+        <v>2563600</v>
       </c>
       <c r="G26" s="3">
-        <v>2908100</v>
+        <v>2771400</v>
       </c>
       <c r="H26" s="3">
-        <v>2208700</v>
+        <v>2104800</v>
       </c>
       <c r="I26" s="3">
-        <v>2109400</v>
+        <v>2010300</v>
       </c>
       <c r="J26" s="3">
-        <v>91900</v>
+        <v>87600</v>
       </c>
       <c r="K26" s="3">
         <v>390000</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8238100</v>
+        <v>-7850800</v>
       </c>
       <c r="E27" s="3">
-        <v>1485900</v>
+        <v>1416100</v>
       </c>
       <c r="F27" s="3">
-        <v>2649700</v>
+        <v>2525100</v>
       </c>
       <c r="G27" s="3">
-        <v>2866500</v>
+        <v>2731700</v>
       </c>
       <c r="H27" s="3">
-        <v>2175600</v>
+        <v>2073300</v>
       </c>
       <c r="I27" s="3">
-        <v>2080000</v>
+        <v>1982300</v>
       </c>
       <c r="J27" s="3">
-        <v>67400</v>
+        <v>64200</v>
       </c>
       <c r="K27" s="3">
         <v>374400</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1512900</v>
+        <v>1441800</v>
       </c>
       <c r="E32" s="3">
-        <v>-550000</v>
+        <v>-524200</v>
       </c>
       <c r="F32" s="3">
-        <v>-111500</v>
+        <v>-106200</v>
       </c>
       <c r="G32" s="3">
-        <v>-276800</v>
+        <v>-263800</v>
       </c>
       <c r="H32" s="3">
-        <v>-230300</v>
+        <v>-219500</v>
       </c>
       <c r="I32" s="3">
-        <v>-777900</v>
+        <v>-741300</v>
       </c>
       <c r="J32" s="3">
-        <v>558600</v>
+        <v>532300</v>
       </c>
       <c r="K32" s="3">
         <v>-393500</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8238100</v>
+        <v>-7850800</v>
       </c>
       <c r="E33" s="3">
-        <v>1485900</v>
+        <v>1416100</v>
       </c>
       <c r="F33" s="3">
-        <v>2649700</v>
+        <v>2525100</v>
       </c>
       <c r="G33" s="3">
-        <v>2866500</v>
+        <v>2731700</v>
       </c>
       <c r="H33" s="3">
-        <v>2175600</v>
+        <v>2073300</v>
       </c>
       <c r="I33" s="3">
-        <v>2080000</v>
+        <v>1982300</v>
       </c>
       <c r="J33" s="3">
-        <v>67400</v>
+        <v>64200</v>
       </c>
       <c r="K33" s="3">
         <v>374400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8238100</v>
+        <v>-7850800</v>
       </c>
       <c r="E35" s="3">
-        <v>1485900</v>
+        <v>1416100</v>
       </c>
       <c r="F35" s="3">
-        <v>2649700</v>
+        <v>2525100</v>
       </c>
       <c r="G35" s="3">
-        <v>2866500</v>
+        <v>2731700</v>
       </c>
       <c r="H35" s="3">
-        <v>2175600</v>
+        <v>2073300</v>
       </c>
       <c r="I35" s="3">
-        <v>2080000</v>
+        <v>1982300</v>
       </c>
       <c r="J35" s="3">
-        <v>67400</v>
+        <v>64200</v>
       </c>
       <c r="K35" s="3">
         <v>374400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2212300</v>
+        <v>2108300</v>
       </c>
       <c r="E41" s="3">
-        <v>1733400</v>
+        <v>1651900</v>
       </c>
       <c r="F41" s="3">
-        <v>1756600</v>
+        <v>1674100</v>
       </c>
       <c r="G41" s="3">
-        <v>1492000</v>
+        <v>1421900</v>
       </c>
       <c r="H41" s="3">
-        <v>1394000</v>
+        <v>1328500</v>
       </c>
       <c r="I41" s="3">
-        <v>1220100</v>
+        <v>1162700</v>
       </c>
       <c r="J41" s="3">
-        <v>1014300</v>
+        <v>966600</v>
       </c>
       <c r="K41" s="3">
         <v>3539600</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4476100</v>
+        <v>4265700</v>
       </c>
       <c r="E42" s="3">
-        <v>2413200</v>
+        <v>2299800</v>
       </c>
       <c r="F42" s="3">
-        <v>2206200</v>
+        <v>2102500</v>
       </c>
       <c r="G42" s="3">
-        <v>3344200</v>
+        <v>3187000</v>
       </c>
       <c r="H42" s="3">
-        <v>3428700</v>
+        <v>3267600</v>
       </c>
       <c r="I42" s="3">
-        <v>2568800</v>
+        <v>2448100</v>
       </c>
       <c r="J42" s="3">
-        <v>2339700</v>
+        <v>2229800</v>
       </c>
       <c r="K42" s="3">
         <v>3936700</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4002000</v>
+        <v>3813900</v>
       </c>
       <c r="E43" s="3">
-        <v>7162500</v>
+        <v>6825800</v>
       </c>
       <c r="F43" s="3">
-        <v>7188200</v>
+        <v>6850400</v>
       </c>
       <c r="G43" s="3">
-        <v>6579400</v>
+        <v>6270200</v>
       </c>
       <c r="H43" s="3">
-        <v>5643500</v>
+        <v>5378300</v>
       </c>
       <c r="I43" s="3">
-        <v>5480600</v>
+        <v>5223000</v>
       </c>
       <c r="J43" s="3">
-        <v>5043300</v>
+        <v>4806200</v>
       </c>
       <c r="K43" s="3">
         <v>12977600</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>889300</v>
+        <v>847500</v>
       </c>
       <c r="E44" s="3">
-        <v>1200500</v>
+        <v>1144100</v>
       </c>
       <c r="F44" s="3">
-        <v>1185800</v>
+        <v>1130100</v>
       </c>
       <c r="G44" s="3">
-        <v>1111100</v>
+        <v>1058800</v>
       </c>
       <c r="H44" s="3">
-        <v>999600</v>
+        <v>952600</v>
       </c>
       <c r="I44" s="3">
-        <v>932200</v>
+        <v>888400</v>
       </c>
       <c r="J44" s="3">
-        <v>857500</v>
+        <v>817200</v>
       </c>
       <c r="K44" s="3">
         <v>1533500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>719100</v>
+        <v>685300</v>
       </c>
       <c r="E45" s="3">
-        <v>1314400</v>
+        <v>1252600</v>
       </c>
       <c r="F45" s="3">
-        <v>714200</v>
+        <v>680600</v>
       </c>
       <c r="G45" s="3">
-        <v>983700</v>
+        <v>937400</v>
       </c>
       <c r="H45" s="3">
-        <v>1020400</v>
+        <v>972500</v>
       </c>
       <c r="I45" s="3">
-        <v>744800</v>
+        <v>709800</v>
       </c>
       <c r="J45" s="3">
-        <v>847700</v>
+        <v>807800</v>
       </c>
       <c r="K45" s="3">
         <v>811000</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12298900</v>
+        <v>11720800</v>
       </c>
       <c r="E46" s="3">
-        <v>13824000</v>
+        <v>13174200</v>
       </c>
       <c r="F46" s="3">
-        <v>13051000</v>
+        <v>12437600</v>
       </c>
       <c r="G46" s="3">
-        <v>13510400</v>
+        <v>12875400</v>
       </c>
       <c r="H46" s="3">
-        <v>12486300</v>
+        <v>11899400</v>
       </c>
       <c r="I46" s="3">
-        <v>10946500</v>
+        <v>10432000</v>
       </c>
       <c r="J46" s="3">
-        <v>10102500</v>
+        <v>9627600</v>
       </c>
       <c r="K46" s="3">
         <v>11590000</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1449200</v>
+        <v>1381000</v>
       </c>
       <c r="E47" s="3">
-        <v>1815400</v>
+        <v>1730100</v>
       </c>
       <c r="F47" s="3">
-        <v>1787300</v>
+        <v>1703300</v>
       </c>
       <c r="G47" s="3">
-        <v>1623100</v>
+        <v>1546800</v>
       </c>
       <c r="H47" s="3">
-        <v>1553300</v>
+        <v>1480300</v>
       </c>
       <c r="I47" s="3">
-        <v>1557000</v>
+        <v>1483800</v>
       </c>
       <c r="J47" s="3">
-        <v>2176800</v>
+        <v>2074500</v>
       </c>
       <c r="K47" s="3">
         <v>1794300</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23903200</v>
+        <v>22779700</v>
       </c>
       <c r="E48" s="3">
-        <v>27427500</v>
+        <v>26138300</v>
       </c>
       <c r="F48" s="3">
-        <v>23271100</v>
+        <v>22177300</v>
       </c>
       <c r="G48" s="3">
-        <v>21461800</v>
+        <v>20453000</v>
       </c>
       <c r="H48" s="3">
-        <v>20821200</v>
+        <v>19842500</v>
       </c>
       <c r="I48" s="3">
-        <v>20535700</v>
+        <v>19570500</v>
       </c>
       <c r="J48" s="3">
-        <v>19209100</v>
+        <v>18306200</v>
       </c>
       <c r="K48" s="3">
         <v>18182200</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2006500</v>
+        <v>1912200</v>
       </c>
       <c r="E49" s="3">
-        <v>2378900</v>
+        <v>2267100</v>
       </c>
       <c r="F49" s="3">
-        <v>2318900</v>
+        <v>2209900</v>
       </c>
       <c r="G49" s="3">
-        <v>2247900</v>
+        <v>2142200</v>
       </c>
       <c r="H49" s="3">
-        <v>2127800</v>
+        <v>2027800</v>
       </c>
       <c r="I49" s="3">
-        <v>2029800</v>
+        <v>1934400</v>
       </c>
       <c r="J49" s="3">
-        <v>1944100</v>
+        <v>1852700</v>
       </c>
       <c r="K49" s="3">
         <v>4946300</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8709700</v>
+        <v>8300300</v>
       </c>
       <c r="E52" s="3">
-        <v>6810900</v>
+        <v>6490800</v>
       </c>
       <c r="F52" s="3">
-        <v>6382200</v>
+        <v>6082200</v>
       </c>
       <c r="G52" s="3">
-        <v>4985700</v>
+        <v>4751400</v>
       </c>
       <c r="H52" s="3">
-        <v>5514900</v>
+        <v>5255700</v>
       </c>
       <c r="I52" s="3">
-        <v>4696600</v>
+        <v>4475800</v>
       </c>
       <c r="J52" s="3">
-        <v>3897900</v>
+        <v>3714700</v>
       </c>
       <c r="K52" s="3">
         <v>2311100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48367500</v>
+        <v>46094000</v>
       </c>
       <c r="E54" s="3">
-        <v>52256800</v>
+        <v>49800500</v>
       </c>
       <c r="F54" s="3">
-        <v>46810500</v>
+        <v>44610200</v>
       </c>
       <c r="G54" s="3">
-        <v>43827700</v>
+        <v>41767600</v>
       </c>
       <c r="H54" s="3">
-        <v>42503500</v>
+        <v>40505600</v>
       </c>
       <c r="I54" s="3">
-        <v>39765600</v>
+        <v>37896500</v>
       </c>
       <c r="J54" s="3">
-        <v>37330300</v>
+        <v>35575700</v>
       </c>
       <c r="K54" s="3">
         <v>34819000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2556600</v>
+        <v>2436400</v>
       </c>
       <c r="E57" s="3">
-        <v>4559400</v>
+        <v>4345100</v>
       </c>
       <c r="F57" s="3">
-        <v>4792200</v>
+        <v>4566900</v>
       </c>
       <c r="G57" s="3">
-        <v>4202900</v>
+        <v>4005400</v>
       </c>
       <c r="H57" s="3">
-        <v>3757000</v>
+        <v>3580400</v>
       </c>
       <c r="I57" s="3">
-        <v>3611300</v>
+        <v>3441500</v>
       </c>
       <c r="J57" s="3">
-        <v>3605100</v>
+        <v>3435700</v>
       </c>
       <c r="K57" s="3">
         <v>9056400</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3834200</v>
+        <v>3654000</v>
       </c>
       <c r="E58" s="3">
-        <v>2022500</v>
+        <v>1927400</v>
       </c>
       <c r="F58" s="3">
-        <v>2102100</v>
+        <v>2003300</v>
       </c>
       <c r="G58" s="3">
-        <v>845200</v>
+        <v>805500</v>
       </c>
       <c r="H58" s="3">
-        <v>1013100</v>
+        <v>965400</v>
       </c>
       <c r="I58" s="3">
-        <v>1726000</v>
+        <v>1644900</v>
       </c>
       <c r="J58" s="3">
-        <v>970200</v>
+        <v>924600</v>
       </c>
       <c r="K58" s="3">
         <v>5567100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11566400</v>
+        <v>11022700</v>
       </c>
       <c r="E59" s="3">
-        <v>13000800</v>
+        <v>12389700</v>
       </c>
       <c r="F59" s="3">
-        <v>12969000</v>
+        <v>12359400</v>
       </c>
       <c r="G59" s="3">
-        <v>10433200</v>
+        <v>9942800</v>
       </c>
       <c r="H59" s="3">
-        <v>8715800</v>
+        <v>8306100</v>
       </c>
       <c r="I59" s="3">
-        <v>9897900</v>
+        <v>9432700</v>
       </c>
       <c r="J59" s="3">
-        <v>8867700</v>
+        <v>8450900</v>
       </c>
       <c r="K59" s="3">
         <v>12075600</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17957100</v>
+        <v>17113100</v>
       </c>
       <c r="E60" s="3">
-        <v>19582700</v>
+        <v>18662200</v>
       </c>
       <c r="F60" s="3">
-        <v>19863200</v>
+        <v>18929600</v>
       </c>
       <c r="G60" s="3">
-        <v>15481400</v>
+        <v>14753700</v>
       </c>
       <c r="H60" s="3">
-        <v>13485900</v>
+        <v>12852000</v>
       </c>
       <c r="I60" s="3">
-        <v>15235200</v>
+        <v>14519100</v>
       </c>
       <c r="J60" s="3">
-        <v>13443000</v>
+        <v>12811200</v>
       </c>
       <c r="K60" s="3">
         <v>13105600</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15008600</v>
+        <v>14303100</v>
       </c>
       <c r="E61" s="3">
-        <v>10285000</v>
+        <v>9801600</v>
       </c>
       <c r="F61" s="3">
-        <v>6134700</v>
+        <v>5846400</v>
       </c>
       <c r="G61" s="3">
-        <v>7523900</v>
+        <v>7170200</v>
       </c>
       <c r="H61" s="3">
-        <v>7118400</v>
+        <v>6783800</v>
       </c>
       <c r="I61" s="3">
-        <v>6162900</v>
+        <v>5873200</v>
       </c>
       <c r="J61" s="3">
-        <v>6570800</v>
+        <v>6262000</v>
       </c>
       <c r="K61" s="3">
         <v>5769300</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13702700</v>
+        <v>13058600</v>
       </c>
       <c r="E62" s="3">
-        <v>9825600</v>
+        <v>9363800</v>
       </c>
       <c r="F62" s="3">
-        <v>9085800</v>
+        <v>8658700</v>
       </c>
       <c r="G62" s="3">
-        <v>9662700</v>
+        <v>9208500</v>
       </c>
       <c r="H62" s="3">
-        <v>13141700</v>
+        <v>12524000</v>
       </c>
       <c r="I62" s="3">
-        <v>11207400</v>
+        <v>10680600</v>
       </c>
       <c r="J62" s="3">
-        <v>12378500</v>
+        <v>11796700</v>
       </c>
       <c r="K62" s="3">
         <v>10947600</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46717400</v>
+        <v>44521500</v>
       </c>
       <c r="E66" s="3">
-        <v>39826900</v>
+        <v>37954800</v>
       </c>
       <c r="F66" s="3">
-        <v>35218500</v>
+        <v>33563000</v>
       </c>
       <c r="G66" s="3">
-        <v>32794200</v>
+        <v>31252700</v>
       </c>
       <c r="H66" s="3">
-        <v>33855000</v>
+        <v>32263700</v>
       </c>
       <c r="I66" s="3">
-        <v>32699900</v>
+        <v>31162800</v>
       </c>
       <c r="J66" s="3">
-        <v>32469600</v>
+        <v>30943400</v>
       </c>
       <c r="K66" s="3">
         <v>27574800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1372000</v>
+        <v>-1307500</v>
       </c>
       <c r="E72" s="3">
-        <v>9260900</v>
+        <v>8825600</v>
       </c>
       <c r="F72" s="3">
-        <v>9046600</v>
+        <v>8621300</v>
       </c>
       <c r="G72" s="3">
-        <v>8149900</v>
+        <v>7766800</v>
       </c>
       <c r="H72" s="3">
-        <v>4744400</v>
+        <v>4521400</v>
       </c>
       <c r="I72" s="3">
-        <v>4673300</v>
+        <v>4453700</v>
       </c>
       <c r="J72" s="3">
-        <v>2175600</v>
+        <v>2073300</v>
       </c>
       <c r="K72" s="3">
         <v>3770400</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1650100</v>
+        <v>1572500</v>
       </c>
       <c r="E76" s="3">
-        <v>12430000</v>
+        <v>11845700</v>
       </c>
       <c r="F76" s="3">
-        <v>11592100</v>
+        <v>11047200</v>
       </c>
       <c r="G76" s="3">
-        <v>11033500</v>
+        <v>10514900</v>
       </c>
       <c r="H76" s="3">
-        <v>8648400</v>
+        <v>8241900</v>
       </c>
       <c r="I76" s="3">
-        <v>7065700</v>
+        <v>6733600</v>
       </c>
       <c r="J76" s="3">
-        <v>4860800</v>
+        <v>4632300</v>
       </c>
       <c r="K76" s="3">
         <v>7244200</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8238100</v>
+        <v>-7850800</v>
       </c>
       <c r="E81" s="3">
-        <v>1485900</v>
+        <v>1416100</v>
       </c>
       <c r="F81" s="3">
-        <v>2649700</v>
+        <v>2525100</v>
       </c>
       <c r="G81" s="3">
-        <v>2866500</v>
+        <v>2731700</v>
       </c>
       <c r="H81" s="3">
-        <v>2175600</v>
+        <v>2073300</v>
       </c>
       <c r="I81" s="3">
-        <v>2080000</v>
+        <v>1982300</v>
       </c>
       <c r="J81" s="3">
-        <v>67400</v>
+        <v>64200</v>
       </c>
       <c r="K81" s="3">
         <v>374400</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5381400</v>
+        <v>5128400</v>
       </c>
       <c r="E83" s="3">
-        <v>3354000</v>
+        <v>3196400</v>
       </c>
       <c r="F83" s="3">
-        <v>2668000</v>
+        <v>2542600</v>
       </c>
       <c r="G83" s="3">
-        <v>2817500</v>
+        <v>2685000</v>
       </c>
       <c r="H83" s="3">
-        <v>2162100</v>
+        <v>2060500</v>
       </c>
       <c r="I83" s="3">
-        <v>2092300</v>
+        <v>1993900</v>
       </c>
       <c r="J83" s="3">
-        <v>1857100</v>
+        <v>1769800</v>
       </c>
       <c r="K83" s="3">
         <v>2080200</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2851800</v>
+        <v>-2717700</v>
       </c>
       <c r="E89" s="3">
-        <v>4917100</v>
+        <v>4686000</v>
       </c>
       <c r="F89" s="3">
-        <v>5033500</v>
+        <v>4796900</v>
       </c>
       <c r="G89" s="3">
-        <v>6575700</v>
+        <v>6266700</v>
       </c>
       <c r="H89" s="3">
-        <v>3976300</v>
+        <v>3789400</v>
       </c>
       <c r="I89" s="3">
-        <v>4156400</v>
+        <v>3961000</v>
       </c>
       <c r="J89" s="3">
-        <v>2421800</v>
+        <v>2308000</v>
       </c>
       <c r="K89" s="3">
         <v>3935500</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1530000</v>
+        <v>-1458100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4270300</v>
+        <v>-4069600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4543500</v>
+        <v>-4329900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4089000</v>
+        <v>-3896800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2646000</v>
+        <v>-2521600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3006100</v>
+        <v>-2864800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3306200</v>
+        <v>-3150800</v>
       </c>
       <c r="K91" s="3">
         <v>-2923500</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2868900</v>
+        <v>-2734100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4737000</v>
+        <v>-4514400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4004500</v>
+        <v>-3816300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6132300</v>
+        <v>-5844100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3465500</v>
+        <v>-3302600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4009400</v>
+        <v>-3820900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1825200</v>
+        <v>-1739400</v>
       </c>
       <c r="K94" s="3">
         <v>-2875700</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="E96" s="3">
-        <v>-507100</v>
+        <v>-483300</v>
       </c>
       <c r="F96" s="3">
-        <v>-427500</v>
+        <v>-407400</v>
       </c>
       <c r="G96" s="3">
-        <v>-284200</v>
+        <v>-270800</v>
       </c>
       <c r="H96" s="3">
-        <v>-285400</v>
+        <v>-272000</v>
       </c>
       <c r="I96" s="3">
-        <v>-17100</v>
+        <v>-16300</v>
       </c>
       <c r="J96" s="3">
-        <v>-271900</v>
+        <v>-259200</v>
       </c>
       <c r="K96" s="3">
         <v>-16700</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6218000</v>
+        <v>5925800</v>
       </c>
       <c r="E100" s="3">
-        <v>-197200</v>
+        <v>-188000</v>
       </c>
       <c r="F100" s="3">
-        <v>-766800</v>
+        <v>-730800</v>
       </c>
       <c r="G100" s="3">
-        <v>-300100</v>
+        <v>-286000</v>
       </c>
       <c r="H100" s="3">
-        <v>-333200</v>
+        <v>-317500</v>
       </c>
       <c r="I100" s="3">
-        <v>31800</v>
+        <v>30400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1313200</v>
+        <v>-1251500</v>
       </c>
       <c r="K100" s="3">
         <v>-1081400</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="E101" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="F101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-45300</v>
+        <v>-43200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="I101" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="J101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K101" s="3">
         <v>-15600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>456900</v>
+        <v>435400</v>
       </c>
       <c r="E102" s="3">
-        <v>-23300</v>
+        <v>-22200</v>
       </c>
       <c r="F102" s="3">
-        <v>264600</v>
+        <v>252200</v>
       </c>
       <c r="G102" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="H102" s="3">
-        <v>173900</v>
+        <v>165800</v>
       </c>
       <c r="I102" s="3">
-        <v>205800</v>
+        <v>196100</v>
       </c>
       <c r="J102" s="3">
-        <v>-709300</v>
+        <v>-675900</v>
       </c>
       <c r="K102" s="3">
         <v>-37100</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -721,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15863900</v>
+        <v>15343300</v>
       </c>
       <c r="E8" s="3">
-        <v>42521700</v>
+        <v>41126300</v>
       </c>
       <c r="F8" s="3">
-        <v>41492100</v>
+        <v>40130500</v>
       </c>
       <c r="G8" s="3">
-        <v>41535300</v>
+        <v>40172200</v>
       </c>
       <c r="H8" s="3">
-        <v>36960200</v>
+        <v>35747300</v>
       </c>
       <c r="I8" s="3">
-        <v>37422500</v>
+        <v>36194400</v>
       </c>
       <c r="J8" s="3">
-        <v>35035100</v>
+        <v>33885400</v>
       </c>
       <c r="K8" s="3">
         <v>35918300</v>
@@ -757,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9663800</v>
+        <v>9346700</v>
       </c>
       <c r="E9" s="3">
-        <v>22346600</v>
+        <v>21613200</v>
       </c>
       <c r="F9" s="3">
-        <v>20821900</v>
+        <v>20138600</v>
       </c>
       <c r="G9" s="3">
-        <v>21702200</v>
+        <v>20990000</v>
       </c>
       <c r="H9" s="3">
-        <v>19862300</v>
+        <v>19210500</v>
       </c>
       <c r="I9" s="3">
-        <v>20356100</v>
+        <v>19688100</v>
       </c>
       <c r="J9" s="3">
-        <v>19928900</v>
+        <v>19274900</v>
       </c>
       <c r="K9" s="3">
         <v>41498600</v>
@@ -793,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6200100</v>
+        <v>5996700</v>
       </c>
       <c r="E10" s="3">
-        <v>20175200</v>
+        <v>19513100</v>
       </c>
       <c r="F10" s="3">
-        <v>20670200</v>
+        <v>19991800</v>
       </c>
       <c r="G10" s="3">
-        <v>19833100</v>
+        <v>19182300</v>
       </c>
       <c r="H10" s="3">
-        <v>17097900</v>
+        <v>16536800</v>
       </c>
       <c r="I10" s="3">
-        <v>17066400</v>
+        <v>16506300</v>
       </c>
       <c r="J10" s="3">
-        <v>15106300</v>
+        <v>14610600</v>
       </c>
       <c r="K10" s="3">
         <v>-5580300</v>
@@ -917,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2120000</v>
+        <v>2050400</v>
       </c>
       <c r="E14" s="3">
-        <v>103900</v>
+        <v>100500</v>
       </c>
       <c r="F14" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="G14" s="3">
-        <v>303500</v>
+        <v>293600</v>
       </c>
       <c r="H14" s="3">
-        <v>204300</v>
+        <v>197600</v>
       </c>
       <c r="I14" s="3">
-        <v>180900</v>
+        <v>175000</v>
       </c>
       <c r="J14" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="K14" s="3">
         <v>448600</v>
@@ -953,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2989700</v>
+        <v>2891600</v>
       </c>
       <c r="E15" s="3">
-        <v>3142700</v>
+        <v>3039500</v>
       </c>
       <c r="F15" s="3">
-        <v>2546100</v>
+        <v>2462600</v>
       </c>
       <c r="G15" s="3">
-        <v>2380300</v>
+        <v>2302200</v>
       </c>
       <c r="H15" s="3">
-        <v>1851500</v>
+        <v>1790800</v>
       </c>
       <c r="I15" s="3">
-        <v>1816500</v>
+        <v>1756900</v>
       </c>
       <c r="J15" s="3">
-        <v>1667100</v>
+        <v>1612400</v>
       </c>
       <c r="K15" s="3">
         <v>3898400</v>
@@ -1002,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24139700</v>
+        <v>23347500</v>
       </c>
       <c r="E17" s="3">
-        <v>40550000</v>
+        <v>39219300</v>
       </c>
       <c r="F17" s="3">
-        <v>38223300</v>
+        <v>36969000</v>
       </c>
       <c r="G17" s="3">
-        <v>37869600</v>
+        <v>36626900</v>
       </c>
       <c r="H17" s="3">
-        <v>34403600</v>
+        <v>33274600</v>
       </c>
       <c r="I17" s="3">
-        <v>35607200</v>
+        <v>34438700</v>
       </c>
       <c r="J17" s="3">
-        <v>34009000</v>
+        <v>32892900</v>
       </c>
       <c r="K17" s="3">
         <v>34903900</v>
@@ -1038,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8275800</v>
+        <v>-8004200</v>
       </c>
       <c r="E18" s="3">
-        <v>1971800</v>
+        <v>1907000</v>
       </c>
       <c r="F18" s="3">
-        <v>3268700</v>
+        <v>3161500</v>
       </c>
       <c r="G18" s="3">
-        <v>3665700</v>
+        <v>3545400</v>
       </c>
       <c r="H18" s="3">
-        <v>2556600</v>
+        <v>2472700</v>
       </c>
       <c r="I18" s="3">
-        <v>1815300</v>
+        <v>1755800</v>
       </c>
       <c r="J18" s="3">
-        <v>1026200</v>
+        <v>992500</v>
       </c>
       <c r="K18" s="3">
         <v>1014400</v>
@@ -1090,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1441800</v>
+        <v>-1394400</v>
       </c>
       <c r="E20" s="3">
-        <v>524200</v>
+        <v>507000</v>
       </c>
       <c r="F20" s="3">
-        <v>106200</v>
+        <v>102700</v>
       </c>
       <c r="G20" s="3">
-        <v>263800</v>
+        <v>255200</v>
       </c>
       <c r="H20" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="I20" s="3">
-        <v>741300</v>
+        <v>717000</v>
       </c>
       <c r="J20" s="3">
-        <v>-532300</v>
+        <v>-514900</v>
       </c>
       <c r="K20" s="3">
         <v>393500</v>
@@ -1126,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4573300</v>
+        <v>-4427100</v>
       </c>
       <c r="E21" s="3">
-        <v>5702100</v>
+        <v>5512600</v>
       </c>
       <c r="F21" s="3">
-        <v>5925400</v>
+        <v>5729100</v>
       </c>
       <c r="G21" s="3">
-        <v>6622800</v>
+        <v>6403500</v>
       </c>
       <c r="H21" s="3">
-        <v>4842900</v>
+        <v>4682500</v>
       </c>
       <c r="I21" s="3">
-        <v>4556700</v>
+        <v>4405700</v>
       </c>
       <c r="J21" s="3">
-        <v>2269100</v>
+        <v>2193300</v>
       </c>
       <c r="K21" s="3">
         <v>3479600</v>
@@ -1162,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>358400</v>
+        <v>346600</v>
       </c>
       <c r="E22" s="3">
-        <v>324500</v>
+        <v>313900</v>
       </c>
       <c r="F22" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="G22" s="3">
-        <v>242800</v>
+        <v>234900</v>
       </c>
       <c r="H22" s="3">
-        <v>151800</v>
+        <v>146800</v>
       </c>
       <c r="I22" s="3">
-        <v>191500</v>
+        <v>185200</v>
       </c>
       <c r="J22" s="3">
-        <v>283700</v>
+        <v>274400</v>
       </c>
       <c r="K22" s="3">
         <v>754800</v>
@@ -1198,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10075900</v>
+        <v>-9745300</v>
       </c>
       <c r="E23" s="3">
-        <v>2171400</v>
+        <v>2100100</v>
       </c>
       <c r="F23" s="3">
-        <v>3250100</v>
+        <v>3143400</v>
       </c>
       <c r="G23" s="3">
-        <v>3686700</v>
+        <v>3565700</v>
       </c>
       <c r="H23" s="3">
-        <v>2624300</v>
+        <v>2538200</v>
       </c>
       <c r="I23" s="3">
-        <v>2365200</v>
+        <v>2287600</v>
       </c>
       <c r="J23" s="3">
-        <v>210100</v>
+        <v>203200</v>
       </c>
       <c r="K23" s="3">
         <v>653100</v>
@@ -1234,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2177200</v>
+        <v>-2105800</v>
       </c>
       <c r="E24" s="3">
-        <v>718000</v>
+        <v>694400</v>
       </c>
       <c r="F24" s="3">
-        <v>686400</v>
+        <v>663900</v>
       </c>
       <c r="G24" s="3">
-        <v>915200</v>
+        <v>885200</v>
       </c>
       <c r="H24" s="3">
-        <v>519500</v>
+        <v>502400</v>
       </c>
       <c r="I24" s="3">
-        <v>354900</v>
+        <v>343200</v>
       </c>
       <c r="J24" s="3">
-        <v>122600</v>
+        <v>118600</v>
       </c>
       <c r="K24" s="3">
         <v>263200</v>
@@ -1306,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7898700</v>
+        <v>-7639500</v>
       </c>
       <c r="E26" s="3">
-        <v>1453400</v>
+        <v>1405700</v>
       </c>
       <c r="F26" s="3">
-        <v>2563600</v>
+        <v>2479500</v>
       </c>
       <c r="G26" s="3">
-        <v>2771400</v>
+        <v>2680500</v>
       </c>
       <c r="H26" s="3">
-        <v>2104800</v>
+        <v>2035800</v>
       </c>
       <c r="I26" s="3">
-        <v>2010300</v>
+        <v>1944300</v>
       </c>
       <c r="J26" s="3">
-        <v>87600</v>
+        <v>84700</v>
       </c>
       <c r="K26" s="3">
         <v>390000</v>
@@ -1342,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7850800</v>
+        <v>-7593200</v>
       </c>
       <c r="E27" s="3">
-        <v>1416100</v>
+        <v>1369600</v>
       </c>
       <c r="F27" s="3">
-        <v>2525100</v>
+        <v>2442200</v>
       </c>
       <c r="G27" s="3">
-        <v>2731700</v>
+        <v>2642100</v>
       </c>
       <c r="H27" s="3">
-        <v>2073300</v>
+        <v>2005300</v>
       </c>
       <c r="I27" s="3">
-        <v>1982300</v>
+        <v>1917200</v>
       </c>
       <c r="J27" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="K27" s="3">
         <v>374400</v>
@@ -1522,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1441800</v>
+        <v>1394400</v>
       </c>
       <c r="E32" s="3">
-        <v>-524200</v>
+        <v>-507000</v>
       </c>
       <c r="F32" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="G32" s="3">
-        <v>-263800</v>
+        <v>-255200</v>
       </c>
       <c r="H32" s="3">
-        <v>-219500</v>
+        <v>-212300</v>
       </c>
       <c r="I32" s="3">
-        <v>-741300</v>
+        <v>-717000</v>
       </c>
       <c r="J32" s="3">
-        <v>532300</v>
+        <v>514900</v>
       </c>
       <c r="K32" s="3">
         <v>-393500</v>
@@ -1558,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7850800</v>
+        <v>-7593200</v>
       </c>
       <c r="E33" s="3">
-        <v>1416100</v>
+        <v>1369600</v>
       </c>
       <c r="F33" s="3">
-        <v>2525100</v>
+        <v>2442200</v>
       </c>
       <c r="G33" s="3">
-        <v>2731700</v>
+        <v>2642100</v>
       </c>
       <c r="H33" s="3">
-        <v>2073300</v>
+        <v>2005300</v>
       </c>
       <c r="I33" s="3">
-        <v>1982300</v>
+        <v>1917200</v>
       </c>
       <c r="J33" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="K33" s="3">
         <v>374400</v>
@@ -1630,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7850800</v>
+        <v>-7593200</v>
       </c>
       <c r="E35" s="3">
-        <v>1416100</v>
+        <v>1369600</v>
       </c>
       <c r="F35" s="3">
-        <v>2525100</v>
+        <v>2442200</v>
       </c>
       <c r="G35" s="3">
-        <v>2731700</v>
+        <v>2642100</v>
       </c>
       <c r="H35" s="3">
-        <v>2073300</v>
+        <v>2005300</v>
       </c>
       <c r="I35" s="3">
-        <v>1982300</v>
+        <v>1917200</v>
       </c>
       <c r="J35" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="K35" s="3">
         <v>374400</v>
@@ -1739,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2108300</v>
+        <v>2039200</v>
       </c>
       <c r="E41" s="3">
-        <v>1651900</v>
+        <v>1597700</v>
       </c>
       <c r="F41" s="3">
-        <v>1674100</v>
+        <v>1619100</v>
       </c>
       <c r="G41" s="3">
-        <v>1421900</v>
+        <v>1375200</v>
       </c>
       <c r="H41" s="3">
-        <v>1328500</v>
+        <v>1284900</v>
       </c>
       <c r="I41" s="3">
-        <v>1162700</v>
+        <v>1124600</v>
       </c>
       <c r="J41" s="3">
-        <v>966600</v>
+        <v>934900</v>
       </c>
       <c r="K41" s="3">
         <v>3539600</v>
@@ -1775,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4265700</v>
+        <v>4125700</v>
       </c>
       <c r="E42" s="3">
-        <v>2299800</v>
+        <v>2224300</v>
       </c>
       <c r="F42" s="3">
-        <v>2102500</v>
+        <v>2033500</v>
       </c>
       <c r="G42" s="3">
-        <v>3187000</v>
+        <v>3082400</v>
       </c>
       <c r="H42" s="3">
-        <v>3267600</v>
+        <v>3160400</v>
       </c>
       <c r="I42" s="3">
-        <v>2448100</v>
+        <v>2367700</v>
       </c>
       <c r="J42" s="3">
-        <v>2229800</v>
+        <v>2156600</v>
       </c>
       <c r="K42" s="3">
         <v>3936700</v>
@@ -1811,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3813900</v>
+        <v>3688800</v>
       </c>
       <c r="E43" s="3">
-        <v>6825800</v>
+        <v>6601800</v>
       </c>
       <c r="F43" s="3">
-        <v>6850400</v>
+        <v>6625600</v>
       </c>
       <c r="G43" s="3">
-        <v>6270200</v>
+        <v>6064400</v>
       </c>
       <c r="H43" s="3">
-        <v>5378300</v>
+        <v>5201800</v>
       </c>
       <c r="I43" s="3">
-        <v>5223000</v>
+        <v>5051600</v>
       </c>
       <c r="J43" s="3">
-        <v>4806200</v>
+        <v>4648500</v>
       </c>
       <c r="K43" s="3">
         <v>12977600</v>
@@ -1847,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>847500</v>
+        <v>819700</v>
       </c>
       <c r="E44" s="3">
-        <v>1144100</v>
+        <v>1106500</v>
       </c>
       <c r="F44" s="3">
-        <v>1130100</v>
+        <v>1093000</v>
       </c>
       <c r="G44" s="3">
-        <v>1058800</v>
+        <v>1024100</v>
       </c>
       <c r="H44" s="3">
-        <v>952600</v>
+        <v>921300</v>
       </c>
       <c r="I44" s="3">
-        <v>888400</v>
+        <v>859200</v>
       </c>
       <c r="J44" s="3">
-        <v>817200</v>
+        <v>790400</v>
       </c>
       <c r="K44" s="3">
         <v>1533500</v>
@@ -1883,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>685300</v>
+        <v>662800</v>
       </c>
       <c r="E45" s="3">
-        <v>1252600</v>
+        <v>1211500</v>
       </c>
       <c r="F45" s="3">
-        <v>680600</v>
+        <v>658300</v>
       </c>
       <c r="G45" s="3">
-        <v>937400</v>
+        <v>906700</v>
       </c>
       <c r="H45" s="3">
-        <v>972500</v>
+        <v>940500</v>
       </c>
       <c r="I45" s="3">
-        <v>709800</v>
+        <v>686500</v>
       </c>
       <c r="J45" s="3">
-        <v>807800</v>
+        <v>781300</v>
       </c>
       <c r="K45" s="3">
         <v>811000</v>
@@ -1919,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11720800</v>
+        <v>11336200</v>
       </c>
       <c r="E46" s="3">
-        <v>13174200</v>
+        <v>12741900</v>
       </c>
       <c r="F46" s="3">
-        <v>12437600</v>
+        <v>12029400</v>
       </c>
       <c r="G46" s="3">
-        <v>12875400</v>
+        <v>12452800</v>
       </c>
       <c r="H46" s="3">
-        <v>11899400</v>
+        <v>11508900</v>
       </c>
       <c r="I46" s="3">
-        <v>10432000</v>
+        <v>10089600</v>
       </c>
       <c r="J46" s="3">
-        <v>9627600</v>
+        <v>9311700</v>
       </c>
       <c r="K46" s="3">
         <v>11590000</v>
@@ -1955,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1381000</v>
+        <v>1335700</v>
       </c>
       <c r="E47" s="3">
-        <v>1730100</v>
+        <v>1673300</v>
       </c>
       <c r="F47" s="3">
-        <v>1703300</v>
+        <v>1647400</v>
       </c>
       <c r="G47" s="3">
-        <v>1546800</v>
+        <v>1496100</v>
       </c>
       <c r="H47" s="3">
-        <v>1480300</v>
+        <v>1431700</v>
       </c>
       <c r="I47" s="3">
-        <v>1483800</v>
+        <v>1435100</v>
       </c>
       <c r="J47" s="3">
-        <v>2074500</v>
+        <v>2006400</v>
       </c>
       <c r="K47" s="3">
         <v>1794300</v>
@@ -1991,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22779700</v>
+        <v>22032100</v>
       </c>
       <c r="E48" s="3">
-        <v>26138300</v>
+        <v>25280500</v>
       </c>
       <c r="F48" s="3">
-        <v>22177300</v>
+        <v>21449500</v>
       </c>
       <c r="G48" s="3">
-        <v>20453000</v>
+        <v>19781800</v>
       </c>
       <c r="H48" s="3">
-        <v>19842500</v>
+        <v>19191300</v>
       </c>
       <c r="I48" s="3">
-        <v>19570500</v>
+        <v>18928200</v>
       </c>
       <c r="J48" s="3">
-        <v>18306200</v>
+        <v>17705400</v>
       </c>
       <c r="K48" s="3">
         <v>18182200</v>
@@ -2027,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1912200</v>
+        <v>1849500</v>
       </c>
       <c r="E49" s="3">
-        <v>2267100</v>
+        <v>2192700</v>
       </c>
       <c r="F49" s="3">
-        <v>2209900</v>
+        <v>2137400</v>
       </c>
       <c r="G49" s="3">
-        <v>2142200</v>
+        <v>2071900</v>
       </c>
       <c r="H49" s="3">
-        <v>2027800</v>
+        <v>1961200</v>
       </c>
       <c r="I49" s="3">
-        <v>1934400</v>
+        <v>1870900</v>
       </c>
       <c r="J49" s="3">
-        <v>1852700</v>
+        <v>1791900</v>
       </c>
       <c r="K49" s="3">
         <v>4946300</v>
@@ -2135,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8300300</v>
+        <v>8027900</v>
       </c>
       <c r="E52" s="3">
-        <v>6490800</v>
+        <v>6277800</v>
       </c>
       <c r="F52" s="3">
-        <v>6082200</v>
+        <v>5882600</v>
       </c>
       <c r="G52" s="3">
-        <v>4751400</v>
+        <v>4595400</v>
       </c>
       <c r="H52" s="3">
-        <v>5255700</v>
+        <v>5083200</v>
       </c>
       <c r="I52" s="3">
-        <v>4475800</v>
+        <v>4329000</v>
       </c>
       <c r="J52" s="3">
-        <v>3714700</v>
+        <v>3592800</v>
       </c>
       <c r="K52" s="3">
         <v>2311100</v>
@@ -2207,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46094000</v>
+        <v>44581400</v>
       </c>
       <c r="E54" s="3">
-        <v>49800500</v>
+        <v>48166300</v>
       </c>
       <c r="F54" s="3">
-        <v>44610200</v>
+        <v>43146300</v>
       </c>
       <c r="G54" s="3">
-        <v>41767600</v>
+        <v>40396900</v>
       </c>
       <c r="H54" s="3">
-        <v>40505600</v>
+        <v>39176400</v>
       </c>
       <c r="I54" s="3">
-        <v>37896500</v>
+        <v>36652800</v>
       </c>
       <c r="J54" s="3">
-        <v>35575700</v>
+        <v>34408200</v>
       </c>
       <c r="K54" s="3">
         <v>34819000</v>
@@ -2275,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2436400</v>
+        <v>2356400</v>
       </c>
       <c r="E57" s="3">
-        <v>4345100</v>
+        <v>4202500</v>
       </c>
       <c r="F57" s="3">
-        <v>4566900</v>
+        <v>4417000</v>
       </c>
       <c r="G57" s="3">
-        <v>4005400</v>
+        <v>3873900</v>
       </c>
       <c r="H57" s="3">
-        <v>3580400</v>
+        <v>3462900</v>
       </c>
       <c r="I57" s="3">
-        <v>3441500</v>
+        <v>3328600</v>
       </c>
       <c r="J57" s="3">
-        <v>3435700</v>
+        <v>3322900</v>
       </c>
       <c r="K57" s="3">
         <v>9056400</v>
@@ -2311,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3654000</v>
+        <v>3534100</v>
       </c>
       <c r="E58" s="3">
-        <v>1927400</v>
+        <v>1864100</v>
       </c>
       <c r="F58" s="3">
-        <v>2003300</v>
+        <v>1937500</v>
       </c>
       <c r="G58" s="3">
-        <v>805500</v>
+        <v>779100</v>
       </c>
       <c r="H58" s="3">
-        <v>965400</v>
+        <v>933800</v>
       </c>
       <c r="I58" s="3">
-        <v>1644900</v>
+        <v>1590900</v>
       </c>
       <c r="J58" s="3">
-        <v>924600</v>
+        <v>894200</v>
       </c>
       <c r="K58" s="3">
         <v>5567100</v>
@@ -2347,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11022700</v>
+        <v>10661000</v>
       </c>
       <c r="E59" s="3">
-        <v>12389700</v>
+        <v>11983100</v>
       </c>
       <c r="F59" s="3">
-        <v>12359400</v>
+        <v>11953800</v>
       </c>
       <c r="G59" s="3">
-        <v>9942800</v>
+        <v>9616500</v>
       </c>
       <c r="H59" s="3">
-        <v>8306100</v>
+        <v>8033500</v>
       </c>
       <c r="I59" s="3">
-        <v>9432700</v>
+        <v>9123100</v>
       </c>
       <c r="J59" s="3">
-        <v>8450900</v>
+        <v>8173600</v>
       </c>
       <c r="K59" s="3">
         <v>12075600</v>
@@ -2383,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17113100</v>
+        <v>16551500</v>
       </c>
       <c r="E60" s="3">
-        <v>18662200</v>
+        <v>18049800</v>
       </c>
       <c r="F60" s="3">
-        <v>18929600</v>
+        <v>18308400</v>
       </c>
       <c r="G60" s="3">
-        <v>14753700</v>
+        <v>14269600</v>
       </c>
       <c r="H60" s="3">
-        <v>12852000</v>
+        <v>12430300</v>
       </c>
       <c r="I60" s="3">
-        <v>14519100</v>
+        <v>14042600</v>
       </c>
       <c r="J60" s="3">
-        <v>12811200</v>
+        <v>12390700</v>
       </c>
       <c r="K60" s="3">
         <v>13105600</v>
@@ -2419,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14303100</v>
+        <v>13833700</v>
       </c>
       <c r="E61" s="3">
-        <v>9801600</v>
+        <v>9479900</v>
       </c>
       <c r="F61" s="3">
-        <v>5846400</v>
+        <v>5654500</v>
       </c>
       <c r="G61" s="3">
-        <v>7170200</v>
+        <v>6934900</v>
       </c>
       <c r="H61" s="3">
-        <v>6783800</v>
+        <v>6561200</v>
       </c>
       <c r="I61" s="3">
-        <v>5873200</v>
+        <v>5680500</v>
       </c>
       <c r="J61" s="3">
-        <v>6262000</v>
+        <v>6056500</v>
       </c>
       <c r="K61" s="3">
         <v>5769300</v>
@@ -2455,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13058600</v>
+        <v>12630100</v>
       </c>
       <c r="E62" s="3">
-        <v>9363800</v>
+        <v>9056500</v>
       </c>
       <c r="F62" s="3">
-        <v>8658700</v>
+        <v>8374500</v>
       </c>
       <c r="G62" s="3">
-        <v>9208500</v>
+        <v>8906300</v>
       </c>
       <c r="H62" s="3">
-        <v>12524000</v>
+        <v>12113000</v>
       </c>
       <c r="I62" s="3">
-        <v>10680600</v>
+        <v>10330100</v>
       </c>
       <c r="J62" s="3">
-        <v>11796700</v>
+        <v>11409600</v>
       </c>
       <c r="K62" s="3">
         <v>10947600</v>
@@ -2599,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44521500</v>
+        <v>43060500</v>
       </c>
       <c r="E66" s="3">
-        <v>37954800</v>
+        <v>36709300</v>
       </c>
       <c r="F66" s="3">
-        <v>33563000</v>
+        <v>32461600</v>
       </c>
       <c r="G66" s="3">
-        <v>31252700</v>
+        <v>30227100</v>
       </c>
       <c r="H66" s="3">
-        <v>32263700</v>
+        <v>31204900</v>
       </c>
       <c r="I66" s="3">
-        <v>31162800</v>
+        <v>30140200</v>
       </c>
       <c r="J66" s="3">
-        <v>30943400</v>
+        <v>29927900</v>
       </c>
       <c r="K66" s="3">
         <v>27574800</v>
@@ -2795,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1307500</v>
+        <v>-1691400</v>
       </c>
       <c r="E72" s="3">
-        <v>8825600</v>
+        <v>8109200</v>
       </c>
       <c r="F72" s="3">
-        <v>8621300</v>
+        <v>7951100</v>
       </c>
       <c r="G72" s="3">
-        <v>7766800</v>
+        <v>7214900</v>
       </c>
       <c r="H72" s="3">
-        <v>4521400</v>
+        <v>4122300</v>
       </c>
       <c r="I72" s="3">
-        <v>4453700</v>
+        <v>4096400</v>
       </c>
       <c r="J72" s="3">
-        <v>2073300</v>
+        <v>1813300</v>
       </c>
       <c r="K72" s="3">
         <v>3770400</v>
@@ -2939,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1572500</v>
+        <v>1520900</v>
       </c>
       <c r="E76" s="3">
-        <v>11845700</v>
+        <v>11457000</v>
       </c>
       <c r="F76" s="3">
-        <v>11047200</v>
+        <v>10684700</v>
       </c>
       <c r="G76" s="3">
-        <v>10514900</v>
+        <v>10169800</v>
       </c>
       <c r="H76" s="3">
-        <v>8241900</v>
+        <v>7971400</v>
       </c>
       <c r="I76" s="3">
-        <v>6733600</v>
+        <v>6512600</v>
       </c>
       <c r="J76" s="3">
-        <v>4632300</v>
+        <v>4480300</v>
       </c>
       <c r="K76" s="3">
         <v>7244200</v>
@@ -3052,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7850800</v>
+        <v>-7593200</v>
       </c>
       <c r="E81" s="3">
-        <v>1416100</v>
+        <v>1369600</v>
       </c>
       <c r="F81" s="3">
-        <v>2525100</v>
+        <v>2442200</v>
       </c>
       <c r="G81" s="3">
-        <v>2731700</v>
+        <v>2642100</v>
       </c>
       <c r="H81" s="3">
-        <v>2073300</v>
+        <v>2005300</v>
       </c>
       <c r="I81" s="3">
-        <v>1982300</v>
+        <v>1917200</v>
       </c>
       <c r="J81" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="K81" s="3">
         <v>374400</v>
@@ -3104,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5128400</v>
+        <v>4960100</v>
       </c>
       <c r="E83" s="3">
-        <v>3196400</v>
+        <v>3091500</v>
       </c>
       <c r="F83" s="3">
-        <v>2542600</v>
+        <v>2459200</v>
       </c>
       <c r="G83" s="3">
-        <v>2685000</v>
+        <v>2596900</v>
       </c>
       <c r="H83" s="3">
-        <v>2060500</v>
+        <v>1992900</v>
       </c>
       <c r="I83" s="3">
-        <v>1993900</v>
+        <v>1928500</v>
       </c>
       <c r="J83" s="3">
-        <v>1769800</v>
+        <v>1711700</v>
       </c>
       <c r="K83" s="3">
         <v>2080200</v>
@@ -3320,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2717700</v>
+        <v>-2628500</v>
       </c>
       <c r="E89" s="3">
-        <v>4686000</v>
+        <v>4532200</v>
       </c>
       <c r="F89" s="3">
-        <v>4796900</v>
+        <v>4639500</v>
       </c>
       <c r="G89" s="3">
-        <v>6266700</v>
+        <v>6061000</v>
       </c>
       <c r="H89" s="3">
-        <v>3789400</v>
+        <v>3665100</v>
       </c>
       <c r="I89" s="3">
-        <v>3961000</v>
+        <v>3831000</v>
       </c>
       <c r="J89" s="3">
-        <v>2308000</v>
+        <v>2232200</v>
       </c>
       <c r="K89" s="3">
         <v>3935500</v>
@@ -3372,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1458100</v>
+        <v>-1410200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4069600</v>
+        <v>-3936000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4329900</v>
+        <v>-4187800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3896800</v>
+        <v>-3768900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2521600</v>
+        <v>-2438900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2864800</v>
+        <v>-2770800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3150800</v>
+        <v>-3047400</v>
       </c>
       <c r="K91" s="3">
         <v>-2923500</v>
@@ -3480,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2734100</v>
+        <v>-2644400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4514400</v>
+        <v>-4366200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3816300</v>
+        <v>-3691000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5844100</v>
+        <v>-5652300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3302600</v>
+        <v>-3194200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3820900</v>
+        <v>-3695500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1739400</v>
+        <v>-1682400</v>
       </c>
       <c r="K94" s="3">
         <v>-2875700</v>
@@ -3532,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="E96" s="3">
-        <v>-483300</v>
+        <v>-467400</v>
       </c>
       <c r="F96" s="3">
-        <v>-407400</v>
+        <v>-394100</v>
       </c>
       <c r="G96" s="3">
-        <v>-270800</v>
+        <v>-262000</v>
       </c>
       <c r="H96" s="3">
-        <v>-272000</v>
+        <v>-263100</v>
       </c>
       <c r="I96" s="3">
-        <v>-16300</v>
+        <v>-15800</v>
       </c>
       <c r="J96" s="3">
-        <v>-259200</v>
+        <v>-250700</v>
       </c>
       <c r="K96" s="3">
         <v>-16700</v>
@@ -3676,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5925800</v>
+        <v>5731300</v>
       </c>
       <c r="E100" s="3">
-        <v>-188000</v>
+        <v>-181800</v>
       </c>
       <c r="F100" s="3">
-        <v>-730800</v>
+        <v>-706800</v>
       </c>
       <c r="G100" s="3">
-        <v>-286000</v>
+        <v>-276600</v>
       </c>
       <c r="H100" s="3">
-        <v>-317500</v>
+        <v>-307100</v>
       </c>
       <c r="I100" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1251500</v>
+        <v>-1210400</v>
       </c>
       <c r="K100" s="3">
         <v>-1081400</v>
@@ -3712,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38500</v>
+        <v>-37300</v>
       </c>
       <c r="E101" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="F101" s="3">
         <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-43200</v>
+        <v>-41800</v>
       </c>
       <c r="H101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I101" s="3">
-        <v>25700</v>
+        <v>24800</v>
       </c>
       <c r="J101" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="K101" s="3">
         <v>-15600</v>
@@ -3748,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>435400</v>
+        <v>421200</v>
       </c>
       <c r="E102" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="F102" s="3">
-        <v>252200</v>
+        <v>243900</v>
       </c>
       <c r="G102" s="3">
-        <v>93400</v>
+        <v>90300</v>
       </c>
       <c r="H102" s="3">
-        <v>165800</v>
+        <v>160300</v>
       </c>
       <c r="I102" s="3">
-        <v>196100</v>
+        <v>189700</v>
       </c>
       <c r="J102" s="3">
-        <v>-675900</v>
+        <v>-653700</v>
       </c>
       <c r="K102" s="3">
         <v>-37100</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>DLAKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15343300</v>
+        <v>18339300</v>
       </c>
       <c r="E8" s="3">
-        <v>41126300</v>
+        <v>14824400</v>
       </c>
       <c r="F8" s="3">
-        <v>40130500</v>
+        <v>39735300</v>
       </c>
       <c r="G8" s="3">
-        <v>40172200</v>
+        <v>38773100</v>
       </c>
       <c r="H8" s="3">
-        <v>35747300</v>
+        <v>38813500</v>
       </c>
       <c r="I8" s="3">
-        <v>36194400</v>
+        <v>34538200</v>
       </c>
       <c r="J8" s="3">
+        <v>34970200</v>
+      </c>
+      <c r="K8" s="3">
         <v>33885400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35918300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33088200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33728300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9346700</v>
+        <v>9640400</v>
       </c>
       <c r="E9" s="3">
-        <v>21613200</v>
+        <v>9030600</v>
       </c>
       <c r="F9" s="3">
-        <v>20138600</v>
+        <v>20882200</v>
       </c>
       <c r="G9" s="3">
-        <v>20990000</v>
+        <v>19457500</v>
       </c>
       <c r="H9" s="3">
-        <v>19210500</v>
+        <v>20280000</v>
       </c>
       <c r="I9" s="3">
-        <v>19688100</v>
+        <v>18560700</v>
       </c>
       <c r="J9" s="3">
+        <v>19022200</v>
+      </c>
+      <c r="K9" s="3">
         <v>19274900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41498600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19580600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19475900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5996700</v>
+        <v>8698900</v>
       </c>
       <c r="E10" s="3">
-        <v>19513100</v>
+        <v>5793800</v>
       </c>
       <c r="F10" s="3">
-        <v>19991800</v>
+        <v>18853100</v>
       </c>
       <c r="G10" s="3">
-        <v>19182300</v>
+        <v>19315700</v>
       </c>
       <c r="H10" s="3">
-        <v>16536800</v>
+        <v>18533500</v>
       </c>
       <c r="I10" s="3">
-        <v>16506300</v>
+        <v>15977500</v>
       </c>
       <c r="J10" s="3">
+        <v>15948000</v>
+      </c>
+      <c r="K10" s="3">
         <v>14610600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-5580300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13507600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14252400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2050400</v>
+        <v>-445100</v>
       </c>
       <c r="E14" s="3">
-        <v>100500</v>
+        <v>1981100</v>
       </c>
       <c r="F14" s="3">
-        <v>37300</v>
+        <v>97100</v>
       </c>
       <c r="G14" s="3">
-        <v>293600</v>
+        <v>36000</v>
       </c>
       <c r="H14" s="3">
-        <v>197600</v>
+        <v>283600</v>
       </c>
       <c r="I14" s="3">
-        <v>175000</v>
+        <v>190900</v>
       </c>
       <c r="J14" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K14" s="3">
         <v>88100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>448600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>357900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>103300</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2891600</v>
+        <v>2464400</v>
       </c>
       <c r="E15" s="3">
-        <v>3039500</v>
+        <v>2793800</v>
       </c>
       <c r="F15" s="3">
-        <v>2462600</v>
+        <v>2936700</v>
       </c>
       <c r="G15" s="3">
-        <v>2302200</v>
+        <v>2379300</v>
       </c>
       <c r="H15" s="3">
-        <v>1790800</v>
+        <v>2224400</v>
       </c>
       <c r="I15" s="3">
-        <v>1756900</v>
+        <v>1730200</v>
       </c>
       <c r="J15" s="3">
+        <v>1697500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1612400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3898400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1890800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1952000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23347500</v>
+        <v>20868000</v>
       </c>
       <c r="E17" s="3">
-        <v>39219300</v>
+        <v>22557800</v>
       </c>
       <c r="F17" s="3">
-        <v>36969000</v>
+        <v>37892800</v>
       </c>
       <c r="G17" s="3">
-        <v>36626900</v>
+        <v>35718600</v>
       </c>
       <c r="H17" s="3">
-        <v>33274600</v>
+        <v>35388000</v>
       </c>
       <c r="I17" s="3">
-        <v>34438700</v>
+        <v>32149100</v>
       </c>
       <c r="J17" s="3">
+        <v>33273800</v>
+      </c>
+      <c r="K17" s="3">
         <v>32892900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34903900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31339100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32864300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8004200</v>
+        <v>-2528700</v>
       </c>
       <c r="E18" s="3">
-        <v>1907000</v>
+        <v>-7733500</v>
       </c>
       <c r="F18" s="3">
-        <v>3161500</v>
+        <v>1842500</v>
       </c>
       <c r="G18" s="3">
-        <v>3545400</v>
+        <v>3054500</v>
       </c>
       <c r="H18" s="3">
-        <v>2472700</v>
+        <v>3425500</v>
       </c>
       <c r="I18" s="3">
-        <v>1755800</v>
+        <v>2389100</v>
       </c>
       <c r="J18" s="3">
+        <v>1696400</v>
+      </c>
+      <c r="K18" s="3">
         <v>992500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1014400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1749100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>863900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1394400</v>
+        <v>74200</v>
       </c>
       <c r="E20" s="3">
-        <v>507000</v>
+        <v>-1347300</v>
       </c>
       <c r="F20" s="3">
-        <v>102700</v>
+        <v>489800</v>
       </c>
       <c r="G20" s="3">
-        <v>255200</v>
+        <v>99300</v>
       </c>
       <c r="H20" s="3">
-        <v>212300</v>
+        <v>246500</v>
       </c>
       <c r="I20" s="3">
-        <v>717000</v>
+        <v>205100</v>
       </c>
       <c r="J20" s="3">
+        <v>692700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-514900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>393500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>58200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4427100</v>
+        <v>79400</v>
       </c>
       <c r="E21" s="3">
-        <v>5512600</v>
+        <v>-4215400</v>
       </c>
       <c r="F21" s="3">
-        <v>5729100</v>
+        <v>5364700</v>
       </c>
       <c r="G21" s="3">
-        <v>6403500</v>
+        <v>5566000</v>
       </c>
       <c r="H21" s="3">
-        <v>4682500</v>
+        <v>6219300</v>
       </c>
       <c r="I21" s="3">
-        <v>4405700</v>
+        <v>4548900</v>
       </c>
       <c r="J21" s="3">
+        <v>4280700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2193300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3479600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3924200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3002900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>346600</v>
+        <v>388400</v>
       </c>
       <c r="E22" s="3">
-        <v>313900</v>
+        <v>334900</v>
       </c>
       <c r="F22" s="3">
-        <v>120800</v>
+        <v>303300</v>
       </c>
       <c r="G22" s="3">
-        <v>234900</v>
+        <v>116700</v>
       </c>
       <c r="H22" s="3">
-        <v>146800</v>
+        <v>226900</v>
       </c>
       <c r="I22" s="3">
-        <v>185200</v>
+        <v>141800</v>
       </c>
       <c r="J22" s="3">
+        <v>178900</v>
+      </c>
+      <c r="K22" s="3">
         <v>274400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>754800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>384300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>388500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9745300</v>
+        <v>-2842900</v>
       </c>
       <c r="E23" s="3">
-        <v>2100100</v>
+        <v>-9415600</v>
       </c>
       <c r="F23" s="3">
-        <v>3143400</v>
+        <v>2029100</v>
       </c>
       <c r="G23" s="3">
-        <v>3565700</v>
+        <v>3037100</v>
       </c>
       <c r="H23" s="3">
-        <v>2538200</v>
+        <v>3445100</v>
       </c>
       <c r="I23" s="3">
-        <v>2287600</v>
+        <v>2452400</v>
       </c>
       <c r="J23" s="3">
+        <v>2210200</v>
+      </c>
+      <c r="K23" s="3">
         <v>203200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>653100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1423000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>523500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2105800</v>
+        <v>-450500</v>
       </c>
       <c r="E24" s="3">
-        <v>694400</v>
+        <v>-2034500</v>
       </c>
       <c r="F24" s="3">
-        <v>663900</v>
+        <v>670900</v>
       </c>
       <c r="G24" s="3">
-        <v>885200</v>
+        <v>641500</v>
       </c>
       <c r="H24" s="3">
-        <v>502400</v>
+        <v>855300</v>
       </c>
       <c r="I24" s="3">
-        <v>343200</v>
+        <v>485500</v>
       </c>
       <c r="J24" s="3">
+        <v>331600</v>
+      </c>
+      <c r="K24" s="3">
         <v>118600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>263200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>184300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7639500</v>
+        <v>-2392400</v>
       </c>
       <c r="E26" s="3">
-        <v>1405700</v>
+        <v>-7381100</v>
       </c>
       <c r="F26" s="3">
-        <v>2479500</v>
+        <v>1358200</v>
       </c>
       <c r="G26" s="3">
-        <v>2680500</v>
+        <v>2395600</v>
       </c>
       <c r="H26" s="3">
-        <v>2035800</v>
+        <v>2589800</v>
       </c>
       <c r="I26" s="3">
-        <v>1944300</v>
+        <v>1966900</v>
       </c>
       <c r="J26" s="3">
+        <v>1878500</v>
+      </c>
+      <c r="K26" s="3">
         <v>84700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>390000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1323100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>339200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7593200</v>
+        <v>-2390200</v>
       </c>
       <c r="E27" s="3">
-        <v>1369600</v>
+        <v>-7336400</v>
       </c>
       <c r="F27" s="3">
-        <v>2442200</v>
+        <v>1323300</v>
       </c>
       <c r="G27" s="3">
-        <v>2642100</v>
+        <v>2359600</v>
       </c>
       <c r="H27" s="3">
-        <v>2005300</v>
+        <v>2552700</v>
       </c>
       <c r="I27" s="3">
-        <v>1917200</v>
+        <v>1937500</v>
       </c>
       <c r="J27" s="3">
+        <v>1852400</v>
+      </c>
+      <c r="K27" s="3">
         <v>62100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>374400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1308800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>319300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1437,14 +1497,17 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>39500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-334500</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1394400</v>
+        <v>-74200</v>
       </c>
       <c r="E32" s="3">
-        <v>-507000</v>
+        <v>1347300</v>
       </c>
       <c r="F32" s="3">
-        <v>-102700</v>
+        <v>-489800</v>
       </c>
       <c r="G32" s="3">
-        <v>-255200</v>
+        <v>-99300</v>
       </c>
       <c r="H32" s="3">
-        <v>-212300</v>
+        <v>-246500</v>
       </c>
       <c r="I32" s="3">
-        <v>-717000</v>
+        <v>-205100</v>
       </c>
       <c r="J32" s="3">
+        <v>-692700</v>
+      </c>
+      <c r="K32" s="3">
         <v>514900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-393500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-58200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7593200</v>
+        <v>-2390200</v>
       </c>
       <c r="E33" s="3">
-        <v>1369600</v>
+        <v>-7336400</v>
       </c>
       <c r="F33" s="3">
-        <v>2442200</v>
+        <v>1323300</v>
       </c>
       <c r="G33" s="3">
-        <v>2642100</v>
+        <v>2359600</v>
       </c>
       <c r="H33" s="3">
-        <v>2005300</v>
+        <v>2552700</v>
       </c>
       <c r="I33" s="3">
-        <v>1917200</v>
+        <v>1937500</v>
       </c>
       <c r="J33" s="3">
+        <v>1852400</v>
+      </c>
+      <c r="K33" s="3">
         <v>62100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>374400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1348300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7593200</v>
+        <v>-2390200</v>
       </c>
       <c r="E35" s="3">
-        <v>1369600</v>
+        <v>-7336400</v>
       </c>
       <c r="F35" s="3">
-        <v>2442200</v>
+        <v>1323300</v>
       </c>
       <c r="G35" s="3">
-        <v>2642100</v>
+        <v>2359600</v>
       </c>
       <c r="H35" s="3">
-        <v>2005300</v>
+        <v>2552700</v>
       </c>
       <c r="I35" s="3">
-        <v>1917200</v>
+        <v>1937500</v>
       </c>
       <c r="J35" s="3">
+        <v>1852400</v>
+      </c>
+      <c r="K35" s="3">
         <v>62100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>374400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1348300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2039200</v>
+        <v>2516700</v>
       </c>
       <c r="E41" s="3">
-        <v>1597700</v>
+        <v>1970200</v>
       </c>
       <c r="F41" s="3">
-        <v>1619100</v>
+        <v>1543600</v>
       </c>
       <c r="G41" s="3">
-        <v>1375200</v>
+        <v>1564400</v>
       </c>
       <c r="H41" s="3">
-        <v>1284900</v>
+        <v>1328700</v>
       </c>
       <c r="I41" s="3">
-        <v>1124600</v>
+        <v>1241500</v>
       </c>
       <c r="J41" s="3">
+        <v>1086500</v>
+      </c>
+      <c r="K41" s="3">
         <v>934900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3539600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3150200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2062400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4125700</v>
+        <v>5846200</v>
       </c>
       <c r="E42" s="3">
-        <v>2224300</v>
+        <v>3986200</v>
       </c>
       <c r="F42" s="3">
-        <v>2033500</v>
+        <v>2149100</v>
       </c>
       <c r="G42" s="3">
-        <v>3082400</v>
+        <v>1964700</v>
       </c>
       <c r="H42" s="3">
-        <v>3160400</v>
+        <v>2978200</v>
       </c>
       <c r="I42" s="3">
-        <v>2367700</v>
+        <v>3053500</v>
       </c>
       <c r="J42" s="3">
+        <v>2287600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2156600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3936700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3875900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3651700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3688800</v>
+        <v>4488000</v>
       </c>
       <c r="E43" s="3">
-        <v>6601800</v>
+        <v>3564000</v>
       </c>
       <c r="F43" s="3">
-        <v>6625600</v>
+        <v>6378600</v>
       </c>
       <c r="G43" s="3">
-        <v>6064400</v>
+        <v>6401500</v>
       </c>
       <c r="H43" s="3">
-        <v>5201800</v>
+        <v>5859300</v>
       </c>
       <c r="I43" s="3">
-        <v>5051600</v>
+        <v>5025800</v>
       </c>
       <c r="J43" s="3">
+        <v>4880700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4648500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12977600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11957200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8233100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>819700</v>
+        <v>736400</v>
       </c>
       <c r="E44" s="3">
-        <v>1106500</v>
+        <v>792000</v>
       </c>
       <c r="F44" s="3">
-        <v>1093000</v>
+        <v>1069100</v>
       </c>
       <c r="G44" s="3">
-        <v>1024100</v>
+        <v>1056000</v>
       </c>
       <c r="H44" s="3">
-        <v>921300</v>
+        <v>989500</v>
       </c>
       <c r="I44" s="3">
-        <v>859200</v>
+        <v>890200</v>
       </c>
       <c r="J44" s="3">
+        <v>830200</v>
+      </c>
+      <c r="K44" s="3">
         <v>790400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1533500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1525100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1455500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>662800</v>
+        <v>1112700</v>
       </c>
       <c r="E45" s="3">
-        <v>1211500</v>
+        <v>640400</v>
       </c>
       <c r="F45" s="3">
-        <v>658300</v>
+        <v>1170500</v>
       </c>
       <c r="G45" s="3">
-        <v>906700</v>
+        <v>636000</v>
       </c>
       <c r="H45" s="3">
-        <v>940500</v>
+        <v>876000</v>
       </c>
       <c r="I45" s="3">
-        <v>686500</v>
+        <v>908700</v>
       </c>
       <c r="J45" s="3">
+        <v>663300</v>
+      </c>
+      <c r="K45" s="3">
         <v>781300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>811000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>815800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2517800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11336200</v>
+        <v>14700000</v>
       </c>
       <c r="E46" s="3">
-        <v>12741900</v>
+        <v>10952700</v>
       </c>
       <c r="F46" s="3">
-        <v>12029400</v>
+        <v>12310900</v>
       </c>
       <c r="G46" s="3">
-        <v>12452800</v>
+        <v>11622600</v>
       </c>
       <c r="H46" s="3">
-        <v>11508900</v>
+        <v>12031600</v>
       </c>
       <c r="I46" s="3">
-        <v>10089600</v>
+        <v>11119600</v>
       </c>
       <c r="J46" s="3">
+        <v>9748400</v>
+      </c>
+      <c r="K46" s="3">
         <v>9311700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11590000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10761500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11111300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1335700</v>
+        <v>1425800</v>
       </c>
       <c r="E47" s="3">
-        <v>1673300</v>
+        <v>1290500</v>
       </c>
       <c r="F47" s="3">
-        <v>1647400</v>
+        <v>1616700</v>
       </c>
       <c r="G47" s="3">
-        <v>1496100</v>
+        <v>1591600</v>
       </c>
       <c r="H47" s="3">
-        <v>1431700</v>
+        <v>1445500</v>
       </c>
       <c r="I47" s="3">
-        <v>1435100</v>
+        <v>1383300</v>
       </c>
       <c r="J47" s="3">
+        <v>1386500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2006400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1794300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1922600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3318400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22032100</v>
+        <v>20369500</v>
       </c>
       <c r="E48" s="3">
-        <v>25280500</v>
+        <v>21286900</v>
       </c>
       <c r="F48" s="3">
-        <v>21449500</v>
+        <v>24425500</v>
       </c>
       <c r="G48" s="3">
-        <v>19781800</v>
+        <v>20724000</v>
       </c>
       <c r="H48" s="3">
-        <v>19191300</v>
+        <v>19112700</v>
       </c>
       <c r="I48" s="3">
-        <v>18928200</v>
+        <v>18542200</v>
       </c>
       <c r="J48" s="3">
+        <v>18288000</v>
+      </c>
+      <c r="K48" s="3">
         <v>17705400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18182200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12216300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>247700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1849500</v>
+        <v>1754200</v>
       </c>
       <c r="E49" s="3">
-        <v>2192700</v>
+        <v>1786900</v>
       </c>
       <c r="F49" s="3">
-        <v>2137400</v>
+        <v>2118500</v>
       </c>
       <c r="G49" s="3">
-        <v>2071900</v>
+        <v>2065100</v>
       </c>
       <c r="H49" s="3">
-        <v>1961200</v>
+        <v>2001800</v>
       </c>
       <c r="I49" s="3">
-        <v>1870900</v>
+        <v>1894900</v>
       </c>
       <c r="J49" s="3">
+        <v>1807600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1791900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4946300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5617400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3697500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8027900</v>
+        <v>8155600</v>
       </c>
       <c r="E52" s="3">
-        <v>6277800</v>
+        <v>7756400</v>
       </c>
       <c r="F52" s="3">
-        <v>5882600</v>
+        <v>6065500</v>
       </c>
       <c r="G52" s="3">
-        <v>4595400</v>
+        <v>5683600</v>
       </c>
       <c r="H52" s="3">
-        <v>5083200</v>
+        <v>4440000</v>
       </c>
       <c r="I52" s="3">
-        <v>4329000</v>
+        <v>4911300</v>
       </c>
       <c r="J52" s="3">
+        <v>4182500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3592800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2311100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3152400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2609400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44581400</v>
+        <v>46405100</v>
       </c>
       <c r="E54" s="3">
-        <v>48166300</v>
+        <v>43073500</v>
       </c>
       <c r="F54" s="3">
-        <v>43146300</v>
+        <v>46537100</v>
       </c>
       <c r="G54" s="3">
-        <v>40396900</v>
+        <v>41686900</v>
       </c>
       <c r="H54" s="3">
-        <v>39176400</v>
+        <v>39030600</v>
       </c>
       <c r="I54" s="3">
-        <v>36652800</v>
+        <v>37851300</v>
       </c>
       <c r="J54" s="3">
+        <v>35413100</v>
+      </c>
+      <c r="K54" s="3">
         <v>34408200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34819000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31379700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32912500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2356400</v>
+        <v>3142900</v>
       </c>
       <c r="E57" s="3">
-        <v>4202500</v>
+        <v>2276700</v>
       </c>
       <c r="F57" s="3">
-        <v>4417000</v>
+        <v>4060400</v>
       </c>
       <c r="G57" s="3">
-        <v>3873900</v>
+        <v>4267600</v>
       </c>
       <c r="H57" s="3">
-        <v>3462900</v>
+        <v>3742900</v>
       </c>
       <c r="I57" s="3">
-        <v>3328600</v>
+        <v>3345800</v>
       </c>
       <c r="J57" s="3">
+        <v>3216000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3322900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9056400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4652200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4961700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3534100</v>
+        <v>1797800</v>
       </c>
       <c r="E58" s="3">
-        <v>1864100</v>
+        <v>3414500</v>
       </c>
       <c r="F58" s="3">
-        <v>1937500</v>
+        <v>1801100</v>
       </c>
       <c r="G58" s="3">
-        <v>779100</v>
+        <v>1872000</v>
       </c>
       <c r="H58" s="3">
-        <v>933800</v>
+        <v>752700</v>
       </c>
       <c r="I58" s="3">
-        <v>1590900</v>
+        <v>902200</v>
       </c>
       <c r="J58" s="3">
+        <v>1537100</v>
+      </c>
+      <c r="K58" s="3">
         <v>894200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5567100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2124600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1446100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10661000</v>
+        <v>11076000</v>
       </c>
       <c r="E59" s="3">
-        <v>11983100</v>
+        <v>10300400</v>
       </c>
       <c r="F59" s="3">
-        <v>11953800</v>
+        <v>11577800</v>
       </c>
       <c r="G59" s="3">
-        <v>9616500</v>
+        <v>11549500</v>
       </c>
       <c r="H59" s="3">
-        <v>8033500</v>
+        <v>9291300</v>
       </c>
       <c r="I59" s="3">
-        <v>9123100</v>
+        <v>7761800</v>
       </c>
       <c r="J59" s="3">
+        <v>8814600</v>
+      </c>
+      <c r="K59" s="3">
         <v>8173600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12075600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10309100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8550000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16551500</v>
+        <v>16016700</v>
       </c>
       <c r="E60" s="3">
-        <v>18049800</v>
+        <v>15991600</v>
       </c>
       <c r="F60" s="3">
-        <v>18308400</v>
+        <v>17439300</v>
       </c>
       <c r="G60" s="3">
-        <v>14269600</v>
+        <v>17689100</v>
       </c>
       <c r="H60" s="3">
-        <v>12430300</v>
+        <v>13786900</v>
       </c>
       <c r="I60" s="3">
-        <v>14042600</v>
+        <v>12009800</v>
       </c>
       <c r="J60" s="3">
+        <v>13567600</v>
+      </c>
+      <c r="K60" s="3">
         <v>12390700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13105600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10709900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11463400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13833700</v>
+        <v>16408400</v>
       </c>
       <c r="E61" s="3">
-        <v>9479900</v>
+        <v>13365800</v>
       </c>
       <c r="F61" s="3">
-        <v>5654500</v>
+        <v>9159300</v>
       </c>
       <c r="G61" s="3">
-        <v>6934900</v>
+        <v>5463300</v>
       </c>
       <c r="H61" s="3">
-        <v>6561200</v>
+        <v>6700400</v>
       </c>
       <c r="I61" s="3">
-        <v>5680500</v>
+        <v>6339300</v>
       </c>
       <c r="J61" s="3">
+        <v>5488400</v>
+      </c>
+      <c r="K61" s="3">
         <v>6056500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5769300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6529800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6817500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12630100</v>
+        <v>9081800</v>
       </c>
       <c r="E62" s="3">
-        <v>9056500</v>
+        <v>12202900</v>
       </c>
       <c r="F62" s="3">
-        <v>8374500</v>
+        <v>8750200</v>
       </c>
       <c r="G62" s="3">
-        <v>8906300</v>
+        <v>8091300</v>
       </c>
       <c r="H62" s="3">
-        <v>12113000</v>
+        <v>8605100</v>
       </c>
       <c r="I62" s="3">
-        <v>10330100</v>
+        <v>11703300</v>
       </c>
       <c r="J62" s="3">
+        <v>9980700</v>
+      </c>
+      <c r="K62" s="3">
         <v>11409600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10947600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10103800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9266100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43060500</v>
+        <v>41550600</v>
       </c>
       <c r="E66" s="3">
-        <v>36709300</v>
+        <v>41604000</v>
       </c>
       <c r="F66" s="3">
-        <v>32461600</v>
+        <v>35467700</v>
       </c>
       <c r="G66" s="3">
-        <v>30227100</v>
+        <v>31363700</v>
       </c>
       <c r="H66" s="3">
-        <v>31204900</v>
+        <v>29204800</v>
       </c>
       <c r="I66" s="3">
-        <v>30140200</v>
+        <v>30149500</v>
       </c>
       <c r="J66" s="3">
+        <v>29120800</v>
+      </c>
+      <c r="K66" s="3">
         <v>29927900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27574800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26132400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26301600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1691400</v>
+        <v>-1458500</v>
       </c>
       <c r="E72" s="3">
-        <v>8109200</v>
+        <v>-1634200</v>
       </c>
       <c r="F72" s="3">
-        <v>7951100</v>
+        <v>7834900</v>
       </c>
       <c r="G72" s="3">
-        <v>7214900</v>
+        <v>7682200</v>
       </c>
       <c r="H72" s="3">
-        <v>4122300</v>
+        <v>6970900</v>
       </c>
       <c r="I72" s="3">
-        <v>4096400</v>
+        <v>3982900</v>
       </c>
       <c r="J72" s="3">
+        <v>3957800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1813300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3770400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7758500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8192000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1520900</v>
+        <v>4854500</v>
       </c>
       <c r="E76" s="3">
-        <v>11457000</v>
+        <v>1469500</v>
       </c>
       <c r="F76" s="3">
-        <v>10684700</v>
+        <v>11069500</v>
       </c>
       <c r="G76" s="3">
-        <v>10169800</v>
+        <v>10323300</v>
       </c>
       <c r="H76" s="3">
-        <v>7971400</v>
+        <v>9825800</v>
       </c>
       <c r="I76" s="3">
-        <v>6512600</v>
+        <v>7701800</v>
       </c>
       <c r="J76" s="3">
+        <v>6292400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4480300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7244200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5247300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6610900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7593200</v>
+        <v>-2390200</v>
       </c>
       <c r="E81" s="3">
-        <v>1369600</v>
+        <v>-7336400</v>
       </c>
       <c r="F81" s="3">
-        <v>2442200</v>
+        <v>1323300</v>
       </c>
       <c r="G81" s="3">
-        <v>2642100</v>
+        <v>2359600</v>
       </c>
       <c r="H81" s="3">
-        <v>2005300</v>
+        <v>2552700</v>
       </c>
       <c r="I81" s="3">
-        <v>1917200</v>
+        <v>1937500</v>
       </c>
       <c r="J81" s="3">
+        <v>1852400</v>
+      </c>
+      <c r="K81" s="3">
         <v>62100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>374400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1348300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4960100</v>
+        <v>2496000</v>
       </c>
       <c r="E83" s="3">
-        <v>3091500</v>
+        <v>4792400</v>
       </c>
       <c r="F83" s="3">
-        <v>2459200</v>
+        <v>2986900</v>
       </c>
       <c r="G83" s="3">
-        <v>2596900</v>
+        <v>2376000</v>
       </c>
       <c r="H83" s="3">
-        <v>1992900</v>
+        <v>2509100</v>
       </c>
       <c r="I83" s="3">
-        <v>1928500</v>
+        <v>1925500</v>
       </c>
       <c r="J83" s="3">
+        <v>1863300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1711700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2080200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2113700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2089400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2628500</v>
+        <v>674200</v>
       </c>
       <c r="E89" s="3">
-        <v>4532200</v>
+        <v>-2539600</v>
       </c>
       <c r="F89" s="3">
-        <v>4639500</v>
+        <v>4378900</v>
       </c>
       <c r="G89" s="3">
-        <v>6061000</v>
+        <v>4482500</v>
       </c>
       <c r="H89" s="3">
-        <v>3665100</v>
+        <v>5856000</v>
       </c>
       <c r="I89" s="3">
-        <v>3831000</v>
+        <v>3541100</v>
       </c>
       <c r="J89" s="3">
+        <v>3701500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2232200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3935500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3120500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2711500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1410200</v>
+        <v>-1437800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3936000</v>
+        <v>-1362500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4187800</v>
+        <v>-3802900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3768900</v>
+        <v>-4046200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2438900</v>
+        <v>-3641500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2770800</v>
+        <v>-2356400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2677100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3047400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2923500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2516600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2870000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2644400</v>
+        <v>-3298900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4366200</v>
+        <v>-2554900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3691000</v>
+        <v>-4218500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5652300</v>
+        <v>-3566200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3194200</v>
+        <v>-5461100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3695500</v>
+        <v>-3086200</v>
       </c>
       <c r="J94" s="3">
+        <v>-3570500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1682400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2875700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2404600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23700</v>
+        <v>-20700</v>
       </c>
       <c r="E96" s="3">
-        <v>-467400</v>
+        <v>-22900</v>
       </c>
       <c r="F96" s="3">
-        <v>-394100</v>
+        <v>-451600</v>
       </c>
       <c r="G96" s="3">
-        <v>-262000</v>
+        <v>-380700</v>
       </c>
       <c r="H96" s="3">
-        <v>-263100</v>
+        <v>-253100</v>
       </c>
       <c r="I96" s="3">
-        <v>-15800</v>
+        <v>-254200</v>
       </c>
       <c r="J96" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-250700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-143800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-347400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5731300</v>
+        <v>3135300</v>
       </c>
       <c r="E100" s="3">
-        <v>-181800</v>
+        <v>5537500</v>
       </c>
       <c r="F100" s="3">
-        <v>-706800</v>
+        <v>-175600</v>
       </c>
       <c r="G100" s="3">
-        <v>-276600</v>
+        <v>-682900</v>
       </c>
       <c r="H100" s="3">
-        <v>-307100</v>
+        <v>-267300</v>
       </c>
       <c r="I100" s="3">
-        <v>29400</v>
+        <v>-296700</v>
       </c>
       <c r="J100" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1210400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1081400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1668000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37300</v>
+        <v>36000</v>
       </c>
       <c r="E101" s="3">
-        <v>-5600</v>
+        <v>-36000</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
-        <v>-41800</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3400</v>
+        <v>-40400</v>
       </c>
       <c r="I101" s="3">
-        <v>24800</v>
+        <v>-3300</v>
       </c>
       <c r="J101" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>421200</v>
+        <v>546500</v>
       </c>
       <c r="E102" s="3">
-        <v>-21500</v>
+        <v>406900</v>
       </c>
       <c r="F102" s="3">
-        <v>243900</v>
+        <v>-20700</v>
       </c>
       <c r="G102" s="3">
-        <v>90300</v>
+        <v>235600</v>
       </c>
       <c r="H102" s="3">
-        <v>160300</v>
+        <v>87300</v>
       </c>
       <c r="I102" s="3">
-        <v>189700</v>
+        <v>154900</v>
       </c>
       <c r="J102" s="3">
+        <v>183300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-653700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>602800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-246500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18339300</v>
+        <v>17448100</v>
       </c>
       <c r="E8" s="3">
-        <v>14824400</v>
+        <v>14104000</v>
       </c>
       <c r="F8" s="3">
-        <v>39735300</v>
+        <v>37804500</v>
       </c>
       <c r="G8" s="3">
-        <v>38773100</v>
+        <v>36889000</v>
       </c>
       <c r="H8" s="3">
-        <v>38813500</v>
+        <v>36927400</v>
       </c>
       <c r="I8" s="3">
-        <v>34538200</v>
+        <v>32859900</v>
       </c>
       <c r="J8" s="3">
-        <v>34970200</v>
+        <v>33270900</v>
       </c>
       <c r="K8" s="3">
         <v>33885400</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9640400</v>
+        <v>9171900</v>
       </c>
       <c r="E9" s="3">
-        <v>9030600</v>
+        <v>8591700</v>
       </c>
       <c r="F9" s="3">
-        <v>20882200</v>
+        <v>19867500</v>
       </c>
       <c r="G9" s="3">
-        <v>19457500</v>
+        <v>18512000</v>
       </c>
       <c r="H9" s="3">
-        <v>20280000</v>
+        <v>19294600</v>
       </c>
       <c r="I9" s="3">
-        <v>18560700</v>
+        <v>17658800</v>
       </c>
       <c r="J9" s="3">
-        <v>19022200</v>
+        <v>18097900</v>
       </c>
       <c r="K9" s="3">
         <v>19274900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8698900</v>
+        <v>8276200</v>
       </c>
       <c r="E10" s="3">
-        <v>5793800</v>
+        <v>5512300</v>
       </c>
       <c r="F10" s="3">
-        <v>18853100</v>
+        <v>17937000</v>
       </c>
       <c r="G10" s="3">
-        <v>19315700</v>
+        <v>18377100</v>
       </c>
       <c r="H10" s="3">
-        <v>18533500</v>
+        <v>17632900</v>
       </c>
       <c r="I10" s="3">
-        <v>15977500</v>
+        <v>15201100</v>
       </c>
       <c r="J10" s="3">
-        <v>15948000</v>
+        <v>15173100</v>
       </c>
       <c r="K10" s="3">
         <v>14610600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-445100</v>
+        <v>-279200</v>
       </c>
       <c r="E14" s="3">
-        <v>1981100</v>
+        <v>1789300</v>
       </c>
       <c r="F14" s="3">
-        <v>97100</v>
+        <v>92400</v>
       </c>
       <c r="G14" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="H14" s="3">
-        <v>283600</v>
+        <v>269900</v>
       </c>
       <c r="I14" s="3">
-        <v>190900</v>
+        <v>181600</v>
       </c>
       <c r="J14" s="3">
-        <v>169100</v>
+        <v>160900</v>
       </c>
       <c r="K14" s="3">
         <v>88100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2464400</v>
+        <v>2344600</v>
       </c>
       <c r="E15" s="3">
-        <v>2793800</v>
+        <v>2658100</v>
       </c>
       <c r="F15" s="3">
-        <v>2936700</v>
+        <v>2794000</v>
       </c>
       <c r="G15" s="3">
-        <v>2379300</v>
+        <v>2263700</v>
       </c>
       <c r="H15" s="3">
-        <v>2224400</v>
+        <v>2116300</v>
       </c>
       <c r="I15" s="3">
-        <v>1730200</v>
+        <v>1646100</v>
       </c>
       <c r="J15" s="3">
-        <v>1697500</v>
+        <v>1615000</v>
       </c>
       <c r="K15" s="3">
         <v>1612400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20868000</v>
+        <v>19854000</v>
       </c>
       <c r="E17" s="3">
-        <v>22557800</v>
+        <v>21461700</v>
       </c>
       <c r="F17" s="3">
-        <v>37892800</v>
+        <v>36051500</v>
       </c>
       <c r="G17" s="3">
-        <v>35718600</v>
+        <v>33982900</v>
       </c>
       <c r="H17" s="3">
-        <v>35388000</v>
+        <v>33668400</v>
       </c>
       <c r="I17" s="3">
-        <v>32149100</v>
+        <v>30586900</v>
       </c>
       <c r="J17" s="3">
-        <v>33273800</v>
+        <v>31657000</v>
       </c>
       <c r="K17" s="3">
         <v>32892900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2528700</v>
+        <v>-2405900</v>
       </c>
       <c r="E18" s="3">
-        <v>-7733500</v>
+        <v>-7357700</v>
       </c>
       <c r="F18" s="3">
-        <v>1842500</v>
+        <v>1753000</v>
       </c>
       <c r="G18" s="3">
-        <v>3054500</v>
+        <v>2906100</v>
       </c>
       <c r="H18" s="3">
-        <v>3425500</v>
+        <v>3259000</v>
       </c>
       <c r="I18" s="3">
-        <v>2389100</v>
+        <v>2273000</v>
       </c>
       <c r="J18" s="3">
-        <v>1696400</v>
+        <v>1613900</v>
       </c>
       <c r="K18" s="3">
         <v>992500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>74200</v>
+        <v>70600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1347300</v>
+        <v>-1281800</v>
       </c>
       <c r="F20" s="3">
-        <v>489800</v>
+        <v>466000</v>
       </c>
       <c r="G20" s="3">
-        <v>99300</v>
+        <v>94400</v>
       </c>
       <c r="H20" s="3">
-        <v>246500</v>
+        <v>234600</v>
       </c>
       <c r="I20" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="J20" s="3">
-        <v>692700</v>
+        <v>659100</v>
       </c>
       <c r="K20" s="3">
         <v>-514900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>79400</v>
+        <v>69600</v>
       </c>
       <c r="E21" s="3">
-        <v>-4215400</v>
+        <v>-4022000</v>
       </c>
       <c r="F21" s="3">
-        <v>5364700</v>
+        <v>5096900</v>
       </c>
       <c r="G21" s="3">
-        <v>5566000</v>
+        <v>5289900</v>
       </c>
       <c r="H21" s="3">
-        <v>6219300</v>
+        <v>5911100</v>
       </c>
       <c r="I21" s="3">
-        <v>4548900</v>
+        <v>4323300</v>
       </c>
       <c r="J21" s="3">
-        <v>4280700</v>
+        <v>4068300</v>
       </c>
       <c r="K21" s="3">
         <v>2193300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>388400</v>
+        <v>369500</v>
       </c>
       <c r="E22" s="3">
-        <v>334900</v>
+        <v>318600</v>
       </c>
       <c r="F22" s="3">
-        <v>303300</v>
+        <v>288500</v>
       </c>
       <c r="G22" s="3">
-        <v>116700</v>
+        <v>111100</v>
       </c>
       <c r="H22" s="3">
-        <v>226900</v>
+        <v>215900</v>
       </c>
       <c r="I22" s="3">
-        <v>141800</v>
+        <v>134900</v>
       </c>
       <c r="J22" s="3">
-        <v>178900</v>
+        <v>170200</v>
       </c>
       <c r="K22" s="3">
         <v>274400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2842900</v>
+        <v>-2704800</v>
       </c>
       <c r="E23" s="3">
-        <v>-9415600</v>
+        <v>-8958100</v>
       </c>
       <c r="F23" s="3">
-        <v>2029100</v>
+        <v>1930500</v>
       </c>
       <c r="G23" s="3">
-        <v>3037100</v>
+        <v>2889500</v>
       </c>
       <c r="H23" s="3">
-        <v>3445100</v>
+        <v>3277700</v>
       </c>
       <c r="I23" s="3">
-        <v>2452400</v>
+        <v>2333200</v>
       </c>
       <c r="J23" s="3">
-        <v>2210200</v>
+        <v>2102800</v>
       </c>
       <c r="K23" s="3">
         <v>203200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-450500</v>
+        <v>-428700</v>
       </c>
       <c r="E24" s="3">
-        <v>-2034500</v>
+        <v>-1935700</v>
       </c>
       <c r="F24" s="3">
-        <v>670900</v>
+        <v>638300</v>
       </c>
       <c r="G24" s="3">
-        <v>641500</v>
+        <v>610300</v>
       </c>
       <c r="H24" s="3">
-        <v>855300</v>
+        <v>813700</v>
       </c>
       <c r="I24" s="3">
-        <v>485500</v>
+        <v>461900</v>
       </c>
       <c r="J24" s="3">
-        <v>331600</v>
+        <v>315500</v>
       </c>
       <c r="K24" s="3">
         <v>118600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2392400</v>
+        <v>-2276100</v>
       </c>
       <c r="E26" s="3">
-        <v>-7381100</v>
+        <v>-7022400</v>
       </c>
       <c r="F26" s="3">
-        <v>1358200</v>
+        <v>1292200</v>
       </c>
       <c r="G26" s="3">
-        <v>2395600</v>
+        <v>2279200</v>
       </c>
       <c r="H26" s="3">
-        <v>2589800</v>
+        <v>2464000</v>
       </c>
       <c r="I26" s="3">
-        <v>1966900</v>
+        <v>1871300</v>
       </c>
       <c r="J26" s="3">
-        <v>1878500</v>
+        <v>1787300</v>
       </c>
       <c r="K26" s="3">
         <v>84700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2390200</v>
+        <v>-2274000</v>
       </c>
       <c r="E27" s="3">
-        <v>-7336400</v>
+        <v>-6979900</v>
       </c>
       <c r="F27" s="3">
-        <v>1323300</v>
+        <v>1259000</v>
       </c>
       <c r="G27" s="3">
-        <v>2359600</v>
+        <v>2245000</v>
       </c>
       <c r="H27" s="3">
-        <v>2552700</v>
+        <v>2428700</v>
       </c>
       <c r="I27" s="3">
-        <v>1937500</v>
+        <v>1843300</v>
       </c>
       <c r="J27" s="3">
-        <v>1852400</v>
+        <v>1762400</v>
       </c>
       <c r="K27" s="3">
         <v>62100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74200</v>
+        <v>-70600</v>
       </c>
       <c r="E32" s="3">
-        <v>1347300</v>
+        <v>1281800</v>
       </c>
       <c r="F32" s="3">
-        <v>-489800</v>
+        <v>-466000</v>
       </c>
       <c r="G32" s="3">
-        <v>-99300</v>
+        <v>-94400</v>
       </c>
       <c r="H32" s="3">
-        <v>-246500</v>
+        <v>-234600</v>
       </c>
       <c r="I32" s="3">
-        <v>-205100</v>
+        <v>-195100</v>
       </c>
       <c r="J32" s="3">
-        <v>-692700</v>
+        <v>-659100</v>
       </c>
       <c r="K32" s="3">
         <v>514900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2390200</v>
+        <v>-2274000</v>
       </c>
       <c r="E33" s="3">
-        <v>-7336400</v>
+        <v>-6979900</v>
       </c>
       <c r="F33" s="3">
-        <v>1323300</v>
+        <v>1259000</v>
       </c>
       <c r="G33" s="3">
-        <v>2359600</v>
+        <v>2245000</v>
       </c>
       <c r="H33" s="3">
-        <v>2552700</v>
+        <v>2428700</v>
       </c>
       <c r="I33" s="3">
-        <v>1937500</v>
+        <v>1843300</v>
       </c>
       <c r="J33" s="3">
-        <v>1852400</v>
+        <v>1762400</v>
       </c>
       <c r="K33" s="3">
         <v>62100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2390200</v>
+        <v>-2274000</v>
       </c>
       <c r="E35" s="3">
-        <v>-7336400</v>
+        <v>-6979900</v>
       </c>
       <c r="F35" s="3">
-        <v>1323300</v>
+        <v>1259000</v>
       </c>
       <c r="G35" s="3">
-        <v>2359600</v>
+        <v>2245000</v>
       </c>
       <c r="H35" s="3">
-        <v>2552700</v>
+        <v>2428700</v>
       </c>
       <c r="I35" s="3">
-        <v>1937500</v>
+        <v>1843300</v>
       </c>
       <c r="J35" s="3">
-        <v>1852400</v>
+        <v>1762400</v>
       </c>
       <c r="K35" s="3">
         <v>62100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2516700</v>
+        <v>2394400</v>
       </c>
       <c r="E41" s="3">
-        <v>1970200</v>
+        <v>1874400</v>
       </c>
       <c r="F41" s="3">
-        <v>1543600</v>
+        <v>1468600</v>
       </c>
       <c r="G41" s="3">
-        <v>1564400</v>
+        <v>1488300</v>
       </c>
       <c r="H41" s="3">
-        <v>1328700</v>
+        <v>1264200</v>
       </c>
       <c r="I41" s="3">
-        <v>1241500</v>
+        <v>1181100</v>
       </c>
       <c r="J41" s="3">
-        <v>1086500</v>
+        <v>1033700</v>
       </c>
       <c r="K41" s="3">
         <v>934900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5846200</v>
+        <v>5562100</v>
       </c>
       <c r="E42" s="3">
-        <v>3986200</v>
+        <v>3792500</v>
       </c>
       <c r="F42" s="3">
-        <v>2149100</v>
+        <v>2044700</v>
       </c>
       <c r="G42" s="3">
-        <v>1964700</v>
+        <v>1869300</v>
       </c>
       <c r="H42" s="3">
-        <v>2978200</v>
+        <v>2833500</v>
       </c>
       <c r="I42" s="3">
-        <v>3053500</v>
+        <v>2905100</v>
       </c>
       <c r="J42" s="3">
-        <v>2287600</v>
+        <v>2176500</v>
       </c>
       <c r="K42" s="3">
         <v>2156600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4488000</v>
+        <v>4269900</v>
       </c>
       <c r="E43" s="3">
-        <v>3564000</v>
+        <v>3390800</v>
       </c>
       <c r="F43" s="3">
-        <v>6378600</v>
+        <v>6068600</v>
       </c>
       <c r="G43" s="3">
-        <v>6401500</v>
+        <v>6090400</v>
       </c>
       <c r="H43" s="3">
-        <v>5859300</v>
+        <v>5574600</v>
       </c>
       <c r="I43" s="3">
-        <v>5025800</v>
+        <v>4781600</v>
       </c>
       <c r="J43" s="3">
-        <v>4880700</v>
+        <v>4643600</v>
       </c>
       <c r="K43" s="3">
         <v>4648500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>736400</v>
+        <v>700600</v>
       </c>
       <c r="E44" s="3">
-        <v>792000</v>
+        <v>753500</v>
       </c>
       <c r="F44" s="3">
-        <v>1069100</v>
+        <v>1017100</v>
       </c>
       <c r="G44" s="3">
-        <v>1056000</v>
+        <v>1004700</v>
       </c>
       <c r="H44" s="3">
-        <v>989500</v>
+        <v>941400</v>
       </c>
       <c r="I44" s="3">
-        <v>890200</v>
+        <v>846900</v>
       </c>
       <c r="J44" s="3">
-        <v>830200</v>
+        <v>789800</v>
       </c>
       <c r="K44" s="3">
         <v>790400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1112700</v>
+        <v>1058700</v>
       </c>
       <c r="E45" s="3">
-        <v>640400</v>
+        <v>609200</v>
       </c>
       <c r="F45" s="3">
-        <v>1170500</v>
+        <v>1113700</v>
       </c>
       <c r="G45" s="3">
-        <v>636000</v>
+        <v>605100</v>
       </c>
       <c r="H45" s="3">
-        <v>876000</v>
+        <v>833400</v>
       </c>
       <c r="I45" s="3">
-        <v>908700</v>
+        <v>864600</v>
       </c>
       <c r="J45" s="3">
-        <v>663300</v>
+        <v>631000</v>
       </c>
       <c r="K45" s="3">
         <v>781300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14700000</v>
+        <v>13985700</v>
       </c>
       <c r="E46" s="3">
-        <v>10952700</v>
+        <v>10420500</v>
       </c>
       <c r="F46" s="3">
-        <v>12310900</v>
+        <v>11712700</v>
       </c>
       <c r="G46" s="3">
-        <v>11622600</v>
+        <v>11057800</v>
       </c>
       <c r="H46" s="3">
-        <v>12031600</v>
+        <v>11447000</v>
       </c>
       <c r="I46" s="3">
-        <v>11119600</v>
+        <v>10579300</v>
       </c>
       <c r="J46" s="3">
-        <v>9748400</v>
+        <v>9274700</v>
       </c>
       <c r="K46" s="3">
         <v>9311700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1425800</v>
+        <v>1356500</v>
       </c>
       <c r="E47" s="3">
-        <v>1290500</v>
+        <v>1227800</v>
       </c>
       <c r="F47" s="3">
-        <v>1616700</v>
+        <v>1538200</v>
       </c>
       <c r="G47" s="3">
-        <v>1591600</v>
+        <v>1514300</v>
       </c>
       <c r="H47" s="3">
-        <v>1445500</v>
+        <v>1375200</v>
       </c>
       <c r="I47" s="3">
-        <v>1383300</v>
+        <v>1316100</v>
       </c>
       <c r="J47" s="3">
-        <v>1386500</v>
+        <v>1319200</v>
       </c>
       <c r="K47" s="3">
         <v>2006400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20369500</v>
+        <v>19379700</v>
       </c>
       <c r="E48" s="3">
-        <v>21286900</v>
+        <v>20252500</v>
       </c>
       <c r="F48" s="3">
-        <v>24425500</v>
+        <v>23238600</v>
       </c>
       <c r="G48" s="3">
-        <v>20724000</v>
+        <v>19717000</v>
       </c>
       <c r="H48" s="3">
-        <v>19112700</v>
+        <v>18184000</v>
       </c>
       <c r="I48" s="3">
-        <v>18542200</v>
+        <v>17641200</v>
       </c>
       <c r="J48" s="3">
-        <v>18288000</v>
+        <v>17399400</v>
       </c>
       <c r="K48" s="3">
         <v>17705400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1754200</v>
+        <v>1668900</v>
       </c>
       <c r="E49" s="3">
-        <v>1786900</v>
+        <v>1700100</v>
       </c>
       <c r="F49" s="3">
-        <v>2118500</v>
+        <v>2015600</v>
       </c>
       <c r="G49" s="3">
-        <v>2065100</v>
+        <v>1964700</v>
       </c>
       <c r="H49" s="3">
-        <v>2001800</v>
+        <v>1904500</v>
       </c>
       <c r="I49" s="3">
-        <v>1894900</v>
+        <v>1802800</v>
       </c>
       <c r="J49" s="3">
-        <v>1807600</v>
+        <v>1719800</v>
       </c>
       <c r="K49" s="3">
         <v>1791900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8155600</v>
+        <v>7759300</v>
       </c>
       <c r="E52" s="3">
-        <v>7756400</v>
+        <v>7379500</v>
       </c>
       <c r="F52" s="3">
-        <v>6065500</v>
+        <v>5770700</v>
       </c>
       <c r="G52" s="3">
-        <v>5683600</v>
+        <v>5407500</v>
       </c>
       <c r="H52" s="3">
-        <v>4440000</v>
+        <v>4224300</v>
       </c>
       <c r="I52" s="3">
-        <v>4911300</v>
+        <v>4672600</v>
       </c>
       <c r="J52" s="3">
-        <v>4182500</v>
+        <v>3979300</v>
       </c>
       <c r="K52" s="3">
         <v>3592800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46405100</v>
+        <v>44150200</v>
       </c>
       <c r="E54" s="3">
-        <v>43073500</v>
+        <v>40980400</v>
       </c>
       <c r="F54" s="3">
-        <v>46537100</v>
+        <v>44275800</v>
       </c>
       <c r="G54" s="3">
-        <v>41686900</v>
+        <v>39661300</v>
       </c>
       <c r="H54" s="3">
-        <v>39030600</v>
+        <v>37134000</v>
       </c>
       <c r="I54" s="3">
-        <v>37851300</v>
+        <v>36012000</v>
       </c>
       <c r="J54" s="3">
-        <v>35413100</v>
+        <v>33692300</v>
       </c>
       <c r="K54" s="3">
         <v>34408200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3142900</v>
+        <v>2990200</v>
       </c>
       <c r="E57" s="3">
-        <v>2276700</v>
+        <v>2166100</v>
       </c>
       <c r="F57" s="3">
-        <v>4060400</v>
+        <v>3863100</v>
       </c>
       <c r="G57" s="3">
-        <v>4267600</v>
+        <v>4060300</v>
       </c>
       <c r="H57" s="3">
-        <v>3742900</v>
+        <v>3561000</v>
       </c>
       <c r="I57" s="3">
-        <v>3345800</v>
+        <v>3183200</v>
       </c>
       <c r="J57" s="3">
-        <v>3216000</v>
+        <v>3059700</v>
       </c>
       <c r="K57" s="3">
         <v>3322900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1797800</v>
+        <v>1710500</v>
       </c>
       <c r="E58" s="3">
-        <v>3414500</v>
+        <v>3248600</v>
       </c>
       <c r="F58" s="3">
-        <v>1801100</v>
+        <v>1713600</v>
       </c>
       <c r="G58" s="3">
-        <v>1872000</v>
+        <v>1781000</v>
       </c>
       <c r="H58" s="3">
-        <v>752700</v>
+        <v>716200</v>
       </c>
       <c r="I58" s="3">
-        <v>902200</v>
+        <v>858300</v>
       </c>
       <c r="J58" s="3">
-        <v>1537100</v>
+        <v>1462400</v>
       </c>
       <c r="K58" s="3">
         <v>894200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11076000</v>
+        <v>10537800</v>
       </c>
       <c r="E59" s="3">
-        <v>10300400</v>
+        <v>9799900</v>
       </c>
       <c r="F59" s="3">
-        <v>11577800</v>
+        <v>11015200</v>
       </c>
       <c r="G59" s="3">
-        <v>11549500</v>
+        <v>10988200</v>
       </c>
       <c r="H59" s="3">
-        <v>9291300</v>
+        <v>8839800</v>
       </c>
       <c r="I59" s="3">
-        <v>7761800</v>
+        <v>7384700</v>
       </c>
       <c r="J59" s="3">
-        <v>8814600</v>
+        <v>8386200</v>
       </c>
       <c r="K59" s="3">
         <v>8173600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16016700</v>
+        <v>15238400</v>
       </c>
       <c r="E60" s="3">
-        <v>15991600</v>
+        <v>15214600</v>
       </c>
       <c r="F60" s="3">
-        <v>17439300</v>
+        <v>16591900</v>
       </c>
       <c r="G60" s="3">
-        <v>17689100</v>
+        <v>16829500</v>
       </c>
       <c r="H60" s="3">
-        <v>13786900</v>
+        <v>13117000</v>
       </c>
       <c r="I60" s="3">
-        <v>12009800</v>
+        <v>11426200</v>
       </c>
       <c r="J60" s="3">
-        <v>13567600</v>
+        <v>12908400</v>
       </c>
       <c r="K60" s="3">
         <v>12390700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16408400</v>
+        <v>15611100</v>
       </c>
       <c r="E61" s="3">
-        <v>13365800</v>
+        <v>12716400</v>
       </c>
       <c r="F61" s="3">
-        <v>9159300</v>
+        <v>8714200</v>
       </c>
       <c r="G61" s="3">
-        <v>5463300</v>
+        <v>5197800</v>
       </c>
       <c r="H61" s="3">
-        <v>6700400</v>
+        <v>6374800</v>
       </c>
       <c r="I61" s="3">
-        <v>6339300</v>
+        <v>6031200</v>
       </c>
       <c r="J61" s="3">
-        <v>5488400</v>
+        <v>5221700</v>
       </c>
       <c r="K61" s="3">
         <v>6056500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9081800</v>
+        <v>8640500</v>
       </c>
       <c r="E62" s="3">
-        <v>12202900</v>
+        <v>11609900</v>
       </c>
       <c r="F62" s="3">
-        <v>8750200</v>
+        <v>8325000</v>
       </c>
       <c r="G62" s="3">
-        <v>8091300</v>
+        <v>7698100</v>
       </c>
       <c r="H62" s="3">
-        <v>8605100</v>
+        <v>8187000</v>
       </c>
       <c r="I62" s="3">
-        <v>11703300</v>
+        <v>11134600</v>
       </c>
       <c r="J62" s="3">
-        <v>9980700</v>
+        <v>9495700</v>
       </c>
       <c r="K62" s="3">
         <v>11409600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41550600</v>
+        <v>39531500</v>
       </c>
       <c r="E66" s="3">
-        <v>41604000</v>
+        <v>39582400</v>
       </c>
       <c r="F66" s="3">
-        <v>35467700</v>
+        <v>33744200</v>
       </c>
       <c r="G66" s="3">
-        <v>31363700</v>
+        <v>29839600</v>
       </c>
       <c r="H66" s="3">
-        <v>29204800</v>
+        <v>27785600</v>
       </c>
       <c r="I66" s="3">
-        <v>30149500</v>
+        <v>28684400</v>
       </c>
       <c r="J66" s="3">
-        <v>29120800</v>
+        <v>27705700</v>
       </c>
       <c r="K66" s="3">
         <v>29927900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1458500</v>
+        <v>-1387700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1634200</v>
+        <v>-1554800</v>
       </c>
       <c r="F72" s="3">
-        <v>7834900</v>
+        <v>7454200</v>
       </c>
       <c r="G72" s="3">
-        <v>7682200</v>
+        <v>7308900</v>
       </c>
       <c r="H72" s="3">
-        <v>6970900</v>
+        <v>6632200</v>
       </c>
       <c r="I72" s="3">
-        <v>3982900</v>
+        <v>3789400</v>
       </c>
       <c r="J72" s="3">
-        <v>3957800</v>
+        <v>3765500</v>
       </c>
       <c r="K72" s="3">
         <v>1813300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4854500</v>
+        <v>4618700</v>
       </c>
       <c r="E76" s="3">
-        <v>1469500</v>
+        <v>1398100</v>
       </c>
       <c r="F76" s="3">
-        <v>11069500</v>
+        <v>10531600</v>
       </c>
       <c r="G76" s="3">
-        <v>10323300</v>
+        <v>9821600</v>
       </c>
       <c r="H76" s="3">
-        <v>9825800</v>
+        <v>9348400</v>
       </c>
       <c r="I76" s="3">
-        <v>7701800</v>
+        <v>7327600</v>
       </c>
       <c r="J76" s="3">
-        <v>6292400</v>
+        <v>5986600</v>
       </c>
       <c r="K76" s="3">
         <v>4480300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2390200</v>
+        <v>-2274000</v>
       </c>
       <c r="E81" s="3">
-        <v>-7336400</v>
+        <v>-6979900</v>
       </c>
       <c r="F81" s="3">
-        <v>1323300</v>
+        <v>1259000</v>
       </c>
       <c r="G81" s="3">
-        <v>2359600</v>
+        <v>2245000</v>
       </c>
       <c r="H81" s="3">
-        <v>2552700</v>
+        <v>2428700</v>
       </c>
       <c r="I81" s="3">
-        <v>1937500</v>
+        <v>1843300</v>
       </c>
       <c r="J81" s="3">
-        <v>1852400</v>
+        <v>1762400</v>
       </c>
       <c r="K81" s="3">
         <v>62100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2496000</v>
+        <v>2374700</v>
       </c>
       <c r="E83" s="3">
-        <v>4792400</v>
+        <v>4559500</v>
       </c>
       <c r="F83" s="3">
-        <v>2986900</v>
+        <v>2841800</v>
       </c>
       <c r="G83" s="3">
-        <v>2376000</v>
+        <v>2260500</v>
       </c>
       <c r="H83" s="3">
-        <v>2509100</v>
+        <v>2387200</v>
       </c>
       <c r="I83" s="3">
-        <v>1925500</v>
+        <v>1831900</v>
       </c>
       <c r="J83" s="3">
-        <v>1863300</v>
+        <v>1772700</v>
       </c>
       <c r="K83" s="3">
         <v>1711700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>674200</v>
+        <v>641400</v>
       </c>
       <c r="E89" s="3">
-        <v>-2539600</v>
+        <v>-2416200</v>
       </c>
       <c r="F89" s="3">
-        <v>4378900</v>
+        <v>4166100</v>
       </c>
       <c r="G89" s="3">
-        <v>4482500</v>
+        <v>4264700</v>
       </c>
       <c r="H89" s="3">
-        <v>5856000</v>
+        <v>5571400</v>
       </c>
       <c r="I89" s="3">
-        <v>3541100</v>
+        <v>3369000</v>
       </c>
       <c r="J89" s="3">
-        <v>3701500</v>
+        <v>3521600</v>
       </c>
       <c r="K89" s="3">
         <v>2232200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1437800</v>
+        <v>-1368000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1362500</v>
+        <v>-1296300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3802900</v>
+        <v>-3618100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4046200</v>
+        <v>-3849600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3641500</v>
+        <v>-3464500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2356400</v>
+        <v>-2241900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2677100</v>
+        <v>-2547000</v>
       </c>
       <c r="K91" s="3">
         <v>-3047400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3298900</v>
+        <v>-3138600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2554900</v>
+        <v>-2430800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4218500</v>
+        <v>-4013600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3566200</v>
+        <v>-3392900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5461100</v>
+        <v>-5195700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3086200</v>
+        <v>-2936200</v>
       </c>
       <c r="J94" s="3">
-        <v>-3570500</v>
+        <v>-3397000</v>
       </c>
       <c r="K94" s="3">
         <v>-1682400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20700</v>
+        <v>-19700</v>
       </c>
       <c r="E96" s="3">
-        <v>-22900</v>
+        <v>-21800</v>
       </c>
       <c r="F96" s="3">
-        <v>-451600</v>
+        <v>-429700</v>
       </c>
       <c r="G96" s="3">
-        <v>-380700</v>
+        <v>-362200</v>
       </c>
       <c r="H96" s="3">
-        <v>-253100</v>
+        <v>-240800</v>
       </c>
       <c r="I96" s="3">
-        <v>-254200</v>
+        <v>-241800</v>
       </c>
       <c r="J96" s="3">
-        <v>-15300</v>
+        <v>-14500</v>
       </c>
       <c r="K96" s="3">
         <v>-250700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3135300</v>
+        <v>2982900</v>
       </c>
       <c r="E100" s="3">
-        <v>5537500</v>
+        <v>5268400</v>
       </c>
       <c r="F100" s="3">
-        <v>-175600</v>
+        <v>-167100</v>
       </c>
       <c r="G100" s="3">
-        <v>-682900</v>
+        <v>-649700</v>
       </c>
       <c r="H100" s="3">
-        <v>-267300</v>
+        <v>-254300</v>
       </c>
       <c r="I100" s="3">
-        <v>-296700</v>
+        <v>-282300</v>
       </c>
       <c r="J100" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="K100" s="3">
         <v>-1210400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="E101" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="F101" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-40400</v>
+        <v>-38400</v>
       </c>
       <c r="I101" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J101" s="3">
-        <v>24000</v>
+        <v>22800</v>
       </c>
       <c r="K101" s="3">
         <v>6800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>546500</v>
+        <v>520000</v>
       </c>
       <c r="E102" s="3">
-        <v>406900</v>
+        <v>387100</v>
       </c>
       <c r="F102" s="3">
-        <v>-20700</v>
+        <v>-19700</v>
       </c>
       <c r="G102" s="3">
-        <v>235600</v>
+        <v>224200</v>
       </c>
       <c r="H102" s="3">
-        <v>87300</v>
+        <v>83000</v>
       </c>
       <c r="I102" s="3">
-        <v>154900</v>
+        <v>147400</v>
       </c>
       <c r="J102" s="3">
-        <v>183300</v>
+        <v>174400</v>
       </c>
       <c r="K102" s="3">
         <v>-653700</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17448100</v>
+        <v>16767300</v>
       </c>
       <c r="E8" s="3">
-        <v>14104000</v>
+        <v>13553700</v>
       </c>
       <c r="F8" s="3">
-        <v>37804500</v>
+        <v>36329300</v>
       </c>
       <c r="G8" s="3">
-        <v>36889000</v>
+        <v>35449600</v>
       </c>
       <c r="H8" s="3">
-        <v>36927400</v>
+        <v>35486500</v>
       </c>
       <c r="I8" s="3">
-        <v>32859900</v>
+        <v>31577700</v>
       </c>
       <c r="J8" s="3">
-        <v>33270900</v>
+        <v>31972700</v>
       </c>
       <c r="K8" s="3">
         <v>33885400</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9171900</v>
+        <v>8814000</v>
       </c>
       <c r="E9" s="3">
-        <v>8591700</v>
+        <v>8256500</v>
       </c>
       <c r="F9" s="3">
-        <v>19867500</v>
+        <v>19092200</v>
       </c>
       <c r="G9" s="3">
-        <v>18512000</v>
+        <v>17789600</v>
       </c>
       <c r="H9" s="3">
-        <v>19294600</v>
+        <v>18541700</v>
       </c>
       <c r="I9" s="3">
-        <v>17658800</v>
+        <v>16969800</v>
       </c>
       <c r="J9" s="3">
-        <v>18097900</v>
+        <v>17391700</v>
       </c>
       <c r="K9" s="3">
         <v>19274900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8276200</v>
+        <v>7953300</v>
       </c>
       <c r="E10" s="3">
-        <v>5512300</v>
+        <v>5297200</v>
       </c>
       <c r="F10" s="3">
-        <v>17937000</v>
+        <v>17237100</v>
       </c>
       <c r="G10" s="3">
-        <v>18377100</v>
+        <v>17660000</v>
       </c>
       <c r="H10" s="3">
-        <v>17632900</v>
+        <v>16944800</v>
       </c>
       <c r="I10" s="3">
-        <v>15201100</v>
+        <v>14607900</v>
       </c>
       <c r="J10" s="3">
-        <v>15173100</v>
+        <v>14581000</v>
       </c>
       <c r="K10" s="3">
         <v>14610600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-279200</v>
+        <v>-268300</v>
       </c>
       <c r="E14" s="3">
-        <v>1789300</v>
+        <v>1719500</v>
       </c>
       <c r="F14" s="3">
-        <v>92400</v>
+        <v>88800</v>
       </c>
       <c r="G14" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="H14" s="3">
-        <v>269900</v>
+        <v>259300</v>
       </c>
       <c r="I14" s="3">
-        <v>181600</v>
+        <v>174500</v>
       </c>
       <c r="J14" s="3">
-        <v>160900</v>
+        <v>154600</v>
       </c>
       <c r="K14" s="3">
         <v>88100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2344600</v>
+        <v>2253100</v>
       </c>
       <c r="E15" s="3">
-        <v>2658100</v>
+        <v>2554300</v>
       </c>
       <c r="F15" s="3">
-        <v>2794000</v>
+        <v>2685000</v>
       </c>
       <c r="G15" s="3">
-        <v>2263700</v>
+        <v>2175300</v>
       </c>
       <c r="H15" s="3">
-        <v>2116300</v>
+        <v>2033700</v>
       </c>
       <c r="I15" s="3">
-        <v>1646100</v>
+        <v>1581900</v>
       </c>
       <c r="J15" s="3">
-        <v>1615000</v>
+        <v>1552000</v>
       </c>
       <c r="K15" s="3">
         <v>1612400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19854000</v>
+        <v>19079300</v>
       </c>
       <c r="E17" s="3">
-        <v>21461700</v>
+        <v>20624200</v>
       </c>
       <c r="F17" s="3">
-        <v>36051500</v>
+        <v>34644700</v>
       </c>
       <c r="G17" s="3">
-        <v>33982900</v>
+        <v>32656900</v>
       </c>
       <c r="H17" s="3">
-        <v>33668400</v>
+        <v>32354700</v>
       </c>
       <c r="I17" s="3">
-        <v>30586900</v>
+        <v>29393400</v>
       </c>
       <c r="J17" s="3">
-        <v>31657000</v>
+        <v>30421700</v>
       </c>
       <c r="K17" s="3">
         <v>32892900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2405900</v>
+        <v>-2312000</v>
       </c>
       <c r="E18" s="3">
-        <v>-7357700</v>
+        <v>-7070600</v>
       </c>
       <c r="F18" s="3">
-        <v>1753000</v>
+        <v>1684600</v>
       </c>
       <c r="G18" s="3">
-        <v>2906100</v>
+        <v>2792700</v>
       </c>
       <c r="H18" s="3">
-        <v>3259000</v>
+        <v>3131800</v>
       </c>
       <c r="I18" s="3">
-        <v>2273000</v>
+        <v>2184300</v>
       </c>
       <c r="J18" s="3">
-        <v>1613900</v>
+        <v>1551000</v>
       </c>
       <c r="K18" s="3">
         <v>992500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1281800</v>
+        <v>-1231800</v>
       </c>
       <c r="F20" s="3">
-        <v>466000</v>
+        <v>447800</v>
       </c>
       <c r="G20" s="3">
-        <v>94400</v>
+        <v>90800</v>
       </c>
       <c r="H20" s="3">
-        <v>234600</v>
+        <v>225400</v>
       </c>
       <c r="I20" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="J20" s="3">
-        <v>659100</v>
+        <v>633300</v>
       </c>
       <c r="K20" s="3">
         <v>-514900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69600</v>
+        <v>35800</v>
       </c>
       <c r="E21" s="3">
-        <v>-4022000</v>
+        <v>-3924700</v>
       </c>
       <c r="F21" s="3">
-        <v>5096900</v>
+        <v>4860900</v>
       </c>
       <c r="G21" s="3">
-        <v>5289900</v>
+        <v>5053900</v>
       </c>
       <c r="H21" s="3">
-        <v>5911100</v>
+        <v>5649200</v>
       </c>
       <c r="I21" s="3">
-        <v>4323300</v>
+        <v>4130600</v>
       </c>
       <c r="J21" s="3">
-        <v>4068300</v>
+        <v>3886300</v>
       </c>
       <c r="K21" s="3">
         <v>2193300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>369500</v>
+        <v>355100</v>
       </c>
       <c r="E22" s="3">
-        <v>318600</v>
+        <v>306200</v>
       </c>
       <c r="F22" s="3">
-        <v>288500</v>
+        <v>277300</v>
       </c>
       <c r="G22" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="H22" s="3">
-        <v>215900</v>
+        <v>207500</v>
       </c>
       <c r="I22" s="3">
-        <v>134900</v>
+        <v>129700</v>
       </c>
       <c r="J22" s="3">
-        <v>170200</v>
+        <v>163600</v>
       </c>
       <c r="K22" s="3">
         <v>274400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2704800</v>
+        <v>-2599200</v>
       </c>
       <c r="E23" s="3">
-        <v>-8958100</v>
+        <v>-8608600</v>
       </c>
       <c r="F23" s="3">
-        <v>1930500</v>
+        <v>1855200</v>
       </c>
       <c r="G23" s="3">
-        <v>2889500</v>
+        <v>2776800</v>
       </c>
       <c r="H23" s="3">
-        <v>3277700</v>
+        <v>3149800</v>
       </c>
       <c r="I23" s="3">
-        <v>2333200</v>
+        <v>2242200</v>
       </c>
       <c r="J23" s="3">
-        <v>2102800</v>
+        <v>2020700</v>
       </c>
       <c r="K23" s="3">
         <v>203200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-428700</v>
+        <v>-411900</v>
       </c>
       <c r="E24" s="3">
-        <v>-1935700</v>
+        <v>-1860200</v>
       </c>
       <c r="F24" s="3">
-        <v>638300</v>
+        <v>613400</v>
       </c>
       <c r="G24" s="3">
-        <v>610300</v>
+        <v>586500</v>
       </c>
       <c r="H24" s="3">
-        <v>813700</v>
+        <v>782000</v>
       </c>
       <c r="I24" s="3">
-        <v>461900</v>
+        <v>443800</v>
       </c>
       <c r="J24" s="3">
-        <v>315500</v>
+        <v>303200</v>
       </c>
       <c r="K24" s="3">
         <v>118600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2276100</v>
+        <v>-2187300</v>
       </c>
       <c r="E26" s="3">
-        <v>-7022400</v>
+        <v>-6748400</v>
       </c>
       <c r="F26" s="3">
-        <v>1292200</v>
+        <v>1241800</v>
       </c>
       <c r="G26" s="3">
-        <v>2279200</v>
+        <v>2190300</v>
       </c>
       <c r="H26" s="3">
-        <v>2464000</v>
+        <v>2367800</v>
       </c>
       <c r="I26" s="3">
-        <v>1871300</v>
+        <v>1798300</v>
       </c>
       <c r="J26" s="3">
-        <v>1787300</v>
+        <v>1717500</v>
       </c>
       <c r="K26" s="3">
         <v>84700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2274000</v>
+        <v>-2185300</v>
       </c>
       <c r="E27" s="3">
-        <v>-6979900</v>
+        <v>-6707500</v>
       </c>
       <c r="F27" s="3">
-        <v>1259000</v>
+        <v>1209800</v>
       </c>
       <c r="G27" s="3">
-        <v>2245000</v>
+        <v>2157400</v>
       </c>
       <c r="H27" s="3">
-        <v>2428700</v>
+        <v>2333900</v>
       </c>
       <c r="I27" s="3">
-        <v>1843300</v>
+        <v>1771400</v>
       </c>
       <c r="J27" s="3">
-        <v>1762400</v>
+        <v>1693600</v>
       </c>
       <c r="K27" s="3">
         <v>62100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70600</v>
+        <v>-67800</v>
       </c>
       <c r="E32" s="3">
-        <v>1281800</v>
+        <v>1231800</v>
       </c>
       <c r="F32" s="3">
-        <v>-466000</v>
+        <v>-447800</v>
       </c>
       <c r="G32" s="3">
-        <v>-94400</v>
+        <v>-90800</v>
       </c>
       <c r="H32" s="3">
-        <v>-234600</v>
+        <v>-225400</v>
       </c>
       <c r="I32" s="3">
-        <v>-195100</v>
+        <v>-187500</v>
       </c>
       <c r="J32" s="3">
-        <v>-659100</v>
+        <v>-633300</v>
       </c>
       <c r="K32" s="3">
         <v>514900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2274000</v>
+        <v>-2185300</v>
       </c>
       <c r="E33" s="3">
-        <v>-6979900</v>
+        <v>-6707500</v>
       </c>
       <c r="F33" s="3">
-        <v>1259000</v>
+        <v>1209800</v>
       </c>
       <c r="G33" s="3">
-        <v>2245000</v>
+        <v>2157400</v>
       </c>
       <c r="H33" s="3">
-        <v>2428700</v>
+        <v>2333900</v>
       </c>
       <c r="I33" s="3">
-        <v>1843300</v>
+        <v>1771400</v>
       </c>
       <c r="J33" s="3">
-        <v>1762400</v>
+        <v>1693600</v>
       </c>
       <c r="K33" s="3">
         <v>62100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2274000</v>
+        <v>-2185300</v>
       </c>
       <c r="E35" s="3">
-        <v>-6979900</v>
+        <v>-6707500</v>
       </c>
       <c r="F35" s="3">
-        <v>1259000</v>
+        <v>1209800</v>
       </c>
       <c r="G35" s="3">
-        <v>2245000</v>
+        <v>2157400</v>
       </c>
       <c r="H35" s="3">
-        <v>2428700</v>
+        <v>2333900</v>
       </c>
       <c r="I35" s="3">
-        <v>1843300</v>
+        <v>1771400</v>
       </c>
       <c r="J35" s="3">
-        <v>1762400</v>
+        <v>1693600</v>
       </c>
       <c r="K35" s="3">
         <v>62100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2394400</v>
+        <v>2301000</v>
       </c>
       <c r="E41" s="3">
-        <v>1874400</v>
+        <v>1801300</v>
       </c>
       <c r="F41" s="3">
-        <v>1468600</v>
+        <v>1411300</v>
       </c>
       <c r="G41" s="3">
-        <v>1488300</v>
+        <v>1430300</v>
       </c>
       <c r="H41" s="3">
-        <v>1264200</v>
+        <v>1214800</v>
       </c>
       <c r="I41" s="3">
-        <v>1181100</v>
+        <v>1135000</v>
       </c>
       <c r="J41" s="3">
-        <v>1033700</v>
+        <v>993400</v>
       </c>
       <c r="K41" s="3">
         <v>934900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5562100</v>
+        <v>5345100</v>
       </c>
       <c r="E42" s="3">
-        <v>3792500</v>
+        <v>3644500</v>
       </c>
       <c r="F42" s="3">
-        <v>2044700</v>
+        <v>1964900</v>
       </c>
       <c r="G42" s="3">
-        <v>1869300</v>
+        <v>1796300</v>
       </c>
       <c r="H42" s="3">
-        <v>2833500</v>
+        <v>2722900</v>
       </c>
       <c r="I42" s="3">
-        <v>2905100</v>
+        <v>2791700</v>
       </c>
       <c r="J42" s="3">
-        <v>2176500</v>
+        <v>2091500</v>
       </c>
       <c r="K42" s="3">
         <v>2156600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4269900</v>
+        <v>4103300</v>
       </c>
       <c r="E43" s="3">
-        <v>3390800</v>
+        <v>3258500</v>
       </c>
       <c r="F43" s="3">
-        <v>6068600</v>
+        <v>5831800</v>
       </c>
       <c r="G43" s="3">
-        <v>6090400</v>
+        <v>5852700</v>
       </c>
       <c r="H43" s="3">
-        <v>5574600</v>
+        <v>5357000</v>
       </c>
       <c r="I43" s="3">
-        <v>4781600</v>
+        <v>4595000</v>
       </c>
       <c r="J43" s="3">
-        <v>4643600</v>
+        <v>4462400</v>
       </c>
       <c r="K43" s="3">
         <v>4648500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700600</v>
+        <v>673200</v>
       </c>
       <c r="E44" s="3">
-        <v>753500</v>
+        <v>724100</v>
       </c>
       <c r="F44" s="3">
-        <v>1017100</v>
+        <v>977500</v>
       </c>
       <c r="G44" s="3">
-        <v>1004700</v>
+        <v>965500</v>
       </c>
       <c r="H44" s="3">
-        <v>941400</v>
+        <v>904600</v>
       </c>
       <c r="I44" s="3">
-        <v>846900</v>
+        <v>813900</v>
       </c>
       <c r="J44" s="3">
-        <v>789800</v>
+        <v>759000</v>
       </c>
       <c r="K44" s="3">
         <v>790400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1058700</v>
+        <v>1017300</v>
       </c>
       <c r="E45" s="3">
-        <v>609200</v>
+        <v>585500</v>
       </c>
       <c r="F45" s="3">
-        <v>1113700</v>
+        <v>1070200</v>
       </c>
       <c r="G45" s="3">
-        <v>605100</v>
+        <v>581500</v>
       </c>
       <c r="H45" s="3">
-        <v>833400</v>
+        <v>800900</v>
       </c>
       <c r="I45" s="3">
-        <v>864600</v>
+        <v>830800</v>
       </c>
       <c r="J45" s="3">
-        <v>631000</v>
+        <v>606400</v>
       </c>
       <c r="K45" s="3">
         <v>781300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13985700</v>
+        <v>13440000</v>
       </c>
       <c r="E46" s="3">
-        <v>10420500</v>
+        <v>10013900</v>
       </c>
       <c r="F46" s="3">
-        <v>11712700</v>
+        <v>11255700</v>
       </c>
       <c r="G46" s="3">
-        <v>11057800</v>
+        <v>10626300</v>
       </c>
       <c r="H46" s="3">
-        <v>11447000</v>
+        <v>11000300</v>
       </c>
       <c r="I46" s="3">
-        <v>10579300</v>
+        <v>10166500</v>
       </c>
       <c r="J46" s="3">
-        <v>9274700</v>
+        <v>8912800</v>
       </c>
       <c r="K46" s="3">
         <v>9311700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1356500</v>
+        <v>1303600</v>
       </c>
       <c r="E47" s="3">
-        <v>1227800</v>
+        <v>1179900</v>
       </c>
       <c r="F47" s="3">
-        <v>1538200</v>
+        <v>1478100</v>
       </c>
       <c r="G47" s="3">
-        <v>1514300</v>
+        <v>1455200</v>
       </c>
       <c r="H47" s="3">
-        <v>1375200</v>
+        <v>1321600</v>
       </c>
       <c r="I47" s="3">
-        <v>1316100</v>
+        <v>1264700</v>
       </c>
       <c r="J47" s="3">
-        <v>1319200</v>
+        <v>1267700</v>
       </c>
       <c r="K47" s="3">
         <v>2006400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19379700</v>
+        <v>18623500</v>
       </c>
       <c r="E48" s="3">
-        <v>20252500</v>
+        <v>19462300</v>
       </c>
       <c r="F48" s="3">
-        <v>23238600</v>
+        <v>22331800</v>
       </c>
       <c r="G48" s="3">
-        <v>19717000</v>
+        <v>18947600</v>
       </c>
       <c r="H48" s="3">
-        <v>18184000</v>
+        <v>17474400</v>
       </c>
       <c r="I48" s="3">
-        <v>17641200</v>
+        <v>16952800</v>
       </c>
       <c r="J48" s="3">
-        <v>17399400</v>
+        <v>16720400</v>
       </c>
       <c r="K48" s="3">
         <v>17705400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1668900</v>
+        <v>1603800</v>
       </c>
       <c r="E49" s="3">
-        <v>1700100</v>
+        <v>1633700</v>
       </c>
       <c r="F49" s="3">
-        <v>2015600</v>
+        <v>1937000</v>
       </c>
       <c r="G49" s="3">
-        <v>1964700</v>
+        <v>1888100</v>
       </c>
       <c r="H49" s="3">
-        <v>1904500</v>
+        <v>1830200</v>
       </c>
       <c r="I49" s="3">
-        <v>1802800</v>
+        <v>1732500</v>
       </c>
       <c r="J49" s="3">
-        <v>1719800</v>
+        <v>1652700</v>
       </c>
       <c r="K49" s="3">
         <v>1791900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7759300</v>
+        <v>7456600</v>
       </c>
       <c r="E52" s="3">
-        <v>7379500</v>
+        <v>7091500</v>
       </c>
       <c r="F52" s="3">
-        <v>5770700</v>
+        <v>5545500</v>
       </c>
       <c r="G52" s="3">
-        <v>5407500</v>
+        <v>5196500</v>
       </c>
       <c r="H52" s="3">
-        <v>4224300</v>
+        <v>4059400</v>
       </c>
       <c r="I52" s="3">
-        <v>4672600</v>
+        <v>4490300</v>
       </c>
       <c r="J52" s="3">
-        <v>3979300</v>
+        <v>3824000</v>
       </c>
       <c r="K52" s="3">
         <v>3592800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44150200</v>
+        <v>42427400</v>
       </c>
       <c r="E54" s="3">
-        <v>40980400</v>
+        <v>39381300</v>
       </c>
       <c r="F54" s="3">
-        <v>44275800</v>
+        <v>42548100</v>
       </c>
       <c r="G54" s="3">
-        <v>39661300</v>
+        <v>38113600</v>
       </c>
       <c r="H54" s="3">
-        <v>37134000</v>
+        <v>35685000</v>
       </c>
       <c r="I54" s="3">
-        <v>36012000</v>
+        <v>34606800</v>
       </c>
       <c r="J54" s="3">
-        <v>33692300</v>
+        <v>32377600</v>
       </c>
       <c r="K54" s="3">
         <v>34408200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2990200</v>
+        <v>2873500</v>
       </c>
       <c r="E57" s="3">
-        <v>2166100</v>
+        <v>2081600</v>
       </c>
       <c r="F57" s="3">
-        <v>3863100</v>
+        <v>3712300</v>
       </c>
       <c r="G57" s="3">
-        <v>4060300</v>
+        <v>3901800</v>
       </c>
       <c r="H57" s="3">
-        <v>3561000</v>
+        <v>3422100</v>
       </c>
       <c r="I57" s="3">
-        <v>3183200</v>
+        <v>3059000</v>
       </c>
       <c r="J57" s="3">
-        <v>3059700</v>
+        <v>2940300</v>
       </c>
       <c r="K57" s="3">
         <v>3322900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1710500</v>
+        <v>1643700</v>
       </c>
       <c r="E58" s="3">
-        <v>3248600</v>
+        <v>3121900</v>
       </c>
       <c r="F58" s="3">
-        <v>1713600</v>
+        <v>1646700</v>
       </c>
       <c r="G58" s="3">
-        <v>1781000</v>
+        <v>1711500</v>
       </c>
       <c r="H58" s="3">
-        <v>716200</v>
+        <v>688200</v>
       </c>
       <c r="I58" s="3">
-        <v>858300</v>
+        <v>824800</v>
       </c>
       <c r="J58" s="3">
-        <v>1462400</v>
+        <v>1405300</v>
       </c>
       <c r="K58" s="3">
         <v>894200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10537800</v>
+        <v>10126600</v>
       </c>
       <c r="E59" s="3">
-        <v>9799900</v>
+        <v>9417500</v>
       </c>
       <c r="F59" s="3">
-        <v>11015200</v>
+        <v>10585400</v>
       </c>
       <c r="G59" s="3">
-        <v>10988200</v>
+        <v>10559500</v>
       </c>
       <c r="H59" s="3">
-        <v>8839800</v>
+        <v>8494900</v>
       </c>
       <c r="I59" s="3">
-        <v>7384700</v>
+        <v>7096500</v>
       </c>
       <c r="J59" s="3">
-        <v>8386200</v>
+        <v>8059000</v>
       </c>
       <c r="K59" s="3">
         <v>8173600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15238400</v>
+        <v>14643800</v>
       </c>
       <c r="E60" s="3">
-        <v>15214600</v>
+        <v>14620900</v>
       </c>
       <c r="F60" s="3">
-        <v>16591900</v>
+        <v>15944400</v>
       </c>
       <c r="G60" s="3">
-        <v>16829500</v>
+        <v>16172800</v>
       </c>
       <c r="H60" s="3">
-        <v>13117000</v>
+        <v>12605100</v>
       </c>
       <c r="I60" s="3">
-        <v>11426200</v>
+        <v>10980400</v>
       </c>
       <c r="J60" s="3">
-        <v>12908400</v>
+        <v>12404700</v>
       </c>
       <c r="K60" s="3">
         <v>12390700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15611100</v>
+        <v>15001900</v>
       </c>
       <c r="E61" s="3">
-        <v>12716400</v>
+        <v>12220100</v>
       </c>
       <c r="F61" s="3">
-        <v>8714200</v>
+        <v>8374200</v>
       </c>
       <c r="G61" s="3">
-        <v>5197800</v>
+        <v>4995000</v>
       </c>
       <c r="H61" s="3">
-        <v>6374800</v>
+        <v>6126000</v>
       </c>
       <c r="I61" s="3">
-        <v>6031200</v>
+        <v>5795900</v>
       </c>
       <c r="J61" s="3">
-        <v>5221700</v>
+        <v>5017900</v>
       </c>
       <c r="K61" s="3">
         <v>6056500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8640500</v>
+        <v>8303400</v>
       </c>
       <c r="E62" s="3">
-        <v>11609900</v>
+        <v>11156900</v>
       </c>
       <c r="F62" s="3">
-        <v>8325000</v>
+        <v>8000100</v>
       </c>
       <c r="G62" s="3">
-        <v>7698100</v>
+        <v>7397700</v>
       </c>
       <c r="H62" s="3">
-        <v>8187000</v>
+        <v>7867500</v>
       </c>
       <c r="I62" s="3">
-        <v>11134600</v>
+        <v>10700100</v>
       </c>
       <c r="J62" s="3">
-        <v>9495700</v>
+        <v>9125200</v>
       </c>
       <c r="K62" s="3">
         <v>11409600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39531500</v>
+        <v>37989000</v>
       </c>
       <c r="E66" s="3">
-        <v>39582400</v>
+        <v>38037800</v>
       </c>
       <c r="F66" s="3">
-        <v>33744200</v>
+        <v>32427500</v>
       </c>
       <c r="G66" s="3">
-        <v>29839600</v>
+        <v>28675300</v>
       </c>
       <c r="H66" s="3">
-        <v>27785600</v>
+        <v>26701400</v>
       </c>
       <c r="I66" s="3">
-        <v>28684400</v>
+        <v>27565100</v>
       </c>
       <c r="J66" s="3">
-        <v>27705700</v>
+        <v>26624600</v>
       </c>
       <c r="K66" s="3">
         <v>29927900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1387700</v>
+        <v>-1333500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1554800</v>
+        <v>-1494100</v>
       </c>
       <c r="F72" s="3">
-        <v>7454200</v>
+        <v>7163300</v>
       </c>
       <c r="G72" s="3">
-        <v>7308900</v>
+        <v>7023700</v>
       </c>
       <c r="H72" s="3">
-        <v>6632200</v>
+        <v>6373400</v>
       </c>
       <c r="I72" s="3">
-        <v>3789400</v>
+        <v>3641500</v>
       </c>
       <c r="J72" s="3">
-        <v>3765500</v>
+        <v>3618600</v>
       </c>
       <c r="K72" s="3">
         <v>1813300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4618700</v>
+        <v>4438400</v>
       </c>
       <c r="E76" s="3">
-        <v>1398100</v>
+        <v>1343500</v>
       </c>
       <c r="F76" s="3">
-        <v>10531600</v>
+        <v>10120600</v>
       </c>
       <c r="G76" s="3">
-        <v>9821600</v>
+        <v>9438400</v>
       </c>
       <c r="H76" s="3">
-        <v>9348400</v>
+        <v>8983600</v>
       </c>
       <c r="I76" s="3">
-        <v>7327600</v>
+        <v>7041600</v>
       </c>
       <c r="J76" s="3">
-        <v>5986600</v>
+        <v>5753000</v>
       </c>
       <c r="K76" s="3">
         <v>4480300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2274000</v>
+        <v>-2185300</v>
       </c>
       <c r="E81" s="3">
-        <v>-6979900</v>
+        <v>-6707500</v>
       </c>
       <c r="F81" s="3">
-        <v>1259000</v>
+        <v>1209800</v>
       </c>
       <c r="G81" s="3">
-        <v>2245000</v>
+        <v>2157400</v>
       </c>
       <c r="H81" s="3">
-        <v>2428700</v>
+        <v>2333900</v>
       </c>
       <c r="I81" s="3">
-        <v>1843300</v>
+        <v>1771400</v>
       </c>
       <c r="J81" s="3">
-        <v>1762400</v>
+        <v>1693600</v>
       </c>
       <c r="K81" s="3">
         <v>62100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2374700</v>
+        <v>2282100</v>
       </c>
       <c r="E83" s="3">
-        <v>4559500</v>
+        <v>4381600</v>
       </c>
       <c r="F83" s="3">
-        <v>2841800</v>
+        <v>2730900</v>
       </c>
       <c r="G83" s="3">
-        <v>2260500</v>
+        <v>2172300</v>
       </c>
       <c r="H83" s="3">
-        <v>2387200</v>
+        <v>2294000</v>
       </c>
       <c r="I83" s="3">
-        <v>1831900</v>
+        <v>1760400</v>
       </c>
       <c r="J83" s="3">
-        <v>1772700</v>
+        <v>1703600</v>
       </c>
       <c r="K83" s="3">
         <v>1711700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>641400</v>
+        <v>616400</v>
       </c>
       <c r="E89" s="3">
-        <v>-2416200</v>
+        <v>-2321900</v>
       </c>
       <c r="F89" s="3">
-        <v>4166100</v>
+        <v>4003600</v>
       </c>
       <c r="G89" s="3">
-        <v>4264700</v>
+        <v>4098300</v>
       </c>
       <c r="H89" s="3">
-        <v>5571400</v>
+        <v>5354000</v>
       </c>
       <c r="I89" s="3">
-        <v>3369000</v>
+        <v>3237600</v>
       </c>
       <c r="J89" s="3">
-        <v>3521600</v>
+        <v>3384200</v>
       </c>
       <c r="K89" s="3">
         <v>2232200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1368000</v>
+        <v>-1314600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1296300</v>
+        <v>-1245800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3618100</v>
+        <v>-3476900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3849600</v>
+        <v>-3699400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3464500</v>
+        <v>-3329300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2241900</v>
+        <v>-2154400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2547000</v>
+        <v>-2447600</v>
       </c>
       <c r="K91" s="3">
         <v>-3047400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3138600</v>
+        <v>-3016100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2430800</v>
+        <v>-2335900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4013600</v>
+        <v>-3856900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3392900</v>
+        <v>-3260500</v>
       </c>
       <c r="H94" s="3">
-        <v>-5195700</v>
+        <v>-4993000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2936200</v>
+        <v>-2821600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3397000</v>
+        <v>-3264500</v>
       </c>
       <c r="K94" s="3">
         <v>-1682400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="E96" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="F96" s="3">
-        <v>-429700</v>
+        <v>-412900</v>
       </c>
       <c r="G96" s="3">
-        <v>-362200</v>
+        <v>-348100</v>
       </c>
       <c r="H96" s="3">
-        <v>-240800</v>
+        <v>-231400</v>
       </c>
       <c r="I96" s="3">
-        <v>-241800</v>
+        <v>-232400</v>
       </c>
       <c r="J96" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="K96" s="3">
         <v>-250700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2982900</v>
+        <v>2866500</v>
       </c>
       <c r="E100" s="3">
-        <v>5268400</v>
+        <v>5062800</v>
       </c>
       <c r="F100" s="3">
-        <v>-167100</v>
+        <v>-160600</v>
       </c>
       <c r="G100" s="3">
-        <v>-649700</v>
+        <v>-624400</v>
       </c>
       <c r="H100" s="3">
-        <v>-254300</v>
+        <v>-244400</v>
       </c>
       <c r="I100" s="3">
-        <v>-282300</v>
+        <v>-271300</v>
       </c>
       <c r="J100" s="3">
-        <v>27000</v>
+        <v>25900</v>
       </c>
       <c r="K100" s="3">
         <v>-1210400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="E101" s="3">
-        <v>-34300</v>
+        <v>-32900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-38400</v>
+        <v>-36900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J101" s="3">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="K101" s="3">
         <v>6800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>520000</v>
+        <v>499700</v>
       </c>
       <c r="E102" s="3">
-        <v>387100</v>
+        <v>372000</v>
       </c>
       <c r="F102" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="G102" s="3">
-        <v>224200</v>
+        <v>215400</v>
       </c>
       <c r="H102" s="3">
-        <v>83000</v>
+        <v>79800</v>
       </c>
       <c r="I102" s="3">
-        <v>147400</v>
+        <v>141600</v>
       </c>
       <c r="J102" s="3">
-        <v>174400</v>
+        <v>167600</v>
       </c>
       <c r="K102" s="3">
         <v>-653700</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16767300</v>
+        <v>17160700</v>
       </c>
       <c r="E8" s="3">
-        <v>13553700</v>
+        <v>13871700</v>
       </c>
       <c r="F8" s="3">
-        <v>36329300</v>
+        <v>37181600</v>
       </c>
       <c r="G8" s="3">
-        <v>35449600</v>
+        <v>36281300</v>
       </c>
       <c r="H8" s="3">
-        <v>35486500</v>
+        <v>36319000</v>
       </c>
       <c r="I8" s="3">
-        <v>31577700</v>
+        <v>32318500</v>
       </c>
       <c r="J8" s="3">
-        <v>31972700</v>
+        <v>32722800</v>
       </c>
       <c r="K8" s="3">
         <v>33885400</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8814000</v>
+        <v>9020800</v>
       </c>
       <c r="E9" s="3">
-        <v>8256500</v>
+        <v>8450200</v>
       </c>
       <c r="F9" s="3">
-        <v>19092200</v>
+        <v>19540200</v>
       </c>
       <c r="G9" s="3">
-        <v>17789600</v>
+        <v>18207000</v>
       </c>
       <c r="H9" s="3">
-        <v>18541700</v>
+        <v>18976700</v>
       </c>
       <c r="I9" s="3">
-        <v>16969800</v>
+        <v>17367900</v>
       </c>
       <c r="J9" s="3">
-        <v>17391700</v>
+        <v>17799700</v>
       </c>
       <c r="K9" s="3">
         <v>19274900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7953300</v>
+        <v>8139900</v>
       </c>
       <c r="E10" s="3">
-        <v>5297200</v>
+        <v>5421500</v>
       </c>
       <c r="F10" s="3">
-        <v>17237100</v>
+        <v>17641500</v>
       </c>
       <c r="G10" s="3">
-        <v>17660000</v>
+        <v>18074300</v>
       </c>
       <c r="H10" s="3">
-        <v>16944800</v>
+        <v>17342400</v>
       </c>
       <c r="I10" s="3">
-        <v>14607900</v>
+        <v>14950600</v>
       </c>
       <c r="J10" s="3">
-        <v>14581000</v>
+        <v>14923100</v>
       </c>
       <c r="K10" s="3">
         <v>14610600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-268300</v>
+        <v>-274600</v>
       </c>
       <c r="E14" s="3">
-        <v>1719500</v>
+        <v>1759900</v>
       </c>
       <c r="F14" s="3">
-        <v>88800</v>
+        <v>90900</v>
       </c>
       <c r="G14" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="H14" s="3">
-        <v>259300</v>
+        <v>265400</v>
       </c>
       <c r="I14" s="3">
-        <v>174500</v>
+        <v>178600</v>
       </c>
       <c r="J14" s="3">
-        <v>154600</v>
+        <v>158200</v>
       </c>
       <c r="K14" s="3">
         <v>88100</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2253100</v>
+        <v>2306000</v>
       </c>
       <c r="E15" s="3">
-        <v>2554300</v>
+        <v>2614300</v>
       </c>
       <c r="F15" s="3">
-        <v>2685000</v>
+        <v>2748000</v>
       </c>
       <c r="G15" s="3">
-        <v>2175300</v>
+        <v>2226400</v>
       </c>
       <c r="H15" s="3">
-        <v>2033700</v>
+        <v>2081400</v>
       </c>
       <c r="I15" s="3">
-        <v>1581900</v>
+        <v>1619000</v>
       </c>
       <c r="J15" s="3">
-        <v>1552000</v>
+        <v>1588400</v>
       </c>
       <c r="K15" s="3">
         <v>1612400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19079300</v>
+        <v>19526900</v>
       </c>
       <c r="E17" s="3">
-        <v>20624200</v>
+        <v>21108100</v>
       </c>
       <c r="F17" s="3">
-        <v>34644700</v>
+        <v>35457500</v>
       </c>
       <c r="G17" s="3">
-        <v>32656900</v>
+        <v>33423000</v>
       </c>
       <c r="H17" s="3">
-        <v>32354700</v>
+        <v>33113700</v>
       </c>
       <c r="I17" s="3">
-        <v>29393400</v>
+        <v>30083000</v>
       </c>
       <c r="J17" s="3">
-        <v>30421700</v>
+        <v>31135400</v>
       </c>
       <c r="K17" s="3">
         <v>32892900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2312000</v>
+        <v>-2366200</v>
       </c>
       <c r="E18" s="3">
-        <v>-7070600</v>
+        <v>-7236500</v>
       </c>
       <c r="F18" s="3">
-        <v>1684600</v>
+        <v>1724100</v>
       </c>
       <c r="G18" s="3">
-        <v>2792700</v>
+        <v>2858200</v>
       </c>
       <c r="H18" s="3">
-        <v>3131800</v>
+        <v>3205300</v>
       </c>
       <c r="I18" s="3">
-        <v>2184300</v>
+        <v>2235600</v>
       </c>
       <c r="J18" s="3">
-        <v>1551000</v>
+        <v>1587300</v>
       </c>
       <c r="K18" s="3">
         <v>992500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1231800</v>
+        <v>-1260700</v>
       </c>
       <c r="F20" s="3">
-        <v>447800</v>
+        <v>458300</v>
       </c>
       <c r="G20" s="3">
-        <v>90800</v>
+        <v>92900</v>
       </c>
       <c r="H20" s="3">
-        <v>225400</v>
+        <v>230700</v>
       </c>
       <c r="I20" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="J20" s="3">
-        <v>633300</v>
+        <v>648200</v>
       </c>
       <c r="K20" s="3">
         <v>-514900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35800</v>
+        <v>-6300</v>
       </c>
       <c r="E21" s="3">
-        <v>-3924700</v>
+        <v>-4099300</v>
       </c>
       <c r="F21" s="3">
-        <v>4860900</v>
+        <v>4923500</v>
       </c>
       <c r="G21" s="3">
-        <v>5053900</v>
+        <v>5131500</v>
       </c>
       <c r="H21" s="3">
-        <v>5649200</v>
+        <v>5738500</v>
       </c>
       <c r="I21" s="3">
-        <v>4130600</v>
+        <v>4194400</v>
       </c>
       <c r="J21" s="3">
-        <v>3886300</v>
+        <v>3945400</v>
       </c>
       <c r="K21" s="3">
         <v>2193300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>355100</v>
+        <v>363400</v>
       </c>
       <c r="E22" s="3">
-        <v>306200</v>
+        <v>313400</v>
       </c>
       <c r="F22" s="3">
-        <v>277300</v>
+        <v>283800</v>
       </c>
       <c r="G22" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="H22" s="3">
-        <v>207500</v>
+        <v>212300</v>
       </c>
       <c r="I22" s="3">
-        <v>129700</v>
+        <v>132700</v>
       </c>
       <c r="J22" s="3">
-        <v>163600</v>
+        <v>167400</v>
       </c>
       <c r="K22" s="3">
         <v>274400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2599200</v>
+        <v>-2660200</v>
       </c>
       <c r="E23" s="3">
-        <v>-8608600</v>
+        <v>-8810500</v>
       </c>
       <c r="F23" s="3">
-        <v>1855200</v>
+        <v>1898700</v>
       </c>
       <c r="G23" s="3">
-        <v>2776800</v>
+        <v>2841900</v>
       </c>
       <c r="H23" s="3">
-        <v>3149800</v>
+        <v>3223700</v>
       </c>
       <c r="I23" s="3">
-        <v>2242200</v>
+        <v>2294800</v>
       </c>
       <c r="J23" s="3">
-        <v>2020700</v>
+        <v>2068100</v>
       </c>
       <c r="K23" s="3">
         <v>203200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-411900</v>
+        <v>-421600</v>
       </c>
       <c r="E24" s="3">
-        <v>-1860200</v>
+        <v>-1903800</v>
       </c>
       <c r="F24" s="3">
-        <v>613400</v>
+        <v>627800</v>
       </c>
       <c r="G24" s="3">
-        <v>586500</v>
+        <v>600200</v>
       </c>
       <c r="H24" s="3">
-        <v>782000</v>
+        <v>800300</v>
       </c>
       <c r="I24" s="3">
-        <v>443800</v>
+        <v>454300</v>
       </c>
       <c r="J24" s="3">
-        <v>303200</v>
+        <v>310300</v>
       </c>
       <c r="K24" s="3">
         <v>118600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2187300</v>
+        <v>-2238600</v>
       </c>
       <c r="E26" s="3">
-        <v>-6748400</v>
+        <v>-6906700</v>
       </c>
       <c r="F26" s="3">
-        <v>1241800</v>
+        <v>1270900</v>
       </c>
       <c r="G26" s="3">
-        <v>2190300</v>
+        <v>2241700</v>
       </c>
       <c r="H26" s="3">
-        <v>2367800</v>
+        <v>2423400</v>
       </c>
       <c r="I26" s="3">
-        <v>1798300</v>
+        <v>1840500</v>
       </c>
       <c r="J26" s="3">
-        <v>1717500</v>
+        <v>1757800</v>
       </c>
       <c r="K26" s="3">
         <v>84700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2185300</v>
+        <v>-2236600</v>
       </c>
       <c r="E27" s="3">
-        <v>-6707500</v>
+        <v>-6864900</v>
       </c>
       <c r="F27" s="3">
-        <v>1209800</v>
+        <v>1238200</v>
       </c>
       <c r="G27" s="3">
-        <v>2157400</v>
+        <v>2208000</v>
       </c>
       <c r="H27" s="3">
-        <v>2333900</v>
+        <v>2388700</v>
       </c>
       <c r="I27" s="3">
-        <v>1771400</v>
+        <v>1812900</v>
       </c>
       <c r="J27" s="3">
-        <v>1693600</v>
+        <v>1733300</v>
       </c>
       <c r="K27" s="3">
         <v>62100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-67800</v>
+        <v>-69400</v>
       </c>
       <c r="E32" s="3">
-        <v>1231800</v>
+        <v>1260700</v>
       </c>
       <c r="F32" s="3">
-        <v>-447800</v>
+        <v>-458300</v>
       </c>
       <c r="G32" s="3">
-        <v>-90800</v>
+        <v>-92900</v>
       </c>
       <c r="H32" s="3">
-        <v>-225400</v>
+        <v>-230700</v>
       </c>
       <c r="I32" s="3">
-        <v>-187500</v>
+        <v>-191900</v>
       </c>
       <c r="J32" s="3">
-        <v>-633300</v>
+        <v>-648200</v>
       </c>
       <c r="K32" s="3">
         <v>514900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2185300</v>
+        <v>-2236600</v>
       </c>
       <c r="E33" s="3">
-        <v>-6707500</v>
+        <v>-6864900</v>
       </c>
       <c r="F33" s="3">
-        <v>1209800</v>
+        <v>1238200</v>
       </c>
       <c r="G33" s="3">
-        <v>2157400</v>
+        <v>2208000</v>
       </c>
       <c r="H33" s="3">
-        <v>2333900</v>
+        <v>2388700</v>
       </c>
       <c r="I33" s="3">
-        <v>1771400</v>
+        <v>1812900</v>
       </c>
       <c r="J33" s="3">
-        <v>1693600</v>
+        <v>1733300</v>
       </c>
       <c r="K33" s="3">
         <v>62100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2185300</v>
+        <v>-2236600</v>
       </c>
       <c r="E35" s="3">
-        <v>-6707500</v>
+        <v>-6864900</v>
       </c>
       <c r="F35" s="3">
-        <v>1209800</v>
+        <v>1238200</v>
       </c>
       <c r="G35" s="3">
-        <v>2157400</v>
+        <v>2208000</v>
       </c>
       <c r="H35" s="3">
-        <v>2333900</v>
+        <v>2388700</v>
       </c>
       <c r="I35" s="3">
-        <v>1771400</v>
+        <v>1812900</v>
       </c>
       <c r="J35" s="3">
-        <v>1693600</v>
+        <v>1733300</v>
       </c>
       <c r="K35" s="3">
         <v>62100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2301000</v>
+        <v>2355000</v>
       </c>
       <c r="E41" s="3">
-        <v>1801300</v>
+        <v>1843600</v>
       </c>
       <c r="F41" s="3">
-        <v>1411300</v>
+        <v>1444400</v>
       </c>
       <c r="G41" s="3">
-        <v>1430300</v>
+        <v>1463800</v>
       </c>
       <c r="H41" s="3">
-        <v>1214800</v>
+        <v>1243300</v>
       </c>
       <c r="I41" s="3">
-        <v>1135000</v>
+        <v>1161700</v>
       </c>
       <c r="J41" s="3">
-        <v>993400</v>
+        <v>1016700</v>
       </c>
       <c r="K41" s="3">
         <v>934900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5345100</v>
+        <v>5470500</v>
       </c>
       <c r="E42" s="3">
-        <v>3644500</v>
+        <v>3730000</v>
       </c>
       <c r="F42" s="3">
-        <v>1964900</v>
+        <v>2011000</v>
       </c>
       <c r="G42" s="3">
-        <v>1796300</v>
+        <v>1838500</v>
       </c>
       <c r="H42" s="3">
-        <v>2722900</v>
+        <v>2786800</v>
       </c>
       <c r="I42" s="3">
-        <v>2791700</v>
+        <v>2857200</v>
       </c>
       <c r="J42" s="3">
-        <v>2091500</v>
+        <v>2140600</v>
       </c>
       <c r="K42" s="3">
         <v>2156600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4103300</v>
+        <v>4199600</v>
       </c>
       <c r="E43" s="3">
-        <v>3258500</v>
+        <v>3335000</v>
       </c>
       <c r="F43" s="3">
-        <v>5831800</v>
+        <v>5968600</v>
       </c>
       <c r="G43" s="3">
-        <v>5852700</v>
+        <v>5990100</v>
       </c>
       <c r="H43" s="3">
-        <v>5357000</v>
+        <v>5482700</v>
       </c>
       <c r="I43" s="3">
-        <v>4595000</v>
+        <v>4702800</v>
       </c>
       <c r="J43" s="3">
-        <v>4462400</v>
+        <v>4567100</v>
       </c>
       <c r="K43" s="3">
         <v>4648500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>673200</v>
+        <v>689000</v>
       </c>
       <c r="E44" s="3">
-        <v>724100</v>
+        <v>741100</v>
       </c>
       <c r="F44" s="3">
-        <v>977500</v>
+        <v>1000400</v>
       </c>
       <c r="G44" s="3">
-        <v>965500</v>
+        <v>988100</v>
       </c>
       <c r="H44" s="3">
-        <v>904600</v>
+        <v>925900</v>
       </c>
       <c r="I44" s="3">
-        <v>813900</v>
+        <v>833000</v>
       </c>
       <c r="J44" s="3">
-        <v>759000</v>
+        <v>776800</v>
       </c>
       <c r="K44" s="3">
         <v>790400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1017300</v>
+        <v>1041200</v>
       </c>
       <c r="E45" s="3">
-        <v>585500</v>
+        <v>599200</v>
       </c>
       <c r="F45" s="3">
-        <v>1070200</v>
+        <v>1095300</v>
       </c>
       <c r="G45" s="3">
-        <v>581500</v>
+        <v>595100</v>
       </c>
       <c r="H45" s="3">
-        <v>800900</v>
+        <v>819700</v>
       </c>
       <c r="I45" s="3">
-        <v>830800</v>
+        <v>850300</v>
       </c>
       <c r="J45" s="3">
-        <v>606400</v>
+        <v>620600</v>
       </c>
       <c r="K45" s="3">
         <v>781300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13440000</v>
+        <v>13755300</v>
       </c>
       <c r="E46" s="3">
-        <v>10013900</v>
+        <v>10248800</v>
       </c>
       <c r="F46" s="3">
-        <v>11255700</v>
+        <v>11519700</v>
       </c>
       <c r="G46" s="3">
-        <v>10626300</v>
+        <v>10875600</v>
       </c>
       <c r="H46" s="3">
-        <v>11000300</v>
+        <v>11258400</v>
       </c>
       <c r="I46" s="3">
-        <v>10166500</v>
+        <v>10405000</v>
       </c>
       <c r="J46" s="3">
-        <v>8912800</v>
+        <v>9121900</v>
       </c>
       <c r="K46" s="3">
         <v>9311700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1303600</v>
+        <v>1334200</v>
       </c>
       <c r="E47" s="3">
-        <v>1179900</v>
+        <v>1207600</v>
       </c>
       <c r="F47" s="3">
-        <v>1478100</v>
+        <v>1512800</v>
       </c>
       <c r="G47" s="3">
-        <v>1455200</v>
+        <v>1489300</v>
       </c>
       <c r="H47" s="3">
-        <v>1321600</v>
+        <v>1352600</v>
       </c>
       <c r="I47" s="3">
-        <v>1264700</v>
+        <v>1294400</v>
       </c>
       <c r="J47" s="3">
-        <v>1267700</v>
+        <v>1297400</v>
       </c>
       <c r="K47" s="3">
         <v>2006400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18623500</v>
+        <v>19060400</v>
       </c>
       <c r="E48" s="3">
-        <v>19462300</v>
+        <v>19918900</v>
       </c>
       <c r="F48" s="3">
-        <v>22331800</v>
+        <v>22855700</v>
       </c>
       <c r="G48" s="3">
-        <v>18947600</v>
+        <v>19392100</v>
       </c>
       <c r="H48" s="3">
-        <v>17474400</v>
+        <v>17884400</v>
       </c>
       <c r="I48" s="3">
-        <v>16952800</v>
+        <v>17350500</v>
       </c>
       <c r="J48" s="3">
-        <v>16720400</v>
+        <v>17112700</v>
       </c>
       <c r="K48" s="3">
         <v>17705400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1603800</v>
+        <v>1641400</v>
       </c>
       <c r="E49" s="3">
-        <v>1633700</v>
+        <v>1672100</v>
       </c>
       <c r="F49" s="3">
-        <v>1937000</v>
+        <v>1982400</v>
       </c>
       <c r="G49" s="3">
-        <v>1888100</v>
+        <v>1932400</v>
       </c>
       <c r="H49" s="3">
-        <v>1830200</v>
+        <v>1873200</v>
       </c>
       <c r="I49" s="3">
-        <v>1732500</v>
+        <v>1773100</v>
       </c>
       <c r="J49" s="3">
-        <v>1652700</v>
+        <v>1691500</v>
       </c>
       <c r="K49" s="3">
         <v>1791900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7456600</v>
+        <v>7631500</v>
       </c>
       <c r="E52" s="3">
-        <v>7091500</v>
+        <v>7257900</v>
       </c>
       <c r="F52" s="3">
-        <v>5545500</v>
+        <v>5675600</v>
       </c>
       <c r="G52" s="3">
-        <v>5196500</v>
+        <v>5318400</v>
       </c>
       <c r="H52" s="3">
-        <v>4059400</v>
+        <v>4154700</v>
       </c>
       <c r="I52" s="3">
-        <v>4490300</v>
+        <v>4595600</v>
       </c>
       <c r="J52" s="3">
-        <v>3824000</v>
+        <v>3913700</v>
       </c>
       <c r="K52" s="3">
         <v>3592800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42427400</v>
+        <v>43422800</v>
       </c>
       <c r="E54" s="3">
-        <v>39381300</v>
+        <v>40305300</v>
       </c>
       <c r="F54" s="3">
-        <v>42548100</v>
+        <v>43546300</v>
       </c>
       <c r="G54" s="3">
-        <v>38113600</v>
+        <v>39007800</v>
       </c>
       <c r="H54" s="3">
-        <v>35685000</v>
+        <v>36522200</v>
       </c>
       <c r="I54" s="3">
-        <v>34606800</v>
+        <v>35418700</v>
       </c>
       <c r="J54" s="3">
-        <v>32377600</v>
+        <v>33137200</v>
       </c>
       <c r="K54" s="3">
         <v>34408200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2873500</v>
+        <v>2940900</v>
       </c>
       <c r="E57" s="3">
-        <v>2081600</v>
+        <v>2130400</v>
       </c>
       <c r="F57" s="3">
-        <v>3712300</v>
+        <v>3799400</v>
       </c>
       <c r="G57" s="3">
-        <v>3901800</v>
+        <v>3993400</v>
       </c>
       <c r="H57" s="3">
-        <v>3422100</v>
+        <v>3502400</v>
       </c>
       <c r="I57" s="3">
-        <v>3059000</v>
+        <v>3130800</v>
       </c>
       <c r="J57" s="3">
-        <v>2940300</v>
+        <v>3009300</v>
       </c>
       <c r="K57" s="3">
         <v>3322900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1643700</v>
+        <v>1682300</v>
       </c>
       <c r="E58" s="3">
-        <v>3121900</v>
+        <v>3195100</v>
       </c>
       <c r="F58" s="3">
-        <v>1646700</v>
+        <v>1685300</v>
       </c>
       <c r="G58" s="3">
-        <v>1711500</v>
+        <v>1751700</v>
       </c>
       <c r="H58" s="3">
-        <v>688200</v>
+        <v>704400</v>
       </c>
       <c r="I58" s="3">
-        <v>824800</v>
+        <v>844200</v>
       </c>
       <c r="J58" s="3">
-        <v>1405300</v>
+        <v>1438300</v>
       </c>
       <c r="K58" s="3">
         <v>894200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10126600</v>
+        <v>10364200</v>
       </c>
       <c r="E59" s="3">
-        <v>9417500</v>
+        <v>9638400</v>
       </c>
       <c r="F59" s="3">
-        <v>10585400</v>
+        <v>10833800</v>
       </c>
       <c r="G59" s="3">
-        <v>10559500</v>
+        <v>10807200</v>
       </c>
       <c r="H59" s="3">
-        <v>8494900</v>
+        <v>8694200</v>
       </c>
       <c r="I59" s="3">
-        <v>7096500</v>
+        <v>7263000</v>
       </c>
       <c r="J59" s="3">
-        <v>8059000</v>
+        <v>8248100</v>
       </c>
       <c r="K59" s="3">
         <v>8173600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14643800</v>
+        <v>14987400</v>
       </c>
       <c r="E60" s="3">
-        <v>14620900</v>
+        <v>14963900</v>
       </c>
       <c r="F60" s="3">
-        <v>15944400</v>
+        <v>16318500</v>
       </c>
       <c r="G60" s="3">
-        <v>16172800</v>
+        <v>16552300</v>
       </c>
       <c r="H60" s="3">
-        <v>12605100</v>
+        <v>12900900</v>
       </c>
       <c r="I60" s="3">
-        <v>10980400</v>
+        <v>11238000</v>
       </c>
       <c r="J60" s="3">
-        <v>12404700</v>
+        <v>12695700</v>
       </c>
       <c r="K60" s="3">
         <v>12390700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15001900</v>
+        <v>15353900</v>
       </c>
       <c r="E61" s="3">
-        <v>12220100</v>
+        <v>12506800</v>
       </c>
       <c r="F61" s="3">
-        <v>8374200</v>
+        <v>8570600</v>
       </c>
       <c r="G61" s="3">
-        <v>4995000</v>
+        <v>5112200</v>
       </c>
       <c r="H61" s="3">
-        <v>6126000</v>
+        <v>6269800</v>
       </c>
       <c r="I61" s="3">
-        <v>5795900</v>
+        <v>5931900</v>
       </c>
       <c r="J61" s="3">
-        <v>5017900</v>
+        <v>5135600</v>
       </c>
       <c r="K61" s="3">
         <v>6056500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8303400</v>
+        <v>8498200</v>
       </c>
       <c r="E62" s="3">
-        <v>11156900</v>
+        <v>11418700</v>
       </c>
       <c r="F62" s="3">
-        <v>8000100</v>
+        <v>8187800</v>
       </c>
       <c r="G62" s="3">
-        <v>7397700</v>
+        <v>7571300</v>
       </c>
       <c r="H62" s="3">
-        <v>7867500</v>
+        <v>8052100</v>
       </c>
       <c r="I62" s="3">
-        <v>10700100</v>
+        <v>10951100</v>
       </c>
       <c r="J62" s="3">
-        <v>9125200</v>
+        <v>9339300</v>
       </c>
       <c r="K62" s="3">
         <v>11409600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37989000</v>
+        <v>38880200</v>
       </c>
       <c r="E66" s="3">
-        <v>38037800</v>
+        <v>38930200</v>
       </c>
       <c r="F66" s="3">
-        <v>32427500</v>
+        <v>33188200</v>
       </c>
       <c r="G66" s="3">
-        <v>28675300</v>
+        <v>29348000</v>
       </c>
       <c r="H66" s="3">
-        <v>26701400</v>
+        <v>27327800</v>
       </c>
       <c r="I66" s="3">
-        <v>27565100</v>
+        <v>28211800</v>
       </c>
       <c r="J66" s="3">
-        <v>26624600</v>
+        <v>27249200</v>
       </c>
       <c r="K66" s="3">
         <v>29927900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1333500</v>
+        <v>-1364800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1494100</v>
+        <v>-1529200</v>
       </c>
       <c r="F72" s="3">
-        <v>7163300</v>
+        <v>7331400</v>
       </c>
       <c r="G72" s="3">
-        <v>7023700</v>
+        <v>7188500</v>
       </c>
       <c r="H72" s="3">
-        <v>6373400</v>
+        <v>6522900</v>
       </c>
       <c r="I72" s="3">
-        <v>3641500</v>
+        <v>3726900</v>
       </c>
       <c r="J72" s="3">
-        <v>3618600</v>
+        <v>3703500</v>
       </c>
       <c r="K72" s="3">
         <v>1813300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4438400</v>
+        <v>4542600</v>
       </c>
       <c r="E76" s="3">
-        <v>1343500</v>
+        <v>1375000</v>
       </c>
       <c r="F76" s="3">
-        <v>10120600</v>
+        <v>10358100</v>
       </c>
       <c r="G76" s="3">
-        <v>9438400</v>
+        <v>9659800</v>
       </c>
       <c r="H76" s="3">
-        <v>8983600</v>
+        <v>9194300</v>
       </c>
       <c r="I76" s="3">
-        <v>7041600</v>
+        <v>7206800</v>
       </c>
       <c r="J76" s="3">
-        <v>5753000</v>
+        <v>5888000</v>
       </c>
       <c r="K76" s="3">
         <v>4480300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2185300</v>
+        <v>-2236600</v>
       </c>
       <c r="E81" s="3">
-        <v>-6707500</v>
+        <v>-6864900</v>
       </c>
       <c r="F81" s="3">
-        <v>1209800</v>
+        <v>1238200</v>
       </c>
       <c r="G81" s="3">
-        <v>2157400</v>
+        <v>2208000</v>
       </c>
       <c r="H81" s="3">
-        <v>2333900</v>
+        <v>2388700</v>
       </c>
       <c r="I81" s="3">
-        <v>1771400</v>
+        <v>1812900</v>
       </c>
       <c r="J81" s="3">
-        <v>1693600</v>
+        <v>1733300</v>
       </c>
       <c r="K81" s="3">
         <v>62100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2282100</v>
+        <v>2335600</v>
       </c>
       <c r="E83" s="3">
-        <v>4381600</v>
+        <v>4484400</v>
       </c>
       <c r="F83" s="3">
-        <v>2730900</v>
+        <v>2795000</v>
       </c>
       <c r="G83" s="3">
-        <v>2172300</v>
+        <v>2223300</v>
       </c>
       <c r="H83" s="3">
-        <v>2294000</v>
+        <v>2347800</v>
       </c>
       <c r="I83" s="3">
-        <v>1760400</v>
+        <v>1801700</v>
       </c>
       <c r="J83" s="3">
-        <v>1703600</v>
+        <v>1743500</v>
       </c>
       <c r="K83" s="3">
         <v>1711700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>616400</v>
+        <v>630900</v>
       </c>
       <c r="E89" s="3">
-        <v>-2321900</v>
+        <v>-2376400</v>
       </c>
       <c r="F89" s="3">
-        <v>4003600</v>
+        <v>4097500</v>
       </c>
       <c r="G89" s="3">
-        <v>4098300</v>
+        <v>4194500</v>
       </c>
       <c r="H89" s="3">
-        <v>5354000</v>
+        <v>5479700</v>
       </c>
       <c r="I89" s="3">
-        <v>3237600</v>
+        <v>3313500</v>
       </c>
       <c r="J89" s="3">
-        <v>3384200</v>
+        <v>3463600</v>
       </c>
       <c r="K89" s="3">
         <v>2232200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1314600</v>
+        <v>-1345400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1245800</v>
+        <v>-1275000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3476900</v>
+        <v>-3558500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3699400</v>
+        <v>-3786100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3329300</v>
+        <v>-3407400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2154400</v>
+        <v>-2204900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2447600</v>
+        <v>-2505000</v>
       </c>
       <c r="K91" s="3">
         <v>-3047400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3016100</v>
+        <v>-3086900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2335900</v>
+        <v>-2390700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3856900</v>
+        <v>-3947400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3260500</v>
+        <v>-3337000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4993000</v>
+        <v>-5110100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2821600</v>
+        <v>-2887800</v>
       </c>
       <c r="J94" s="3">
-        <v>-3264500</v>
+        <v>-3341100</v>
       </c>
       <c r="K94" s="3">
         <v>-1682400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="E96" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="F96" s="3">
-        <v>-412900</v>
+        <v>-422600</v>
       </c>
       <c r="G96" s="3">
-        <v>-348100</v>
+        <v>-356300</v>
       </c>
       <c r="H96" s="3">
-        <v>-231400</v>
+        <v>-236800</v>
       </c>
       <c r="I96" s="3">
-        <v>-232400</v>
+        <v>-237800</v>
       </c>
       <c r="J96" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="K96" s="3">
         <v>-250700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2866500</v>
+        <v>2933800</v>
       </c>
       <c r="E100" s="3">
-        <v>5062800</v>
+        <v>5181600</v>
       </c>
       <c r="F100" s="3">
-        <v>-160600</v>
+        <v>-164300</v>
       </c>
       <c r="G100" s="3">
-        <v>-624400</v>
+        <v>-639000</v>
       </c>
       <c r="H100" s="3">
-        <v>-244400</v>
+        <v>-250100</v>
       </c>
       <c r="I100" s="3">
-        <v>-271300</v>
+        <v>-277700</v>
       </c>
       <c r="J100" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="K100" s="3">
         <v>-1210400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="E101" s="3">
-        <v>-32900</v>
+        <v>-33700</v>
       </c>
       <c r="F101" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-36900</v>
+        <v>-37800</v>
       </c>
       <c r="I101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="J101" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="K101" s="3">
         <v>6800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>499700</v>
+        <v>511400</v>
       </c>
       <c r="E102" s="3">
-        <v>372000</v>
+        <v>380800</v>
       </c>
       <c r="F102" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="G102" s="3">
-        <v>215400</v>
+        <v>220500</v>
       </c>
       <c r="H102" s="3">
-        <v>79800</v>
+        <v>81700</v>
       </c>
       <c r="I102" s="3">
-        <v>141600</v>
+        <v>145000</v>
       </c>
       <c r="J102" s="3">
-        <v>167600</v>
+        <v>171500</v>
       </c>
       <c r="K102" s="3">
         <v>-653700</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>DLAKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17160700</v>
+        <v>34670700</v>
       </c>
       <c r="E8" s="3">
-        <v>13871700</v>
+        <v>17786000</v>
       </c>
       <c r="F8" s="3">
-        <v>37181600</v>
+        <v>14377200</v>
       </c>
       <c r="G8" s="3">
-        <v>36281300</v>
+        <v>38536600</v>
       </c>
       <c r="H8" s="3">
-        <v>36319000</v>
+        <v>37603400</v>
       </c>
       <c r="I8" s="3">
-        <v>32318500</v>
+        <v>37642600</v>
       </c>
       <c r="J8" s="3">
+        <v>33496300</v>
+      </c>
+      <c r="K8" s="3">
         <v>32722800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33885400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35918300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33088200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33728300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9020800</v>
+        <v>19340200</v>
       </c>
       <c r="E9" s="3">
-        <v>8450200</v>
+        <v>9349500</v>
       </c>
       <c r="F9" s="3">
-        <v>19540200</v>
+        <v>8758100</v>
       </c>
       <c r="G9" s="3">
-        <v>18207000</v>
+        <v>20252200</v>
       </c>
       <c r="H9" s="3">
-        <v>18976700</v>
+        <v>18870500</v>
       </c>
       <c r="I9" s="3">
-        <v>17367900</v>
+        <v>19668200</v>
       </c>
       <c r="J9" s="3">
+        <v>18000800</v>
+      </c>
+      <c r="K9" s="3">
         <v>17799700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19274900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41498600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19580600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19475900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8139900</v>
+        <v>15330400</v>
       </c>
       <c r="E10" s="3">
-        <v>5421500</v>
+        <v>8436500</v>
       </c>
       <c r="F10" s="3">
-        <v>17641500</v>
+        <v>5619000</v>
       </c>
       <c r="G10" s="3">
-        <v>18074300</v>
+        <v>18284400</v>
       </c>
       <c r="H10" s="3">
-        <v>17342400</v>
+        <v>18732900</v>
       </c>
       <c r="I10" s="3">
-        <v>14950600</v>
+        <v>17974400</v>
       </c>
       <c r="J10" s="3">
+        <v>15495500</v>
+      </c>
+      <c r="K10" s="3">
         <v>14923100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14610600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5580300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13507600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14252400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-274600</v>
+        <v>306800</v>
       </c>
       <c r="E14" s="3">
-        <v>1759900</v>
+        <v>-284600</v>
       </c>
       <c r="F14" s="3">
-        <v>90900</v>
+        <v>1824000</v>
       </c>
       <c r="G14" s="3">
-        <v>33700</v>
+        <v>94200</v>
       </c>
       <c r="H14" s="3">
-        <v>265400</v>
+        <v>34900</v>
       </c>
       <c r="I14" s="3">
-        <v>178600</v>
+        <v>275100</v>
       </c>
       <c r="J14" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K14" s="3">
         <v>158200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>88100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>448600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>357900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>103300</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2306000</v>
+        <v>2408000</v>
       </c>
       <c r="E15" s="3">
-        <v>2614300</v>
+        <v>2390000</v>
       </c>
       <c r="F15" s="3">
-        <v>2748000</v>
+        <v>2709500</v>
       </c>
       <c r="G15" s="3">
-        <v>2226400</v>
+        <v>2848100</v>
       </c>
       <c r="H15" s="3">
-        <v>2081400</v>
+        <v>2307500</v>
       </c>
       <c r="I15" s="3">
-        <v>1619000</v>
+        <v>2157300</v>
       </c>
       <c r="J15" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1588400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1612400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3898400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1890800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1952000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19526900</v>
+        <v>33367200</v>
       </c>
       <c r="E17" s="3">
-        <v>21108100</v>
+        <v>20238500</v>
       </c>
       <c r="F17" s="3">
-        <v>35457500</v>
+        <v>21877300</v>
       </c>
       <c r="G17" s="3">
-        <v>33423000</v>
+        <v>36749600</v>
       </c>
       <c r="H17" s="3">
-        <v>33113700</v>
+        <v>34641000</v>
       </c>
       <c r="I17" s="3">
-        <v>30083000</v>
+        <v>34320500</v>
       </c>
       <c r="J17" s="3">
+        <v>31179300</v>
+      </c>
+      <c r="K17" s="3">
         <v>31135400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32892900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34903900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31339100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32864300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2366200</v>
+        <v>1303500</v>
       </c>
       <c r="E18" s="3">
-        <v>-7236500</v>
+        <v>-2452400</v>
       </c>
       <c r="F18" s="3">
-        <v>1724100</v>
+        <v>-7500200</v>
       </c>
       <c r="G18" s="3">
-        <v>2858200</v>
+        <v>1787000</v>
       </c>
       <c r="H18" s="3">
-        <v>3205300</v>
+        <v>2962400</v>
       </c>
       <c r="I18" s="3">
-        <v>2235600</v>
+        <v>3322100</v>
       </c>
       <c r="J18" s="3">
+        <v>2317000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1587300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>992500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1014400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1749100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>863900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>69400</v>
+        <v>228500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1260700</v>
+        <v>71900</v>
       </c>
       <c r="F20" s="3">
-        <v>458300</v>
+        <v>-1306600</v>
       </c>
       <c r="G20" s="3">
-        <v>92900</v>
+        <v>475000</v>
       </c>
       <c r="H20" s="3">
-        <v>230700</v>
+        <v>96300</v>
       </c>
       <c r="I20" s="3">
-        <v>191900</v>
+        <v>239100</v>
       </c>
       <c r="J20" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K20" s="3">
         <v>648200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-514900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>393500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>58200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>48100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6300</v>
+        <v>4138500</v>
       </c>
       <c r="E21" s="3">
-        <v>-4099300</v>
+        <v>32000</v>
       </c>
       <c r="F21" s="3">
-        <v>4923500</v>
+        <v>-4174800</v>
       </c>
       <c r="G21" s="3">
-        <v>5131500</v>
+        <v>5149000</v>
       </c>
       <c r="H21" s="3">
-        <v>5738500</v>
+        <v>5355200</v>
       </c>
       <c r="I21" s="3">
-        <v>4194400</v>
+        <v>5986300</v>
       </c>
       <c r="J21" s="3">
+        <v>4376900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3945400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2193300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3479600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3924200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3002900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>363400</v>
+        <v>421100</v>
       </c>
       <c r="E22" s="3">
-        <v>313400</v>
+        <v>376600</v>
       </c>
       <c r="F22" s="3">
-        <v>283800</v>
+        <v>324800</v>
       </c>
       <c r="G22" s="3">
-        <v>109200</v>
+        <v>294100</v>
       </c>
       <c r="H22" s="3">
-        <v>212300</v>
+        <v>113200</v>
       </c>
       <c r="I22" s="3">
-        <v>132700</v>
+        <v>220100</v>
       </c>
       <c r="J22" s="3">
+        <v>137500</v>
+      </c>
+      <c r="K22" s="3">
         <v>167400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>274400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>754800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>384300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>388500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2660200</v>
+        <v>1110900</v>
       </c>
       <c r="E23" s="3">
-        <v>-8810500</v>
+        <v>-2757100</v>
       </c>
       <c r="F23" s="3">
-        <v>1898700</v>
+        <v>-9131600</v>
       </c>
       <c r="G23" s="3">
-        <v>2841900</v>
+        <v>1967900</v>
       </c>
       <c r="H23" s="3">
-        <v>3223700</v>
+        <v>2945500</v>
       </c>
       <c r="I23" s="3">
-        <v>2294800</v>
+        <v>3341200</v>
       </c>
       <c r="J23" s="3">
+        <v>2378400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2068100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>653100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1423000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>523500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-421600</v>
+        <v>260300</v>
       </c>
       <c r="E24" s="3">
-        <v>-1903800</v>
+        <v>-437000</v>
       </c>
       <c r="F24" s="3">
-        <v>627800</v>
+        <v>-1973200</v>
       </c>
       <c r="G24" s="3">
-        <v>600200</v>
+        <v>650700</v>
       </c>
       <c r="H24" s="3">
-        <v>800300</v>
+        <v>622100</v>
       </c>
       <c r="I24" s="3">
-        <v>454300</v>
+        <v>829500</v>
       </c>
       <c r="J24" s="3">
+        <v>470800</v>
+      </c>
+      <c r="K24" s="3">
         <v>310300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>118600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>263200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>184300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2238600</v>
+        <v>850600</v>
       </c>
       <c r="E26" s="3">
-        <v>-6906700</v>
+        <v>-2320200</v>
       </c>
       <c r="F26" s="3">
-        <v>1270900</v>
+        <v>-7158400</v>
       </c>
       <c r="G26" s="3">
-        <v>2241700</v>
+        <v>1317200</v>
       </c>
       <c r="H26" s="3">
-        <v>2423400</v>
+        <v>2323400</v>
       </c>
       <c r="I26" s="3">
-        <v>1840500</v>
+        <v>2511700</v>
       </c>
       <c r="J26" s="3">
+        <v>1907600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1757800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>390000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1323100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>339200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2236600</v>
+        <v>836900</v>
       </c>
       <c r="E27" s="3">
-        <v>-6864900</v>
+        <v>-2318100</v>
       </c>
       <c r="F27" s="3">
-        <v>1238200</v>
+        <v>-7115100</v>
       </c>
       <c r="G27" s="3">
-        <v>2208000</v>
+        <v>1283400</v>
       </c>
       <c r="H27" s="3">
-        <v>2388700</v>
+        <v>2288500</v>
       </c>
       <c r="I27" s="3">
-        <v>1812900</v>
+        <v>2475700</v>
       </c>
       <c r="J27" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1733300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>374400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1308800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>319300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1500,14 +1560,17 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>39500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-334500</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69400</v>
+        <v>-228500</v>
       </c>
       <c r="E32" s="3">
-        <v>1260700</v>
+        <v>-71900</v>
       </c>
       <c r="F32" s="3">
-        <v>-458300</v>
+        <v>1306600</v>
       </c>
       <c r="G32" s="3">
-        <v>-92900</v>
+        <v>-475000</v>
       </c>
       <c r="H32" s="3">
-        <v>-230700</v>
+        <v>-96300</v>
       </c>
       <c r="I32" s="3">
-        <v>-191900</v>
+        <v>-239100</v>
       </c>
       <c r="J32" s="3">
+        <v>-198900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-648200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>514900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-393500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-58200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-48100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2236600</v>
+        <v>836900</v>
       </c>
       <c r="E33" s="3">
-        <v>-6864900</v>
+        <v>-2318100</v>
       </c>
       <c r="F33" s="3">
-        <v>1238200</v>
+        <v>-7115100</v>
       </c>
       <c r="G33" s="3">
-        <v>2208000</v>
+        <v>1283400</v>
       </c>
       <c r="H33" s="3">
-        <v>2388700</v>
+        <v>2288500</v>
       </c>
       <c r="I33" s="3">
-        <v>1812900</v>
+        <v>2475700</v>
       </c>
       <c r="J33" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1733300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>374400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1348300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2236600</v>
+        <v>836900</v>
       </c>
       <c r="E35" s="3">
-        <v>-6864900</v>
+        <v>-2318100</v>
       </c>
       <c r="F35" s="3">
-        <v>1238200</v>
+        <v>-7115100</v>
       </c>
       <c r="G35" s="3">
-        <v>2208000</v>
+        <v>1283400</v>
       </c>
       <c r="H35" s="3">
-        <v>2388700</v>
+        <v>2288500</v>
       </c>
       <c r="I35" s="3">
-        <v>1812900</v>
+        <v>2475700</v>
       </c>
       <c r="J35" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1733300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>374400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1348300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2355000</v>
+        <v>1893800</v>
       </c>
       <c r="E41" s="3">
-        <v>1843600</v>
+        <v>2440800</v>
       </c>
       <c r="F41" s="3">
-        <v>1444400</v>
+        <v>1910700</v>
       </c>
       <c r="G41" s="3">
-        <v>1463800</v>
+        <v>1497100</v>
       </c>
       <c r="H41" s="3">
-        <v>1243300</v>
+        <v>1517200</v>
       </c>
       <c r="I41" s="3">
-        <v>1161700</v>
+        <v>1288600</v>
       </c>
       <c r="J41" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1016700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>934900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3539600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3150200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2062400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5470500</v>
+        <v>6888600</v>
       </c>
       <c r="E42" s="3">
-        <v>3730000</v>
+        <v>5669800</v>
       </c>
       <c r="F42" s="3">
-        <v>2011000</v>
+        <v>3865900</v>
       </c>
       <c r="G42" s="3">
-        <v>1838500</v>
+        <v>2084300</v>
       </c>
       <c r="H42" s="3">
-        <v>2786800</v>
+        <v>1905500</v>
       </c>
       <c r="I42" s="3">
-        <v>2857200</v>
+        <v>2888300</v>
       </c>
       <c r="J42" s="3">
+        <v>2961300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2140600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2156600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3936700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3875900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3651700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4199600</v>
+        <v>4946200</v>
       </c>
       <c r="E43" s="3">
-        <v>3335000</v>
+        <v>4352600</v>
       </c>
       <c r="F43" s="3">
-        <v>5968600</v>
+        <v>3456500</v>
       </c>
       <c r="G43" s="3">
-        <v>5990100</v>
+        <v>6186100</v>
       </c>
       <c r="H43" s="3">
-        <v>5482700</v>
+        <v>6208300</v>
       </c>
       <c r="I43" s="3">
-        <v>4702800</v>
+        <v>5682500</v>
       </c>
       <c r="J43" s="3">
+        <v>4874200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4567100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4648500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12977600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11957200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8233100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>689000</v>
+        <v>859100</v>
       </c>
       <c r="E44" s="3">
-        <v>741100</v>
+        <v>714200</v>
       </c>
       <c r="F44" s="3">
-        <v>1000400</v>
+        <v>768100</v>
       </c>
       <c r="G44" s="3">
-        <v>988100</v>
+        <v>1036800</v>
       </c>
       <c r="H44" s="3">
-        <v>925900</v>
+        <v>1024100</v>
       </c>
       <c r="I44" s="3">
-        <v>833000</v>
+        <v>959600</v>
       </c>
       <c r="J44" s="3">
+        <v>863300</v>
+      </c>
+      <c r="K44" s="3">
         <v>776800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>790400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1533500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1525100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1455500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1041200</v>
+        <v>1552100</v>
       </c>
       <c r="E45" s="3">
-        <v>599200</v>
+        <v>1079200</v>
       </c>
       <c r="F45" s="3">
-        <v>1095300</v>
+        <v>621000</v>
       </c>
       <c r="G45" s="3">
-        <v>595100</v>
+        <v>1135200</v>
       </c>
       <c r="H45" s="3">
-        <v>819700</v>
+        <v>616800</v>
       </c>
       <c r="I45" s="3">
-        <v>850300</v>
+        <v>849600</v>
       </c>
       <c r="J45" s="3">
+        <v>881300</v>
+      </c>
+      <c r="K45" s="3">
         <v>620600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>781300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>811000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>815800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2517800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13755300</v>
+        <v>16139800</v>
       </c>
       <c r="E46" s="3">
-        <v>10248800</v>
+        <v>14256600</v>
       </c>
       <c r="F46" s="3">
-        <v>11519700</v>
+        <v>10622300</v>
       </c>
       <c r="G46" s="3">
-        <v>10875600</v>
+        <v>11939500</v>
       </c>
       <c r="H46" s="3">
-        <v>11258400</v>
+        <v>11271900</v>
       </c>
       <c r="I46" s="3">
-        <v>10405000</v>
+        <v>11668700</v>
       </c>
       <c r="J46" s="3">
+        <v>10784200</v>
+      </c>
+      <c r="K46" s="3">
         <v>9121900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9311700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11590000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10761500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11111300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1334200</v>
+        <v>1334100</v>
       </c>
       <c r="E47" s="3">
-        <v>1207600</v>
+        <v>1382800</v>
       </c>
       <c r="F47" s="3">
-        <v>1512800</v>
+        <v>1251600</v>
       </c>
       <c r="G47" s="3">
-        <v>1489300</v>
+        <v>1568000</v>
       </c>
       <c r="H47" s="3">
-        <v>1352600</v>
+        <v>1543600</v>
       </c>
       <c r="I47" s="3">
-        <v>1294400</v>
+        <v>1401900</v>
       </c>
       <c r="J47" s="3">
+        <v>1341500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1297400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2006400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1794300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1922600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3318400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19060400</v>
+        <v>20335800</v>
       </c>
       <c r="E48" s="3">
-        <v>19918900</v>
+        <v>19755000</v>
       </c>
       <c r="F48" s="3">
-        <v>22855700</v>
+        <v>20644800</v>
       </c>
       <c r="G48" s="3">
-        <v>19392100</v>
+        <v>23688600</v>
       </c>
       <c r="H48" s="3">
-        <v>17884400</v>
+        <v>20098800</v>
       </c>
       <c r="I48" s="3">
-        <v>17350500</v>
+        <v>18536200</v>
       </c>
       <c r="J48" s="3">
+        <v>17982800</v>
+      </c>
+      <c r="K48" s="3">
         <v>17112700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17705400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18182200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12216300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>247700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1641400</v>
+        <v>1510800</v>
       </c>
       <c r="E49" s="3">
-        <v>1672100</v>
+        <v>1701300</v>
       </c>
       <c r="F49" s="3">
-        <v>1982400</v>
+        <v>1733000</v>
       </c>
       <c r="G49" s="3">
-        <v>1932400</v>
+        <v>2054600</v>
       </c>
       <c r="H49" s="3">
-        <v>1873200</v>
+        <v>2002800</v>
       </c>
       <c r="I49" s="3">
-        <v>1773100</v>
+        <v>1941400</v>
       </c>
       <c r="J49" s="3">
+        <v>1837700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1691500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1791900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4946300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5617400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3697500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7631500</v>
+        <v>6527900</v>
       </c>
       <c r="E52" s="3">
-        <v>7257900</v>
+        <v>7909600</v>
       </c>
       <c r="F52" s="3">
-        <v>5675600</v>
+        <v>7522400</v>
       </c>
       <c r="G52" s="3">
-        <v>5318400</v>
+        <v>5882500</v>
       </c>
       <c r="H52" s="3">
-        <v>4154700</v>
+        <v>5512200</v>
       </c>
       <c r="I52" s="3">
-        <v>4595600</v>
+        <v>4306100</v>
       </c>
       <c r="J52" s="3">
+        <v>4763100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3913700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3592800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2311100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3152400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2609400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43422800</v>
+        <v>45848400</v>
       </c>
       <c r="E54" s="3">
-        <v>40305300</v>
+        <v>45005200</v>
       </c>
       <c r="F54" s="3">
-        <v>43546300</v>
+        <v>41774100</v>
       </c>
       <c r="G54" s="3">
-        <v>39007800</v>
+        <v>45133200</v>
       </c>
       <c r="H54" s="3">
-        <v>36522200</v>
+        <v>40429400</v>
       </c>
       <c r="I54" s="3">
-        <v>35418700</v>
+        <v>37853100</v>
       </c>
       <c r="J54" s="3">
+        <v>36709400</v>
+      </c>
+      <c r="K54" s="3">
         <v>33137200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34408200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34819000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31379700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32912500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2940900</v>
+        <v>4275400</v>
       </c>
       <c r="E57" s="3">
-        <v>2130400</v>
+        <v>3048100</v>
       </c>
       <c r="F57" s="3">
-        <v>3799400</v>
+        <v>2208000</v>
       </c>
       <c r="G57" s="3">
-        <v>3993400</v>
+        <v>3937900</v>
       </c>
       <c r="H57" s="3">
-        <v>3502400</v>
+        <v>4138900</v>
       </c>
       <c r="I57" s="3">
-        <v>3130800</v>
+        <v>3630000</v>
       </c>
       <c r="J57" s="3">
+        <v>3244900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3009300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3322900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9056400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4652200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4961700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1682300</v>
+        <v>2012300</v>
       </c>
       <c r="E58" s="3">
-        <v>3195100</v>
+        <v>1743600</v>
       </c>
       <c r="F58" s="3">
-        <v>1685300</v>
+        <v>3311500</v>
       </c>
       <c r="G58" s="3">
-        <v>1751700</v>
+        <v>1746800</v>
       </c>
       <c r="H58" s="3">
-        <v>704400</v>
+        <v>1815500</v>
       </c>
       <c r="I58" s="3">
-        <v>844200</v>
+        <v>730000</v>
       </c>
       <c r="J58" s="3">
+        <v>875000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1438300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>894200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5567100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2124600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1446100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10364200</v>
+        <v>12447400</v>
       </c>
       <c r="E59" s="3">
-        <v>9638400</v>
+        <v>10741900</v>
       </c>
       <c r="F59" s="3">
-        <v>10833800</v>
+        <v>9989600</v>
       </c>
       <c r="G59" s="3">
-        <v>10807200</v>
+        <v>11228600</v>
       </c>
       <c r="H59" s="3">
-        <v>8694200</v>
+        <v>11201000</v>
       </c>
       <c r="I59" s="3">
-        <v>7263000</v>
+        <v>9011000</v>
       </c>
       <c r="J59" s="3">
+        <v>7527700</v>
+      </c>
+      <c r="K59" s="3">
         <v>8248100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8173600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12075600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10309100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8550000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14987400</v>
+        <v>18735100</v>
       </c>
       <c r="E60" s="3">
-        <v>14963900</v>
+        <v>15533600</v>
       </c>
       <c r="F60" s="3">
-        <v>16318500</v>
+        <v>15509200</v>
       </c>
       <c r="G60" s="3">
-        <v>16552300</v>
+        <v>16913200</v>
       </c>
       <c r="H60" s="3">
-        <v>12900900</v>
+        <v>17155500</v>
       </c>
       <c r="I60" s="3">
-        <v>11238000</v>
+        <v>13371000</v>
       </c>
       <c r="J60" s="3">
+        <v>11647500</v>
+      </c>
+      <c r="K60" s="3">
         <v>12695700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12390700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13105600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10709900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11463400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15353900</v>
+        <v>14039700</v>
       </c>
       <c r="E61" s="3">
-        <v>12506800</v>
+        <v>15913400</v>
       </c>
       <c r="F61" s="3">
-        <v>8570600</v>
+        <v>12962600</v>
       </c>
       <c r="G61" s="3">
-        <v>5112200</v>
+        <v>8883000</v>
       </c>
       <c r="H61" s="3">
-        <v>6269800</v>
+        <v>5298500</v>
       </c>
       <c r="I61" s="3">
-        <v>5931900</v>
+        <v>6498200</v>
       </c>
       <c r="J61" s="3">
+        <v>6148000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5135600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6056500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5769300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6529800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6817500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8498200</v>
+        <v>4108200</v>
       </c>
       <c r="E62" s="3">
-        <v>11418700</v>
+        <v>8807900</v>
       </c>
       <c r="F62" s="3">
-        <v>8187800</v>
+        <v>11834800</v>
       </c>
       <c r="G62" s="3">
-        <v>7571300</v>
+        <v>8486200</v>
       </c>
       <c r="H62" s="3">
-        <v>8052100</v>
+        <v>7847200</v>
       </c>
       <c r="I62" s="3">
-        <v>10951100</v>
+        <v>8345500</v>
       </c>
       <c r="J62" s="3">
+        <v>11350200</v>
+      </c>
+      <c r="K62" s="3">
         <v>9339300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11409600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10947600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10103800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9266100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38880200</v>
+        <v>36955900</v>
       </c>
       <c r="E66" s="3">
-        <v>38930200</v>
+        <v>40297100</v>
       </c>
       <c r="F66" s="3">
-        <v>33188200</v>
+        <v>40348900</v>
       </c>
       <c r="G66" s="3">
-        <v>29348000</v>
+        <v>34397700</v>
       </c>
       <c r="H66" s="3">
-        <v>27327800</v>
+        <v>30417500</v>
       </c>
       <c r="I66" s="3">
-        <v>28211800</v>
+        <v>28323700</v>
       </c>
       <c r="J66" s="3">
+        <v>29239900</v>
+      </c>
+      <c r="K66" s="3">
         <v>27249200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29927900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27574800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26132400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26301600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1364800</v>
+        <v>3390900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1529200</v>
+        <v>-1414500</v>
       </c>
       <c r="F72" s="3">
-        <v>7331400</v>
+        <v>-1584900</v>
       </c>
       <c r="G72" s="3">
-        <v>7188500</v>
+        <v>7598600</v>
       </c>
       <c r="H72" s="3">
-        <v>6522900</v>
+        <v>7450400</v>
       </c>
       <c r="I72" s="3">
-        <v>3726900</v>
+        <v>6760600</v>
       </c>
       <c r="J72" s="3">
+        <v>3862800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3703500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1813300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3770400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7758500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8192000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4542600</v>
+        <v>8892500</v>
       </c>
       <c r="E76" s="3">
-        <v>1375000</v>
+        <v>4708100</v>
       </c>
       <c r="F76" s="3">
-        <v>10358100</v>
+        <v>1425100</v>
       </c>
       <c r="G76" s="3">
-        <v>9659800</v>
+        <v>10735500</v>
       </c>
       <c r="H76" s="3">
-        <v>9194300</v>
+        <v>10011900</v>
       </c>
       <c r="I76" s="3">
-        <v>7206800</v>
+        <v>9529400</v>
       </c>
       <c r="J76" s="3">
+        <v>7469500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5888000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4480300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7244200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5247300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6610900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2236600</v>
+        <v>836900</v>
       </c>
       <c r="E81" s="3">
-        <v>-6864900</v>
+        <v>-2318100</v>
       </c>
       <c r="F81" s="3">
-        <v>1238200</v>
+        <v>-7115100</v>
       </c>
       <c r="G81" s="3">
-        <v>2208000</v>
+        <v>1283400</v>
       </c>
       <c r="H81" s="3">
-        <v>2388700</v>
+        <v>2288500</v>
       </c>
       <c r="I81" s="3">
-        <v>1812900</v>
+        <v>2475700</v>
       </c>
       <c r="J81" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1733300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>374400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1348300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2335600</v>
+        <v>2615400</v>
       </c>
       <c r="E83" s="3">
-        <v>4484400</v>
+        <v>2420700</v>
       </c>
       <c r="F83" s="3">
-        <v>2795000</v>
+        <v>4647800</v>
       </c>
       <c r="G83" s="3">
-        <v>2223300</v>
+        <v>2896800</v>
       </c>
       <c r="H83" s="3">
-        <v>2347800</v>
+        <v>2304300</v>
       </c>
       <c r="I83" s="3">
-        <v>1801700</v>
+        <v>2433400</v>
       </c>
       <c r="J83" s="3">
+        <v>1867400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1743500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1711700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2080200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2113700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2089400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>630900</v>
+        <v>5467700</v>
       </c>
       <c r="E89" s="3">
-        <v>-2376400</v>
+        <v>422100</v>
       </c>
       <c r="F89" s="3">
-        <v>4097500</v>
+        <v>-2463000</v>
       </c>
       <c r="G89" s="3">
-        <v>4194500</v>
+        <v>4246800</v>
       </c>
       <c r="H89" s="3">
-        <v>5479700</v>
+        <v>4347300</v>
       </c>
       <c r="I89" s="3">
-        <v>3313500</v>
+        <v>5679300</v>
       </c>
       <c r="J89" s="3">
+        <v>3434300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3463600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2232200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3935500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3120500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2711500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1345400</v>
+        <v>-2502200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1275000</v>
+        <v>-1394400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3558500</v>
+        <v>-1321400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3786100</v>
+        <v>-3688200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3407400</v>
+        <v>-3924100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2204900</v>
+        <v>-3531600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2285300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2505000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3047400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2923500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2516600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2870000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3086900</v>
+        <v>-3640600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2390700</v>
+        <v>-2967700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3947400</v>
+        <v>-2477800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3337000</v>
+        <v>-4091300</v>
       </c>
       <c r="H94" s="3">
-        <v>-5110100</v>
+        <v>-3458600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2887800</v>
+        <v>-5296300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2993100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3341100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1682400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2875700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2404600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19400</v>
+        <v>-8500</v>
       </c>
       <c r="E96" s="3">
-        <v>-21400</v>
+        <v>-20100</v>
       </c>
       <c r="F96" s="3">
-        <v>-422600</v>
+        <v>-22200</v>
       </c>
       <c r="G96" s="3">
-        <v>-356300</v>
+        <v>-438000</v>
       </c>
       <c r="H96" s="3">
-        <v>-236800</v>
+        <v>-369200</v>
       </c>
       <c r="I96" s="3">
-        <v>-237800</v>
+        <v>-245500</v>
       </c>
       <c r="J96" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-250700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-143800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-347400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2933800</v>
+        <v>-2397400</v>
       </c>
       <c r="E100" s="3">
-        <v>5181600</v>
+        <v>3040700</v>
       </c>
       <c r="F100" s="3">
-        <v>-164300</v>
+        <v>5370400</v>
       </c>
       <c r="G100" s="3">
-        <v>-639000</v>
+        <v>-170300</v>
       </c>
       <c r="H100" s="3">
-        <v>-250100</v>
+        <v>-662300</v>
       </c>
       <c r="I100" s="3">
-        <v>-277700</v>
+        <v>-259200</v>
       </c>
       <c r="J100" s="3">
+        <v>-287800</v>
+      </c>
+      <c r="K100" s="3">
         <v>26500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1210400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1081400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1668000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>33700</v>
+        <v>19000</v>
       </c>
       <c r="E101" s="3">
-        <v>-33700</v>
+        <v>34900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-34900</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>-5300</v>
       </c>
       <c r="H101" s="3">
-        <v>-37800</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>-3100</v>
+        <v>-39100</v>
       </c>
       <c r="J101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K101" s="3">
         <v>22500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>511400</v>
+        <v>-551200</v>
       </c>
       <c r="E102" s="3">
-        <v>380800</v>
+        <v>530100</v>
       </c>
       <c r="F102" s="3">
-        <v>-19400</v>
+        <v>394600</v>
       </c>
       <c r="G102" s="3">
-        <v>220500</v>
+        <v>-20100</v>
       </c>
       <c r="H102" s="3">
-        <v>81700</v>
+        <v>228500</v>
       </c>
       <c r="I102" s="3">
-        <v>145000</v>
+        <v>84600</v>
       </c>
       <c r="J102" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K102" s="3">
         <v>171500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-653700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>602800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-246500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34670700</v>
+        <v>35290000</v>
       </c>
       <c r="E8" s="3">
-        <v>17786000</v>
+        <v>18103800</v>
       </c>
       <c r="F8" s="3">
-        <v>14377200</v>
+        <v>14634000</v>
       </c>
       <c r="G8" s="3">
-        <v>38536600</v>
+        <v>39225000</v>
       </c>
       <c r="H8" s="3">
-        <v>37603400</v>
+        <v>38275200</v>
       </c>
       <c r="I8" s="3">
-        <v>37642600</v>
+        <v>38315000</v>
       </c>
       <c r="J8" s="3">
-        <v>33496300</v>
+        <v>34094700</v>
       </c>
       <c r="K8" s="3">
         <v>32722800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19340200</v>
+        <v>19685700</v>
       </c>
       <c r="E9" s="3">
-        <v>9349500</v>
+        <v>9516600</v>
       </c>
       <c r="F9" s="3">
-        <v>8758100</v>
+        <v>8914600</v>
       </c>
       <c r="G9" s="3">
-        <v>20252200</v>
+        <v>20614000</v>
       </c>
       <c r="H9" s="3">
-        <v>18870500</v>
+        <v>19207600</v>
       </c>
       <c r="I9" s="3">
-        <v>19668200</v>
+        <v>20019600</v>
       </c>
       <c r="J9" s="3">
-        <v>18000800</v>
+        <v>18322400</v>
       </c>
       <c r="K9" s="3">
         <v>17799700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15330400</v>
+        <v>15604300</v>
       </c>
       <c r="E10" s="3">
-        <v>8436500</v>
+        <v>8587200</v>
       </c>
       <c r="F10" s="3">
-        <v>5619000</v>
+        <v>5719400</v>
       </c>
       <c r="G10" s="3">
-        <v>18284400</v>
+        <v>18611000</v>
       </c>
       <c r="H10" s="3">
-        <v>18732900</v>
+        <v>19067600</v>
       </c>
       <c r="I10" s="3">
-        <v>17974400</v>
+        <v>18295500</v>
       </c>
       <c r="J10" s="3">
-        <v>15495500</v>
+        <v>15772300</v>
       </c>
       <c r="K10" s="3">
         <v>14923100</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>306800</v>
+        <v>312300</v>
       </c>
       <c r="E14" s="3">
-        <v>-284600</v>
+        <v>-289700</v>
       </c>
       <c r="F14" s="3">
-        <v>1824000</v>
+        <v>1856600</v>
       </c>
       <c r="G14" s="3">
-        <v>94200</v>
+        <v>95800</v>
       </c>
       <c r="H14" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="I14" s="3">
-        <v>275100</v>
+        <v>280000</v>
       </c>
       <c r="J14" s="3">
-        <v>185200</v>
+        <v>188500</v>
       </c>
       <c r="K14" s="3">
         <v>158200</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2408000</v>
+        <v>2451000</v>
       </c>
       <c r="E15" s="3">
-        <v>2390000</v>
+        <v>2432700</v>
       </c>
       <c r="F15" s="3">
-        <v>2709500</v>
+        <v>2757900</v>
       </c>
       <c r="G15" s="3">
-        <v>2848100</v>
+        <v>2899000</v>
       </c>
       <c r="H15" s="3">
-        <v>2307500</v>
+        <v>2348700</v>
       </c>
       <c r="I15" s="3">
-        <v>2157300</v>
+        <v>2195800</v>
       </c>
       <c r="J15" s="3">
-        <v>1678000</v>
+        <v>1708000</v>
       </c>
       <c r="K15" s="3">
         <v>1588400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33367200</v>
+        <v>33963300</v>
       </c>
       <c r="E17" s="3">
-        <v>20238500</v>
+        <v>20600000</v>
       </c>
       <c r="F17" s="3">
-        <v>21877300</v>
+        <v>22268100</v>
       </c>
       <c r="G17" s="3">
-        <v>36749600</v>
+        <v>37406100</v>
       </c>
       <c r="H17" s="3">
-        <v>34641000</v>
+        <v>35259900</v>
       </c>
       <c r="I17" s="3">
-        <v>34320500</v>
+        <v>34933600</v>
       </c>
       <c r="J17" s="3">
-        <v>31179300</v>
+        <v>31736200</v>
       </c>
       <c r="K17" s="3">
         <v>31135400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1303500</v>
+        <v>1326700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2452400</v>
+        <v>-2496300</v>
       </c>
       <c r="F18" s="3">
-        <v>-7500200</v>
+        <v>-7634100</v>
       </c>
       <c r="G18" s="3">
-        <v>1787000</v>
+        <v>1818900</v>
       </c>
       <c r="H18" s="3">
-        <v>2962400</v>
+        <v>3015300</v>
       </c>
       <c r="I18" s="3">
-        <v>3322100</v>
+        <v>3381500</v>
       </c>
       <c r="J18" s="3">
-        <v>2317000</v>
+        <v>2358400</v>
       </c>
       <c r="K18" s="3">
         <v>1587300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>228500</v>
+        <v>232600</v>
       </c>
       <c r="E20" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1306600</v>
+        <v>-1330000</v>
       </c>
       <c r="G20" s="3">
-        <v>475000</v>
+        <v>483500</v>
       </c>
       <c r="H20" s="3">
-        <v>96300</v>
+        <v>98000</v>
       </c>
       <c r="I20" s="3">
-        <v>239100</v>
+        <v>243400</v>
       </c>
       <c r="J20" s="3">
-        <v>198900</v>
+        <v>202500</v>
       </c>
       <c r="K20" s="3">
         <v>648200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4138500</v>
+        <v>4238800</v>
       </c>
       <c r="E21" s="3">
-        <v>32000</v>
+        <v>57000</v>
       </c>
       <c r="F21" s="3">
-        <v>-4174800</v>
+        <v>-4202500</v>
       </c>
       <c r="G21" s="3">
-        <v>5149000</v>
+        <v>5270200</v>
       </c>
       <c r="H21" s="3">
-        <v>5355200</v>
+        <v>5474100</v>
       </c>
       <c r="I21" s="3">
-        <v>5986300</v>
+        <v>6117800</v>
       </c>
       <c r="J21" s="3">
-        <v>4376900</v>
+        <v>4474000</v>
       </c>
       <c r="K21" s="3">
         <v>3945400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>421100</v>
+        <v>428600</v>
       </c>
       <c r="E22" s="3">
-        <v>376600</v>
+        <v>383400</v>
       </c>
       <c r="F22" s="3">
-        <v>324800</v>
+        <v>330600</v>
       </c>
       <c r="G22" s="3">
-        <v>294100</v>
+        <v>299400</v>
       </c>
       <c r="H22" s="3">
-        <v>113200</v>
+        <v>115200</v>
       </c>
       <c r="I22" s="3">
-        <v>220100</v>
+        <v>224000</v>
       </c>
       <c r="J22" s="3">
-        <v>137500</v>
+        <v>140000</v>
       </c>
       <c r="K22" s="3">
         <v>167400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1110900</v>
+        <v>1130700</v>
       </c>
       <c r="E23" s="3">
-        <v>-2757100</v>
+        <v>-2806400</v>
       </c>
       <c r="F23" s="3">
-        <v>-9131600</v>
+        <v>-9294700</v>
       </c>
       <c r="G23" s="3">
-        <v>1967900</v>
+        <v>2003000</v>
       </c>
       <c r="H23" s="3">
-        <v>2945500</v>
+        <v>2998100</v>
       </c>
       <c r="I23" s="3">
-        <v>3341200</v>
+        <v>3400900</v>
       </c>
       <c r="J23" s="3">
-        <v>2378400</v>
+        <v>2420900</v>
       </c>
       <c r="K23" s="3">
         <v>2068100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>260300</v>
+        <v>264900</v>
       </c>
       <c r="E24" s="3">
-        <v>-437000</v>
+        <v>-444800</v>
       </c>
       <c r="F24" s="3">
-        <v>-1973200</v>
+        <v>-2008400</v>
       </c>
       <c r="G24" s="3">
-        <v>650700</v>
+        <v>662300</v>
       </c>
       <c r="H24" s="3">
-        <v>622100</v>
+        <v>633200</v>
       </c>
       <c r="I24" s="3">
-        <v>829500</v>
+        <v>844300</v>
       </c>
       <c r="J24" s="3">
-        <v>470800</v>
+        <v>479200</v>
       </c>
       <c r="K24" s="3">
         <v>310300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>850600</v>
+        <v>865800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2320200</v>
+        <v>-2361600</v>
       </c>
       <c r="F26" s="3">
-        <v>-7158400</v>
+        <v>-7286300</v>
       </c>
       <c r="G26" s="3">
-        <v>1317200</v>
+        <v>1340700</v>
       </c>
       <c r="H26" s="3">
-        <v>2323400</v>
+        <v>2364900</v>
       </c>
       <c r="I26" s="3">
-        <v>2511700</v>
+        <v>2556600</v>
       </c>
       <c r="J26" s="3">
-        <v>1907600</v>
+        <v>1941700</v>
       </c>
       <c r="K26" s="3">
         <v>1757800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>836900</v>
+        <v>851800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2318100</v>
+        <v>-2359500</v>
       </c>
       <c r="F27" s="3">
-        <v>-7115100</v>
+        <v>-7242200</v>
       </c>
       <c r="G27" s="3">
-        <v>1283400</v>
+        <v>1306300</v>
       </c>
       <c r="H27" s="3">
-        <v>2288500</v>
+        <v>2329300</v>
       </c>
       <c r="I27" s="3">
-        <v>2475700</v>
+        <v>2519900</v>
       </c>
       <c r="J27" s="3">
-        <v>1879000</v>
+        <v>1912600</v>
       </c>
       <c r="K27" s="3">
         <v>1733300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-228500</v>
+        <v>-232600</v>
       </c>
       <c r="E32" s="3">
-        <v>-71900</v>
+        <v>-73200</v>
       </c>
       <c r="F32" s="3">
-        <v>1306600</v>
+        <v>1330000</v>
       </c>
       <c r="G32" s="3">
-        <v>-475000</v>
+        <v>-483500</v>
       </c>
       <c r="H32" s="3">
-        <v>-96300</v>
+        <v>-98000</v>
       </c>
       <c r="I32" s="3">
-        <v>-239100</v>
+        <v>-243400</v>
       </c>
       <c r="J32" s="3">
-        <v>-198900</v>
+        <v>-202500</v>
       </c>
       <c r="K32" s="3">
         <v>-648200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>836900</v>
+        <v>851800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2318100</v>
+        <v>-2359500</v>
       </c>
       <c r="F33" s="3">
-        <v>-7115100</v>
+        <v>-7242200</v>
       </c>
       <c r="G33" s="3">
-        <v>1283400</v>
+        <v>1306300</v>
       </c>
       <c r="H33" s="3">
-        <v>2288500</v>
+        <v>2329300</v>
       </c>
       <c r="I33" s="3">
-        <v>2475700</v>
+        <v>2519900</v>
       </c>
       <c r="J33" s="3">
-        <v>1879000</v>
+        <v>1912600</v>
       </c>
       <c r="K33" s="3">
         <v>1733300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>836900</v>
+        <v>851800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2318100</v>
+        <v>-2359500</v>
       </c>
       <c r="F35" s="3">
-        <v>-7115100</v>
+        <v>-7242200</v>
       </c>
       <c r="G35" s="3">
-        <v>1283400</v>
+        <v>1306300</v>
       </c>
       <c r="H35" s="3">
-        <v>2288500</v>
+        <v>2329300</v>
       </c>
       <c r="I35" s="3">
-        <v>2475700</v>
+        <v>2519900</v>
       </c>
       <c r="J35" s="3">
-        <v>1879000</v>
+        <v>1912600</v>
       </c>
       <c r="K35" s="3">
         <v>1733300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1893800</v>
+        <v>1927700</v>
       </c>
       <c r="E41" s="3">
-        <v>2440800</v>
+        <v>2484400</v>
       </c>
       <c r="F41" s="3">
-        <v>1910700</v>
+        <v>1944900</v>
       </c>
       <c r="G41" s="3">
-        <v>1497100</v>
+        <v>1523800</v>
       </c>
       <c r="H41" s="3">
-        <v>1517200</v>
+        <v>1544300</v>
       </c>
       <c r="I41" s="3">
-        <v>1288600</v>
+        <v>1311700</v>
       </c>
       <c r="J41" s="3">
-        <v>1204000</v>
+        <v>1225500</v>
       </c>
       <c r="K41" s="3">
         <v>1016700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6888600</v>
+        <v>7011700</v>
       </c>
       <c r="E42" s="3">
-        <v>5669800</v>
+        <v>5771100</v>
       </c>
       <c r="F42" s="3">
-        <v>3865900</v>
+        <v>3935000</v>
       </c>
       <c r="G42" s="3">
-        <v>2084300</v>
+        <v>2121500</v>
       </c>
       <c r="H42" s="3">
-        <v>1905500</v>
+        <v>1939500</v>
       </c>
       <c r="I42" s="3">
-        <v>2888300</v>
+        <v>2939900</v>
       </c>
       <c r="J42" s="3">
-        <v>2961300</v>
+        <v>3014200</v>
       </c>
       <c r="K42" s="3">
         <v>2140600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4946200</v>
+        <v>5034500</v>
       </c>
       <c r="E43" s="3">
-        <v>4352600</v>
+        <v>4430400</v>
       </c>
       <c r="F43" s="3">
-        <v>3456500</v>
+        <v>3518200</v>
       </c>
       <c r="G43" s="3">
-        <v>6186100</v>
+        <v>6296600</v>
       </c>
       <c r="H43" s="3">
-        <v>6208300</v>
+        <v>6319200</v>
       </c>
       <c r="I43" s="3">
-        <v>5682500</v>
+        <v>5784000</v>
       </c>
       <c r="J43" s="3">
-        <v>4874200</v>
+        <v>4961300</v>
       </c>
       <c r="K43" s="3">
         <v>4567100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>859100</v>
+        <v>874400</v>
       </c>
       <c r="E44" s="3">
-        <v>714200</v>
+        <v>726900</v>
       </c>
       <c r="F44" s="3">
-        <v>768100</v>
+        <v>781800</v>
       </c>
       <c r="G44" s="3">
-        <v>1036800</v>
+        <v>1055400</v>
       </c>
       <c r="H44" s="3">
-        <v>1024100</v>
+        <v>1042400</v>
       </c>
       <c r="I44" s="3">
-        <v>959600</v>
+        <v>976700</v>
       </c>
       <c r="J44" s="3">
-        <v>863300</v>
+        <v>878800</v>
       </c>
       <c r="K44" s="3">
         <v>776800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1552100</v>
+        <v>1579800</v>
       </c>
       <c r="E45" s="3">
-        <v>1079200</v>
+        <v>1098400</v>
       </c>
       <c r="F45" s="3">
-        <v>621000</v>
+        <v>632100</v>
       </c>
       <c r="G45" s="3">
-        <v>1135200</v>
+        <v>1155500</v>
       </c>
       <c r="H45" s="3">
-        <v>616800</v>
+        <v>627800</v>
       </c>
       <c r="I45" s="3">
-        <v>849600</v>
+        <v>864800</v>
       </c>
       <c r="J45" s="3">
-        <v>881300</v>
+        <v>897100</v>
       </c>
       <c r="K45" s="3">
         <v>620600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16139800</v>
+        <v>16428100</v>
       </c>
       <c r="E46" s="3">
-        <v>14256600</v>
+        <v>14511200</v>
       </c>
       <c r="F46" s="3">
-        <v>10622300</v>
+        <v>10812100</v>
       </c>
       <c r="G46" s="3">
-        <v>11939500</v>
+        <v>12152800</v>
       </c>
       <c r="H46" s="3">
-        <v>11271900</v>
+        <v>11473300</v>
       </c>
       <c r="I46" s="3">
-        <v>11668700</v>
+        <v>11877100</v>
       </c>
       <c r="J46" s="3">
-        <v>10784200</v>
+        <v>10976800</v>
       </c>
       <c r="K46" s="3">
         <v>9121900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1334100</v>
+        <v>1358000</v>
       </c>
       <c r="E47" s="3">
-        <v>1382800</v>
+        <v>1407500</v>
       </c>
       <c r="F47" s="3">
-        <v>1251600</v>
+        <v>1274000</v>
       </c>
       <c r="G47" s="3">
-        <v>1568000</v>
+        <v>1596000</v>
       </c>
       <c r="H47" s="3">
-        <v>1543600</v>
+        <v>1571200</v>
       </c>
       <c r="I47" s="3">
-        <v>1401900</v>
+        <v>1426900</v>
       </c>
       <c r="J47" s="3">
-        <v>1341500</v>
+        <v>1365500</v>
       </c>
       <c r="K47" s="3">
         <v>1297400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20335800</v>
+        <v>20699100</v>
       </c>
       <c r="E48" s="3">
-        <v>19755000</v>
+        <v>20107900</v>
       </c>
       <c r="F48" s="3">
-        <v>20644800</v>
+        <v>21013500</v>
       </c>
       <c r="G48" s="3">
-        <v>23688600</v>
+        <v>24111800</v>
       </c>
       <c r="H48" s="3">
-        <v>20098800</v>
+        <v>20457900</v>
       </c>
       <c r="I48" s="3">
-        <v>18536200</v>
+        <v>18867300</v>
       </c>
       <c r="J48" s="3">
-        <v>17982800</v>
+        <v>18304100</v>
       </c>
       <c r="K48" s="3">
         <v>17112700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1510800</v>
+        <v>1537800</v>
       </c>
       <c r="E49" s="3">
-        <v>1701300</v>
+        <v>1731700</v>
       </c>
       <c r="F49" s="3">
-        <v>1733000</v>
+        <v>1764000</v>
       </c>
       <c r="G49" s="3">
-        <v>2054600</v>
+        <v>2091300</v>
       </c>
       <c r="H49" s="3">
-        <v>2002800</v>
+        <v>2038600</v>
       </c>
       <c r="I49" s="3">
-        <v>1941400</v>
+        <v>1976100</v>
       </c>
       <c r="J49" s="3">
-        <v>1837700</v>
+        <v>1870600</v>
       </c>
       <c r="K49" s="3">
         <v>1691500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6527900</v>
+        <v>6644500</v>
       </c>
       <c r="E52" s="3">
-        <v>7909600</v>
+        <v>8050900</v>
       </c>
       <c r="F52" s="3">
-        <v>7522400</v>
+        <v>7656800</v>
       </c>
       <c r="G52" s="3">
-        <v>5882500</v>
+        <v>5987600</v>
       </c>
       <c r="H52" s="3">
-        <v>5512200</v>
+        <v>5610600</v>
       </c>
       <c r="I52" s="3">
-        <v>4306100</v>
+        <v>4383000</v>
       </c>
       <c r="J52" s="3">
-        <v>4763100</v>
+        <v>4848200</v>
       </c>
       <c r="K52" s="3">
         <v>3913700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45848400</v>
+        <v>46667500</v>
       </c>
       <c r="E54" s="3">
-        <v>45005200</v>
+        <v>45809200</v>
       </c>
       <c r="F54" s="3">
-        <v>41774100</v>
+        <v>42520300</v>
       </c>
       <c r="G54" s="3">
-        <v>45133200</v>
+        <v>45939500</v>
       </c>
       <c r="H54" s="3">
-        <v>40429400</v>
+        <v>41151600</v>
       </c>
       <c r="I54" s="3">
-        <v>37853100</v>
+        <v>38529300</v>
       </c>
       <c r="J54" s="3">
-        <v>36709400</v>
+        <v>37365200</v>
       </c>
       <c r="K54" s="3">
         <v>33137200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4275400</v>
+        <v>4351800</v>
       </c>
       <c r="E57" s="3">
-        <v>3048100</v>
+        <v>3102500</v>
       </c>
       <c r="F57" s="3">
-        <v>2208000</v>
+        <v>2247500</v>
       </c>
       <c r="G57" s="3">
-        <v>3937900</v>
+        <v>4008200</v>
       </c>
       <c r="H57" s="3">
-        <v>4138900</v>
+        <v>4212800</v>
       </c>
       <c r="I57" s="3">
-        <v>3630000</v>
+        <v>3694800</v>
       </c>
       <c r="J57" s="3">
-        <v>3244900</v>
+        <v>3302900</v>
       </c>
       <c r="K57" s="3">
         <v>3009300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2012300</v>
+        <v>2048300</v>
       </c>
       <c r="E58" s="3">
-        <v>1743600</v>
+        <v>1774700</v>
       </c>
       <c r="F58" s="3">
-        <v>3311500</v>
+        <v>3370700</v>
       </c>
       <c r="G58" s="3">
-        <v>1746800</v>
+        <v>1778000</v>
       </c>
       <c r="H58" s="3">
-        <v>1815500</v>
+        <v>1848000</v>
       </c>
       <c r="I58" s="3">
-        <v>730000</v>
+        <v>743100</v>
       </c>
       <c r="J58" s="3">
-        <v>875000</v>
+        <v>890600</v>
       </c>
       <c r="K58" s="3">
         <v>1438300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12447400</v>
+        <v>12669700</v>
       </c>
       <c r="E59" s="3">
-        <v>10741900</v>
+        <v>10933800</v>
       </c>
       <c r="F59" s="3">
-        <v>9989600</v>
+        <v>10168100</v>
       </c>
       <c r="G59" s="3">
-        <v>11228600</v>
+        <v>11429100</v>
       </c>
       <c r="H59" s="3">
-        <v>11201000</v>
+        <v>11401100</v>
       </c>
       <c r="I59" s="3">
-        <v>9011000</v>
+        <v>9172000</v>
       </c>
       <c r="J59" s="3">
-        <v>7527700</v>
+        <v>7662100</v>
       </c>
       <c r="K59" s="3">
         <v>8248100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18735100</v>
+        <v>19069700</v>
       </c>
       <c r="E60" s="3">
-        <v>15533600</v>
+        <v>15811000</v>
       </c>
       <c r="F60" s="3">
-        <v>15509200</v>
+        <v>15786300</v>
       </c>
       <c r="G60" s="3">
-        <v>16913200</v>
+        <v>17215300</v>
       </c>
       <c r="H60" s="3">
-        <v>17155500</v>
+        <v>17461900</v>
       </c>
       <c r="I60" s="3">
-        <v>13371000</v>
+        <v>13609900</v>
       </c>
       <c r="J60" s="3">
-        <v>11647500</v>
+        <v>11855600</v>
       </c>
       <c r="K60" s="3">
         <v>12695700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14039700</v>
+        <v>14290500</v>
       </c>
       <c r="E61" s="3">
-        <v>15913400</v>
+        <v>16197700</v>
       </c>
       <c r="F61" s="3">
-        <v>12962600</v>
+        <v>13194200</v>
       </c>
       <c r="G61" s="3">
-        <v>8883000</v>
+        <v>9041700</v>
       </c>
       <c r="H61" s="3">
-        <v>5298500</v>
+        <v>5393100</v>
       </c>
       <c r="I61" s="3">
-        <v>6498200</v>
+        <v>6614300</v>
       </c>
       <c r="J61" s="3">
-        <v>6148000</v>
+        <v>6257900</v>
       </c>
       <c r="K61" s="3">
         <v>5135600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4108200</v>
+        <v>4181600</v>
       </c>
       <c r="E62" s="3">
-        <v>8807900</v>
+        <v>8965200</v>
       </c>
       <c r="F62" s="3">
-        <v>11834800</v>
+        <v>12046200</v>
       </c>
       <c r="G62" s="3">
-        <v>8486200</v>
+        <v>8637800</v>
       </c>
       <c r="H62" s="3">
-        <v>7847200</v>
+        <v>7987400</v>
       </c>
       <c r="I62" s="3">
-        <v>8345500</v>
+        <v>8494600</v>
       </c>
       <c r="J62" s="3">
-        <v>11350200</v>
+        <v>11553000</v>
       </c>
       <c r="K62" s="3">
         <v>9339300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36955900</v>
+        <v>37616100</v>
       </c>
       <c r="E66" s="3">
-        <v>40297100</v>
+        <v>41017000</v>
       </c>
       <c r="F66" s="3">
-        <v>40348900</v>
+        <v>41069700</v>
       </c>
       <c r="G66" s="3">
-        <v>34397700</v>
+        <v>35012200</v>
       </c>
       <c r="H66" s="3">
-        <v>30417500</v>
+        <v>30960900</v>
       </c>
       <c r="I66" s="3">
-        <v>28323700</v>
+        <v>28829700</v>
       </c>
       <c r="J66" s="3">
-        <v>29239900</v>
+        <v>29762300</v>
       </c>
       <c r="K66" s="3">
         <v>27249200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3390900</v>
+        <v>3451500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1414500</v>
+        <v>-1439800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1584900</v>
+        <v>-1613200</v>
       </c>
       <c r="G72" s="3">
-        <v>7598600</v>
+        <v>7734300</v>
       </c>
       <c r="H72" s="3">
-        <v>7450400</v>
+        <v>7583500</v>
       </c>
       <c r="I72" s="3">
-        <v>6760600</v>
+        <v>6881400</v>
       </c>
       <c r="J72" s="3">
-        <v>3862800</v>
+        <v>3931800</v>
       </c>
       <c r="K72" s="3">
         <v>3703500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8892500</v>
+        <v>9051300</v>
       </c>
       <c r="E76" s="3">
-        <v>4708100</v>
+        <v>4792200</v>
       </c>
       <c r="F76" s="3">
-        <v>1425100</v>
+        <v>1450600</v>
       </c>
       <c r="G76" s="3">
-        <v>10735500</v>
+        <v>10927300</v>
       </c>
       <c r="H76" s="3">
-        <v>10011900</v>
+        <v>10190700</v>
       </c>
       <c r="I76" s="3">
-        <v>9529400</v>
+        <v>9699600</v>
       </c>
       <c r="J76" s="3">
-        <v>7469500</v>
+        <v>7602900</v>
       </c>
       <c r="K76" s="3">
         <v>5888000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>836900</v>
+        <v>851800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2318100</v>
+        <v>-2359500</v>
       </c>
       <c r="F81" s="3">
-        <v>-7115100</v>
+        <v>-7242200</v>
       </c>
       <c r="G81" s="3">
-        <v>1283400</v>
+        <v>1306300</v>
       </c>
       <c r="H81" s="3">
-        <v>2288500</v>
+        <v>2329300</v>
       </c>
       <c r="I81" s="3">
-        <v>2475700</v>
+        <v>2519900</v>
       </c>
       <c r="J81" s="3">
-        <v>1879000</v>
+        <v>1912600</v>
       </c>
       <c r="K81" s="3">
         <v>1733300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2615400</v>
+        <v>2662100</v>
       </c>
       <c r="E83" s="3">
-        <v>2420700</v>
+        <v>2463900</v>
       </c>
       <c r="F83" s="3">
-        <v>4647800</v>
+        <v>4730800</v>
       </c>
       <c r="G83" s="3">
-        <v>2896800</v>
+        <v>2948600</v>
       </c>
       <c r="H83" s="3">
-        <v>2304300</v>
+        <v>2345500</v>
       </c>
       <c r="I83" s="3">
-        <v>2433400</v>
+        <v>2476900</v>
       </c>
       <c r="J83" s="3">
-        <v>1867400</v>
+        <v>1900700</v>
       </c>
       <c r="K83" s="3">
         <v>1743500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5467700</v>
+        <v>5565400</v>
       </c>
       <c r="E89" s="3">
-        <v>422100</v>
+        <v>429700</v>
       </c>
       <c r="F89" s="3">
-        <v>-2463000</v>
+        <v>-2507000</v>
       </c>
       <c r="G89" s="3">
-        <v>4246800</v>
+        <v>4322700</v>
       </c>
       <c r="H89" s="3">
-        <v>4347300</v>
+        <v>4425000</v>
       </c>
       <c r="I89" s="3">
-        <v>5679300</v>
+        <v>5780800</v>
       </c>
       <c r="J89" s="3">
-        <v>3434300</v>
+        <v>3495600</v>
       </c>
       <c r="K89" s="3">
         <v>3463600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2502200</v>
+        <v>-2546900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1394400</v>
+        <v>-1419400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1321400</v>
+        <v>-1345000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3688200</v>
+        <v>-3754100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3924100</v>
+        <v>-3994200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3531600</v>
+        <v>-3594700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2285300</v>
+        <v>-2326100</v>
       </c>
       <c r="K91" s="3">
         <v>-2505000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3640600</v>
+        <v>-3705600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2967700</v>
+        <v>-3020700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2477800</v>
+        <v>-2522100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4091300</v>
+        <v>-4164400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3458600</v>
+        <v>-3520400</v>
       </c>
       <c r="I94" s="3">
-        <v>-5296300</v>
+        <v>-5391000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2993100</v>
+        <v>-3046600</v>
       </c>
       <c r="K94" s="3">
         <v>-3341100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="E96" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="F96" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G96" s="3">
-        <v>-438000</v>
+        <v>-445800</v>
       </c>
       <c r="H96" s="3">
-        <v>-369200</v>
+        <v>-375800</v>
       </c>
       <c r="I96" s="3">
-        <v>-245500</v>
+        <v>-249800</v>
       </c>
       <c r="J96" s="3">
-        <v>-246500</v>
+        <v>-250900</v>
       </c>
       <c r="K96" s="3">
         <v>-14300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2397400</v>
+        <v>-2440300</v>
       </c>
       <c r="E100" s="3">
-        <v>3040700</v>
+        <v>3095000</v>
       </c>
       <c r="F100" s="3">
-        <v>5370400</v>
+        <v>5466300</v>
       </c>
       <c r="G100" s="3">
-        <v>-170300</v>
+        <v>-173400</v>
       </c>
       <c r="H100" s="3">
-        <v>-662300</v>
+        <v>-674100</v>
       </c>
       <c r="I100" s="3">
-        <v>-259200</v>
+        <v>-263800</v>
       </c>
       <c r="J100" s="3">
-        <v>-287800</v>
+        <v>-292900</v>
       </c>
       <c r="K100" s="3">
         <v>26500</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="E101" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="F101" s="3">
-        <v>-34900</v>
+        <v>-35500</v>
       </c>
       <c r="G101" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-39100</v>
+        <v>-39800</v>
       </c>
       <c r="J101" s="3">
         <v>-3200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-551200</v>
+        <v>-561100</v>
       </c>
       <c r="E102" s="3">
-        <v>530100</v>
+        <v>539500</v>
       </c>
       <c r="F102" s="3">
-        <v>394600</v>
+        <v>401700</v>
       </c>
       <c r="G102" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="H102" s="3">
-        <v>228500</v>
+        <v>232600</v>
       </c>
       <c r="I102" s="3">
-        <v>84600</v>
+        <v>86200</v>
       </c>
       <c r="J102" s="3">
-        <v>150200</v>
+        <v>152900</v>
       </c>
       <c r="K102" s="3">
         <v>171500</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35290000</v>
+        <v>35526000</v>
       </c>
       <c r="E8" s="3">
-        <v>18103800</v>
+        <v>18224800</v>
       </c>
       <c r="F8" s="3">
-        <v>14634000</v>
+        <v>14731800</v>
       </c>
       <c r="G8" s="3">
-        <v>39225000</v>
+        <v>39487300</v>
       </c>
       <c r="H8" s="3">
-        <v>38275200</v>
+        <v>38531100</v>
       </c>
       <c r="I8" s="3">
-        <v>38315000</v>
+        <v>38571200</v>
       </c>
       <c r="J8" s="3">
-        <v>34094700</v>
+        <v>34322600</v>
       </c>
       <c r="K8" s="3">
         <v>32722800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19685700</v>
+        <v>19817300</v>
       </c>
       <c r="E9" s="3">
-        <v>9516600</v>
+        <v>9580200</v>
       </c>
       <c r="F9" s="3">
-        <v>8914600</v>
+        <v>8974200</v>
       </c>
       <c r="G9" s="3">
-        <v>20614000</v>
+        <v>20751800</v>
       </c>
       <c r="H9" s="3">
-        <v>19207600</v>
+        <v>19336000</v>
       </c>
       <c r="I9" s="3">
-        <v>20019600</v>
+        <v>20153400</v>
       </c>
       <c r="J9" s="3">
-        <v>18322400</v>
+        <v>18444900</v>
       </c>
       <c r="K9" s="3">
         <v>17799700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15604300</v>
+        <v>15708600</v>
       </c>
       <c r="E10" s="3">
-        <v>8587200</v>
+        <v>8644600</v>
       </c>
       <c r="F10" s="3">
-        <v>5719400</v>
+        <v>5757700</v>
       </c>
       <c r="G10" s="3">
-        <v>18611000</v>
+        <v>18735400</v>
       </c>
       <c r="H10" s="3">
-        <v>19067600</v>
+        <v>19195100</v>
       </c>
       <c r="I10" s="3">
-        <v>18295500</v>
+        <v>18417800</v>
       </c>
       <c r="J10" s="3">
-        <v>15772300</v>
+        <v>15877700</v>
       </c>
       <c r="K10" s="3">
         <v>14923100</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>312300</v>
+        <v>314400</v>
       </c>
       <c r="E14" s="3">
-        <v>-289700</v>
+        <v>-291600</v>
       </c>
       <c r="F14" s="3">
-        <v>1856600</v>
+        <v>1869000</v>
       </c>
       <c r="G14" s="3">
-        <v>95800</v>
+        <v>96500</v>
       </c>
       <c r="H14" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="I14" s="3">
-        <v>280000</v>
+        <v>281900</v>
       </c>
       <c r="J14" s="3">
-        <v>188500</v>
+        <v>189700</v>
       </c>
       <c r="K14" s="3">
         <v>158200</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2451000</v>
+        <v>2467400</v>
       </c>
       <c r="E15" s="3">
-        <v>2432700</v>
+        <v>2449000</v>
       </c>
       <c r="F15" s="3">
-        <v>2757900</v>
+        <v>2776400</v>
       </c>
       <c r="G15" s="3">
-        <v>2899000</v>
+        <v>2918400</v>
       </c>
       <c r="H15" s="3">
-        <v>2348700</v>
+        <v>2364400</v>
       </c>
       <c r="I15" s="3">
-        <v>2195800</v>
+        <v>2210500</v>
       </c>
       <c r="J15" s="3">
-        <v>1708000</v>
+        <v>1719400</v>
       </c>
       <c r="K15" s="3">
         <v>1588400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33963300</v>
+        <v>34190300</v>
       </c>
       <c r="E17" s="3">
-        <v>20600000</v>
+        <v>20737700</v>
       </c>
       <c r="F17" s="3">
-        <v>22268100</v>
+        <v>22417000</v>
       </c>
       <c r="G17" s="3">
-        <v>37406100</v>
+        <v>37656200</v>
       </c>
       <c r="H17" s="3">
-        <v>35259900</v>
+        <v>35495600</v>
       </c>
       <c r="I17" s="3">
-        <v>34933600</v>
+        <v>35167100</v>
       </c>
       <c r="J17" s="3">
-        <v>31736200</v>
+        <v>31948400</v>
       </c>
       <c r="K17" s="3">
         <v>31135400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1326700</v>
+        <v>1335600</v>
       </c>
       <c r="E18" s="3">
-        <v>-2496300</v>
+        <v>-2512900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7634100</v>
+        <v>-7685200</v>
       </c>
       <c r="G18" s="3">
-        <v>1818900</v>
+        <v>1831000</v>
       </c>
       <c r="H18" s="3">
-        <v>3015300</v>
+        <v>3035500</v>
       </c>
       <c r="I18" s="3">
-        <v>3381500</v>
+        <v>3404100</v>
       </c>
       <c r="J18" s="3">
-        <v>2358400</v>
+        <v>2374200</v>
       </c>
       <c r="K18" s="3">
         <v>1587300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>232600</v>
+        <v>234200</v>
       </c>
       <c r="E20" s="3">
-        <v>73200</v>
+        <v>73700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1330000</v>
+        <v>-1338900</v>
       </c>
       <c r="G20" s="3">
-        <v>483500</v>
+        <v>486800</v>
       </c>
       <c r="H20" s="3">
-        <v>98000</v>
+        <v>98700</v>
       </c>
       <c r="I20" s="3">
-        <v>243400</v>
+        <v>245000</v>
       </c>
       <c r="J20" s="3">
-        <v>202500</v>
+        <v>203800</v>
       </c>
       <c r="K20" s="3">
         <v>648200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4238800</v>
+        <v>4249700</v>
       </c>
       <c r="E21" s="3">
-        <v>57000</v>
+        <v>41200</v>
       </c>
       <c r="F21" s="3">
-        <v>-4202500</v>
+        <v>-4261600</v>
       </c>
       <c r="G21" s="3">
-        <v>5270200</v>
+        <v>5286100</v>
       </c>
       <c r="H21" s="3">
-        <v>5474100</v>
+        <v>5495300</v>
       </c>
       <c r="I21" s="3">
-        <v>6117800</v>
+        <v>6142500</v>
       </c>
       <c r="J21" s="3">
-        <v>4474000</v>
+        <v>4491400</v>
       </c>
       <c r="K21" s="3">
         <v>3945400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>428600</v>
+        <v>431500</v>
       </c>
       <c r="E22" s="3">
-        <v>383400</v>
+        <v>385900</v>
       </c>
       <c r="F22" s="3">
-        <v>330600</v>
+        <v>332800</v>
       </c>
       <c r="G22" s="3">
-        <v>299400</v>
+        <v>301400</v>
       </c>
       <c r="H22" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="I22" s="3">
-        <v>224000</v>
+        <v>225500</v>
       </c>
       <c r="J22" s="3">
-        <v>140000</v>
+        <v>140900</v>
       </c>
       <c r="K22" s="3">
         <v>167400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1130700</v>
+        <v>1138300</v>
       </c>
       <c r="E23" s="3">
-        <v>-2806400</v>
+        <v>-2825200</v>
       </c>
       <c r="F23" s="3">
-        <v>-9294700</v>
+        <v>-9356900</v>
       </c>
       <c r="G23" s="3">
-        <v>2003000</v>
+        <v>2016400</v>
       </c>
       <c r="H23" s="3">
-        <v>2998100</v>
+        <v>3018100</v>
       </c>
       <c r="I23" s="3">
-        <v>3400900</v>
+        <v>3423600</v>
       </c>
       <c r="J23" s="3">
-        <v>2420900</v>
+        <v>2437100</v>
       </c>
       <c r="K23" s="3">
         <v>2068100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>264900</v>
+        <v>266700</v>
       </c>
       <c r="E24" s="3">
-        <v>-444800</v>
+        <v>-447700</v>
       </c>
       <c r="F24" s="3">
-        <v>-2008400</v>
+        <v>-2021800</v>
       </c>
       <c r="G24" s="3">
-        <v>662300</v>
+        <v>666700</v>
       </c>
       <c r="H24" s="3">
-        <v>633200</v>
+        <v>637500</v>
       </c>
       <c r="I24" s="3">
-        <v>844300</v>
+        <v>849900</v>
       </c>
       <c r="J24" s="3">
-        <v>479200</v>
+        <v>482400</v>
       </c>
       <c r="K24" s="3">
         <v>310300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>865800</v>
+        <v>871600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2361600</v>
+        <v>-2377400</v>
       </c>
       <c r="F26" s="3">
-        <v>-7286300</v>
+        <v>-7335000</v>
       </c>
       <c r="G26" s="3">
-        <v>1340700</v>
+        <v>1349700</v>
       </c>
       <c r="H26" s="3">
-        <v>2364900</v>
+        <v>2380700</v>
       </c>
       <c r="I26" s="3">
-        <v>2556600</v>
+        <v>2573700</v>
       </c>
       <c r="J26" s="3">
-        <v>1941700</v>
+        <v>1954600</v>
       </c>
       <c r="K26" s="3">
         <v>1757800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>851800</v>
+        <v>857500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2359500</v>
+        <v>-2375300</v>
       </c>
       <c r="F27" s="3">
-        <v>-7242200</v>
+        <v>-7290600</v>
       </c>
       <c r="G27" s="3">
-        <v>1306300</v>
+        <v>1315000</v>
       </c>
       <c r="H27" s="3">
-        <v>2329300</v>
+        <v>2344900</v>
       </c>
       <c r="I27" s="3">
-        <v>2519900</v>
+        <v>2536800</v>
       </c>
       <c r="J27" s="3">
-        <v>1912600</v>
+        <v>1925400</v>
       </c>
       <c r="K27" s="3">
         <v>1733300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-232600</v>
+        <v>-234200</v>
       </c>
       <c r="E32" s="3">
-        <v>-73200</v>
+        <v>-73700</v>
       </c>
       <c r="F32" s="3">
-        <v>1330000</v>
+        <v>1338900</v>
       </c>
       <c r="G32" s="3">
-        <v>-483500</v>
+        <v>-486800</v>
       </c>
       <c r="H32" s="3">
-        <v>-98000</v>
+        <v>-98700</v>
       </c>
       <c r="I32" s="3">
-        <v>-243400</v>
+        <v>-245000</v>
       </c>
       <c r="J32" s="3">
-        <v>-202500</v>
+        <v>-203800</v>
       </c>
       <c r="K32" s="3">
         <v>-648200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>851800</v>
+        <v>857500</v>
       </c>
       <c r="E33" s="3">
-        <v>-2359500</v>
+        <v>-2375300</v>
       </c>
       <c r="F33" s="3">
-        <v>-7242200</v>
+        <v>-7290600</v>
       </c>
       <c r="G33" s="3">
-        <v>1306300</v>
+        <v>1315000</v>
       </c>
       <c r="H33" s="3">
-        <v>2329300</v>
+        <v>2344900</v>
       </c>
       <c r="I33" s="3">
-        <v>2519900</v>
+        <v>2536800</v>
       </c>
       <c r="J33" s="3">
-        <v>1912600</v>
+        <v>1925400</v>
       </c>
       <c r="K33" s="3">
         <v>1733300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>851800</v>
+        <v>857500</v>
       </c>
       <c r="E35" s="3">
-        <v>-2359500</v>
+        <v>-2375300</v>
       </c>
       <c r="F35" s="3">
-        <v>-7242200</v>
+        <v>-7290600</v>
       </c>
       <c r="G35" s="3">
-        <v>1306300</v>
+        <v>1315000</v>
       </c>
       <c r="H35" s="3">
-        <v>2329300</v>
+        <v>2344900</v>
       </c>
       <c r="I35" s="3">
-        <v>2519900</v>
+        <v>2536800</v>
       </c>
       <c r="J35" s="3">
-        <v>1912600</v>
+        <v>1925400</v>
       </c>
       <c r="K35" s="3">
         <v>1733300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1927700</v>
+        <v>1940500</v>
       </c>
       <c r="E41" s="3">
-        <v>2484400</v>
+        <v>2501000</v>
       </c>
       <c r="F41" s="3">
-        <v>1944900</v>
+        <v>1957900</v>
       </c>
       <c r="G41" s="3">
-        <v>1523800</v>
+        <v>1534000</v>
       </c>
       <c r="H41" s="3">
-        <v>1544300</v>
+        <v>1554600</v>
       </c>
       <c r="I41" s="3">
-        <v>1311700</v>
+        <v>1320400</v>
       </c>
       <c r="J41" s="3">
-        <v>1225500</v>
+        <v>1233700</v>
       </c>
       <c r="K41" s="3">
         <v>1016700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7011700</v>
+        <v>7058600</v>
       </c>
       <c r="E42" s="3">
-        <v>5771100</v>
+        <v>5809700</v>
       </c>
       <c r="F42" s="3">
-        <v>3935000</v>
+        <v>3961300</v>
       </c>
       <c r="G42" s="3">
-        <v>2121500</v>
+        <v>2135700</v>
       </c>
       <c r="H42" s="3">
-        <v>1939500</v>
+        <v>1952500</v>
       </c>
       <c r="I42" s="3">
-        <v>2939900</v>
+        <v>2959600</v>
       </c>
       <c r="J42" s="3">
-        <v>3014200</v>
+        <v>3034400</v>
       </c>
       <c r="K42" s="3">
         <v>2140600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5034500</v>
+        <v>5068200</v>
       </c>
       <c r="E43" s="3">
-        <v>4430400</v>
+        <v>4460000</v>
       </c>
       <c r="F43" s="3">
-        <v>3518200</v>
+        <v>3541800</v>
       </c>
       <c r="G43" s="3">
-        <v>6296600</v>
+        <v>6338700</v>
       </c>
       <c r="H43" s="3">
-        <v>6319200</v>
+        <v>6361500</v>
       </c>
       <c r="I43" s="3">
-        <v>5784000</v>
+        <v>5822700</v>
       </c>
       <c r="J43" s="3">
-        <v>4961300</v>
+        <v>4994400</v>
       </c>
       <c r="K43" s="3">
         <v>4567100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>874400</v>
+        <v>880300</v>
       </c>
       <c r="E44" s="3">
-        <v>726900</v>
+        <v>731800</v>
       </c>
       <c r="F44" s="3">
-        <v>781800</v>
+        <v>787100</v>
       </c>
       <c r="G44" s="3">
-        <v>1055400</v>
+        <v>1062400</v>
       </c>
       <c r="H44" s="3">
-        <v>1042400</v>
+        <v>1049400</v>
       </c>
       <c r="I44" s="3">
-        <v>976700</v>
+        <v>983300</v>
       </c>
       <c r="J44" s="3">
-        <v>878800</v>
+        <v>884600</v>
       </c>
       <c r="K44" s="3">
         <v>776800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1579800</v>
+        <v>1590400</v>
       </c>
       <c r="E45" s="3">
-        <v>1098400</v>
+        <v>1105800</v>
       </c>
       <c r="F45" s="3">
-        <v>632100</v>
+        <v>636400</v>
       </c>
       <c r="G45" s="3">
-        <v>1155500</v>
+        <v>1163200</v>
       </c>
       <c r="H45" s="3">
-        <v>627800</v>
+        <v>632000</v>
       </c>
       <c r="I45" s="3">
-        <v>864800</v>
+        <v>870500</v>
       </c>
       <c r="J45" s="3">
-        <v>897100</v>
+        <v>903100</v>
       </c>
       <c r="K45" s="3">
         <v>620600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16428100</v>
+        <v>16537900</v>
       </c>
       <c r="E46" s="3">
-        <v>14511200</v>
+        <v>14608200</v>
       </c>
       <c r="F46" s="3">
-        <v>10812100</v>
+        <v>10884400</v>
       </c>
       <c r="G46" s="3">
-        <v>12152800</v>
+        <v>12234100</v>
       </c>
       <c r="H46" s="3">
-        <v>11473300</v>
+        <v>11550000</v>
       </c>
       <c r="I46" s="3">
-        <v>11877100</v>
+        <v>11956500</v>
       </c>
       <c r="J46" s="3">
-        <v>10976800</v>
+        <v>11050200</v>
       </c>
       <c r="K46" s="3">
         <v>9121900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1358000</v>
+        <v>1367100</v>
       </c>
       <c r="E47" s="3">
-        <v>1407500</v>
+        <v>1416900</v>
       </c>
       <c r="F47" s="3">
-        <v>1274000</v>
+        <v>1282500</v>
       </c>
       <c r="G47" s="3">
-        <v>1596000</v>
+        <v>1606600</v>
       </c>
       <c r="H47" s="3">
-        <v>1571200</v>
+        <v>1581700</v>
       </c>
       <c r="I47" s="3">
-        <v>1426900</v>
+        <v>1436400</v>
       </c>
       <c r="J47" s="3">
-        <v>1365500</v>
+        <v>1374600</v>
       </c>
       <c r="K47" s="3">
         <v>1297400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20699100</v>
+        <v>20837500</v>
       </c>
       <c r="E48" s="3">
-        <v>20107900</v>
+        <v>20242300</v>
       </c>
       <c r="F48" s="3">
-        <v>21013500</v>
+        <v>21154000</v>
       </c>
       <c r="G48" s="3">
-        <v>24111800</v>
+        <v>24273000</v>
       </c>
       <c r="H48" s="3">
-        <v>20457900</v>
+        <v>20594600</v>
       </c>
       <c r="I48" s="3">
-        <v>18867300</v>
+        <v>18993400</v>
       </c>
       <c r="J48" s="3">
-        <v>18304100</v>
+        <v>18426400</v>
       </c>
       <c r="K48" s="3">
         <v>17112700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1537800</v>
+        <v>1548100</v>
       </c>
       <c r="E49" s="3">
-        <v>1731700</v>
+        <v>1743200</v>
       </c>
       <c r="F49" s="3">
-        <v>1764000</v>
+        <v>1775800</v>
       </c>
       <c r="G49" s="3">
-        <v>2091300</v>
+        <v>2105300</v>
       </c>
       <c r="H49" s="3">
-        <v>2038600</v>
+        <v>2052200</v>
       </c>
       <c r="I49" s="3">
-        <v>1976100</v>
+        <v>1989300</v>
       </c>
       <c r="J49" s="3">
-        <v>1870600</v>
+        <v>1883100</v>
       </c>
       <c r="K49" s="3">
         <v>1691500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6644500</v>
+        <v>6688900</v>
       </c>
       <c r="E52" s="3">
-        <v>8050900</v>
+        <v>8104700</v>
       </c>
       <c r="F52" s="3">
-        <v>7656800</v>
+        <v>7708000</v>
       </c>
       <c r="G52" s="3">
-        <v>5987600</v>
+        <v>6027600</v>
       </c>
       <c r="H52" s="3">
-        <v>5610600</v>
+        <v>5648200</v>
       </c>
       <c r="I52" s="3">
-        <v>4383000</v>
+        <v>4412300</v>
       </c>
       <c r="J52" s="3">
-        <v>4848200</v>
+        <v>4880600</v>
       </c>
       <c r="K52" s="3">
         <v>3913700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46667500</v>
+        <v>46979500</v>
       </c>
       <c r="E54" s="3">
-        <v>45809200</v>
+        <v>46115400</v>
       </c>
       <c r="F54" s="3">
-        <v>42520300</v>
+        <v>42804600</v>
       </c>
       <c r="G54" s="3">
-        <v>45939500</v>
+        <v>46246600</v>
       </c>
       <c r="H54" s="3">
-        <v>41151600</v>
+        <v>41426700</v>
       </c>
       <c r="I54" s="3">
-        <v>38529300</v>
+        <v>38786900</v>
       </c>
       <c r="J54" s="3">
-        <v>37365200</v>
+        <v>37615000</v>
       </c>
       <c r="K54" s="3">
         <v>33137200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4351800</v>
+        <v>4380800</v>
       </c>
       <c r="E57" s="3">
-        <v>3102500</v>
+        <v>3123300</v>
       </c>
       <c r="F57" s="3">
-        <v>2247500</v>
+        <v>2262500</v>
       </c>
       <c r="G57" s="3">
-        <v>4008200</v>
+        <v>4035000</v>
       </c>
       <c r="H57" s="3">
-        <v>4212800</v>
+        <v>4241000</v>
       </c>
       <c r="I57" s="3">
-        <v>3694800</v>
+        <v>3719500</v>
       </c>
       <c r="J57" s="3">
-        <v>3302900</v>
+        <v>3324900</v>
       </c>
       <c r="K57" s="3">
         <v>3009300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2048300</v>
+        <v>2062000</v>
       </c>
       <c r="E58" s="3">
-        <v>1774700</v>
+        <v>1786600</v>
       </c>
       <c r="F58" s="3">
-        <v>3370700</v>
+        <v>3393200</v>
       </c>
       <c r="G58" s="3">
-        <v>1778000</v>
+        <v>1789800</v>
       </c>
       <c r="H58" s="3">
-        <v>1848000</v>
+        <v>1860300</v>
       </c>
       <c r="I58" s="3">
-        <v>743100</v>
+        <v>748000</v>
       </c>
       <c r="J58" s="3">
-        <v>890600</v>
+        <v>896600</v>
       </c>
       <c r="K58" s="3">
         <v>1438300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12669700</v>
+        <v>12754400</v>
       </c>
       <c r="E59" s="3">
-        <v>10933800</v>
+        <v>11006900</v>
       </c>
       <c r="F59" s="3">
-        <v>10168100</v>
+        <v>10236100</v>
       </c>
       <c r="G59" s="3">
-        <v>11429100</v>
+        <v>11505600</v>
       </c>
       <c r="H59" s="3">
-        <v>11401100</v>
+        <v>11477400</v>
       </c>
       <c r="I59" s="3">
-        <v>9172000</v>
+        <v>9233300</v>
       </c>
       <c r="J59" s="3">
-        <v>7662100</v>
+        <v>7713400</v>
       </c>
       <c r="K59" s="3">
         <v>8248100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19069700</v>
+        <v>19197200</v>
       </c>
       <c r="E60" s="3">
-        <v>15811000</v>
+        <v>15916800</v>
       </c>
       <c r="F60" s="3">
-        <v>15786300</v>
+        <v>15891800</v>
       </c>
       <c r="G60" s="3">
-        <v>17215300</v>
+        <v>17330400</v>
       </c>
       <c r="H60" s="3">
-        <v>17461900</v>
+        <v>17578700</v>
       </c>
       <c r="I60" s="3">
-        <v>13609900</v>
+        <v>13700900</v>
       </c>
       <c r="J60" s="3">
-        <v>11855600</v>
+        <v>11934900</v>
       </c>
       <c r="K60" s="3">
         <v>12695700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14290500</v>
+        <v>14386000</v>
       </c>
       <c r="E61" s="3">
-        <v>16197700</v>
+        <v>16305900</v>
       </c>
       <c r="F61" s="3">
-        <v>13194200</v>
+        <v>13282400</v>
       </c>
       <c r="G61" s="3">
-        <v>9041700</v>
+        <v>9102100</v>
       </c>
       <c r="H61" s="3">
-        <v>5393100</v>
+        <v>5429200</v>
       </c>
       <c r="I61" s="3">
-        <v>6614300</v>
+        <v>6658500</v>
       </c>
       <c r="J61" s="3">
-        <v>6257900</v>
+        <v>6299700</v>
       </c>
       <c r="K61" s="3">
         <v>5135600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4181600</v>
+        <v>4209600</v>
       </c>
       <c r="E62" s="3">
-        <v>8965200</v>
+        <v>9025100</v>
       </c>
       <c r="F62" s="3">
-        <v>12046200</v>
+        <v>12126700</v>
       </c>
       <c r="G62" s="3">
-        <v>8637800</v>
+        <v>8695600</v>
       </c>
       <c r="H62" s="3">
-        <v>7987400</v>
+        <v>8040800</v>
       </c>
       <c r="I62" s="3">
-        <v>8494600</v>
+        <v>8551400</v>
       </c>
       <c r="J62" s="3">
-        <v>11553000</v>
+        <v>11630200</v>
       </c>
       <c r="K62" s="3">
         <v>9339300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37616100</v>
+        <v>37867600</v>
       </c>
       <c r="E66" s="3">
-        <v>41017000</v>
+        <v>41291200</v>
       </c>
       <c r="F66" s="3">
-        <v>41069700</v>
+        <v>41344300</v>
       </c>
       <c r="G66" s="3">
-        <v>35012200</v>
+        <v>35246300</v>
       </c>
       <c r="H66" s="3">
-        <v>30960900</v>
+        <v>31167900</v>
       </c>
       <c r="I66" s="3">
-        <v>28829700</v>
+        <v>29022400</v>
       </c>
       <c r="J66" s="3">
-        <v>29762300</v>
+        <v>29961300</v>
       </c>
       <c r="K66" s="3">
         <v>27249200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3451500</v>
+        <v>3474500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1439800</v>
+        <v>-1449400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1613200</v>
+        <v>-1624000</v>
       </c>
       <c r="G72" s="3">
-        <v>7734300</v>
+        <v>7786000</v>
       </c>
       <c r="H72" s="3">
-        <v>7583500</v>
+        <v>7634200</v>
       </c>
       <c r="I72" s="3">
-        <v>6881400</v>
+        <v>6927400</v>
       </c>
       <c r="J72" s="3">
-        <v>3931800</v>
+        <v>3958000</v>
       </c>
       <c r="K72" s="3">
         <v>3703500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9051300</v>
+        <v>9111900</v>
       </c>
       <c r="E76" s="3">
-        <v>4792200</v>
+        <v>4824200</v>
       </c>
       <c r="F76" s="3">
-        <v>1450600</v>
+        <v>1460300</v>
       </c>
       <c r="G76" s="3">
-        <v>10927300</v>
+        <v>11000400</v>
       </c>
       <c r="H76" s="3">
-        <v>10190700</v>
+        <v>10258800</v>
       </c>
       <c r="I76" s="3">
-        <v>9699600</v>
+        <v>9764500</v>
       </c>
       <c r="J76" s="3">
-        <v>7602900</v>
+        <v>7653700</v>
       </c>
       <c r="K76" s="3">
         <v>5888000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>851800</v>
+        <v>857500</v>
       </c>
       <c r="E81" s="3">
-        <v>-2359500</v>
+        <v>-2375300</v>
       </c>
       <c r="F81" s="3">
-        <v>-7242200</v>
+        <v>-7290600</v>
       </c>
       <c r="G81" s="3">
-        <v>1306300</v>
+        <v>1315000</v>
       </c>
       <c r="H81" s="3">
-        <v>2329300</v>
+        <v>2344900</v>
       </c>
       <c r="I81" s="3">
-        <v>2519900</v>
+        <v>2536800</v>
       </c>
       <c r="J81" s="3">
-        <v>1912600</v>
+        <v>1925400</v>
       </c>
       <c r="K81" s="3">
         <v>1733300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2662100</v>
+        <v>2679900</v>
       </c>
       <c r="E83" s="3">
-        <v>2463900</v>
+        <v>2480400</v>
       </c>
       <c r="F83" s="3">
-        <v>4730800</v>
+        <v>4762500</v>
       </c>
       <c r="G83" s="3">
-        <v>2948600</v>
+        <v>2968300</v>
       </c>
       <c r="H83" s="3">
-        <v>2345500</v>
+        <v>2361200</v>
       </c>
       <c r="I83" s="3">
-        <v>2476900</v>
+        <v>2493400</v>
       </c>
       <c r="J83" s="3">
-        <v>1900700</v>
+        <v>1913400</v>
       </c>
       <c r="K83" s="3">
         <v>1743500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5565400</v>
+        <v>5602600</v>
       </c>
       <c r="E89" s="3">
-        <v>429700</v>
+        <v>432600</v>
       </c>
       <c r="F89" s="3">
-        <v>-2507000</v>
+        <v>-2523800</v>
       </c>
       <c r="G89" s="3">
-        <v>4322700</v>
+        <v>4351600</v>
       </c>
       <c r="H89" s="3">
-        <v>4425000</v>
+        <v>4454600</v>
       </c>
       <c r="I89" s="3">
-        <v>5780800</v>
+        <v>5819400</v>
       </c>
       <c r="J89" s="3">
-        <v>3495600</v>
+        <v>3519000</v>
       </c>
       <c r="K89" s="3">
         <v>3463600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2546900</v>
+        <v>-2563900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1419400</v>
+        <v>-1428800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1345000</v>
+        <v>-1354000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3754100</v>
+        <v>-3779200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3994200</v>
+        <v>-4020900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3594700</v>
+        <v>-3618700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2326100</v>
+        <v>-2341700</v>
       </c>
       <c r="K91" s="3">
         <v>-2505000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3705600</v>
+        <v>-3730400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3020700</v>
+        <v>-3040900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2522100</v>
+        <v>-2539000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4164400</v>
+        <v>-4192200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3520400</v>
+        <v>-3543900</v>
       </c>
       <c r="I94" s="3">
-        <v>-5391000</v>
+        <v>-5427000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3046600</v>
+        <v>-3066900</v>
       </c>
       <c r="K94" s="3">
         <v>-3341100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E96" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="F96" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="G96" s="3">
-        <v>-445800</v>
+        <v>-448800</v>
       </c>
       <c r="H96" s="3">
-        <v>-375800</v>
+        <v>-378400</v>
       </c>
       <c r="I96" s="3">
-        <v>-249800</v>
+        <v>-251500</v>
       </c>
       <c r="J96" s="3">
-        <v>-250900</v>
+        <v>-252600</v>
       </c>
       <c r="K96" s="3">
         <v>-14300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2440300</v>
+        <v>-2456600</v>
       </c>
       <c r="E100" s="3">
-        <v>3095000</v>
+        <v>3115700</v>
       </c>
       <c r="F100" s="3">
-        <v>5466300</v>
+        <v>5502900</v>
       </c>
       <c r="G100" s="3">
-        <v>-173400</v>
+        <v>-174500</v>
       </c>
       <c r="H100" s="3">
-        <v>-674100</v>
+        <v>-678600</v>
       </c>
       <c r="I100" s="3">
-        <v>-263800</v>
+        <v>-265600</v>
       </c>
       <c r="J100" s="3">
-        <v>-292900</v>
+        <v>-294900</v>
       </c>
       <c r="K100" s="3">
         <v>26500</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="E101" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="F101" s="3">
-        <v>-35500</v>
+        <v>-35800</v>
       </c>
       <c r="G101" s="3">
         <v>-5400</v>
@@ -4222,10 +4222,10 @@
         <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-39800</v>
+        <v>-40100</v>
       </c>
       <c r="J101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K101" s="3">
         <v>22500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-561100</v>
+        <v>-564800</v>
       </c>
       <c r="E102" s="3">
-        <v>539500</v>
+        <v>543100</v>
       </c>
       <c r="F102" s="3">
-        <v>401700</v>
+        <v>404400</v>
       </c>
       <c r="G102" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="H102" s="3">
-        <v>232600</v>
+        <v>234200</v>
       </c>
       <c r="I102" s="3">
-        <v>86200</v>
+        <v>86700</v>
       </c>
       <c r="J102" s="3">
-        <v>152900</v>
+        <v>153900</v>
       </c>
       <c r="K102" s="3">
         <v>171500</v>

--- a/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DLAKY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35526000</v>
+        <v>35555500</v>
       </c>
       <c r="E8" s="3">
-        <v>18224800</v>
+        <v>18239900</v>
       </c>
       <c r="F8" s="3">
-        <v>14731800</v>
+        <v>14744100</v>
       </c>
       <c r="G8" s="3">
-        <v>39487300</v>
+        <v>39520000</v>
       </c>
       <c r="H8" s="3">
-        <v>38531100</v>
+        <v>38563100</v>
       </c>
       <c r="I8" s="3">
-        <v>38571200</v>
+        <v>38603200</v>
       </c>
       <c r="J8" s="3">
-        <v>34322600</v>
+        <v>34351100</v>
       </c>
       <c r="K8" s="3">
         <v>32722800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19817300</v>
+        <v>19833800</v>
       </c>
       <c r="E9" s="3">
-        <v>9580200</v>
+        <v>9588100</v>
       </c>
       <c r="F9" s="3">
-        <v>8974200</v>
+        <v>8981600</v>
       </c>
       <c r="G9" s="3">
-        <v>20751800</v>
+        <v>20769100</v>
       </c>
       <c r="H9" s="3">
-        <v>19336000</v>
+        <v>19352100</v>
       </c>
       <c r="I9" s="3">
-        <v>20153400</v>
+        <v>20170200</v>
       </c>
       <c r="J9" s="3">
-        <v>18444900</v>
+        <v>18460200</v>
       </c>
       <c r="K9" s="3">
         <v>17799700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15708600</v>
+        <v>15721700</v>
       </c>
       <c r="E10" s="3">
-        <v>8644600</v>
+        <v>8651800</v>
       </c>
       <c r="F10" s="3">
-        <v>5757700</v>
+        <v>5762400</v>
       </c>
       <c r="G10" s="3">
-        <v>18735400</v>
+        <v>18751000</v>
       </c>
       <c r="H10" s="3">
-        <v>19195100</v>
+        <v>19211000</v>
       </c>
       <c r="I10" s="3">
-        <v>18417800</v>
+        <v>18433100</v>
       </c>
       <c r="J10" s="3">
-        <v>15877700</v>
+        <v>15890900</v>
       </c>
       <c r="K10" s="3">
         <v>14923100</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>314400</v>
+        <v>314700</v>
       </c>
       <c r="E14" s="3">
-        <v>-291600</v>
+        <v>-291900</v>
       </c>
       <c r="F14" s="3">
-        <v>1869000</v>
+        <v>1870500</v>
       </c>
       <c r="G14" s="3">
-        <v>96500</v>
+        <v>96600</v>
       </c>
       <c r="H14" s="3">
         <v>35800</v>
       </c>
       <c r="I14" s="3">
-        <v>281900</v>
+        <v>282100</v>
       </c>
       <c r="J14" s="3">
-        <v>189700</v>
+        <v>189900</v>
       </c>
       <c r="K14" s="3">
         <v>158200</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2467400</v>
+        <v>2469500</v>
       </c>
       <c r="E15" s="3">
-        <v>2449000</v>
+        <v>2451000</v>
       </c>
       <c r="F15" s="3">
-        <v>2776400</v>
+        <v>2778700</v>
       </c>
       <c r="G15" s="3">
-        <v>2918400</v>
+        <v>2920800</v>
       </c>
       <c r="H15" s="3">
-        <v>2364400</v>
+        <v>2366400</v>
       </c>
       <c r="I15" s="3">
-        <v>2210500</v>
+        <v>2212300</v>
       </c>
       <c r="J15" s="3">
-        <v>1719400</v>
+        <v>1720800</v>
       </c>
       <c r="K15" s="3">
         <v>1588400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34190300</v>
+        <v>34218700</v>
       </c>
       <c r="E17" s="3">
-        <v>20737700</v>
+        <v>20755000</v>
       </c>
       <c r="F17" s="3">
-        <v>22417000</v>
+        <v>22435600</v>
       </c>
       <c r="G17" s="3">
-        <v>37656200</v>
+        <v>37687500</v>
       </c>
       <c r="H17" s="3">
-        <v>35495600</v>
+        <v>35525100</v>
       </c>
       <c r="I17" s="3">
-        <v>35167100</v>
+        <v>35196300</v>
       </c>
       <c r="J17" s="3">
-        <v>31948400</v>
+        <v>31975000</v>
       </c>
       <c r="K17" s="3">
         <v>31135400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1335600</v>
+        <v>1336700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2512900</v>
+        <v>-2515000</v>
       </c>
       <c r="F18" s="3">
-        <v>-7685200</v>
+        <v>-7691600</v>
       </c>
       <c r="G18" s="3">
-        <v>1831000</v>
+        <v>1832600</v>
       </c>
       <c r="H18" s="3">
-        <v>3035500</v>
+        <v>3038000</v>
       </c>
       <c r="I18" s="3">
-        <v>3404100</v>
+        <v>3406900</v>
       </c>
       <c r="J18" s="3">
-        <v>2374200</v>
+        <v>2376200</v>
       </c>
       <c r="K18" s="3">
         <v>1587300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>234200</v>
+        <v>234400</v>
       </c>
       <c r="E20" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="F20" s="3">
-        <v>-1338900</v>
+        <v>-1340000</v>
       </c>
       <c r="G20" s="3">
-        <v>486800</v>
+        <v>487200</v>
       </c>
       <c r="H20" s="3">
         <v>98700</v>
       </c>
       <c r="I20" s="3">
-        <v>245000</v>
+        <v>245200</v>
       </c>
       <c r="J20" s="3">
-        <v>203800</v>
+        <v>204000</v>
       </c>
       <c r="K20" s="3">
         <v>648200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4249700</v>
+        <v>4252200</v>
       </c>
       <c r="E21" s="3">
-        <v>41200</v>
+        <v>40300</v>
       </c>
       <c r="F21" s="3">
-        <v>-4261600</v>
+        <v>-4266900</v>
       </c>
       <c r="G21" s="3">
-        <v>5286100</v>
+        <v>5289400</v>
       </c>
       <c r="H21" s="3">
-        <v>5495300</v>
+        <v>5499000</v>
       </c>
       <c r="I21" s="3">
-        <v>6142500</v>
+        <v>6146700</v>
       </c>
       <c r="J21" s="3">
-        <v>4491400</v>
+        <v>4494400</v>
       </c>
       <c r="K21" s="3">
         <v>3945400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>431500</v>
+        <v>431800</v>
       </c>
       <c r="E22" s="3">
-        <v>385900</v>
+        <v>386300</v>
       </c>
       <c r="F22" s="3">
-        <v>332800</v>
+        <v>333100</v>
       </c>
       <c r="G22" s="3">
-        <v>301400</v>
+        <v>301600</v>
       </c>
       <c r="H22" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="I22" s="3">
-        <v>225500</v>
+        <v>225700</v>
       </c>
       <c r="J22" s="3">
-        <v>140900</v>
+        <v>141100</v>
       </c>
       <c r="K22" s="3">
         <v>167400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1138300</v>
+        <v>1139300</v>
       </c>
       <c r="E23" s="3">
-        <v>-2825200</v>
+        <v>-2827500</v>
       </c>
       <c r="F23" s="3">
-        <v>-9356900</v>
+        <v>-9364600</v>
       </c>
       <c r="G23" s="3">
-        <v>2016400</v>
+        <v>2018100</v>
       </c>
       <c r="H23" s="3">
-        <v>3018100</v>
+        <v>3020600</v>
       </c>
       <c r="I23" s="3">
-        <v>3423600</v>
+        <v>3426400</v>
       </c>
       <c r="J23" s="3">
-        <v>2437100</v>
+        <v>2439100</v>
       </c>
       <c r="K23" s="3">
         <v>2068100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>266700</v>
+        <v>266900</v>
       </c>
       <c r="E24" s="3">
-        <v>-447700</v>
+        <v>-448100</v>
       </c>
       <c r="F24" s="3">
-        <v>-2021800</v>
+        <v>-2023500</v>
       </c>
       <c r="G24" s="3">
-        <v>666700</v>
+        <v>667300</v>
       </c>
       <c r="H24" s="3">
-        <v>637500</v>
+        <v>638000</v>
       </c>
       <c r="I24" s="3">
-        <v>849900</v>
+        <v>850600</v>
       </c>
       <c r="J24" s="3">
-        <v>482400</v>
+        <v>482800</v>
       </c>
       <c r="K24" s="3">
         <v>310300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>871600</v>
+        <v>872300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2377400</v>
+        <v>-2379400</v>
       </c>
       <c r="F26" s="3">
-        <v>-7335000</v>
+        <v>-7341100</v>
       </c>
       <c r="G26" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="H26" s="3">
-        <v>2380700</v>
+        <v>2382700</v>
       </c>
       <c r="I26" s="3">
-        <v>2573700</v>
+        <v>2575800</v>
       </c>
       <c r="J26" s="3">
-        <v>1954600</v>
+        <v>1956300</v>
       </c>
       <c r="K26" s="3">
         <v>1757800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>857500</v>
+        <v>858200</v>
       </c>
       <c r="E27" s="3">
-        <v>-2375300</v>
+        <v>-2377200</v>
       </c>
       <c r="F27" s="3">
-        <v>-7290600</v>
+        <v>-7296600</v>
       </c>
       <c r="G27" s="3">
-        <v>1315000</v>
+        <v>1316100</v>
       </c>
       <c r="H27" s="3">
-        <v>2344900</v>
+        <v>2346900</v>
       </c>
       <c r="I27" s="3">
-        <v>2536800</v>
+        <v>2538900</v>
       </c>
       <c r="J27" s="3">
-        <v>1925400</v>
+        <v>1927000</v>
       </c>
       <c r="K27" s="3">
         <v>1733300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-234200</v>
+        <v>-234400</v>
       </c>
       <c r="E32" s="3">
-        <v>-73700</v>
+        <v>-73800</v>
       </c>
       <c r="F32" s="3">
-        <v>1338900</v>
+        <v>1340000</v>
       </c>
       <c r="G32" s="3">
-        <v>-486800</v>
+        <v>-487200</v>
       </c>
       <c r="H32" s="3">
         <v>-98700</v>
       </c>
       <c r="I32" s="3">
-        <v>-245000</v>
+        <v>-245200</v>
       </c>
       <c r="J32" s="3">
-        <v>-203800</v>
+        <v>-204000</v>
       </c>
       <c r="K32" s="3">
         <v>-648200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>857500</v>
+        <v>858200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2375300</v>
+        <v>-2377200</v>
       </c>
       <c r="F33" s="3">
-        <v>-7290600</v>
+        <v>-7296600</v>
       </c>
       <c r="G33" s="3">
-        <v>1315000</v>
+        <v>1316100</v>
       </c>
       <c r="H33" s="3">
-        <v>2344900</v>
+        <v>2346900</v>
       </c>
       <c r="I33" s="3">
-        <v>2536800</v>
+        <v>2538900</v>
       </c>
       <c r="J33" s="3">
-        <v>1925400</v>
+        <v>1927000</v>
       </c>
       <c r="K33" s="3">
         <v>1733300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>857500</v>
+        <v>858200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2375300</v>
+        <v>-2377200</v>
       </c>
       <c r="F35" s="3">
-        <v>-7290600</v>
+        <v>-7296600</v>
       </c>
       <c r="G35" s="3">
-        <v>1315000</v>
+        <v>1316100</v>
       </c>
       <c r="H35" s="3">
-        <v>2344900</v>
+        <v>2346900</v>
       </c>
       <c r="I35" s="3">
-        <v>2536800</v>
+        <v>2538900</v>
       </c>
       <c r="J35" s="3">
-        <v>1925400</v>
+        <v>1927000</v>
       </c>
       <c r="K35" s="3">
         <v>1733300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1940500</v>
+        <v>1942100</v>
       </c>
       <c r="E41" s="3">
-        <v>2501000</v>
+        <v>2503100</v>
       </c>
       <c r="F41" s="3">
-        <v>1957900</v>
+        <v>1959500</v>
       </c>
       <c r="G41" s="3">
-        <v>1534000</v>
+        <v>1535300</v>
       </c>
       <c r="H41" s="3">
-        <v>1554600</v>
+        <v>1555900</v>
       </c>
       <c r="I41" s="3">
-        <v>1320400</v>
+        <v>1321500</v>
       </c>
       <c r="J41" s="3">
-        <v>1233700</v>
+        <v>1234700</v>
       </c>
       <c r="K41" s="3">
         <v>1016700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7058600</v>
+        <v>7064400</v>
       </c>
       <c r="E42" s="3">
-        <v>5809700</v>
+        <v>5814500</v>
       </c>
       <c r="F42" s="3">
-        <v>3961300</v>
+        <v>3964600</v>
       </c>
       <c r="G42" s="3">
-        <v>2135700</v>
+        <v>2137400</v>
       </c>
       <c r="H42" s="3">
-        <v>1952500</v>
+        <v>1954100</v>
       </c>
       <c r="I42" s="3">
-        <v>2959600</v>
+        <v>2962000</v>
       </c>
       <c r="J42" s="3">
-        <v>3034400</v>
+        <v>3036900</v>
       </c>
       <c r="K42" s="3">
         <v>2140600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5068200</v>
+        <v>5072400</v>
       </c>
       <c r="E43" s="3">
-        <v>4460000</v>
+        <v>4463700</v>
       </c>
       <c r="F43" s="3">
-        <v>3541800</v>
+        <v>3544700</v>
       </c>
       <c r="G43" s="3">
-        <v>6338700</v>
+        <v>6344000</v>
       </c>
       <c r="H43" s="3">
-        <v>6361500</v>
+        <v>6366800</v>
       </c>
       <c r="I43" s="3">
-        <v>5822700</v>
+        <v>5827500</v>
       </c>
       <c r="J43" s="3">
-        <v>4994400</v>
+        <v>4998600</v>
       </c>
       <c r="K43" s="3">
         <v>4567100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>880300</v>
+        <v>881000</v>
       </c>
       <c r="E44" s="3">
-        <v>731800</v>
+        <v>732400</v>
       </c>
       <c r="F44" s="3">
-        <v>787100</v>
+        <v>787700</v>
       </c>
       <c r="G44" s="3">
-        <v>1062400</v>
+        <v>1063300</v>
       </c>
       <c r="H44" s="3">
-        <v>1049400</v>
+        <v>1050300</v>
       </c>
       <c r="I44" s="3">
-        <v>983300</v>
+        <v>984100</v>
       </c>
       <c r="J44" s="3">
-        <v>884600</v>
+        <v>885400</v>
       </c>
       <c r="K44" s="3">
         <v>776800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1590400</v>
+        <v>1591700</v>
       </c>
       <c r="E45" s="3">
-        <v>1105800</v>
+        <v>1106700</v>
       </c>
       <c r="F45" s="3">
-        <v>636400</v>
+        <v>636900</v>
       </c>
       <c r="G45" s="3">
-        <v>1163200</v>
+        <v>1164200</v>
       </c>
       <c r="H45" s="3">
-        <v>632000</v>
+        <v>632600</v>
       </c>
       <c r="I45" s="3">
-        <v>870500</v>
+        <v>871300</v>
       </c>
       <c r="J45" s="3">
-        <v>903100</v>
+        <v>903800</v>
       </c>
       <c r="K45" s="3">
         <v>620600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16537900</v>
+        <v>16551700</v>
       </c>
       <c r="E46" s="3">
-        <v>14608200</v>
+        <v>14620400</v>
       </c>
       <c r="F46" s="3">
-        <v>10884400</v>
+        <v>10893400</v>
       </c>
       <c r="G46" s="3">
-        <v>12234100</v>
+        <v>12244200</v>
       </c>
       <c r="H46" s="3">
-        <v>11550000</v>
+        <v>11559600</v>
       </c>
       <c r="I46" s="3">
-        <v>11956500</v>
+        <v>11966500</v>
       </c>
       <c r="J46" s="3">
-        <v>11050200</v>
+        <v>11059400</v>
       </c>
       <c r="K46" s="3">
         <v>9121900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1367100</v>
+        <v>1368200</v>
       </c>
       <c r="E47" s="3">
-        <v>1416900</v>
+        <v>1418100</v>
       </c>
       <c r="F47" s="3">
-        <v>1282500</v>
+        <v>1283600</v>
       </c>
       <c r="G47" s="3">
-        <v>1606600</v>
+        <v>1608000</v>
       </c>
       <c r="H47" s="3">
-        <v>1581700</v>
+        <v>1583000</v>
       </c>
       <c r="I47" s="3">
-        <v>1436400</v>
+        <v>1437600</v>
       </c>
       <c r="J47" s="3">
-        <v>1374600</v>
+        <v>1375800</v>
       </c>
       <c r="K47" s="3">
         <v>1297400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20837500</v>
+        <v>20854800</v>
       </c>
       <c r="E48" s="3">
-        <v>20242300</v>
+        <v>20259100</v>
       </c>
       <c r="F48" s="3">
-        <v>21154000</v>
+        <v>21171600</v>
       </c>
       <c r="G48" s="3">
-        <v>24273000</v>
+        <v>24293100</v>
       </c>
       <c r="H48" s="3">
-        <v>20594600</v>
+        <v>20611700</v>
       </c>
       <c r="I48" s="3">
-        <v>18993400</v>
+        <v>19009200</v>
       </c>
       <c r="J48" s="3">
-        <v>18426400</v>
+        <v>18441700</v>
       </c>
       <c r="K48" s="3">
         <v>17112700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1548100</v>
+        <v>1549400</v>
       </c>
       <c r="E49" s="3">
-        <v>1743200</v>
+        <v>1744700</v>
       </c>
       <c r="F49" s="3">
-        <v>1775800</v>
+        <v>1777200</v>
       </c>
       <c r="G49" s="3">
-        <v>2105300</v>
+        <v>2107100</v>
       </c>
       <c r="H49" s="3">
-        <v>2052200</v>
+        <v>2053900</v>
       </c>
       <c r="I49" s="3">
-        <v>1989300</v>
+        <v>1991000</v>
       </c>
       <c r="J49" s="3">
-        <v>1883100</v>
+        <v>1884600</v>
       </c>
       <c r="K49" s="3">
         <v>1691500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6688900</v>
+        <v>6694400</v>
       </c>
       <c r="E52" s="3">
-        <v>8104700</v>
+        <v>8111500</v>
       </c>
       <c r="F52" s="3">
-        <v>7708000</v>
+        <v>7714300</v>
       </c>
       <c r="G52" s="3">
-        <v>6027600</v>
+        <v>6032600</v>
       </c>
       <c r="H52" s="3">
-        <v>5648200</v>
+        <v>5652800</v>
       </c>
       <c r="I52" s="3">
-        <v>4412300</v>
+        <v>4415900</v>
       </c>
       <c r="J52" s="3">
-        <v>4880600</v>
+        <v>4884700</v>
       </c>
       <c r="K52" s="3">
         <v>3913700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46979500</v>
+        <v>47018500</v>
       </c>
       <c r="E54" s="3">
-        <v>46115400</v>
+        <v>46153700</v>
       </c>
       <c r="F54" s="3">
-        <v>42804600</v>
+        <v>42840100</v>
       </c>
       <c r="G54" s="3">
-        <v>46246600</v>
+        <v>46285000</v>
       </c>
       <c r="H54" s="3">
-        <v>41426700</v>
+        <v>41461100</v>
       </c>
       <c r="I54" s="3">
-        <v>38786900</v>
+        <v>38819100</v>
       </c>
       <c r="J54" s="3">
-        <v>37615000</v>
+        <v>37646200</v>
       </c>
       <c r="K54" s="3">
         <v>33137200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4380800</v>
+        <v>4384500</v>
       </c>
       <c r="E57" s="3">
-        <v>3123300</v>
+        <v>3125900</v>
       </c>
       <c r="F57" s="3">
-        <v>2262500</v>
+        <v>2264400</v>
       </c>
       <c r="G57" s="3">
-        <v>4035000</v>
+        <v>4038400</v>
       </c>
       <c r="H57" s="3">
-        <v>4241000</v>
+        <v>4244500</v>
       </c>
       <c r="I57" s="3">
-        <v>3719500</v>
+        <v>3722600</v>
       </c>
       <c r="J57" s="3">
-        <v>3324900</v>
+        <v>3327700</v>
       </c>
       <c r="K57" s="3">
         <v>3009300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2062000</v>
+        <v>2063700</v>
       </c>
       <c r="E58" s="3">
-        <v>1786600</v>
+        <v>1788100</v>
       </c>
       <c r="F58" s="3">
-        <v>3393200</v>
+        <v>3396000</v>
       </c>
       <c r="G58" s="3">
-        <v>1789800</v>
+        <v>1791300</v>
       </c>
       <c r="H58" s="3">
-        <v>1860300</v>
+        <v>1861900</v>
       </c>
       <c r="I58" s="3">
-        <v>748000</v>
+        <v>748600</v>
       </c>
       <c r="J58" s="3">
-        <v>896600</v>
+        <v>897300</v>
       </c>
       <c r="K58" s="3">
         <v>1438300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12754400</v>
+        <v>12765000</v>
       </c>
       <c r="E59" s="3">
-        <v>11006900</v>
+        <v>11016000</v>
       </c>
       <c r="F59" s="3">
-        <v>10236100</v>
+        <v>10244600</v>
       </c>
       <c r="G59" s="3">
-        <v>11505600</v>
+        <v>11515100</v>
       </c>
       <c r="H59" s="3">
-        <v>11477400</v>
+        <v>11486900</v>
       </c>
       <c r="I59" s="3">
-        <v>9233300</v>
+        <v>9240900</v>
       </c>
       <c r="J59" s="3">
-        <v>7713400</v>
+        <v>7719800</v>
       </c>
       <c r="K59" s="3">
         <v>8248100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19197200</v>
+        <v>19213200</v>
       </c>
       <c r="E60" s="3">
-        <v>15916800</v>
+        <v>15930000</v>
       </c>
       <c r="F60" s="3">
-        <v>15891800</v>
+        <v>15905000</v>
       </c>
       <c r="G60" s="3">
-        <v>17330400</v>
+        <v>17344800</v>
       </c>
       <c r="H60" s="3">
-        <v>17578700</v>
+        <v>17593300</v>
       </c>
       <c r="I60" s="3">
-        <v>13700900</v>
+        <v>13712200</v>
       </c>
       <c r="J60" s="3">
-        <v>11934900</v>
+        <v>11944800</v>
       </c>
       <c r="K60" s="3">
         <v>12695700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14386000</v>
+        <v>14397900</v>
       </c>
       <c r="E61" s="3">
-        <v>16305900</v>
+        <v>16319500</v>
       </c>
       <c r="F61" s="3">
-        <v>13282400</v>
+        <v>13293400</v>
       </c>
       <c r="G61" s="3">
-        <v>9102100</v>
+        <v>9109700</v>
       </c>
       <c r="H61" s="3">
-        <v>5429200</v>
+        <v>5433700</v>
       </c>
       <c r="I61" s="3">
-        <v>6658500</v>
+        <v>6664100</v>
       </c>
       <c r="J61" s="3">
-        <v>6299700</v>
+        <v>6304900</v>
       </c>
       <c r="K61" s="3">
         <v>5135600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4209600</v>
+        <v>4213100</v>
       </c>
       <c r="E62" s="3">
-        <v>9025100</v>
+        <v>9032600</v>
       </c>
       <c r="F62" s="3">
-        <v>12126700</v>
+        <v>12136800</v>
       </c>
       <c r="G62" s="3">
-        <v>8695600</v>
+        <v>8702800</v>
       </c>
       <c r="H62" s="3">
-        <v>8040800</v>
+        <v>8047400</v>
       </c>
       <c r="I62" s="3">
-        <v>8551400</v>
+        <v>8558500</v>
       </c>
       <c r="J62" s="3">
-        <v>11630200</v>
+        <v>11639900</v>
       </c>
       <c r="K62" s="3">
         <v>9339300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37867600</v>
+        <v>37899000</v>
       </c>
       <c r="E66" s="3">
-        <v>41291200</v>
+        <v>41325500</v>
       </c>
       <c r="F66" s="3">
-        <v>41344300</v>
+        <v>41378600</v>
       </c>
       <c r="G66" s="3">
-        <v>35246300</v>
+        <v>35275500</v>
       </c>
       <c r="H66" s="3">
-        <v>31167900</v>
+        <v>31193800</v>
       </c>
       <c r="I66" s="3">
-        <v>29022400</v>
+        <v>29046500</v>
       </c>
       <c r="J66" s="3">
-        <v>29961300</v>
+        <v>29986100</v>
       </c>
       <c r="K66" s="3">
         <v>27249200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3474500</v>
+        <v>3477400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1449400</v>
+        <v>-1450600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1624000</v>
+        <v>-1625300</v>
       </c>
       <c r="G72" s="3">
-        <v>7786000</v>
+        <v>7792500</v>
       </c>
       <c r="H72" s="3">
-        <v>7634200</v>
+        <v>7640600</v>
       </c>
       <c r="I72" s="3">
-        <v>6927400</v>
+        <v>6933100</v>
       </c>
       <c r="J72" s="3">
-        <v>3958000</v>
+        <v>3961300</v>
       </c>
       <c r="K72" s="3">
         <v>3703500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9111900</v>
+        <v>9119400</v>
       </c>
       <c r="E76" s="3">
-        <v>4824200</v>
+        <v>4828300</v>
       </c>
       <c r="F76" s="3">
-        <v>1460300</v>
+        <v>1461500</v>
       </c>
       <c r="G76" s="3">
-        <v>11000400</v>
+        <v>11009500</v>
       </c>
       <c r="H76" s="3">
-        <v>10258800</v>
+        <v>10267400</v>
       </c>
       <c r="I76" s="3">
-        <v>9764500</v>
+        <v>9772600</v>
       </c>
       <c r="J76" s="3">
-        <v>7653700</v>
+        <v>7660100</v>
       </c>
       <c r="K76" s="3">
         <v>5888000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>857500</v>
+        <v>858200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2375300</v>
+        <v>-2377200</v>
       </c>
       <c r="F81" s="3">
-        <v>-7290600</v>
+        <v>-7296600</v>
       </c>
       <c r="G81" s="3">
-        <v>1315000</v>
+        <v>1316100</v>
       </c>
       <c r="H81" s="3">
-        <v>2344900</v>
+        <v>2346900</v>
       </c>
       <c r="I81" s="3">
-        <v>2536800</v>
+        <v>2538900</v>
       </c>
       <c r="J81" s="3">
-        <v>1925400</v>
+        <v>1927000</v>
       </c>
       <c r="K81" s="3">
         <v>1733300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2679900</v>
+        <v>2682100</v>
       </c>
       <c r="E83" s="3">
-        <v>2480400</v>
+        <v>2482500</v>
       </c>
       <c r="F83" s="3">
-        <v>4762500</v>
+        <v>4766400</v>
       </c>
       <c r="G83" s="3">
-        <v>2968300</v>
+        <v>2970700</v>
       </c>
       <c r="H83" s="3">
-        <v>2361200</v>
+        <v>2363100</v>
       </c>
       <c r="I83" s="3">
-        <v>2493400</v>
+        <v>2495500</v>
       </c>
       <c r="J83" s="3">
-        <v>1913400</v>
+        <v>1915000</v>
       </c>
       <c r="K83" s="3">
         <v>1743500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5602600</v>
+        <v>5607300</v>
       </c>
       <c r="E89" s="3">
-        <v>432600</v>
+        <v>432900</v>
       </c>
       <c r="F89" s="3">
-        <v>-2523800</v>
+        <v>-2525900</v>
       </c>
       <c r="G89" s="3">
-        <v>4351600</v>
+        <v>4355200</v>
       </c>
       <c r="H89" s="3">
-        <v>4454600</v>
+        <v>4458300</v>
       </c>
       <c r="I89" s="3">
-        <v>5819400</v>
+        <v>5824300</v>
       </c>
       <c r="J89" s="3">
-        <v>3519000</v>
+        <v>3521900</v>
       </c>
       <c r="K89" s="3">
         <v>3463600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2563900</v>
+        <v>-2566000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1428800</v>
+        <v>-1430000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1354000</v>
+        <v>-1355200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3779200</v>
+        <v>-3782300</v>
       </c>
       <c r="H91" s="3">
-        <v>-4020900</v>
+        <v>-4024300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3618700</v>
+        <v>-3621700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2341700</v>
+        <v>-2343600</v>
       </c>
       <c r="K91" s="3">
         <v>-2505000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3730400</v>
+        <v>-3733500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3040900</v>
+        <v>-3043400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2539000</v>
+        <v>-2541100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4192200</v>
+        <v>-4195700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3543900</v>
+        <v>-3546900</v>
       </c>
       <c r="I94" s="3">
-        <v>-5427000</v>
+        <v>-5431500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3066900</v>
+        <v>-3069500</v>
       </c>
       <c r="K94" s="3">
         <v>-3341100</v>
@@ -4006,16 +4006,16 @@
         <v>-22800</v>
       </c>
       <c r="G96" s="3">
-        <v>-448800</v>
+        <v>-449200</v>
       </c>
       <c r="H96" s="3">
-        <v>-378400</v>
+        <v>-378700</v>
       </c>
       <c r="I96" s="3">
-        <v>-251500</v>
+        <v>-251700</v>
       </c>
       <c r="J96" s="3">
-        <v>-252600</v>
+        <v>-252800</v>
       </c>
       <c r="K96" s="3">
         <v>-14300</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2456600</v>
+        <v>-2458600</v>
       </c>
       <c r="E100" s="3">
-        <v>3115700</v>
+        <v>3118300</v>
       </c>
       <c r="F100" s="3">
-        <v>5502900</v>
+        <v>5507500</v>
       </c>
       <c r="G100" s="3">
-        <v>-174500</v>
+        <v>-174700</v>
       </c>
       <c r="H100" s="3">
-        <v>-678600</v>
+        <v>-679200</v>
       </c>
       <c r="I100" s="3">
-        <v>-265600</v>
+        <v>-265800</v>
       </c>
       <c r="J100" s="3">
-        <v>-294900</v>
+        <v>-295100</v>
       </c>
       <c r="K100" s="3">
         <v>26500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-564800</v>
+        <v>-565300</v>
       </c>
       <c r="E102" s="3">
-        <v>543100</v>
+        <v>543600</v>
       </c>
       <c r="F102" s="3">
-        <v>404400</v>
+        <v>404700</v>
       </c>
       <c r="G102" s="3">
         <v>-20600</v>
       </c>
       <c r="H102" s="3">
-        <v>234200</v>
+        <v>234400</v>
       </c>
       <c r="I102" s="3">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="J102" s="3">
-        <v>153900</v>
+        <v>154100</v>
       </c>
       <c r="K102" s="3">
         <v>171500</v>
